--- a/src/assets/Excel-FFMM.xlsx
+++ b/src/assets/Excel-FFMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\practicantecomercial\FFMM-backend\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C2CF13-D4F5-4451-B364-D05335AE91DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C5E107-6C47-45B1-9EAB-7A5CA19F3D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8B08BC30-49CD-40DC-BE07-9829148F593A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="299">
   <si>
     <t>Administradora</t>
   </si>
@@ -917,9 +917,6 @@
     <t>Link reglamento</t>
   </si>
   <si>
-    <t>Link Ficha</t>
-  </si>
-  <si>
     <t>Link invertir</t>
   </si>
   <si>
@@ -933,6 +930,9 @@
   </si>
   <si>
     <t>Alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1081,13 +1081,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1437,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF36D9E-32F4-46A1-965F-BE2737EE5B1F}">
   <dimension ref="A1:N278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,29 +1461,29 @@
       <c r="F1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>247</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1506,20 +1505,20 @@
       <c r="F2" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>0.78291340300000001</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>9.555261587000001E-2</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>0.11654993268</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
       </c>
       <c r="K2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1541,24 +1540,26 @@
       <c r="F3" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>-3.1899229579999999</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>0.12390686872999999</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>-5.7581081499999999E-3</v>
       </c>
       <c r="J3" t="s">
         <v>282</v>
       </c>
       <c r="K3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
@@ -1570,24 +1571,26 @@
       <c r="F4" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>0</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>0</v>
       </c>
       <c r="J4" t="e">
         <v>#N/A</v>
       </c>
       <c r="K4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1603,24 +1606,26 @@
       <c r="F5" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>-3.6162850280000001</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>9.6814647049999994E-2</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>-6.4506289599999996E-3</v>
       </c>
-      <c r="J5" s="13" t="e">
+      <c r="J5" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
@@ -1632,24 +1637,26 @@
       <c r="F6" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>-3.5691282089999996</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0.10226411938</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>-5.2060096000000004E-4</v>
       </c>
       <c r="J6" t="e">
         <v>#N/A</v>
       </c>
       <c r="K6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1665,24 +1672,26 @@
       <c r="F7" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>-7.5402806240000011</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>4.9139918100000006E-3</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>1.1781037960000001E-2</v>
       </c>
       <c r="J7" t="s">
         <v>282</v>
       </c>
       <c r="K7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
@@ -1694,24 +1703,26 @@
       <c r="F8" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>-7.4905279440000001</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>1.0405769909999999E-2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>1.8423388860000001E-2</v>
       </c>
       <c r="J8" t="e">
         <v>#N/A</v>
       </c>
       <c r="K8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
@@ -1723,24 +1734,26 @@
       <c r="F9" t="s">
         <v>252</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>-7.2658509799999997</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>0</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>0</v>
       </c>
       <c r="J9" t="e">
         <v>#N/A</v>
       </c>
       <c r="K9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
@@ -1752,24 +1765,26 @@
       <c r="F10" t="s">
         <v>252</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>-7.341101311000001</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>0</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>0</v>
       </c>
       <c r="J10" t="e">
         <v>#N/A</v>
       </c>
       <c r="K10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1785,24 +1800,26 @@
       <c r="F11" t="s">
         <v>254</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>-0.17398794100000001</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>5.5519359509999998E-2</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>3.7909192289999998E-2</v>
       </c>
       <c r="J11" t="s">
         <v>283</v>
       </c>
       <c r="K11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
@@ -1814,24 +1831,26 @@
       <c r="F12" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>-0.14577844700000001</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>5.9927584569999998E-2</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>4.3061221630000007E-2</v>
       </c>
       <c r="J12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1847,24 +1866,26 @@
       <c r="F13" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>-0.95416611900000003</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>5.9146682019999994E-2</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>3.2173748350000003E-2</v>
       </c>
       <c r="J13" t="s">
         <v>283</v>
       </c>
       <c r="K13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1880,24 +1901,26 @@
       <c r="F14" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>0.68398770399999997</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>8.5562509270000003E-2</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>0.10479354931</v>
       </c>
       <c r="J14" t="s">
         <v>284</v>
       </c>
       <c r="K14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1913,24 +1936,26 @@
       <c r="F15" t="s">
         <v>256</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>-3.1042587070000001</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>7.0531387149999999E-2</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>-9.8752576479999993E-2</v>
       </c>
       <c r="J15" t="s">
         <v>285</v>
       </c>
       <c r="K15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1946,24 +1971,26 @@
       <c r="F16" t="s">
         <v>257</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>-3.1213261179999998</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>-2.043279537E-2</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>-1.015102253E-2</v>
       </c>
-      <c r="J16" s="13" t="e">
+      <c r="J16" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
@@ -1975,24 +2002,26 @@
       <c r="F17" t="s">
         <v>257</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>-3.0881495170000002</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>-1.7028660460000001E-2</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>-6.0198655499999996E-3</v>
       </c>
       <c r="J17" t="e">
         <v>#N/A</v>
       </c>
       <c r="K17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2008,24 +2037,26 @@
       <c r="F18" t="s">
         <v>258</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>-3.7007031840000004</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>3.599474012E-2</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>-3.5253787789999998E-2</v>
       </c>
-      <c r="J18" s="13" t="e">
+      <c r="J18" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
@@ -2037,24 +2068,26 @@
       <c r="F19" t="s">
         <v>258</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>-3.6535889199999998</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>4.1142029100000005E-2</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>-2.9495608880000003E-2</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
       </c>
       <c r="K19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
@@ -2070,24 +2103,26 @@
       <c r="F20" t="s">
         <v>259</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>-3.9025141940000001</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>-3.7418948119999997E-2</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>-2.5004744080000002E-2</v>
       </c>
-      <c r="J20" s="13" t="e">
+      <c r="J20" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
@@ -2099,24 +2134,26 @@
       <c r="F21" t="s">
         <v>259</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>-3.8555044650000001</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>-3.263552317E-2</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>-1.9184764980000001E-2</v>
       </c>
       <c r="J21" t="e">
         <v>#N/A</v>
       </c>
       <c r="K21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
@@ -2132,24 +2169,26 @@
       <c r="F22" t="s">
         <v>260</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>0.80588387199999989</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>9.1011650740000005E-2</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>2.9462813700000001E-3</v>
       </c>
       <c r="J22" t="s">
         <v>284</v>
       </c>
       <c r="K22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
@@ -2161,24 +2200,26 @@
       <c r="F23" t="s">
         <v>260</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>0.846356514</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>9.4949127670000008E-2</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>7.1077073799999998E-3</v>
       </c>
       <c r="J23" t="e">
         <v>#N/A</v>
       </c>
       <c r="K23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
@@ -2194,24 +2235,26 @@
       <c r="F24" t="s">
         <v>261</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>0.48299649599999994</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>7.2490623919999997E-2</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <v>8.8900620629999996E-2</v>
       </c>
       <c r="J24" t="s">
         <v>284</v>
       </c>
       <c r="K24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2" t="s">
@@ -2223,24 +2266,26 @@
       <c r="F25" t="s">
         <v>261</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>0.50265797899999998</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>7.4618472630000002E-2</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>9.1495412960000008E-2</v>
       </c>
       <c r="J25" t="e">
         <v>#N/A</v>
       </c>
       <c r="K25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
@@ -2256,24 +2301,26 @@
       <c r="F26" t="s">
         <v>262</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>-0.38794980600000001</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>-4.9233988999999997E-4</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>3.2313486010000003E-2</v>
       </c>
       <c r="J26" t="s">
         <v>284</v>
       </c>
       <c r="K26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -2285,24 +2332,26 @@
       <c r="F27" t="s">
         <v>262</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>-0.368466348</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>1.49126909E-3</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>3.477370749E-2</v>
       </c>
       <c r="J27" t="e">
         <v>#N/A</v>
       </c>
       <c r="K27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
@@ -2318,24 +2367,26 @@
       <c r="F28" t="s">
         <v>263</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>-0.92671776800000005</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>2.7476290699999999E-3</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <v>3.99793617E-2</v>
       </c>
       <c r="J28" t="s">
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
@@ -2347,24 +2398,26 @@
       <c r="F29" t="s">
         <v>263</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <v>-0.89764271600000001</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>5.7337616800000003E-3</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <v>4.3698795259999999E-2</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
       </c>
       <c r="K29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
@@ -2380,24 +2433,26 @@
       <c r="F30" t="s">
         <v>264</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <v>-6.8914305120000003</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>9.065597798000001E-2</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <v>9.4244061099999998E-2</v>
       </c>
       <c r="J30" t="s">
         <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>43</v>
       </c>
@@ -2413,24 +2468,26 @@
       <c r="F31" t="s">
         <v>265</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <v>-15.902065528000001</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>654.06958104703995</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <v>586.83575271939003</v>
       </c>
-      <c r="J31" s="13" t="e">
+      <c r="J31" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
@@ -2446,24 +2503,26 @@
       <c r="F32" t="s">
         <v>266</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <v>0.23734716599999997</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>6.1665721519999994E-2</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <v>0</v>
       </c>
       <c r="J32" t="e">
         <v>#N/A</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
@@ -2479,24 +2538,26 @@
       <c r="F33" t="s">
         <v>266</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <v>0.74134419299999998</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>8.2789206759999998E-2</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <v>1.1236232699999999E-2</v>
       </c>
-      <c r="J33" s="13" t="e">
+      <c r="J33" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
@@ -2512,24 +2573,26 @@
       <c r="F34" t="s">
         <v>266</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <v>0.48284586000000002</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>5.2132946679999993E-2</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>0</v>
       </c>
-      <c r="J34" s="13" t="e">
+      <c r="J34" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
@@ -2545,24 +2608,26 @@
       <c r="F35" t="s">
         <v>249</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <v>0</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>0</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <v>0</v>
       </c>
-      <c r="J35" s="13" t="e">
+      <c r="J35" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
@@ -2578,24 +2643,26 @@
       <c r="F36" t="s">
         <v>267</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <v>-3.1644879629999996</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>3.52104637E-2</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <v>-6.3106847600000009E-3</v>
       </c>
-      <c r="J36" s="13" t="e">
+      <c r="J36" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="2" t="s">
@@ -2607,24 +2674,26 @@
       <c r="F37" t="s">
         <v>267</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <v>-3.1313183750000002</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>3.8809444659999998E-2</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <v>-2.1618663099999998E-3</v>
       </c>
       <c r="J37" t="e">
         <v>#N/A</v>
       </c>
       <c r="K37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
@@ -2640,24 +2709,26 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <v>-2.2162520419999998</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>-4.124841731E-2</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <v>-1.3248447199999999E-3</v>
       </c>
-      <c r="J38" s="13" t="e">
+      <c r="J38" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
@@ -2669,24 +2740,26 @@
       <c r="F39" t="s">
         <v>268</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>-2.182804483</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>-3.7916961370000002E-2</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <v>2.84304082E-3</v>
       </c>
       <c r="J39" t="e">
         <v>#N/A</v>
       </c>
       <c r="K39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>57</v>
       </c>
@@ -2702,24 +2775,26 @@
       <c r="F40" t="s">
         <v>266</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <v>0.51741350600000002</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>0</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <v>0</v>
       </c>
-      <c r="J40" s="13" t="e">
+      <c r="J40" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>59</v>
       </c>
@@ -2735,24 +2810,26 @@
       <c r="F41" t="s">
         <v>266</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="11">
         <v>0.52065847499999995</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>0</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <v>0</v>
       </c>
-      <c r="J41" s="13" t="e">
+      <c r="J41" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>61</v>
       </c>
@@ -2768,24 +2845,26 @@
       <c r="F42" t="s">
         <v>266</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="11">
         <v>0.85581534699999995</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="11">
         <v>8.290194599999999E-2</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <v>9.6554297469999995E-2</v>
       </c>
-      <c r="J42" s="13" t="e">
+      <c r="J42" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>63</v>
       </c>
@@ -2801,24 +2880,26 @@
       <c r="F43" t="s">
         <v>266</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="11">
         <v>0.81244524200000012</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="11">
         <v>7.8843081990000008E-2</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <v>9.1737431549999998E-2</v>
       </c>
-      <c r="J43" s="13" t="e">
+      <c r="J43" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B44" s="3" t="s">
         <v>65</v>
       </c>
@@ -2834,24 +2915,26 @@
       <c r="F44" t="s">
         <v>266</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <v>0.62363873700000005</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <v>7.0385903740000005E-2</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <v>8.8927616930000009E-2</v>
       </c>
-      <c r="J44" s="13" t="e">
+      <c r="J44" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>67</v>
       </c>
@@ -2867,24 +2950,26 @@
       <c r="F45" t="s">
         <v>269</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <v>-0.39924072399999999</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>2.9693389579999997E-2</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <v>4.5467935080000001E-2</v>
       </c>
-      <c r="J45" s="13" t="e">
+      <c r="J45" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>69</v>
       </c>
@@ -2900,24 +2985,26 @@
       <c r="F46" t="s">
         <v>269</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <v>-2.414251422</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>5.5285200799999996E-2</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <v>7.2075270070000003E-2</v>
       </c>
-      <c r="J46" s="13" t="e">
+      <c r="J46" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>71</v>
       </c>
@@ -2933,24 +3020,26 @@
       <c r="F47" t="s">
         <v>269</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <v>-0.89748235300000001</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <v>6.3292262370000005E-2</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <v>9.0489289720000005E-2</v>
       </c>
-      <c r="J47" s="13" t="e">
+      <c r="J47" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>73</v>
       </c>
@@ -2966,24 +3055,26 @@
       <c r="F48" t="s">
         <v>270</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <v>0</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <v>0</v>
       </c>
-      <c r="J48" s="13" t="e">
+      <c r="J48" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>75</v>
       </c>
@@ -2999,24 +3090,26 @@
       <c r="F49" t="s">
         <v>271</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <v>-1.059661387</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <v>-1.5203467090000001E-2</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="11">
         <v>2.5875359530000003E-2</v>
       </c>
       <c r="J49" t="s">
         <v>284</v>
       </c>
       <c r="K49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="2" t="s">
@@ -3028,24 +3121,26 @@
       <c r="F50" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="11">
         <v>-1.030634474</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="11">
         <v>-1.227099263E-2</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <v>2.9544185889999998E-2</v>
       </c>
       <c r="J50" t="e">
         <v>#N/A</v>
       </c>
       <c r="K50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B51" s="3" t="s">
         <v>77</v>
       </c>
@@ -3061,24 +3156,26 @@
       <c r="F51" t="s">
         <v>272</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>-0.80525460100000001</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>4.4477124260000001E-2</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="11">
         <v>-1.8318253369999999E-2</v>
       </c>
-      <c r="J51" s="13" t="e">
+      <c r="J51" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="2" t="s">
@@ -3090,24 +3187,26 @@
       <c r="F52" t="s">
         <v>272</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <v>-0.776517448</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <v>4.746850557E-2</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="11">
         <v>-1.499588208E-2</v>
       </c>
       <c r="J52" t="e">
         <v>#N/A</v>
       </c>
       <c r="K52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B53" s="3" t="s">
         <v>79</v>
       </c>
@@ -3123,24 +3222,26 @@
       <c r="F53" t="s">
         <v>273</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="11">
         <v>-0.39358991999999998</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="11">
         <v>1.3617564010000001E-2</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="11">
         <v>4.2082194729999994E-2</v>
       </c>
       <c r="J53" t="s">
         <v>284</v>
       </c>
       <c r="K53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="2" t="s">
@@ -3152,20 +3253,20 @@
       <c r="F54" t="s">
         <v>273</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <v>-0.36436445099999998</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="11">
         <v>1.6635794660000001E-2</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="11">
         <v>4.5808825239999997E-2</v>
       </c>
       <c r="J54" t="e">
         <v>#N/A</v>
       </c>
       <c r="K54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3187,21 +3288,23 @@
       <c r="F55" t="s">
         <v>252</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <v>-6.7274064879999997</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>5.2032584860000002E-2</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="11">
         <v>0.11100352045999999</v>
       </c>
       <c r="K55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="2" t="s">
@@ -3213,24 +3316,26 @@
       <c r="F56" t="s">
         <v>252</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <v>-6.6544017329999994</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <v>6.1263664560000007E-2</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="11">
         <v>0.12253614903000001</v>
       </c>
       <c r="J56" t="e">
         <v>#N/A</v>
       </c>
       <c r="K56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="2" t="s">
@@ -3242,24 +3347,26 @@
       <c r="F57" t="s">
         <v>252</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <v>-6.6361415590000004</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>6.2508001090000001E-2</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="11">
         <v>0.12429806514</v>
       </c>
       <c r="J57" t="e">
         <v>#N/A</v>
       </c>
       <c r="K57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>85</v>
       </c>
@@ -3275,24 +3382,26 @@
       <c r="F58" t="s">
         <v>261</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <v>0.32153354499999998</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>6.5327933769999999E-2</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="11">
         <v>7.7448175319999993E-2</v>
       </c>
       <c r="J58" t="e">
         <v>#N/A</v>
       </c>
       <c r="K58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="2" t="s">
@@ -3304,24 +3413,26 @@
       <c r="F59" t="s">
         <v>261</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>0.34116913399999999</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>6.7441921919999995E-2</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="11">
         <v>8.0015711379999993E-2</v>
       </c>
       <c r="J59" t="e">
         <v>#N/A</v>
       </c>
       <c r="K59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>87</v>
       </c>
@@ -3337,24 +3448,26 @@
       <c r="F60" t="s">
         <v>261</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <v>0.28941560399999999</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <v>6.5876908439999993E-2</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="11">
         <v>7.8085378299999994E-2</v>
       </c>
       <c r="J60" t="e">
         <v>#N/A</v>
       </c>
       <c r="K60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>89</v>
       </c>
@@ -3370,24 +3483,26 @@
       <c r="F61" t="s">
         <v>249</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <v>0.67040650199999996</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <v>0</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="11">
         <v>0</v>
       </c>
       <c r="J61" t="e">
         <v>#N/A</v>
       </c>
       <c r="K61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B62" s="3" t="s">
         <v>92</v>
       </c>
@@ -3403,24 +3518,26 @@
       <c r="F62" t="s">
         <v>262</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="11">
         <v>-1.1205856700000001</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="11">
         <v>-2.1660104289999999E-2</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="11">
         <v>3.6104556490000002E-2</v>
       </c>
       <c r="J62" t="e">
         <v>#N/A</v>
       </c>
       <c r="K62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="2" t="s">
@@ -3432,24 +3549,26 @@
       <c r="F63" t="s">
         <v>262</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <v>-1.0712368910000001</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>-1.658135744E-2</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="11">
         <v>4.2540339960000007E-2</v>
       </c>
       <c r="J63" t="e">
         <v>#N/A</v>
       </c>
       <c r="K63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>94</v>
       </c>
@@ -3465,24 +3584,26 @@
       <c r="F64" t="s">
         <v>257</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <v>-2.169033523</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <v>3.996472131E-2</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="11">
         <v>3.3684486900000005E-2</v>
       </c>
       <c r="J64" t="e">
         <v>#N/A</v>
       </c>
       <c r="K64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="2" t="s">
@@ -3494,24 +3615,26 @@
       <c r="F65" t="s">
         <v>257</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="11">
         <v>-2.1408904020000001</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="11">
         <v>4.3000817140000001E-2</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="11">
         <v>3.730884651E-2</v>
       </c>
       <c r="J65" t="e">
         <v>#N/A</v>
       </c>
       <c r="K65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B66" s="3" t="s">
         <v>96</v>
       </c>
@@ -3527,24 +3650,26 @@
       <c r="F66" t="s">
         <v>249</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="11">
         <v>0.67147505500000004</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="11">
         <v>0</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="11">
         <v>0</v>
       </c>
       <c r="J66" t="e">
         <v>#N/A</v>
       </c>
       <c r="K66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="2" t="s">
@@ -3556,20 +3681,20 @@
       <c r="F67" t="s">
         <v>249</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <v>0.69116580000000005</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="11">
         <v>0</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="11">
         <v>0</v>
       </c>
       <c r="J67" t="e">
         <v>#N/A</v>
       </c>
       <c r="K67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3591,24 +3716,26 @@
       <c r="F68" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <v>-0.193263877</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="11">
         <v>3.4821681479999998E-2</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="11">
         <v>6.6968394850000001E-2</v>
       </c>
       <c r="J68" t="e">
         <v>#N/A</v>
       </c>
       <c r="K68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>101</v>
       </c>
@@ -3624,20 +3751,20 @@
       <c r="F69" t="s">
         <v>249</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <v>-7.7919158000000002E-2</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <v>5.3845355630000001E-2</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="11">
         <v>8.1461984810000013E-2</v>
       </c>
       <c r="J69" t="e">
         <v>#N/A</v>
       </c>
       <c r="K69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3659,24 +3786,26 @@
       <c r="F70" t="s">
         <v>252</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <v>-6.7631245699999996</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="11">
         <v>4.3860768270000003E-2</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="11">
         <v>9.6740586119999999E-2</v>
       </c>
       <c r="J70" t="e">
         <v>#N/A</v>
       </c>
       <c r="K70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="2" t="s">
@@ -3688,24 +3817,26 @@
       <c r="F71" t="s">
         <v>252</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <v>-6.8309386930000011</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="11">
         <v>3.6101494900000003E-2</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="11">
         <v>8.7095320029999992E-2</v>
       </c>
       <c r="J71" t="e">
         <v>#N/A</v>
       </c>
       <c r="K71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="2" t="s">
@@ -3717,24 +3848,26 @@
       <c r="F72" t="s">
         <v>252</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="11">
         <v>-6.762080665</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="11">
         <v>4.2755254499999999E-2</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="11">
         <v>9.5428740970000009E-2</v>
       </c>
       <c r="J72" t="e">
         <v>#N/A</v>
       </c>
       <c r="K72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="2" t="s">
@@ -3746,24 +3879,26 @@
       <c r="F73" t="s">
         <v>252</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <v>-6.5996066850000004</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <v>6.2100990510000002E-2</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="11">
         <v>0.11981661756999999</v>
       </c>
       <c r="J73" t="e">
         <v>#N/A</v>
       </c>
       <c r="K73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>109</v>
       </c>
@@ -3779,24 +3914,26 @@
       <c r="F74" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="11">
         <v>-2.4899048590000001</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="11">
         <v>1.2780235360000001E-2</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="11">
         <v>2.2088618359999999E-2</v>
       </c>
       <c r="J74" t="e">
         <v>#N/A</v>
       </c>
       <c r="K74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="2" t="s">
@@ -3808,24 +3945,26 @@
       <c r="F75" t="s">
         <v>257</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="11">
         <v>-2.5500059149999998</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="11">
         <v>6.4728422799999992E-3</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="11">
         <v>1.4450853200000001E-2</v>
       </c>
       <c r="J75" t="e">
         <v>#N/A</v>
       </c>
       <c r="K75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="2" t="s">
@@ -3837,24 +3976,26 @@
       <c r="F76" t="s">
         <v>257</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="11">
         <v>-2.4899364570000002</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="11">
         <v>1.2780125739999999E-2</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="11">
         <v>2.2088355810000002E-2</v>
       </c>
       <c r="J76" t="e">
         <v>#N/A</v>
       </c>
       <c r="K76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="2" t="s">
@@ -3866,24 +4007,26 @@
       <c r="F77" t="s">
         <v>257</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="11">
         <v>-2.3816670769999999</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="11">
         <v>2.423272743E-2</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="11">
         <v>3.5981105100000001E-2</v>
       </c>
       <c r="J77" t="e">
         <v>#N/A</v>
       </c>
       <c r="K77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B78" s="3" t="s">
         <v>111</v>
       </c>
@@ -3899,24 +4042,26 @@
       <c r="F78" t="s">
         <v>268</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="11">
         <v>-2.0854920969999999</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="11">
         <v>-2.1826204329999998E-2</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="11">
         <v>1.1656865420000001E-2</v>
       </c>
       <c r="J78" t="e">
         <v>#N/A</v>
       </c>
       <c r="K78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="2" t="s">
@@ -3928,24 +4073,26 @@
       <c r="F79" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="11">
         <v>-2.145810021</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="11">
         <v>-2.7917175040000002E-2</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="11">
         <v>4.0979233199999994E-3</v>
       </c>
       <c r="J79" t="e">
         <v>#N/A</v>
       </c>
       <c r="K79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="2" t="s">
@@ -3957,24 +4104,23 @@
       <c r="F80" t="s">
         <v>268</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="11">
         <v>-2.0854706520000001</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="11">
         <v>-2.1825920069999998E-2</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I80" s="11">
         <v>1.1656868680000002E-2</v>
       </c>
       <c r="J80" t="e">
         <v>#N/A</v>
       </c>
       <c r="K80" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="2" t="s">
@@ -3986,24 +4132,23 @@
       <c r="F81" t="s">
         <v>268</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="11">
         <v>-1.988841254</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="11">
         <v>-1.1999961050000001E-2</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="11">
         <v>2.3870934529999999E-2</v>
       </c>
       <c r="J81" t="e">
         <v>#N/A</v>
       </c>
       <c r="K81" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>113</v>
       </c>
@@ -4019,24 +4164,23 @@
       <c r="F82" t="s">
         <v>261</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <v>0.46892512999999997</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <v>6.7078938130000001E-2</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I82" s="11">
         <v>8.4418306740000004E-2</v>
       </c>
       <c r="J82" t="e">
         <v>#N/A</v>
       </c>
       <c r="K82" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="2" t="s">
@@ -4048,24 +4192,23 @@
       <c r="F83" t="s">
         <v>261</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="11">
         <v>0.41905000299999995</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="11">
         <v>6.1634046890000002E-2</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I83" s="11">
         <v>7.7598604340000002E-2</v>
       </c>
       <c r="J83" t="e">
         <v>#N/A</v>
       </c>
       <c r="K83" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="2" t="s">
@@ -4077,24 +4220,23 @@
       <c r="F84" t="s">
         <v>261</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84" s="11">
         <v>0.46890513900000008</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84" s="11">
         <v>6.7079201739999997E-2</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I84" s="11">
         <v>8.441867497000001E-2</v>
       </c>
       <c r="J84" t="e">
         <v>#N/A</v>
       </c>
       <c r="K84" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="2" t="s">
@@ -4106,24 +4248,23 @@
       <c r="F85" t="s">
         <v>261</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="11">
         <v>0.50607376599999998</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="11">
         <v>7.1118243560000002E-2</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I85" s="11">
         <v>8.9415011369999992E-2</v>
       </c>
       <c r="J85" t="e">
         <v>#N/A</v>
       </c>
       <c r="K85" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>115</v>
       </c>
@@ -4139,24 +4280,23 @@
       <c r="F86" t="s">
         <v>272</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="11">
         <v>0.51102815999999995</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="11">
         <v>5.9457742400000006E-2</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="11">
         <v>-1.979289406E-2</v>
       </c>
       <c r="J86" t="e">
         <v>#N/A</v>
       </c>
       <c r="K86" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="2" t="s">
@@ -4168,24 +4308,23 @@
       <c r="F87" t="s">
         <v>272</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="11">
         <v>0.48152733700000006</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="11">
         <v>5.6312517580000006E-2</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I87" s="11">
         <v>-2.3285852770000001E-2</v>
       </c>
       <c r="J87" t="e">
         <v>#N/A</v>
       </c>
       <c r="K87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="2" t="s">
@@ -4197,24 +4336,23 @@
       <c r="F88" t="s">
         <v>272</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88" s="11">
         <v>0</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H88" s="11">
         <v>0</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I88" s="11">
         <v>0</v>
       </c>
       <c r="J88" t="e">
         <v>#N/A</v>
       </c>
       <c r="K88" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="2" t="s">
@@ -4226,24 +4364,23 @@
       <c r="F89" t="s">
         <v>272</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="11">
         <v>0.51104389100000003</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="11">
         <v>5.9457456239999998E-2</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="11">
         <v>-1.9793086349999999E-2</v>
       </c>
       <c r="J89" t="e">
         <v>#N/A</v>
       </c>
       <c r="K89" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="2" t="s">
@@ -4255,24 +4392,23 @@
       <c r="F90" t="s">
         <v>272</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90" s="11">
         <v>0.54797888500000003</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H90" s="11">
         <v>6.3409215510000005E-2</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I90" s="11">
         <v>-1.5401601149999999E-2</v>
       </c>
       <c r="J90" t="e">
         <v>#N/A</v>
       </c>
       <c r="K90" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>118</v>
       </c>
@@ -4288,24 +4424,23 @@
       <c r="F91" t="s">
         <v>263</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <v>-0.751269941</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <v>1.5537749599999999E-2</v>
       </c>
-      <c r="I91" s="12">
+      <c r="I91" s="11">
         <v>4.5436188719999999E-2</v>
       </c>
       <c r="J91" t="e">
         <v>#N/A</v>
       </c>
       <c r="K91" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="2" t="s">
@@ -4317,24 +4452,23 @@
       <c r="F92" t="s">
         <v>263</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92" s="11">
         <v>-0.80055230200000005</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92" s="11">
         <v>1.035530187E-2</v>
       </c>
-      <c r="I92" s="12">
+      <c r="I92" s="11">
         <v>3.8860691360000005E-2</v>
       </c>
       <c r="J92" t="e">
         <v>#N/A</v>
       </c>
       <c r="K92" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="2" t="s">
@@ -4346,24 +4480,23 @@
       <c r="F93" t="s">
         <v>263</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="11">
         <v>-0.75128575200000003</v>
       </c>
-      <c r="H93" s="12">
+      <c r="H93" s="11">
         <v>1.553647405E-2</v>
       </c>
-      <c r="I93" s="12">
+      <c r="I93" s="11">
         <v>4.5434811409999998E-2</v>
       </c>
       <c r="J93" t="e">
         <v>#N/A</v>
       </c>
       <c r="K93" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="2" t="s">
@@ -4375,24 +4508,23 @@
       <c r="F94" t="s">
         <v>263</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94" s="11">
         <v>-0.71455680300000002</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94" s="11">
         <v>1.934252538E-2</v>
       </c>
-      <c r="I94" s="12">
+      <c r="I94" s="11">
         <v>5.0124639110000001E-2</v>
       </c>
       <c r="J94" t="e">
         <v>#N/A</v>
       </c>
       <c r="K94" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>120</v>
       </c>
@@ -4408,24 +4540,23 @@
       <c r="F95" t="s">
         <v>274</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="11">
         <v>2.2715594920000002</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="11">
         <v>0.22061464812000001</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="11">
         <v>0.50623184936999999</v>
       </c>
       <c r="J95" t="e">
         <v>#N/A</v>
       </c>
       <c r="K95" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="2" t="s">
@@ -4437,24 +4568,23 @@
       <c r="F96" t="s">
         <v>274</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96" s="11">
         <v>2.3740814989999999</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="11">
         <v>0.23306302233000001</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="11">
         <v>0.52469107276000004</v>
       </c>
       <c r="J96" t="e">
         <v>#N/A</v>
       </c>
       <c r="K96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="2" t="s">
@@ -4466,24 +4596,23 @@
       <c r="F97" t="s">
         <v>274</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="11">
         <v>2.5651643819999999</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="11">
         <v>0.25659535549000001</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="11">
         <v>0.55969440067999998</v>
       </c>
       <c r="J97" t="e">
         <v>#N/A</v>
       </c>
       <c r="K97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
       <c r="B98" s="3" t="s">
         <v>122</v>
       </c>
@@ -4499,24 +4628,23 @@
       <c r="F98" t="s">
         <v>266</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98" s="11">
         <v>-2.6176070000000003E-2</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="11">
         <v>0</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="11">
         <v>0</v>
       </c>
       <c r="J98" t="e">
         <v>#N/A</v>
       </c>
       <c r="K98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
       <c r="B99" s="3" t="s">
         <v>124</v>
       </c>
@@ -4532,24 +4660,23 @@
       <c r="F99" t="s">
         <v>275</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="11">
         <v>-3.9848427120000003</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="11">
         <v>4.7182231349999999E-2</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="11">
         <v>5.4561798789999998E-2</v>
       </c>
       <c r="J99" t="e">
         <v>#N/A</v>
       </c>
       <c r="K99" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="2" t="s">
@@ -4561,24 +4688,23 @@
       <c r="F100" t="s">
         <v>275</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100" s="11">
         <v>-4.0809368140000002</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100" s="11">
         <v>3.661159479E-2</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="11">
         <v>4.1793505499999994E-2</v>
       </c>
       <c r="J100" t="e">
         <v>#N/A</v>
       </c>
       <c r="K100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="2" t="s">
@@ -4590,24 +4716,23 @@
       <c r="F101" t="s">
         <v>275</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101" s="11">
         <v>-3.9848516209999998</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="11">
         <v>4.718151139E-2</v>
       </c>
-      <c r="I101" s="12">
+      <c r="I101" s="11">
         <v>5.4561024659999999E-2</v>
       </c>
       <c r="J101" t="e">
         <v>#N/A</v>
       </c>
       <c r="K101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="2" t="s">
@@ -4619,24 +4744,23 @@
       <c r="F102" t="s">
         <v>275</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="11">
         <v>-3.8055365239999999</v>
       </c>
-      <c r="H102" s="12">
+      <c r="H102" s="11">
         <v>6.7170096329999998E-2</v>
       </c>
-      <c r="I102" s="12">
+      <c r="I102" s="11">
         <v>7.8775711319999997E-2</v>
       </c>
       <c r="J102" t="e">
         <v>#N/A</v>
       </c>
       <c r="K102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
       <c r="B103" s="3" t="s">
         <v>126</v>
       </c>
@@ -4652,24 +4776,23 @@
       <c r="F103" t="s">
         <v>267</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="11">
         <v>-3.1821953499999998</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="11">
         <v>4.187127224E-2</v>
       </c>
-      <c r="I103" s="12">
+      <c r="I103" s="11">
         <v>2.2629003070000001E-2</v>
       </c>
       <c r="J103" t="e">
         <v>#N/A</v>
       </c>
       <c r="K103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="2" t="s">
@@ -4681,24 +4804,23 @@
       <c r="F104" t="s">
         <v>267</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="11">
         <v>-3.2497969619999996</v>
       </c>
-      <c r="H104" s="12">
+      <c r="H104" s="11">
         <v>3.4520614880000002E-2</v>
       </c>
-      <c r="I104" s="12">
+      <c r="I104" s="11">
         <v>1.397257467E-2</v>
       </c>
       <c r="J104" t="e">
         <v>#N/A</v>
       </c>
       <c r="K104" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="2" t="s">
@@ -4710,24 +4832,23 @@
       <c r="F105" t="s">
         <v>267</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="11">
         <v>-3.1822075810000001</v>
       </c>
-      <c r="H105" s="12">
+      <c r="H105" s="11">
         <v>4.1871386439999998E-2</v>
       </c>
-      <c r="I105" s="12">
+      <c r="I105" s="11">
         <v>2.2628975990000001E-2</v>
       </c>
       <c r="J105" t="e">
         <v>#N/A</v>
       </c>
       <c r="K105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="2" t="s">
@@ -4739,24 +4860,23 @@
       <c r="F106" t="s">
         <v>267</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="11">
         <v>-3.0547918919999999</v>
       </c>
-      <c r="H106" s="12">
+      <c r="H106" s="11">
         <v>5.5849205580000005E-2</v>
       </c>
-      <c r="I106" s="12">
+      <c r="I106" s="11">
         <v>3.9123683719999996E-2</v>
       </c>
       <c r="J106" t="e">
         <v>#N/A</v>
       </c>
       <c r="K106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
       <c r="B107" s="3" t="s">
         <v>128</v>
       </c>
@@ -4772,24 +4892,23 @@
       <c r="F107" t="s">
         <v>262</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="11">
         <v>-1.4104213290000001</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="11">
         <v>-8.2867837100000005E-3</v>
       </c>
-      <c r="I107" s="12">
+      <c r="I107" s="11">
         <v>2.8008384920000001E-2</v>
       </c>
       <c r="J107" t="e">
         <v>#N/A</v>
       </c>
       <c r="K107" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="2" t="s">
@@ -4801,24 +4920,23 @@
       <c r="F108" t="s">
         <v>262</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G108" s="11">
         <v>-1.4549662729999999</v>
       </c>
-      <c r="H108" s="12">
+      <c r="H108" s="11">
         <v>-1.281943197E-2</v>
       </c>
-      <c r="I108" s="12">
+      <c r="I108" s="11">
         <v>2.2369692449999999E-2</v>
       </c>
       <c r="J108" t="e">
         <v>#N/A</v>
       </c>
       <c r="K108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="2" t="s">
@@ -4830,24 +4948,23 @@
       <c r="F109" t="s">
         <v>262</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="11">
         <v>-1.410422431</v>
       </c>
-      <c r="H109" s="12">
+      <c r="H109" s="11">
         <v>-8.2868169899999993E-3</v>
       </c>
-      <c r="I109" s="12">
+      <c r="I109" s="11">
         <v>2.8008188129999997E-2</v>
       </c>
       <c r="J109" t="e">
         <v>#N/A</v>
       </c>
       <c r="K109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="2" t="s">
@@ -4859,20 +4976,20 @@
       <c r="F110" t="s">
         <v>262</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="11">
         <v>-1.3496045189999999</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="11">
         <v>-2.0717544700000002E-3</v>
       </c>
-      <c r="I110" s="12">
+      <c r="I110" s="11">
         <v>3.5748253870000003E-2</v>
       </c>
       <c r="J110" t="e">
         <v>#N/A</v>
       </c>
       <c r="K110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4892,20 +5009,20 @@
       <c r="F111" t="s">
         <v>273</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="11">
         <v>-0.41001729900000006</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="11">
         <v>1.464600607E-2</v>
       </c>
-      <c r="I111" s="12">
+      <c r="I111" s="11">
         <v>5.00822566E-2</v>
       </c>
       <c r="J111" t="e">
         <v>#N/A</v>
       </c>
       <c r="K111" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -4921,20 +5038,20 @@
       <c r="F112" t="s">
         <v>273</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="11">
         <v>-0.44388375299999999</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="11">
         <v>1.115170794E-2</v>
       </c>
-      <c r="I112" s="12">
+      <c r="I112" s="11">
         <v>4.5738917939999998E-2</v>
       </c>
       <c r="J112" t="e">
         <v>#N/A</v>
       </c>
       <c r="K112" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -4950,20 +5067,20 @@
       <c r="F113" t="s">
         <v>273</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="11">
         <v>-0.40999004500000003</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="11">
         <v>1.4645607279999999E-2</v>
       </c>
-      <c r="I113" s="12">
+      <c r="I113" s="11">
         <v>5.0081715169999999E-2</v>
       </c>
       <c r="J113" t="e">
         <v>#N/A</v>
       </c>
       <c r="K113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4979,20 +5096,20 @@
       <c r="F114" t="s">
         <v>273</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="11">
         <v>-0.361696144</v>
       </c>
-      <c r="H114" s="12">
+      <c r="H114" s="11">
         <v>1.9720848690000001E-2</v>
       </c>
-      <c r="I114" s="12">
+      <c r="I114" s="11">
         <v>5.6548476E-2</v>
       </c>
       <c r="J114" t="e">
         <v>#N/A</v>
       </c>
       <c r="K114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5012,20 +5129,20 @@
       <c r="F115" t="s">
         <v>250</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="11">
         <v>-4.3791676720000003</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="11">
         <v>9.5022991890000005E-2</v>
       </c>
-      <c r="I115" s="12">
+      <c r="I115" s="11">
         <v>-1.8155896330000001E-2</v>
       </c>
       <c r="J115" t="e">
         <v>#N/A</v>
       </c>
       <c r="K115" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5041,20 +5158,20 @@
       <c r="F116" t="s">
         <v>250</v>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="11">
         <v>-4.4748685610000001</v>
       </c>
-      <c r="H116" s="12">
+      <c r="H116" s="11">
         <v>8.397004424E-2</v>
       </c>
-      <c r="I116" s="12">
+      <c r="I116" s="11">
         <v>-3.004349303E-2</v>
       </c>
       <c r="J116" t="e">
         <v>#N/A</v>
       </c>
       <c r="K116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5070,20 +5187,20 @@
       <c r="F117" t="s">
         <v>250</v>
       </c>
-      <c r="G117" s="12">
+      <c r="G117" s="11">
         <v>-4.379180152</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="11">
         <v>9.5023737960000007E-2</v>
       </c>
-      <c r="I117" s="12">
+      <c r="I117" s="11">
         <v>-1.815579975E-2</v>
       </c>
       <c r="J117" t="e">
         <v>#N/A</v>
       </c>
       <c r="K117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5099,20 +5216,20 @@
       <c r="F118" t="s">
         <v>250</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G118" s="11">
         <v>-4.2005879200000003</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="11">
         <v>0.11592508005999999</v>
       </c>
-      <c r="I118" s="12">
+      <c r="I118" s="11">
         <v>4.3888294800000002E-3</v>
       </c>
       <c r="J118" t="e">
         <v>#N/A</v>
       </c>
       <c r="K118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5132,20 +5249,20 @@
       <c r="F119" t="s">
         <v>257</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G119" s="11">
         <v>-2.2478101970000002</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="11">
         <v>-2.4773735330000001E-2</v>
       </c>
-      <c r="I119" s="12">
+      <c r="I119" s="11">
         <v>1.7249129899999998E-3</v>
       </c>
       <c r="J119" t="e">
         <v>#N/A</v>
       </c>
       <c r="K119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5161,20 +5278,20 @@
       <c r="F120" t="s">
         <v>257</v>
       </c>
-      <c r="G120" s="12">
+      <c r="G120" s="11">
         <v>-2.2917458900000001</v>
       </c>
-      <c r="H120" s="12">
+      <c r="H120" s="11">
         <v>-2.9207036490000001E-2</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="11">
         <v>-3.7403642900000001E-3</v>
       </c>
       <c r="J120" t="e">
         <v>#N/A</v>
       </c>
       <c r="K120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5190,20 +5307,20 @@
       <c r="F121" t="s">
         <v>257</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G121" s="11">
         <v>-2.2478183949999999</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="11">
         <v>-2.4773941210000001E-2</v>
       </c>
-      <c r="I121" s="12">
+      <c r="I121" s="11">
         <v>1.7245344700000001E-3</v>
       </c>
       <c r="J121" t="e">
         <v>#N/A</v>
       </c>
       <c r="K121" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5219,20 +5336,20 @@
       <c r="F122" t="s">
         <v>257</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G122" s="11">
         <v>-2.1297918990000002</v>
       </c>
-      <c r="H122" s="12">
+      <c r="H122" s="11">
         <v>-1.2775730400000001E-2</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="11">
         <v>1.6540027190000001E-2</v>
       </c>
       <c r="J122" t="e">
         <v>#N/A</v>
       </c>
       <c r="K122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5252,20 +5369,20 @@
       <c r="F123" t="s">
         <v>267</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G123" s="11">
         <v>-2.9048750430000001</v>
       </c>
-      <c r="H123" s="12">
+      <c r="H123" s="11">
         <v>-4.4926658899999998E-3</v>
       </c>
-      <c r="I123" s="12">
+      <c r="I123" s="11">
         <v>7.3543528499999998E-3</v>
       </c>
       <c r="J123" t="e">
         <v>#N/A</v>
       </c>
       <c r="K123" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5281,20 +5398,20 @@
       <c r="F124" t="s">
         <v>267</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G124" s="11">
         <v>-3.028255927</v>
       </c>
-      <c r="H124" s="12">
+      <c r="H124" s="11">
         <v>-1.723856964E-2</v>
       </c>
-      <c r="I124" s="12">
+      <c r="I124" s="11">
         <v>-8.1116190000000005E-3</v>
       </c>
       <c r="J124" t="e">
         <v>#N/A</v>
       </c>
       <c r="K124" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5310,20 +5427,20 @@
       <c r="F125" t="s">
         <v>267</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G125" s="11">
         <v>-2.7476763210000001</v>
       </c>
-      <c r="H125" s="12">
+      <c r="H125" s="11">
         <v>1.1959567499999999E-2</v>
       </c>
-      <c r="I125" s="12">
+      <c r="I125" s="11">
         <v>2.7375620470000001E-2</v>
       </c>
       <c r="J125" t="e">
         <v>#N/A</v>
       </c>
       <c r="K125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5339,20 +5456,20 @@
       <c r="F126" t="s">
         <v>267</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G126" s="11">
         <v>-2.904863169</v>
       </c>
-      <c r="H126" s="12">
+      <c r="H126" s="11">
         <v>-4.4929992300000001E-3</v>
       </c>
-      <c r="I126" s="12">
+      <c r="I126" s="11">
         <v>7.3536909500000001E-3</v>
       </c>
       <c r="J126" t="e">
         <v>#N/A</v>
       </c>
       <c r="K126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5368,20 +5485,20 @@
       <c r="F127" t="s">
         <v>267</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G127" s="11">
         <v>-2.791610887</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="11">
         <v>7.3348258299999998E-3</v>
       </c>
-      <c r="I127" s="12">
+      <c r="I127" s="11">
         <v>2.174070946E-2</v>
       </c>
       <c r="J127" t="e">
         <v>#N/A</v>
       </c>
       <c r="K127" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5401,20 +5518,20 @@
       <c r="F128" t="s">
         <v>267</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G128" s="11">
         <v>-3.6409494219999998</v>
       </c>
-      <c r="H128" s="12">
+      <c r="H128" s="11">
         <v>1.9962569869999999E-2</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="11">
         <v>4.9244467999999997E-4</v>
       </c>
       <c r="J128" t="e">
         <v>#N/A</v>
       </c>
       <c r="K128" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5430,20 +5547,20 @@
       <c r="F129" t="s">
         <v>267</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G129" s="11">
         <v>-3.7633744550000001</v>
       </c>
-      <c r="H129" s="12">
+      <c r="H129" s="11">
         <v>6.9034255799999998E-3</v>
       </c>
-      <c r="I129" s="12">
+      <c r="I129" s="11">
         <v>-1.486769951E-2</v>
       </c>
       <c r="J129" t="e">
         <v>#N/A</v>
       </c>
       <c r="K129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5459,20 +5576,20 @@
       <c r="F130" t="s">
         <v>267</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G130" s="11">
         <v>-3.4849423829999995</v>
       </c>
-      <c r="H130" s="12">
+      <c r="H130" s="11">
         <v>3.6818810239999999E-2</v>
       </c>
-      <c r="I130" s="12">
+      <c r="I130" s="11">
         <v>2.0377579739999999E-2</v>
       </c>
       <c r="J130" t="e">
         <v>#N/A</v>
       </c>
       <c r="K130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5488,20 +5605,20 @@
       <c r="F131" t="s">
         <v>267</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G131" s="11">
         <v>-3.6409212230000003</v>
       </c>
-      <c r="H131" s="12">
+      <c r="H131" s="11">
         <v>1.9962377350000001E-2</v>
       </c>
-      <c r="I131" s="12">
+      <c r="I131" s="11">
         <v>4.9269340999999998E-4</v>
       </c>
       <c r="J131" t="e">
         <v>#N/A</v>
       </c>
       <c r="K131" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -5517,20 +5634,20 @@
       <c r="F132" t="s">
         <v>267</v>
       </c>
-      <c r="G132" s="12">
+      <c r="G132" s="11">
         <v>-3.5285748749999999</v>
       </c>
-      <c r="H132" s="12">
+      <c r="H132" s="11">
         <v>3.2079951750000002E-2</v>
       </c>
-      <c r="I132" s="12">
+      <c r="I132" s="11">
         <v>1.4781213820000002E-2</v>
       </c>
       <c r="J132" t="e">
         <v>#N/A</v>
       </c>
       <c r="K132" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -5550,20 +5667,20 @@
       <c r="F133" t="s">
         <v>267</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G133" s="11">
         <v>-3.5730277919999995</v>
       </c>
-      <c r="H133" s="12">
+      <c r="H133" s="11">
         <v>1.7554122299999999E-2</v>
       </c>
-      <c r="I133" s="12">
+      <c r="I133" s="11">
         <v>-3.6351950500000002E-3</v>
       </c>
       <c r="J133" t="e">
         <v>#N/A</v>
       </c>
       <c r="K133" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5579,20 +5696,20 @@
       <c r="F134" t="s">
         <v>267</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G134" s="11">
         <v>-3.6955697280000006</v>
       </c>
-      <c r="H134" s="12">
+      <c r="H134" s="11">
         <v>4.5258921499999995E-3</v>
       </c>
-      <c r="I134" s="12">
+      <c r="I134" s="11">
         <v>-1.8932398619999999E-2</v>
       </c>
       <c r="J134" t="e">
         <v>#N/A</v>
       </c>
       <c r="K134" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -5608,20 +5725,20 @@
       <c r="F135" t="s">
         <v>267</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G135" s="11">
         <v>-3.4169097279999998</v>
       </c>
-      <c r="H135" s="12">
+      <c r="H135" s="11">
         <v>3.4371325039999998E-2</v>
       </c>
-      <c r="I135" s="12">
+      <c r="I135" s="11">
         <v>1.6168217219999999E-2</v>
       </c>
       <c r="J135" t="e">
         <v>#N/A</v>
       </c>
       <c r="K135" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -5637,20 +5754,20 @@
       <c r="F136" t="s">
         <v>267</v>
       </c>
-      <c r="G136" s="12">
+      <c r="G136" s="11">
         <v>-3.5730280639999998</v>
       </c>
-      <c r="H136" s="12">
+      <c r="H136" s="11">
         <v>1.755440078E-2</v>
       </c>
-      <c r="I136" s="12">
+      <c r="I136" s="11">
         <v>-3.63507189E-3</v>
       </c>
       <c r="J136" t="e">
         <v>#N/A</v>
       </c>
       <c r="K136" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -5666,20 +5783,20 @@
       <c r="F137" t="s">
         <v>267</v>
       </c>
-      <c r="G137" s="12">
+      <c r="G137" s="11">
         <v>-3.4605621609999999</v>
       </c>
-      <c r="H137" s="12">
+      <c r="H137" s="11">
         <v>2.964413703E-2</v>
       </c>
-      <c r="I137" s="12">
+      <c r="I137" s="11">
         <v>1.059513068E-2</v>
       </c>
       <c r="J137" t="e">
         <v>#N/A</v>
       </c>
       <c r="K137" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5699,20 +5816,20 @@
       <c r="F138" t="s">
         <v>276</v>
       </c>
-      <c r="G138" s="12">
+      <c r="G138" s="11">
         <v>-2.6391949970000002</v>
       </c>
-      <c r="H138" s="12">
+      <c r="H138" s="11">
         <v>-6.7812594040000007E-2</v>
       </c>
-      <c r="I138" s="12">
+      <c r="I138" s="11">
         <v>8.0619044000000001E-4</v>
       </c>
       <c r="J138" t="e">
         <v>#N/A</v>
       </c>
       <c r="K138" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -5728,20 +5845,20 @@
       <c r="F139" t="s">
         <v>276</v>
       </c>
-      <c r="G139" s="12">
+      <c r="G139" s="11">
         <v>-2.6723417810000001</v>
       </c>
-      <c r="H139" s="12">
+      <c r="H139" s="11">
         <v>-7.1022179389999995E-2</v>
       </c>
-      <c r="I139" s="12">
+      <c r="I139" s="11">
         <v>-3.3320913000000002E-3</v>
       </c>
       <c r="J139" t="e">
         <v>#N/A</v>
       </c>
       <c r="K139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -5757,20 +5874,20 @@
       <c r="F140" t="s">
         <v>276</v>
       </c>
-      <c r="G140" s="12">
+      <c r="G140" s="11">
         <v>-2.6392047970000001</v>
       </c>
-      <c r="H140" s="12">
+      <c r="H140" s="11">
         <v>-6.7812773620000003E-2</v>
       </c>
-      <c r="I140" s="12">
+      <c r="I140" s="11">
         <v>8.0635937000000002E-4</v>
       </c>
       <c r="J140" t="e">
         <v>#N/A</v>
       </c>
       <c r="K140" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -5786,20 +5903,20 @@
       <c r="F141" t="s">
         <v>276</v>
       </c>
-      <c r="G141" s="12">
+      <c r="G141" s="11">
         <v>-2.591951253</v>
       </c>
-      <c r="H141" s="12">
+      <c r="H141" s="11">
         <v>-6.3077540749999994E-2</v>
       </c>
-      <c r="I141" s="12">
+      <c r="I141" s="11">
         <v>7.2158582500000002E-3</v>
       </c>
       <c r="J141" t="e">
         <v>#N/A</v>
       </c>
       <c r="K141" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -5819,20 +5936,20 @@
       <c r="F142" t="s">
         <v>277</v>
       </c>
-      <c r="G142" s="12">
+      <c r="G142" s="11">
         <v>-3.734336662</v>
       </c>
-      <c r="H142" s="12">
+      <c r="H142" s="11">
         <v>-3.1585692490000004E-2</v>
       </c>
-      <c r="I142" s="12">
+      <c r="I142" s="11">
         <v>1.34072389E-2</v>
       </c>
       <c r="J142" t="e">
         <v>#N/A</v>
       </c>
       <c r="K142" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -5848,20 +5965,20 @@
       <c r="F143" t="s">
         <v>277</v>
       </c>
-      <c r="G143" s="12">
+      <c r="G143" s="11">
         <v>-3.8306818159999998</v>
       </c>
-      <c r="H143" s="12">
+      <c r="H143" s="11">
         <v>-4.1360963299999998E-2</v>
       </c>
-      <c r="I143" s="12">
+      <c r="I143" s="11">
         <v>1.13732983E-3</v>
       </c>
       <c r="J143" t="e">
         <v>#N/A</v>
       </c>
       <c r="K143" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -5877,20 +5994,20 @@
       <c r="F144" t="s">
         <v>277</v>
       </c>
-      <c r="G144" s="12">
+      <c r="G144" s="11">
         <v>-3.7343629199999997</v>
       </c>
-      <c r="H144" s="12">
+      <c r="H144" s="11">
         <v>-3.1586020800000003E-2</v>
       </c>
-      <c r="I144" s="12">
+      <c r="I144" s="11">
         <v>1.3406836950000001E-2</v>
       </c>
       <c r="J144" t="e">
         <v>#N/A</v>
       </c>
       <c r="K144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -5906,20 +6023,20 @@
       <c r="F145" t="s">
         <v>277</v>
       </c>
-      <c r="G145" s="12">
+      <c r="G145" s="11">
         <v>-3.5545775179999994</v>
       </c>
-      <c r="H145" s="12">
+      <c r="H145" s="11">
         <v>-1.310186088E-2</v>
       </c>
-      <c r="I145" s="12">
+      <c r="I145" s="11">
         <v>3.6675624519999998E-2</v>
       </c>
       <c r="J145" t="e">
         <v>#N/A</v>
       </c>
       <c r="K145" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -5939,20 +6056,20 @@
       <c r="F146" t="s">
         <v>267</v>
       </c>
-      <c r="G146" s="12">
+      <c r="G146" s="11">
         <v>-3.4890549139999996</v>
       </c>
-      <c r="H146" s="12">
+      <c r="H146" s="11">
         <v>2.1789773659999997E-2</v>
       </c>
-      <c r="I146" s="12">
+      <c r="I146" s="11">
         <v>1.9057450500000002E-3</v>
       </c>
       <c r="J146" t="e">
         <v>#N/A</v>
       </c>
       <c r="K146" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -5968,20 +6085,20 @@
       <c r="F147" t="s">
         <v>267</v>
       </c>
-      <c r="G147" s="12">
+      <c r="G147" s="11">
         <v>-3.6116926949999995</v>
       </c>
-      <c r="H147" s="12">
+      <c r="H147" s="11">
         <v>8.70839692E-3</v>
       </c>
-      <c r="I147" s="12">
+      <c r="I147" s="11">
         <v>-1.347501188E-2</v>
       </c>
       <c r="J147" t="e">
         <v>#N/A</v>
       </c>
       <c r="K147" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -5997,20 +6114,20 @@
       <c r="F148" t="s">
         <v>267</v>
       </c>
-      <c r="G148" s="12">
+      <c r="G148" s="11">
         <v>-3.3240490970000001</v>
       </c>
-      <c r="H148" s="12">
+      <c r="H148" s="11">
         <v>3.9121771409999999E-2</v>
       </c>
-      <c r="I148" s="12">
+      <c r="I148" s="11">
         <v>2.2387994629999998E-2</v>
       </c>
       <c r="J148" t="e">
         <v>#N/A</v>
       </c>
       <c r="K148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6026,20 +6143,20 @@
       <c r="F149" t="s">
         <v>267</v>
       </c>
-      <c r="G149" s="12">
+      <c r="G149" s="11">
         <v>-3.4890655869999994</v>
       </c>
-      <c r="H149" s="12">
+      <c r="H149" s="11">
         <v>2.1789871870000001E-2</v>
       </c>
-      <c r="I149" s="12">
+      <c r="I149" s="11">
         <v>1.9057937299999999E-3</v>
       </c>
       <c r="J149" t="e">
         <v>#N/A</v>
       </c>
       <c r="K149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6055,20 +6172,20 @@
       <c r="F150" t="s">
         <v>267</v>
       </c>
-      <c r="G150" s="12">
+      <c r="G150" s="11">
         <v>-3.3764988039999997</v>
       </c>
-      <c r="H150" s="12">
+      <c r="H150" s="11">
         <v>3.39301033E-2</v>
       </c>
-      <c r="I150" s="12">
+      <c r="I150" s="11">
         <v>1.6215320669999998E-2</v>
       </c>
       <c r="J150" t="e">
         <v>#N/A</v>
       </c>
       <c r="K150" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6088,20 +6205,20 @@
       <c r="F151" t="s">
         <v>257</v>
       </c>
-      <c r="G151" s="12">
+      <c r="G151" s="11">
         <v>-2.078904981</v>
       </c>
-      <c r="H151" s="12">
+      <c r="H151" s="11">
         <v>6.0566891000000001E-3</v>
       </c>
-      <c r="I151" s="12">
+      <c r="I151" s="11">
         <v>9.9471147400000005E-3</v>
       </c>
       <c r="J151" t="e">
         <v>#N/A</v>
       </c>
       <c r="K151" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6117,20 +6234,20 @@
       <c r="F152" t="s">
         <v>257</v>
       </c>
-      <c r="G152" s="12">
+      <c r="G152" s="11">
         <v>-2.2033436019999999</v>
       </c>
-      <c r="H152" s="12">
+      <c r="H152" s="11">
         <v>-6.8248270300000002E-3</v>
       </c>
-      <c r="I152" s="12">
+      <c r="I152" s="11">
         <v>-5.5585680999999994E-3</v>
       </c>
       <c r="J152" t="e">
         <v>#N/A</v>
       </c>
       <c r="K152" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6146,20 +6263,20 @@
       <c r="F153" t="s">
         <v>257</v>
       </c>
-      <c r="G153" s="12">
+      <c r="G153" s="11">
         <v>-2.0789060909999999</v>
       </c>
-      <c r="H153" s="12">
+      <c r="H153" s="11">
         <v>6.0564353299999993E-3</v>
       </c>
-      <c r="I153" s="12">
+      <c r="I153" s="11">
         <v>9.9470502500000006E-3</v>
       </c>
       <c r="J153" t="e">
         <v>#N/A</v>
       </c>
       <c r="K153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6175,24 +6292,26 @@
       <c r="F154" t="s">
         <v>257</v>
       </c>
-      <c r="G154" s="12">
+      <c r="G154" s="11">
         <v>-1.9647115859999997</v>
       </c>
-      <c r="H154" s="12">
+      <c r="H154" s="11">
         <v>1.8009146640000001E-2</v>
       </c>
-      <c r="I154" s="12">
+      <c r="I154" s="11">
         <v>2.4370868269999998E-2</v>
       </c>
       <c r="J154" t="e">
         <v>#N/A</v>
       </c>
       <c r="K154" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
+      <c r="A155" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B155" s="3" t="s">
         <v>150</v>
       </c>
@@ -6208,25 +6327,29 @@
       <c r="F155" t="s">
         <v>257</v>
       </c>
-      <c r="G155" s="12">
+      <c r="G155" s="11">
         <v>-2.5044574079999999</v>
       </c>
-      <c r="H155" s="12">
+      <c r="H155" s="11">
         <v>-1.368071459E-2</v>
       </c>
-      <c r="I155" s="12">
+      <c r="I155" s="11">
         <v>3.7607485800000002E-3</v>
       </c>
       <c r="J155" t="e">
         <v>#N/A</v>
       </c>
       <c r="K155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="A156" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C156" s="4"/>
       <c r="D156" s="2" t="s">
         <v>106</v>
@@ -6237,25 +6360,29 @@
       <c r="F156" t="s">
         <v>257</v>
       </c>
-      <c r="G156" s="12">
+      <c r="G156" s="11">
         <v>-2.5482794050000002</v>
       </c>
-      <c r="H156" s="12">
+      <c r="H156" s="11">
         <v>-1.8163138450000001E-2</v>
       </c>
-      <c r="I156" s="12">
+      <c r="I156" s="11">
         <v>-1.71374006E-3</v>
       </c>
       <c r="J156" t="e">
         <v>#N/A</v>
       </c>
       <c r="K156" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
+      <c r="A157" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C157" s="4"/>
       <c r="D157" s="2" t="s">
         <v>107</v>
@@ -6266,25 +6393,29 @@
       <c r="F157" t="s">
         <v>257</v>
       </c>
-      <c r="G157" s="12">
+      <c r="G157" s="11">
         <v>-2.5044512480000001</v>
       </c>
-      <c r="H157" s="12">
+      <c r="H157" s="11">
         <v>-1.3681083759999999E-2</v>
       </c>
-      <c r="I157" s="12">
+      <c r="I157" s="11">
         <v>3.76068069E-3</v>
       </c>
       <c r="J157" t="e">
         <v>#N/A</v>
       </c>
       <c r="K157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
+      <c r="A158" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C158" s="4"/>
       <c r="D158" s="2" t="s">
         <v>108</v>
@@ -6295,24 +6426,26 @@
       <c r="F158" t="s">
         <v>257</v>
       </c>
-      <c r="G158" s="12">
+      <c r="G158" s="11">
         <v>-2.3867416069999998</v>
       </c>
-      <c r="H158" s="12">
+      <c r="H158" s="11">
         <v>-1.54651876E-3</v>
       </c>
-      <c r="I158" s="12">
+      <c r="I158" s="11">
         <v>1.8605824650000002E-2</v>
       </c>
       <c r="J158" t="e">
         <v>#N/A</v>
       </c>
       <c r="K158" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
+      <c r="A159" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B159" s="3" t="s">
         <v>152</v>
       </c>
@@ -6328,25 +6461,29 @@
       <c r="F159" t="s">
         <v>268</v>
       </c>
-      <c r="G159" s="12">
+      <c r="G159" s="11">
         <v>-2.0434906769999999</v>
       </c>
-      <c r="H159" s="12">
+      <c r="H159" s="11">
         <v>-2.6540564280000001E-2</v>
       </c>
-      <c r="I159" s="12">
+      <c r="I159" s="11">
         <v>5.4125155500000001E-3</v>
       </c>
       <c r="J159" t="e">
         <v>#N/A</v>
       </c>
       <c r="K159" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
+      <c r="A160" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="C160" s="4"/>
       <c r="D160" s="2" t="s">
         <v>106</v>
@@ -6357,25 +6494,29 @@
       <c r="F160" t="s">
         <v>268</v>
       </c>
-      <c r="G160" s="12">
+      <c r="G160" s="11">
         <v>-2.0875057180000001</v>
       </c>
-      <c r="H160" s="12">
+      <c r="H160" s="11">
         <v>-3.0965326590000002E-2</v>
       </c>
-      <c r="I160" s="12">
+      <c r="I160" s="11">
         <v>-7.2128270000000003E-5</v>
       </c>
       <c r="J160" t="e">
         <v>#N/A</v>
       </c>
       <c r="K160" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
+      <c r="A161" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="C161" s="4"/>
       <c r="D161" s="2" t="s">
         <v>107</v>
@@ -6386,25 +6527,29 @@
       <c r="F161" t="s">
         <v>268</v>
       </c>
-      <c r="G161" s="12">
+      <c r="G161" s="11">
         <v>-2.0434993769999998</v>
       </c>
-      <c r="H161" s="12">
+      <c r="H161" s="11">
         <v>-2.654055827E-2</v>
       </c>
-      <c r="I161" s="12">
+      <c r="I161" s="11">
         <v>5.4124155799999997E-3</v>
       </c>
       <c r="J161" t="e">
         <v>#N/A</v>
       </c>
       <c r="K161" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
+      <c r="A162" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="C162" s="4"/>
       <c r="D162" s="2" t="s">
         <v>108</v>
@@ -6415,24 +6560,26 @@
       <c r="F162" t="s">
         <v>268</v>
       </c>
-      <c r="G162" s="12">
+      <c r="G162" s="11">
         <v>-1.9252311970000002</v>
       </c>
-      <c r="H162" s="12">
+      <c r="H162" s="11">
         <v>-1.4564706240000001E-2</v>
       </c>
-      <c r="I162" s="12">
+      <c r="I162" s="11">
         <v>2.0281458860000001E-2</v>
       </c>
       <c r="J162" t="e">
         <v>#N/A</v>
       </c>
       <c r="K162" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
+      <c r="A163" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B163" s="3" t="s">
         <v>154</v>
       </c>
@@ -6448,24 +6595,26 @@
       <c r="F163" t="s">
         <v>267</v>
       </c>
-      <c r="G163" s="12">
+      <c r="G163" s="11">
         <v>-3.3652019700000002</v>
       </c>
-      <c r="H163" s="12">
+      <c r="H163" s="11">
         <v>1.4098702370000001E-2</v>
       </c>
-      <c r="I163" s="12">
+      <c r="I163" s="11">
         <v>1.032239747E-2</v>
       </c>
       <c r="J163" t="e">
         <v>#N/A</v>
       </c>
       <c r="K163" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
+      <c r="A164" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="2" t="s">
@@ -6477,24 +6626,26 @@
       <c r="F164" t="s">
         <v>267</v>
       </c>
-      <c r="G164" s="12">
+      <c r="G164" s="11">
         <v>-3.4880247799999999</v>
       </c>
-      <c r="H164" s="12">
+      <c r="H164" s="11">
         <v>1.11538689E-3</v>
       </c>
-      <c r="I164" s="12">
+      <c r="I164" s="11">
         <v>-5.1883131100000004E-3</v>
       </c>
       <c r="J164" t="e">
         <v>#N/A</v>
       </c>
       <c r="K164" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
+      <c r="A165" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="2" t="s">
@@ -6506,24 +6657,26 @@
       <c r="F165" t="s">
         <v>267</v>
       </c>
-      <c r="G165" s="12">
+      <c r="G165" s="11">
         <v>-3.2087691889999999</v>
       </c>
-      <c r="H165" s="12">
+      <c r="H165" s="11">
         <v>3.0857604979999998E-2</v>
       </c>
-      <c r="I165" s="12">
+      <c r="I165" s="11">
         <v>3.040227484E-2</v>
       </c>
       <c r="J165" t="e">
         <v>#N/A</v>
       </c>
       <c r="K165" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
+      <c r="A166" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="2" t="s">
@@ -6535,24 +6688,26 @@
       <c r="F166" t="s">
         <v>267</v>
       </c>
-      <c r="G166" s="12">
+      <c r="G166" s="11">
         <v>-3.3652176470000001</v>
       </c>
-      <c r="H166" s="12">
+      <c r="H166" s="11">
         <v>1.4097713670000001E-2</v>
       </c>
-      <c r="I166" s="12">
+      <c r="I166" s="11">
         <v>1.032142172E-2</v>
       </c>
       <c r="J166" t="e">
         <v>#N/A</v>
       </c>
       <c r="K166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
+      <c r="A167" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="2" t="s">
@@ -6564,24 +6719,26 @@
       <c r="F167" t="s">
         <v>267</v>
       </c>
-      <c r="G167" s="12">
+      <c r="G167" s="11">
         <v>-3.2525317749999996</v>
       </c>
-      <c r="H167" s="12">
+      <c r="H167" s="11">
         <v>2.6146540059999997E-2</v>
       </c>
-      <c r="I167" s="12">
+      <c r="I167" s="11">
         <v>2.4751366E-2</v>
       </c>
       <c r="J167" t="e">
         <v>#N/A</v>
       </c>
       <c r="K167" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
+      <c r="A168" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B168" s="3" t="s">
         <v>156</v>
       </c>
@@ -6597,24 +6754,26 @@
       <c r="F168" t="s">
         <v>271</v>
       </c>
-      <c r="G168" s="12">
+      <c r="G168" s="11">
         <v>-1.2074426789999999</v>
       </c>
-      <c r="H168" s="12">
+      <c r="H168" s="11">
         <v>-1.5450257009999999E-2</v>
       </c>
-      <c r="I168" s="12">
+      <c r="I168" s="11">
         <v>2.9462884070000001E-2</v>
       </c>
       <c r="J168" t="e">
         <v>#N/A</v>
       </c>
       <c r="K168" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
+      <c r="A169" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="2" t="s">
@@ -6626,24 +6785,26 @@
       <c r="F169" t="s">
         <v>271</v>
       </c>
-      <c r="G169" s="12">
+      <c r="G169" s="11">
         <v>-1.2410672410000001</v>
       </c>
-      <c r="H169" s="12">
+      <c r="H169" s="11">
         <v>-1.88414758E-2</v>
       </c>
-      <c r="I169" s="12">
+      <c r="I169" s="11">
         <v>2.5203641459999999E-2</v>
       </c>
       <c r="J169" t="e">
         <v>#N/A</v>
       </c>
       <c r="K169" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
+      <c r="A170" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="2" t="s">
@@ -6655,24 +6816,26 @@
       <c r="F170" t="s">
         <v>271</v>
       </c>
-      <c r="G170" s="12">
+      <c r="G170" s="11">
         <v>-1.2074543360000001</v>
       </c>
-      <c r="H170" s="12">
+      <c r="H170" s="11">
         <v>-1.5450732620000001E-2</v>
       </c>
-      <c r="I170" s="12">
+      <c r="I170" s="11">
         <v>2.9461924300000001E-2</v>
       </c>
       <c r="J170" t="e">
         <v>#N/A</v>
       </c>
       <c r="K170" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
+      <c r="A171" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="2" t="s">
@@ -6684,24 +6847,26 @@
       <c r="F171" t="s">
         <v>271</v>
       </c>
-      <c r="G171" s="12">
+      <c r="G171" s="11">
         <v>-1.159536356</v>
       </c>
-      <c r="H171" s="12">
+      <c r="H171" s="11">
         <v>-1.0526117989999998E-2</v>
       </c>
-      <c r="I171" s="12">
+      <c r="I171" s="11">
         <v>3.580184501E-2</v>
       </c>
       <c r="J171" t="e">
         <v>#N/A</v>
       </c>
       <c r="K171" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
+      <c r="A172" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B172" s="3" t="s">
         <v>158</v>
       </c>
@@ -6717,24 +6882,26 @@
       <c r="F172" t="s">
         <v>268</v>
       </c>
-      <c r="G172" s="12">
+      <c r="G172" s="11">
         <v>-2.7488846969999998</v>
       </c>
-      <c r="H172" s="12">
+      <c r="H172" s="11">
         <v>-5.4038982579999999E-2</v>
       </c>
-      <c r="I172" s="12">
+      <c r="I172" s="11">
         <v>-2.7709048589999997E-2</v>
       </c>
       <c r="J172" t="e">
         <v>#N/A</v>
       </c>
       <c r="K172" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
+      <c r="A173" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="2" t="s">
@@ -6746,24 +6913,26 @@
       <c r="F173" t="s">
         <v>268</v>
       </c>
-      <c r="G173" s="12">
+      <c r="G173" s="11">
         <v>-2.7928263210000002</v>
       </c>
-      <c r="H173" s="12">
+      <c r="H173" s="11">
         <v>-5.8363194680000001E-2</v>
       </c>
-      <c r="I173" s="12">
+      <c r="I173" s="11">
         <v>-3.3041729329999998E-2</v>
       </c>
       <c r="J173" t="e">
         <v>#N/A</v>
       </c>
       <c r="K173" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
+      <c r="A174" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="2" t="s">
@@ -6775,24 +6944,26 @@
       <c r="F174" t="s">
         <v>268</v>
       </c>
-      <c r="G174" s="12">
+      <c r="G174" s="11">
         <v>-2.7488953600000001</v>
       </c>
-      <c r="H174" s="12">
+      <c r="H174" s="11">
         <v>-5.403998082E-2</v>
       </c>
-      <c r="I174" s="12">
+      <c r="I174" s="11">
         <v>-2.7709377800000001E-2</v>
       </c>
       <c r="J174" t="e">
         <v>#N/A</v>
       </c>
       <c r="K174" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
+      <c r="A175" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="2" t="s">
@@ -6804,24 +6975,26 @@
       <c r="F175" t="s">
         <v>268</v>
       </c>
-      <c r="G175" s="12">
+      <c r="G175" s="11">
         <v>-2.688870535</v>
       </c>
-      <c r="H175" s="12">
+      <c r="H175" s="11">
         <v>-4.8111303709999997E-2</v>
       </c>
-      <c r="I175" s="12">
+      <c r="I175" s="11">
         <v>-2.0388661759999999E-2</v>
       </c>
       <c r="J175" t="e">
         <v>#N/A</v>
       </c>
       <c r="K175" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
+      <c r="A176" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B176" s="3" t="s">
         <v>160</v>
       </c>
@@ -6837,24 +7010,26 @@
       <c r="F176" t="s">
         <v>251</v>
       </c>
-      <c r="G176" s="12">
+      <c r="G176" s="11">
         <v>-2.7523110079999999</v>
       </c>
-      <c r="H176" s="12">
+      <c r="H176" s="11">
         <v>0.11879619891000001</v>
       </c>
-      <c r="I176" s="12">
+      <c r="I176" s="11">
         <v>-9.8802403999999995E-4</v>
       </c>
       <c r="J176" t="e">
         <v>#N/A</v>
       </c>
       <c r="K176" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
+      <c r="A177" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="2" t="s">
@@ -6866,24 +7041,26 @@
       <c r="F177" t="s">
         <v>251</v>
       </c>
-      <c r="G177" s="12">
+      <c r="G177" s="11">
         <v>-2.849636394</v>
       </c>
-      <c r="H177" s="12">
+      <c r="H177" s="11">
         <v>0.10750247482000001</v>
       </c>
-      <c r="I177" s="12">
+      <c r="I177" s="11">
         <v>-1.3084031959999999E-2</v>
       </c>
       <c r="J177" t="e">
         <v>#N/A</v>
       </c>
       <c r="K177" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
+      <c r="A178" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="2" t="s">
@@ -6895,24 +7072,26 @@
       <c r="F178" t="s">
         <v>251</v>
       </c>
-      <c r="G178" s="12">
+      <c r="G178" s="11">
         <v>-2.7523157949999999</v>
       </c>
-      <c r="H178" s="12">
+      <c r="H178" s="11">
         <v>0.11879600567000001</v>
       </c>
-      <c r="I178" s="12">
+      <c r="I178" s="11">
         <v>-9.8825105999999986E-4</v>
       </c>
       <c r="J178" t="e">
         <v>#N/A</v>
       </c>
       <c r="K178" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
+      <c r="A179" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="2" t="s">
@@ -6924,24 +7103,26 @@
       <c r="F179" t="s">
         <v>251</v>
       </c>
-      <c r="G179" s="12">
+      <c r="G179" s="11">
         <v>-2.5706840180000001</v>
       </c>
-      <c r="H179" s="12">
+      <c r="H179" s="11">
         <v>0.14015110092999999</v>
       </c>
-      <c r="I179" s="12">
+      <c r="I179" s="11">
         <v>2.1950242790000001E-2</v>
       </c>
       <c r="J179" t="e">
         <v>#N/A</v>
       </c>
       <c r="K179" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
+      <c r="A180" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B180" s="3" t="s">
         <v>162</v>
       </c>
@@ -6957,24 +7138,26 @@
       <c r="F180" t="s">
         <v>255</v>
       </c>
-      <c r="G180" s="12">
+      <c r="G180" s="11">
         <v>0.68751465899999997</v>
       </c>
-      <c r="H180" s="12">
+      <c r="H180" s="11">
         <v>8.2492865410000005E-2</v>
       </c>
-      <c r="I180" s="12">
+      <c r="I180" s="11">
         <v>0.10017862905</v>
       </c>
       <c r="J180" t="e">
         <v>#N/A</v>
       </c>
       <c r="K180" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
+      <c r="A181" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="2" t="s">
@@ -6986,24 +7169,26 @@
       <c r="F181" t="s">
         <v>255</v>
       </c>
-      <c r="G181" s="12">
+      <c r="G181" s="11">
         <v>0.67924821899999999</v>
       </c>
-      <c r="H181" s="12">
+      <c r="H181" s="11">
         <v>8.1343028079999991E-2</v>
       </c>
-      <c r="I181" s="12">
+      <c r="I181" s="11">
         <v>9.8275189040000002E-2</v>
       </c>
       <c r="J181" t="e">
         <v>#N/A</v>
       </c>
       <c r="K181" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
+      <c r="A182" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="2" t="s">
@@ -7015,24 +7200,26 @@
       <c r="F182" t="s">
         <v>255</v>
       </c>
-      <c r="G182" s="12">
+      <c r="G182" s="11">
         <v>0.73719732999999998</v>
       </c>
-      <c r="H182" s="12">
+      <c r="H182" s="11">
         <v>0</v>
       </c>
-      <c r="I182" s="12">
+      <c r="I182" s="11">
         <v>0</v>
       </c>
       <c r="J182" t="e">
         <v>#N/A</v>
       </c>
       <c r="K182" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
+      <c r="A183" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="2" t="s">
@@ -7044,24 +7231,26 @@
       <c r="F183" t="s">
         <v>255</v>
       </c>
-      <c r="G183" s="12">
+      <c r="G183" s="11">
         <v>0.68753516599999998</v>
       </c>
-      <c r="H183" s="12">
+      <c r="H183" s="11">
         <v>8.249291265E-2</v>
       </c>
-      <c r="I183" s="12">
+      <c r="I183" s="11">
         <v>0.10017870708</v>
       </c>
       <c r="J183" t="e">
         <v>#N/A</v>
       </c>
       <c r="K183" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
+      <c r="A184" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="2" t="s">
@@ -7073,20 +7262,20 @@
       <c r="F184" t="s">
         <v>255</v>
       </c>
-      <c r="G184" s="12">
+      <c r="G184" s="11">
         <v>0.72476873500000005</v>
       </c>
-      <c r="H184" s="12">
+      <c r="H184" s="11">
         <v>8.6557572149999998E-2</v>
       </c>
-      <c r="I184" s="12">
+      <c r="I184" s="11">
         <v>0.10514047894</v>
       </c>
       <c r="J184" t="e">
         <v>#N/A</v>
       </c>
       <c r="K184" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -7108,24 +7297,26 @@
       <c r="F185" t="s">
         <v>249</v>
       </c>
-      <c r="G185" s="12">
+      <c r="G185" s="11">
         <v>0.64224973399999996</v>
       </c>
-      <c r="H185" s="12">
+      <c r="H185" s="11">
         <v>8.0032774469999998E-2</v>
       </c>
-      <c r="I185" s="12">
+      <c r="I185" s="11">
         <v>0</v>
       </c>
       <c r="J185" t="e">
         <v>#N/A</v>
       </c>
       <c r="K185" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
+      <c r="A186" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B186" s="3" t="s">
         <v>167</v>
       </c>
@@ -7141,24 +7332,26 @@
       <c r="F186" t="s">
         <v>249</v>
       </c>
-      <c r="G186" s="12">
+      <c r="G186" s="11">
         <v>0.64137808200000002</v>
       </c>
-      <c r="H186" s="12">
+      <c r="H186" s="11">
         <v>8.0049946420000004E-2</v>
       </c>
-      <c r="I186" s="12">
+      <c r="I186" s="11">
         <v>0</v>
       </c>
       <c r="J186" t="e">
         <v>#N/A</v>
       </c>
       <c r="K186" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="4"/>
+      <c r="A187" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B187" s="3" t="s">
         <v>169</v>
       </c>
@@ -7174,24 +7367,26 @@
       <c r="F187" t="s">
         <v>249</v>
       </c>
-      <c r="G187" s="12">
+      <c r="G187" s="11">
         <v>0.63531634800000003</v>
       </c>
-      <c r="H187" s="12">
+      <c r="H187" s="11">
         <v>8.5639915759999991E-2</v>
       </c>
-      <c r="I187" s="12">
+      <c r="I187" s="11">
         <v>0</v>
       </c>
       <c r="J187" t="e">
         <v>#N/A</v>
       </c>
       <c r="K187" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
+      <c r="A188" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B188" s="3" t="s">
         <v>171</v>
       </c>
@@ -7207,24 +7402,26 @@
       <c r="F188" t="s">
         <v>249</v>
       </c>
-      <c r="G188" s="12">
+      <c r="G188" s="11">
         <v>0.59436610300000003</v>
       </c>
-      <c r="H188" s="12">
+      <c r="H188" s="11">
         <v>7.4309254859999993E-2</v>
       </c>
-      <c r="I188" s="12">
+      <c r="I188" s="11">
         <v>0</v>
       </c>
       <c r="J188" t="e">
         <v>#N/A</v>
       </c>
       <c r="K188" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
+      <c r="A189" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B189" s="3" t="s">
         <v>173</v>
       </c>
@@ -7240,24 +7437,26 @@
       <c r="F189" t="s">
         <v>249</v>
       </c>
-      <c r="G189" s="12">
+      <c r="G189" s="11">
         <v>0.59436610300000003</v>
       </c>
-      <c r="H189" s="12">
+      <c r="H189" s="11">
         <v>7.4309254859999993E-2</v>
       </c>
-      <c r="I189" s="12">
+      <c r="I189" s="11">
         <v>0</v>
       </c>
       <c r="J189" t="e">
         <v>#N/A</v>
       </c>
       <c r="K189" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
+      <c r="A190" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B190" s="3" t="s">
         <v>175</v>
       </c>
@@ -7273,20 +7472,20 @@
       <c r="F190" t="s">
         <v>249</v>
       </c>
-      <c r="G190" s="12">
+      <c r="G190" s="11">
         <v>0.59431921600000004</v>
       </c>
-      <c r="H190" s="12">
+      <c r="H190" s="11">
         <v>7.4309651209999994E-2</v>
       </c>
-      <c r="I190" s="12">
+      <c r="I190" s="11">
         <v>0</v>
       </c>
       <c r="J190" t="e">
         <v>#N/A</v>
       </c>
       <c r="K190" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -7308,24 +7507,26 @@
       <c r="F191" t="s">
         <v>268</v>
       </c>
-      <c r="G191" s="12">
+      <c r="G191" s="11">
         <v>-1.0672895229999999</v>
       </c>
-      <c r="H191" s="12">
+      <c r="H191" s="11">
         <v>2.740817206E-2</v>
       </c>
-      <c r="I191" s="12">
+      <c r="I191" s="11">
         <v>9.6386770199999999E-3</v>
       </c>
       <c r="J191" t="s">
         <v>286</v>
       </c>
       <c r="K191" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
+      <c r="A192" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="2" t="s">
@@ -7337,24 +7538,26 @@
       <c r="F192" t="s">
         <v>268</v>
       </c>
-      <c r="G192" s="12">
+      <c r="G192" s="11">
         <v>-0.94124522700000002</v>
       </c>
-      <c r="H192" s="12">
+      <c r="H192" s="11">
         <v>4.0701415890000002E-2</v>
       </c>
-      <c r="I192" s="12">
+      <c r="I192" s="11">
         <v>2.5353413960000001E-2</v>
       </c>
       <c r="J192" t="e">
         <v>#N/A</v>
       </c>
       <c r="K192" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
+      <c r="A193" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="2" t="s">
@@ -7366,24 +7569,26 @@
       <c r="F193" t="s">
         <v>268</v>
       </c>
-      <c r="G193" s="12">
+      <c r="G193" s="11">
         <v>0</v>
       </c>
-      <c r="H193" s="12">
+      <c r="H193" s="11">
         <v>0</v>
       </c>
-      <c r="I193" s="12">
+      <c r="I193" s="11">
         <v>0</v>
       </c>
       <c r="J193" t="e">
         <v>#N/A</v>
       </c>
       <c r="K193" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
+      <c r="A194" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B194" s="3" t="s">
         <v>182</v>
       </c>
@@ -7399,24 +7604,26 @@
       <c r="F194" t="s">
         <v>250</v>
       </c>
-      <c r="G194" s="12">
+      <c r="G194" s="11">
         <v>-3.8602735530000003</v>
       </c>
-      <c r="H194" s="12">
+      <c r="H194" s="11">
         <v>4.6997428570000006E-2</v>
       </c>
-      <c r="I194" s="12">
+      <c r="I194" s="11">
         <v>-5.3483668079999998E-2</v>
       </c>
       <c r="J194" t="s">
         <v>287</v>
       </c>
       <c r="K194" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
+      <c r="A195" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="2" t="s">
@@ -7428,24 +7635,26 @@
       <c r="F195" t="s">
         <v>250</v>
       </c>
-      <c r="G195" s="12">
+      <c r="G195" s="11">
         <v>-3.653204584</v>
       </c>
-      <c r="H195" s="12">
+      <c r="H195" s="11">
         <v>7.0116861439999997E-2</v>
       </c>
-      <c r="I195" s="12">
+      <c r="I195" s="11">
         <v>-2.8341832099999999E-2</v>
       </c>
       <c r="J195" t="e">
         <v>#N/A</v>
       </c>
       <c r="K195" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
+      <c r="A196" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="2" t="s">
@@ -7457,24 +7666,26 @@
       <c r="F196" t="s">
         <v>250</v>
       </c>
-      <c r="G196" s="12">
+      <c r="G196" s="11">
         <v>-3.5692540049999999</v>
       </c>
-      <c r="H196" s="12">
+      <c r="H196" s="11">
         <v>7.956097509E-2</v>
       </c>
-      <c r="I196" s="12">
+      <c r="I196" s="11">
         <v>-1.8028864749999998E-2</v>
       </c>
       <c r="J196" t="e">
         <v>#N/A</v>
       </c>
       <c r="K196" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
+      <c r="A197" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B197" s="3" t="s">
         <v>184</v>
       </c>
@@ -7490,24 +7701,26 @@
       <c r="F197" t="s">
         <v>252</v>
       </c>
-      <c r="G197" s="12">
+      <c r="G197" s="11">
         <v>-7.6008285630000003</v>
       </c>
-      <c r="H197" s="12">
+      <c r="H197" s="11">
         <v>-5.6136717199999995E-3</v>
       </c>
-      <c r="I197" s="12">
+      <c r="I197" s="11">
         <v>9.9229245999999998E-4</v>
       </c>
       <c r="J197" t="s">
         <v>288</v>
       </c>
       <c r="K197" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
+      <c r="A198" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="2" t="s">
@@ -7519,24 +7732,26 @@
       <c r="F198" t="s">
         <v>252</v>
       </c>
-      <c r="G198" s="12">
+      <c r="G198" s="11">
         <v>-7.2892950580000004</v>
       </c>
-      <c r="H198" s="12">
+      <c r="H198" s="11">
         <v>2.0776448360000001E-2</v>
       </c>
-      <c r="I198" s="12">
+      <c r="I198" s="11">
         <v>0</v>
       </c>
       <c r="J198" t="e">
         <v>#N/A</v>
       </c>
       <c r="K198" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
+      <c r="A199" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="2" t="s">
@@ -7548,24 +7763,26 @@
       <c r="F199" t="s">
         <v>252</v>
       </c>
-      <c r="G199" s="12">
+      <c r="G199" s="11">
         <v>-7.535313511</v>
       </c>
-      <c r="H199" s="12">
+      <c r="H199" s="11">
         <v>1.52698082E-3</v>
       </c>
-      <c r="I199" s="12">
+      <c r="I199" s="11">
         <v>9.87503887E-3</v>
       </c>
       <c r="J199" t="e">
         <v>#N/A</v>
       </c>
       <c r="K199" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
+      <c r="A200" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="2" t="s">
@@ -7577,24 +7794,26 @@
       <c r="F200" t="s">
         <v>252</v>
       </c>
-      <c r="G200" s="12">
+      <c r="G200" s="11">
         <v>-7.3315861250000003</v>
       </c>
-      <c r="H200" s="12">
+      <c r="H200" s="11">
         <v>2.353959823E-2</v>
       </c>
-      <c r="I200" s="12">
+      <c r="I200" s="11">
         <v>3.6452132559999996E-2</v>
       </c>
       <c r="J200" t="e">
         <v>#N/A</v>
       </c>
       <c r="K200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
+      <c r="A201" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B201" s="3" t="s">
         <v>187</v>
       </c>
@@ -7610,24 +7829,26 @@
       <c r="F201" t="s">
         <v>252</v>
       </c>
-      <c r="G201" s="12">
+      <c r="G201" s="11">
         <v>-7.4794805239999995</v>
       </c>
-      <c r="H201" s="12">
+      <c r="H201" s="11">
         <v>1.243142578E-2</v>
       </c>
-      <c r="I201" s="12">
+      <c r="I201" s="11">
         <v>2.6852986129999999E-2</v>
       </c>
       <c r="J201" t="s">
         <v>288</v>
       </c>
       <c r="K201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
+      <c r="A202" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="2" t="s">
@@ -7639,24 +7860,26 @@
       <c r="F202" t="s">
         <v>252</v>
       </c>
-      <c r="G202" s="12">
+      <c r="G202" s="11">
         <v>-7.2895217600000004</v>
       </c>
-      <c r="H202" s="12">
+      <c r="H202" s="11">
         <v>3.3717826249999999E-2</v>
       </c>
-      <c r="I202" s="12">
+      <c r="I202" s="11">
         <v>5.2830557950000002E-2</v>
       </c>
       <c r="J202" t="e">
         <v>#N/A</v>
       </c>
       <c r="K202" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
+      <c r="A203" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="2" t="s">
@@ -7668,24 +7891,26 @@
       <c r="F203" t="s">
         <v>252</v>
       </c>
-      <c r="G203" s="12">
+      <c r="G203" s="11">
         <v>0</v>
       </c>
-      <c r="H203" s="12">
+      <c r="H203" s="11">
         <v>0</v>
       </c>
-      <c r="I203" s="12">
+      <c r="I203" s="11">
         <v>0</v>
       </c>
       <c r="J203" t="e">
         <v>#N/A</v>
       </c>
       <c r="K203" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
+      <c r="A204" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B204" s="3" t="s">
         <v>189</v>
       </c>
@@ -7701,24 +7926,26 @@
       <c r="F204" t="s">
         <v>267</v>
       </c>
-      <c r="G204" s="12">
+      <c r="G204" s="11">
         <v>-3.264826733</v>
       </c>
-      <c r="H204" s="12">
+      <c r="H204" s="11">
         <v>4.8060767650000003E-2</v>
       </c>
-      <c r="I204" s="12">
+      <c r="I204" s="11">
         <v>1.620230932E-2</v>
       </c>
       <c r="J204" t="s">
         <v>286</v>
       </c>
       <c r="K204" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
+      <c r="A205" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="2" t="s">
@@ -7730,24 +7957,26 @@
       <c r="F205" t="s">
         <v>267</v>
       </c>
-      <c r="G205" s="12">
+      <c r="G205" s="11">
         <v>-3.1120064520000001</v>
       </c>
-      <c r="H205" s="12">
+      <c r="H205" s="11">
         <v>6.5333102710000007E-2</v>
       </c>
-      <c r="I205" s="12">
+      <c r="I205" s="11">
         <v>3.6407357029999997E-2</v>
       </c>
       <c r="J205" t="e">
         <v>#N/A</v>
       </c>
       <c r="K205" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
+      <c r="A206" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B206" s="3" t="s">
         <v>191</v>
       </c>
@@ -7763,24 +7992,26 @@
       <c r="F206" t="s">
         <v>257</v>
       </c>
-      <c r="G206" s="12">
+      <c r="G206" s="11">
         <v>-2.0783183219999999</v>
       </c>
-      <c r="H206" s="12">
+      <c r="H206" s="11">
         <v>5.1320537359999994E-2</v>
       </c>
-      <c r="I206" s="12">
+      <c r="I206" s="11">
         <v>4.2638320260000001E-2</v>
       </c>
       <c r="J206" t="s">
         <v>286</v>
       </c>
       <c r="K206" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
+      <c r="A207" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="2" t="s">
@@ -7792,24 +8023,26 @@
       <c r="F207" t="s">
         <v>257</v>
       </c>
-      <c r="G207" s="12">
+      <c r="G207" s="11">
         <v>-1.9536996310000003</v>
       </c>
-      <c r="H207" s="12">
+      <c r="H207" s="11">
         <v>6.5103590899999994E-2</v>
       </c>
-      <c r="I207" s="12">
+      <c r="I207" s="11">
         <v>5.9027119719999993E-2</v>
       </c>
       <c r="J207" t="e">
         <v>#N/A</v>
       </c>
       <c r="K207" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
+      <c r="A208" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B208" s="3" t="s">
         <v>193</v>
       </c>
@@ -7825,24 +8058,26 @@
       <c r="F208" t="s">
         <v>276</v>
       </c>
-      <c r="G208" s="12">
+      <c r="G208" s="11">
         <v>-2.2742124179999998</v>
       </c>
-      <c r="H208" s="12">
+      <c r="H208" s="11">
         <v>-6.4027124990000003E-2</v>
       </c>
-      <c r="I208" s="12">
+      <c r="I208" s="11">
         <v>-6.8888709699999997E-3</v>
       </c>
       <c r="J208" t="s">
         <v>289</v>
       </c>
       <c r="K208" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
+      <c r="A209" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="2" t="s">
@@ -7854,24 +8089,26 @@
       <c r="F209" t="s">
         <v>276</v>
       </c>
-      <c r="G209" s="12">
+      <c r="G209" s="11">
         <v>-2.121571206</v>
       </c>
-      <c r="H209" s="12">
+      <c r="H209" s="11">
         <v>-5.0793747559999998E-2</v>
       </c>
-      <c r="I209" s="12">
+      <c r="I209" s="11">
         <v>9.7626456900000002E-3</v>
       </c>
       <c r="J209" t="e">
         <v>#N/A</v>
       </c>
       <c r="K209" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
+      <c r="A210" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="2" t="s">
@@ -7883,24 +8120,26 @@
       <c r="F210" t="s">
         <v>276</v>
       </c>
-      <c r="G210" s="12">
+      <c r="G210" s="11">
         <v>-2.0740404300000002</v>
       </c>
-      <c r="H210" s="12">
+      <c r="H210" s="11">
         <v>-4.4416981900000006E-2</v>
       </c>
-      <c r="I210" s="12">
+      <c r="I210" s="11">
         <v>1.814578641E-2</v>
       </c>
       <c r="J210" t="e">
         <v>#N/A</v>
       </c>
       <c r="K210" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
+      <c r="A211" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B211" s="3" t="s">
         <v>195</v>
       </c>
@@ -7916,24 +8155,26 @@
       <c r="F211" t="s">
         <v>262</v>
       </c>
-      <c r="G211" s="12">
+      <c r="G211" s="11">
         <v>-1.3115858030000001</v>
       </c>
-      <c r="H211" s="12">
+      <c r="H211" s="11">
         <v>-1.2577633210000001E-2</v>
       </c>
-      <c r="I211" s="12">
+      <c r="I211" s="11">
         <v>3.6918739159999998E-2</v>
       </c>
       <c r="J211" t="s">
         <v>290</v>
       </c>
       <c r="K211" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
+      <c r="A212" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="2" t="s">
@@ -7945,24 +8186,26 @@
       <c r="F212" t="s">
         <v>262</v>
       </c>
-      <c r="G212" s="12">
+      <c r="G212" s="11">
         <v>-1.2153712649999999</v>
       </c>
-      <c r="H212" s="12">
+      <c r="H212" s="11">
         <v>-4.5799784200000002E-3</v>
       </c>
-      <c r="I212" s="12">
+      <c r="I212" s="11">
         <v>4.6773471269999999E-2</v>
       </c>
       <c r="J212" t="e">
         <v>#N/A</v>
       </c>
       <c r="K212" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
+      <c r="A213" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="2" t="s">
@@ -7974,24 +8217,26 @@
       <c r="F213" t="s">
         <v>262</v>
       </c>
-      <c r="G213" s="12">
+      <c r="G213" s="11">
         <v>-1.1674601579999999</v>
       </c>
-      <c r="H213" s="12">
+      <c r="H213" s="11">
         <v>2.13287168E-3</v>
       </c>
-      <c r="I213" s="12">
+      <c r="I213" s="11">
         <v>5.549402698E-2</v>
       </c>
       <c r="J213" t="e">
         <v>#N/A</v>
       </c>
       <c r="K213" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
+      <c r="A214" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B214" s="3" t="s">
         <v>197</v>
       </c>
@@ -8007,24 +8252,26 @@
       <c r="F214" t="s">
         <v>250</v>
       </c>
-      <c r="G214" s="12">
+      <c r="G214" s="11">
         <v>-5.0475486470000002</v>
       </c>
-      <c r="H214" s="12">
+      <c r="H214" s="11">
         <v>3.2212539130000002E-2</v>
       </c>
-      <c r="I214" s="12">
+      <c r="I214" s="11">
         <v>-0.103137706</v>
       </c>
       <c r="J214" t="s">
         <v>287</v>
       </c>
       <c r="K214" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
+      <c r="A215" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="2" t="s">
@@ -8036,24 +8283,26 @@
       <c r="F215" t="s">
         <v>250</v>
       </c>
-      <c r="G215" s="12">
+      <c r="G215" s="11">
         <v>-4.8003157720000003</v>
       </c>
-      <c r="H215" s="12">
+      <c r="H215" s="11">
         <v>5.4371829349999998E-2</v>
       </c>
-      <c r="I215" s="12">
+      <c r="I215" s="11">
         <v>-8.0396366499999997E-2</v>
       </c>
       <c r="J215" t="e">
         <v>#N/A</v>
       </c>
       <c r="K215" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
+      <c r="A216" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="2" t="s">
@@ -8065,24 +8314,26 @@
       <c r="F216" t="s">
         <v>250</v>
       </c>
-      <c r="G216" s="12">
+      <c r="G216" s="11">
         <v>-4.7607105780000003</v>
       </c>
-      <c r="H216" s="12">
+      <c r="H216" s="11">
         <v>6.4250723610000005E-2</v>
       </c>
-      <c r="I216" s="12">
+      <c r="I216" s="11">
         <v>-6.9611098869999999E-2</v>
       </c>
       <c r="J216" t="e">
         <v>#N/A</v>
       </c>
       <c r="K216" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
+      <c r="A217" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B217" s="3" t="s">
         <v>199</v>
       </c>
@@ -8098,24 +8349,26 @@
       <c r="F217" t="s">
         <v>278</v>
       </c>
-      <c r="G217" s="12">
+      <c r="G217" s="11">
         <v>-2.4220115729999998</v>
       </c>
-      <c r="H217" s="12">
+      <c r="H217" s="11">
         <v>0.13453629220999999</v>
       </c>
-      <c r="I217" s="12">
+      <c r="I217" s="11">
         <v>0.29696910496000001</v>
       </c>
       <c r="J217" t="e">
         <v>#N/A</v>
       </c>
       <c r="K217" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
+      <c r="A218" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B218" s="3" t="s">
         <v>201</v>
       </c>
@@ -8131,24 +8384,26 @@
       <c r="F218" t="s">
         <v>277</v>
       </c>
-      <c r="G218" s="12">
+      <c r="G218" s="11">
         <v>-4.3203943730000001</v>
       </c>
-      <c r="H218" s="12">
+      <c r="H218" s="11">
         <v>-3.3087465939999998E-2</v>
       </c>
-      <c r="I218" s="12">
+      <c r="I218" s="11">
         <v>2.0841138929999999E-2</v>
       </c>
       <c r="J218" t="s">
         <v>289</v>
       </c>
       <c r="K218" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
+      <c r="A219" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="2" t="s">
@@ -8160,24 +8415,26 @@
       <c r="F219" t="s">
         <v>277</v>
       </c>
-      <c r="G219" s="12">
+      <c r="G219" s="11">
         <v>-4.0289447750000003</v>
       </c>
-      <c r="H219" s="12">
+      <c r="H219" s="11">
         <v>-2.8765744500000002E-3</v>
       </c>
-      <c r="I219" s="12">
+      <c r="I219" s="11">
         <v>5.9396362079999994E-2</v>
       </c>
       <c r="J219" t="e">
         <v>#N/A</v>
       </c>
       <c r="K219" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
+      <c r="A220" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="2" t="s">
@@ -8189,24 +8446,26 @@
       <c r="F220" t="s">
         <v>277</v>
       </c>
-      <c r="G220" s="12">
+      <c r="G220" s="11">
         <v>-3.9554936820000006</v>
       </c>
-      <c r="H220" s="12">
+      <c r="H220" s="11">
         <v>4.9380519400000003E-3</v>
       </c>
-      <c r="I220" s="12">
+      <c r="I220" s="11">
         <v>6.9231378809999994E-2</v>
       </c>
       <c r="J220" t="e">
         <v>#N/A</v>
       </c>
       <c r="K220" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
+      <c r="A221" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B221" s="3" t="s">
         <v>203</v>
       </c>
@@ -8222,24 +8481,26 @@
       <c r="F221" t="s">
         <v>255</v>
       </c>
-      <c r="G221" s="12">
+      <c r="G221" s="11">
         <v>0.70479399899999995</v>
       </c>
-      <c r="H221" s="12">
+      <c r="H221" s="11">
         <v>8.5023648919999986E-2</v>
       </c>
-      <c r="I221" s="12">
+      <c r="I221" s="11">
         <v>0.10339623272000001</v>
       </c>
       <c r="J221" t="s">
         <v>290</v>
       </c>
       <c r="K221" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
+      <c r="A222" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="2" t="s">
@@ -8251,24 +8512,26 @@
       <c r="F222" t="s">
         <v>255</v>
       </c>
-      <c r="G222" s="12">
+      <c r="G222" s="11">
         <v>0.727627837</v>
       </c>
-      <c r="H222" s="12">
+      <c r="H222" s="11">
         <v>8.6600573389999991E-2</v>
       </c>
-      <c r="I222" s="12">
+      <c r="I222" s="11">
         <v>0.10538675468999999</v>
       </c>
       <c r="J222" t="e">
         <v>#N/A</v>
       </c>
       <c r="K222" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
+      <c r="A223" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="2" t="s">
@@ -8280,24 +8543,26 @@
       <c r="F223" t="s">
         <v>255</v>
       </c>
-      <c r="G223" s="12">
+      <c r="G223" s="11">
         <v>0.76328586600000004</v>
       </c>
-      <c r="H223" s="12">
+      <c r="H223" s="11">
         <v>9.3004038629999994E-2</v>
       </c>
-      <c r="I223" s="12">
+      <c r="I223" s="11">
         <v>0.11376859620999999</v>
       </c>
       <c r="J223" t="e">
         <v>#N/A</v>
       </c>
       <c r="K223" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
+      <c r="A224" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B224" s="3" t="s">
         <v>205</v>
       </c>
@@ -8313,24 +8578,26 @@
       <c r="F224" t="s">
         <v>251</v>
       </c>
-      <c r="G224" s="12">
+      <c r="G224" s="11">
         <v>-2.4095835050000001</v>
       </c>
-      <c r="H224" s="12">
+      <c r="H224" s="11">
         <v>0.10078323165</v>
       </c>
-      <c r="I224" s="12">
+      <c r="I224" s="11">
         <v>-1.525020614E-2</v>
       </c>
       <c r="J224" t="s">
         <v>289</v>
       </c>
       <c r="K224" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
+      <c r="A225" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="2" t="s">
@@ -8342,24 +8609,26 @@
       <c r="F225" t="s">
         <v>251</v>
       </c>
-      <c r="G225" s="12">
+      <c r="G225" s="11">
         <v>-2.113479441</v>
       </c>
-      <c r="H225" s="12">
+      <c r="H225" s="11">
         <v>0.13521393013000002</v>
       </c>
-      <c r="I225" s="12">
+      <c r="I225" s="11">
         <v>2.1905769919999998E-2</v>
       </c>
       <c r="J225" t="e">
         <v>#N/A</v>
       </c>
       <c r="K225" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
+      <c r="A226" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="2" t="s">
@@ -8371,24 +8640,26 @@
       <c r="F226" t="s">
         <v>251</v>
       </c>
-      <c r="G226" s="12">
+      <c r="G226" s="11">
         <v>-2.0373903539999998</v>
       </c>
-      <c r="H226" s="12">
+      <c r="H226" s="11">
         <v>0.14407347140000001</v>
       </c>
-      <c r="I226" s="12">
+      <c r="I226" s="11">
         <v>3.142929597E-2</v>
       </c>
       <c r="J226" t="e">
         <v>#N/A</v>
       </c>
       <c r="K226" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
+      <c r="A227" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B227" s="3" t="s">
         <v>207</v>
       </c>
@@ -8404,24 +8675,26 @@
       <c r="F227" t="s">
         <v>279</v>
       </c>
-      <c r="G227" s="12">
+      <c r="G227" s="11">
         <v>-0.74956325199999996</v>
       </c>
-      <c r="H227" s="12">
+      <c r="H227" s="11">
         <v>3.5780872330000005E-2</v>
       </c>
-      <c r="I227" s="12">
+      <c r="I227" s="11">
         <v>4.7771190900000003E-3</v>
       </c>
       <c r="J227" t="s">
         <v>287</v>
       </c>
       <c r="K227" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
+      <c r="A228" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="2" t="s">
@@ -8433,24 +8706,26 @@
       <c r="F228" t="s">
         <v>279</v>
       </c>
-      <c r="G228" s="12">
+      <c r="G228" s="11">
         <v>-0.45219036899999998</v>
       </c>
-      <c r="H228" s="12">
+      <c r="H228" s="11">
         <v>0</v>
       </c>
-      <c r="I228" s="12">
+      <c r="I228" s="11">
         <v>0</v>
       </c>
       <c r="J228" t="e">
         <v>#N/A</v>
       </c>
       <c r="K228" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
+      <c r="A229" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="2" t="s">
@@ -8462,24 +8737,26 @@
       <c r="F229" t="s">
         <v>279</v>
       </c>
-      <c r="G229" s="12">
+      <c r="G229" s="11">
         <v>-0.53755325799999998</v>
       </c>
-      <c r="H229" s="12">
+      <c r="H229" s="11">
         <v>5.843043757E-2</v>
       </c>
-      <c r="I229" s="12">
+      <c r="I229" s="11">
         <v>3.1212008329999999E-2</v>
       </c>
       <c r="J229" t="e">
         <v>#N/A</v>
       </c>
       <c r="K229" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
+      <c r="A230" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B230" s="3" t="s">
         <v>209</v>
       </c>
@@ -8495,24 +8772,26 @@
       <c r="F230" t="s">
         <v>267</v>
       </c>
-      <c r="G230" s="12">
+      <c r="G230" s="11">
         <v>-2.8582588539999998</v>
       </c>
-      <c r="H230" s="12">
+      <c r="H230" s="11">
         <v>3.9967388E-2</v>
       </c>
-      <c r="I230" s="12">
+      <c r="I230" s="11">
         <v>1.762337906E-2</v>
       </c>
       <c r="J230" t="s">
         <v>289</v>
       </c>
       <c r="K230" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
+      <c r="A231" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="2" t="s">
@@ -8524,24 +8803,26 @@
       <c r="F231" t="s">
         <v>267</v>
       </c>
-      <c r="G231" s="12">
+      <c r="G231" s="11">
         <v>-2.6852273840000001</v>
       </c>
-      <c r="H231" s="12">
+      <c r="H231" s="11">
         <v>5.8554196579999995E-2</v>
       </c>
-      <c r="I231" s="12">
+      <c r="I231" s="11">
         <v>3.9366856749999998E-2</v>
       </c>
       <c r="J231" t="e">
         <v>#N/A</v>
       </c>
       <c r="K231" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
+      <c r="A232" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="2" t="s">
@@ -8553,24 +8834,26 @@
       <c r="F232" t="s">
         <v>267</v>
       </c>
-      <c r="G232" s="12">
+      <c r="G232" s="11">
         <v>-2.6108549170000002</v>
       </c>
-      <c r="H232" s="12">
+      <c r="H232" s="11">
         <v>0</v>
       </c>
-      <c r="I232" s="12">
+      <c r="I232" s="11">
         <v>0</v>
       </c>
       <c r="J232" t="e">
         <v>#N/A</v>
       </c>
       <c r="K232" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
+      <c r="A233" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B233" s="3" t="s">
         <v>211</v>
       </c>
@@ -8586,24 +8869,26 @@
       <c r="F233" t="s">
         <v>257</v>
       </c>
-      <c r="G233" s="12">
+      <c r="G233" s="11">
         <v>-2.7613366529999999</v>
       </c>
-      <c r="H233" s="12">
+      <c r="H233" s="11">
         <v>-1.348963037E-2</v>
       </c>
-      <c r="I233" s="12">
+      <c r="I233" s="11">
         <v>7.5727556199999997E-3</v>
       </c>
       <c r="J233" t="s">
         <v>289</v>
       </c>
       <c r="K233" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
+      <c r="A234" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="2" t="s">
@@ -8615,24 +8900,26 @@
       <c r="F234" t="s">
         <v>257</v>
       </c>
-      <c r="G234" s="12">
+      <c r="G234" s="11">
         <v>-2.60725563</v>
       </c>
-      <c r="H234" s="12">
+      <c r="H234" s="11">
         <v>-1.01722861E-3</v>
       </c>
-      <c r="I234" s="12">
+      <c r="I234" s="11">
         <v>1.8991125519999999E-2</v>
       </c>
       <c r="J234" t="e">
         <v>#N/A</v>
       </c>
       <c r="K234" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
+      <c r="A235" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="2" t="s">
@@ -8644,24 +8931,26 @@
       <c r="F235" t="s">
         <v>257</v>
       </c>
-      <c r="G235" s="12">
+      <c r="G235" s="11">
         <v>-2.5126905800000001</v>
       </c>
-      <c r="H235" s="12">
+      <c r="H235" s="11">
         <v>1.6791960290000001E-2</v>
       </c>
-      <c r="I235" s="12">
+      <c r="I235" s="11">
         <v>4.386739756E-2</v>
       </c>
       <c r="J235" t="e">
         <v>#N/A</v>
       </c>
       <c r="K235" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
+      <c r="A236" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B236" s="3" t="s">
         <v>213</v>
       </c>
@@ -8677,24 +8966,26 @@
       <c r="F236" t="s">
         <v>268</v>
       </c>
-      <c r="G236" s="12">
+      <c r="G236" s="11">
         <v>-3.4779305680000006</v>
       </c>
-      <c r="H236" s="12">
+      <c r="H236" s="11">
         <v>-8.2549738260000005E-2</v>
       </c>
-      <c r="I236" s="12">
+      <c r="I236" s="11">
         <v>-9.0014289300000012E-3</v>
       </c>
       <c r="J236" t="s">
         <v>290</v>
       </c>
       <c r="K236" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
+      <c r="A237" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="2" t="s">
@@ -8706,24 +8997,26 @@
       <c r="F237" t="s">
         <v>268</v>
       </c>
-      <c r="G237" s="12">
+      <c r="G237" s="11">
         <v>0</v>
       </c>
-      <c r="H237" s="12">
+      <c r="H237" s="11">
         <v>-8.4619804100000001E-3</v>
       </c>
-      <c r="I237" s="12">
+      <c r="I237" s="11">
         <v>6.2658253750000004E-2</v>
       </c>
       <c r="J237" t="e">
         <v>#N/A</v>
       </c>
       <c r="K237" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
+      <c r="A238" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="2" t="s">
@@ -8735,24 +9028,26 @@
       <c r="F238" t="s">
         <v>268</v>
       </c>
-      <c r="G238" s="12">
+      <c r="G238" s="11">
         <v>0</v>
       </c>
-      <c r="H238" s="12">
+      <c r="H238" s="11">
         <v>0</v>
       </c>
-      <c r="I238" s="12">
+      <c r="I238" s="11">
         <v>0</v>
       </c>
       <c r="J238" t="e">
         <v>#N/A</v>
       </c>
       <c r="K238" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
+      <c r="A239" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B239" s="3" t="s">
         <v>215</v>
       </c>
@@ -8768,24 +9063,26 @@
       <c r="F239" t="s">
         <v>263</v>
       </c>
-      <c r="G239" s="12">
+      <c r="G239" s="11">
         <v>-1.216488835</v>
       </c>
-      <c r="H239" s="12">
+      <c r="H239" s="11">
         <v>6.8188035999999994E-3</v>
       </c>
-      <c r="I239" s="12">
+      <c r="I239" s="11">
         <v>4.0663017060000001E-2</v>
       </c>
       <c r="J239" t="s">
         <v>290</v>
       </c>
       <c r="K239" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
+      <c r="A240" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="2" t="s">
@@ -8797,24 +9094,26 @@
       <c r="F240" t="s">
         <v>263</v>
       </c>
-      <c r="G240" s="12">
+      <c r="G240" s="11">
         <v>-1.1292579970000001</v>
       </c>
-      <c r="H240" s="12">
+      <c r="H240" s="11">
         <v>1.477149805E-2</v>
       </c>
-      <c r="I240" s="12">
+      <c r="I240" s="11">
         <v>4.4925213960000002E-2</v>
       </c>
       <c r="J240" t="e">
         <v>#N/A</v>
       </c>
       <c r="K240" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
+      <c r="A241" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="2" t="s">
@@ -8826,24 +9125,26 @@
       <c r="F241" t="s">
         <v>263</v>
       </c>
-      <c r="G241" s="12">
+      <c r="G241" s="11">
         <v>-1.0819395430000001</v>
       </c>
-      <c r="H241" s="12">
+      <c r="H241" s="11">
         <v>2.0802056979999997E-2</v>
       </c>
-      <c r="I241" s="12">
+      <c r="I241" s="11">
         <v>5.8040525959999999E-2</v>
       </c>
       <c r="J241" t="e">
         <v>#N/A</v>
       </c>
       <c r="K241" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
+      <c r="A242" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B242" s="3" t="s">
         <v>217</v>
       </c>
@@ -8859,24 +9160,26 @@
       <c r="F242" t="s">
         <v>273</v>
       </c>
-      <c r="G242" s="12">
+      <c r="G242" s="11">
         <v>-0.48208022</v>
       </c>
-      <c r="H242" s="12">
+      <c r="H242" s="11">
         <v>2.0331094169999998E-2</v>
       </c>
-      <c r="I242" s="12">
+      <c r="I242" s="11">
         <v>4.7389984260000004E-2</v>
       </c>
       <c r="J242" t="s">
         <v>290</v>
       </c>
       <c r="K242" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
+      <c r="A243" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="2" t="s">
@@ -8888,24 +9191,26 @@
       <c r="F243" t="s">
         <v>273</v>
       </c>
-      <c r="G243" s="12">
+      <c r="G243" s="11">
         <v>-0.39482206199999997</v>
       </c>
-      <c r="H243" s="12">
+      <c r="H243" s="11">
         <v>2.7575836360000001E-2</v>
       </c>
-      <c r="I243" s="12">
+      <c r="I243" s="11">
         <v>5.6086904100000001E-2</v>
       </c>
       <c r="J243" t="e">
         <v>#N/A</v>
       </c>
       <c r="K243" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
+      <c r="A244" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="2" t="s">
@@ -8917,24 +9222,26 @@
       <c r="F244" t="s">
         <v>273</v>
       </c>
-      <c r="G244" s="12">
+      <c r="G244" s="11">
         <v>-0.34649382099999998</v>
       </c>
-      <c r="H244" s="12">
+      <c r="H244" s="11">
         <v>3.4505907580000002E-2</v>
       </c>
-      <c r="I244" s="12">
+      <c r="I244" s="11">
         <v>6.4884803569999996E-2</v>
       </c>
       <c r="J244" t="e">
         <v>#N/A</v>
       </c>
       <c r="K244" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
+      <c r="A245" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B245" s="3" t="s">
         <v>219</v>
       </c>
@@ -8950,24 +9257,26 @@
       <c r="F245" t="s">
         <v>261</v>
       </c>
-      <c r="G245" s="12">
+      <c r="G245" s="11">
         <v>0.37369393099999998</v>
       </c>
-      <c r="H245" s="12">
+      <c r="H245" s="11">
         <v>7.1361699479999999E-2</v>
       </c>
-      <c r="I245" s="12">
+      <c r="I245" s="11">
         <v>8.988395427000001E-2</v>
       </c>
       <c r="J245" t="s">
         <v>290</v>
       </c>
       <c r="K245" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
+      <c r="A246" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="2" t="s">
@@ -8979,24 +9288,26 @@
       <c r="F246" t="s">
         <v>261</v>
       </c>
-      <c r="G246" s="12">
+      <c r="G246" s="11">
         <v>0.40372472100000001</v>
       </c>
-      <c r="H246" s="12">
+      <c r="H246" s="11">
         <v>7.5658426360000003E-2</v>
       </c>
-      <c r="I246" s="12">
+      <c r="I246" s="11">
         <v>7.8786754299999998E-2</v>
       </c>
       <c r="J246" t="e">
         <v>#N/A</v>
       </c>
       <c r="K246" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
+      <c r="A247" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="2" t="s">
@@ -9008,24 +9319,26 @@
       <c r="F247" t="s">
         <v>261</v>
       </c>
-      <c r="G247" s="12">
+      <c r="G247" s="11">
         <v>0.45242174699999993</v>
       </c>
-      <c r="H247" s="12">
+      <c r="H247" s="11">
         <v>7.9907480109999998E-2</v>
       </c>
-      <c r="I247" s="12">
+      <c r="I247" s="11">
         <v>0.10033028579</v>
       </c>
       <c r="J247" t="e">
         <v>#N/A</v>
       </c>
       <c r="K247" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
+      <c r="A248" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B248" s="3" t="s">
         <v>221</v>
       </c>
@@ -9041,24 +9354,26 @@
       <c r="F248" t="s">
         <v>280</v>
       </c>
-      <c r="G248" s="12">
+      <c r="G248" s="11">
         <v>-7.4147835989999997</v>
       </c>
-      <c r="H248" s="12">
+      <c r="H248" s="11">
         <v>2.4499018979999999E-2</v>
       </c>
-      <c r="I248" s="12">
+      <c r="I248" s="11">
         <v>-9.5178582390000002E-2</v>
       </c>
       <c r="J248" t="s">
         <v>287</v>
       </c>
       <c r="K248" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="4"/>
+      <c r="A249" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="2" t="s">
@@ -9070,24 +9385,26 @@
       <c r="F249" t="s">
         <v>280</v>
       </c>
-      <c r="G249" s="12">
+      <c r="G249" s="11">
         <v>-7.0920550349999996</v>
       </c>
-      <c r="H249" s="12">
+      <c r="H249" s="11">
         <v>6.1841896930000001E-2</v>
       </c>
-      <c r="I249" s="12">
+      <c r="I249" s="11">
         <v>-5.5629528239999997E-2</v>
       </c>
       <c r="J249" t="e">
         <v>#N/A</v>
       </c>
       <c r="K249" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
+      <c r="A250" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="2" t="s">
@@ -9099,57 +9416,61 @@
       <c r="F250" t="s">
         <v>280</v>
       </c>
-      <c r="G250" s="12">
+      <c r="G250" s="11">
         <v>-7.17971454</v>
       </c>
-      <c r="H250" s="12">
+      <c r="H250" s="11">
         <v>5.1164431789999999E-2</v>
       </c>
-      <c r="I250" s="12">
+      <c r="I250" s="11">
         <v>-6.6830560940000006E-2</v>
       </c>
       <c r="J250" t="e">
         <v>#N/A</v>
       </c>
       <c r="K250" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
-      <c r="B251" s="6" t="s">
+      <c r="A251" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C251" s="6" t="s">
+      <c r="C251" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D251" s="6" t="s">
+      <c r="D251" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E251" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F251" s="13" t="s">
+      <c r="E251" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F251" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G251" s="14">
+      <c r="G251" s="13">
         <v>0.74636453599999997</v>
       </c>
-      <c r="H251" s="14">
+      <c r="H251" s="13">
         <v>7.614559722E-2</v>
       </c>
-      <c r="I251" s="14">
+      <c r="I251" s="13">
         <v>0.1028281273</v>
       </c>
-      <c r="J251" s="13" t="e">
+      <c r="J251" s="12" t="e">
         <v>#N/A</v>
       </c>
       <c r="K251" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="4"/>
+      <c r="A252" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="2" t="s">
@@ -9161,24 +9482,26 @@
       <c r="F252" t="s">
         <v>266</v>
       </c>
-      <c r="G252" s="12">
+      <c r="G252" s="11">
         <v>0.77121008599999996</v>
       </c>
-      <c r="H252" s="12">
+      <c r="H252" s="11">
         <v>7.8835790330000002E-2</v>
       </c>
-      <c r="I252" s="12">
+      <c r="I252" s="11">
         <v>0.10613836774999999</v>
       </c>
       <c r="J252" t="e">
         <v>#N/A</v>
       </c>
       <c r="K252" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="4"/>
+      <c r="A253" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="2" t="s">
@@ -9190,24 +9513,26 @@
       <c r="F253" t="s">
         <v>266</v>
       </c>
-      <c r="G253" s="12">
+      <c r="G253" s="11">
         <v>0.81177398499999998</v>
       </c>
-      <c r="H253" s="12">
+      <c r="H253" s="11">
         <v>8.3816926840000014E-2</v>
       </c>
-      <c r="I253" s="12">
+      <c r="I253" s="11">
         <v>0.11513448748000001</v>
       </c>
       <c r="J253" t="e">
         <v>#N/A</v>
       </c>
       <c r="K253" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="4"/>
+      <c r="A254" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B254" s="3" t="s">
         <v>225</v>
       </c>
@@ -9223,24 +9548,26 @@
       <c r="F254" t="s">
         <v>258</v>
       </c>
-      <c r="G254" s="12">
+      <c r="G254" s="11">
         <v>-4.9322016910000004</v>
       </c>
-      <c r="H254" s="12">
+      <c r="H254" s="11">
         <v>5.0651751220000006E-2</v>
       </c>
-      <c r="I254" s="12">
+      <c r="I254" s="11">
         <v>-1.6764242780000001E-2</v>
       </c>
       <c r="J254" t="s">
         <v>289</v>
       </c>
       <c r="K254" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="4"/>
+      <c r="A255" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="2" t="s">
@@ -9252,24 +9579,26 @@
       <c r="F255" t="s">
         <v>258</v>
       </c>
-      <c r="G255" s="12">
+      <c r="G255" s="11">
         <v>-4.6416235119999998</v>
       </c>
-      <c r="H255" s="12">
+      <c r="H255" s="11">
         <v>8.8668978849999996E-2</v>
       </c>
-      <c r="I255" s="12">
+      <c r="I255" s="11">
         <v>2.5356645599999998E-2</v>
       </c>
       <c r="J255" t="e">
         <v>#N/A</v>
       </c>
       <c r="K255" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
+      <c r="A256" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="2" t="s">
@@ -9281,24 +9610,26 @@
       <c r="F256" t="s">
         <v>258</v>
       </c>
-      <c r="G256" s="12">
+      <c r="G256" s="11">
         <v>-4.6464726980000002</v>
       </c>
-      <c r="H256" s="12">
+      <c r="H256" s="11">
         <v>8.3092877499999995E-2</v>
       </c>
-      <c r="I256" s="12">
+      <c r="I256" s="11">
         <v>1.9799148440000001E-2</v>
       </c>
       <c r="J256" t="e">
         <v>#N/A</v>
       </c>
       <c r="K256" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="4"/>
+      <c r="A257" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B257" s="3" t="s">
         <v>227</v>
       </c>
@@ -9314,24 +9645,26 @@
       <c r="F257" t="s">
         <v>279</v>
       </c>
-      <c r="G257" s="12">
+      <c r="G257" s="11">
         <v>-1.000898434</v>
       </c>
-      <c r="H257" s="12">
+      <c r="H257" s="11">
         <v>0</v>
       </c>
-      <c r="I257" s="12">
+      <c r="I257" s="11">
         <v>0</v>
       </c>
       <c r="J257" t="s">
         <v>291</v>
       </c>
       <c r="K257" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="4"/>
+      <c r="A258" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="2" t="s">
@@ -9343,24 +9676,26 @@
       <c r="F258" t="s">
         <v>279</v>
       </c>
-      <c r="G258" s="12">
+      <c r="G258" s="11">
         <v>-0.913533806</v>
       </c>
-      <c r="H258" s="12">
+      <c r="H258" s="11">
         <v>0</v>
       </c>
-      <c r="I258" s="12">
+      <c r="I258" s="11">
         <v>0</v>
       </c>
       <c r="J258" t="e">
         <v>#N/A</v>
       </c>
       <c r="K258" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
+      <c r="A259" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="2" t="s">
@@ -9372,24 +9707,26 @@
       <c r="F259" t="s">
         <v>279</v>
       </c>
-      <c r="G259" s="12">
+      <c r="G259" s="11">
         <v>-0.94069515299999984</v>
       </c>
-      <c r="H259" s="12">
+      <c r="H259" s="11">
         <v>0</v>
       </c>
-      <c r="I259" s="12">
+      <c r="I259" s="11">
         <v>0</v>
       </c>
       <c r="J259" t="e">
         <v>#N/A</v>
       </c>
       <c r="K259" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
+      <c r="A260" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B260" s="3" t="s">
         <v>229</v>
       </c>
@@ -9405,24 +9742,26 @@
       <c r="F260" t="s">
         <v>260</v>
       </c>
-      <c r="G260" s="12">
+      <c r="G260" s="11">
         <v>0.89403392199999998</v>
       </c>
-      <c r="H260" s="12">
+      <c r="H260" s="11">
         <v>0.10004136548000001</v>
       </c>
-      <c r="I260" s="12">
+      <c r="I260" s="11">
         <v>1.2485346900000001E-2</v>
       </c>
       <c r="J260" t="s">
         <v>290</v>
       </c>
       <c r="K260" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="4"/>
+      <c r="A261" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="2" t="s">
@@ -9434,24 +9773,26 @@
       <c r="F261" t="s">
         <v>260</v>
       </c>
-      <c r="G261" s="12">
+      <c r="G261" s="11">
         <v>1.276392118</v>
       </c>
-      <c r="H261" s="12">
+      <c r="H261" s="11">
         <v>0.11862184186000001</v>
       </c>
-      <c r="I261" s="12">
+      <c r="I261" s="11">
         <v>2.9624956710000001E-2</v>
       </c>
       <c r="J261" t="e">
         <v>#N/A</v>
       </c>
       <c r="K261" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
+      <c r="A262" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="2" t="s">
@@ -9463,24 +9804,26 @@
       <c r="F262" t="s">
         <v>260</v>
       </c>
-      <c r="G262" s="12">
+      <c r="G262" s="11">
         <v>0.91298126099999999</v>
       </c>
-      <c r="H262" s="12">
+      <c r="H262" s="11">
         <v>0.10164587797999999</v>
       </c>
-      <c r="I262" s="12">
+      <c r="I262" s="11">
         <v>1.430537592E-2</v>
       </c>
       <c r="J262" t="e">
         <v>#N/A</v>
       </c>
       <c r="K262" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
+      <c r="A263" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B263" s="3" t="s">
         <v>231</v>
       </c>
@@ -9496,24 +9839,26 @@
       <c r="F263" t="s">
         <v>275</v>
       </c>
-      <c r="G263" s="12">
+      <c r="G263" s="11">
         <v>-4.3307217810000003</v>
       </c>
-      <c r="H263" s="12">
+      <c r="H263" s="11">
         <v>2.6795560980000001E-2</v>
       </c>
-      <c r="I263" s="12">
+      <c r="I263" s="11">
         <v>4.0015723879999993E-2</v>
       </c>
       <c r="J263" t="s">
         <v>289</v>
       </c>
       <c r="K263" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
+      <c r="A264" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="2" t="s">
@@ -9525,24 +9870,26 @@
       <c r="F264" t="s">
         <v>275</v>
       </c>
-      <c r="G264" s="12">
+      <c r="G264" s="11">
         <v>-4.049317083</v>
       </c>
-      <c r="H264" s="12">
+      <c r="H264" s="11">
         <v>5.7605980889999998E-2</v>
       </c>
-      <c r="I264" s="12">
+      <c r="I264" s="11">
         <v>7.7577244219999994E-2</v>
       </c>
       <c r="J264" t="e">
         <v>#N/A</v>
       </c>
       <c r="K264" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="4"/>
+      <c r="A265" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="2" t="s">
@@ -9554,24 +9901,26 @@
       <c r="F265" t="s">
         <v>275</v>
       </c>
-      <c r="G265" s="12">
+      <c r="G265" s="11">
         <v>-3.9658561780000006</v>
       </c>
-      <c r="H265" s="12">
+      <c r="H265" s="11">
         <v>6.7176148810000003E-2</v>
       </c>
-      <c r="I265" s="12">
+      <c r="I265" s="11">
         <v>8.9314999490000005E-2</v>
       </c>
       <c r="J265" t="e">
         <v>#N/A</v>
       </c>
       <c r="K265" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="4"/>
+      <c r="A266" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B266" s="3" t="s">
         <v>233</v>
       </c>
@@ -9587,24 +9936,26 @@
       <c r="F266" t="s">
         <v>279</v>
       </c>
-      <c r="G266" s="12">
+      <c r="G266" s="11">
         <v>0.75787062800000005</v>
       </c>
-      <c r="H266" s="12">
+      <c r="H266" s="11">
         <v>8.427172577E-2</v>
       </c>
-      <c r="I266" s="12">
+      <c r="I266" s="11">
         <v>0.10405820736</v>
       </c>
       <c r="J266" t="s">
         <v>290</v>
       </c>
       <c r="K266" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
+      <c r="A267" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="2" t="s">
@@ -9616,24 +9967,26 @@
       <c r="F267" t="s">
         <v>279</v>
       </c>
-      <c r="G267" s="12">
+      <c r="G267" s="11">
         <v>0.79172215400000001</v>
       </c>
-      <c r="H267" s="12">
+      <c r="H267" s="11">
         <v>8.6684121570000008E-2</v>
       </c>
-      <c r="I267" s="12">
+      <c r="I267" s="11">
         <v>0.10704540701000001</v>
       </c>
       <c r="J267" t="e">
         <v>#N/A</v>
       </c>
       <c r="K267" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
+      <c r="A268" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="2" t="s">
@@ -9645,24 +9998,26 @@
       <c r="F268" t="s">
         <v>279</v>
       </c>
-      <c r="G268" s="12">
+      <c r="G268" s="11">
         <v>0.82740692300000007</v>
       </c>
-      <c r="H268" s="12">
+      <c r="H268" s="11">
         <v>9.2572628160000003E-2</v>
       </c>
-      <c r="I268" s="12">
+      <c r="I268" s="11">
         <v>0.11446594049</v>
       </c>
       <c r="J268" t="e">
         <v>#N/A</v>
       </c>
       <c r="K268" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
+      <c r="A269" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B269" s="3" t="s">
         <v>235</v>
       </c>
@@ -9678,24 +10033,26 @@
       <c r="F269" t="s">
         <v>271</v>
       </c>
-      <c r="G269" s="12">
+      <c r="G269" s="11">
         <v>-1.2014659990000001</v>
       </c>
-      <c r="H269" s="12">
+      <c r="H269" s="11">
         <v>-8.4405419299999999E-3</v>
       </c>
-      <c r="I269" s="12">
+      <c r="I269" s="11">
         <v>3.7095559210000004E-2</v>
       </c>
       <c r="J269" t="s">
         <v>290</v>
       </c>
       <c r="K269" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="4"/>
+      <c r="A270" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="2" t="s">
@@ -9707,24 +10064,26 @@
       <c r="F270" t="s">
         <v>271</v>
       </c>
-      <c r="G270" s="12">
+      <c r="G270" s="11">
         <v>-1.164184645</v>
       </c>
-      <c r="H270" s="12">
+      <c r="H270" s="11">
         <v>-6.3375051599999996E-3</v>
       </c>
-      <c r="I270" s="12">
+      <c r="I270" s="11">
         <v>4.0201887280000001E-2</v>
       </c>
       <c r="J270" t="e">
         <v>#N/A</v>
       </c>
       <c r="K270" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="4"/>
+      <c r="A271" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="2" t="s">
@@ -9736,24 +10095,26 @@
       <c r="F271" t="s">
         <v>271</v>
       </c>
-      <c r="G271" s="12">
+      <c r="G271" s="11">
         <v>0</v>
       </c>
-      <c r="H271" s="12">
+      <c r="H271" s="11">
         <v>0</v>
       </c>
-      <c r="I271" s="12">
+      <c r="I271" s="11">
         <v>0</v>
       </c>
       <c r="J271" t="e">
         <v>#N/A</v>
       </c>
       <c r="K271" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="4"/>
+      <c r="A272" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B272" s="3" t="s">
         <v>237</v>
       </c>
@@ -9769,24 +10130,26 @@
       <c r="F272" t="s">
         <v>258</v>
       </c>
-      <c r="G272" s="12">
+      <c r="G272" s="11">
         <v>-3.3371050019999999</v>
       </c>
-      <c r="H272" s="12">
+      <c r="H272" s="11">
         <v>3.7567188330000001E-2</v>
       </c>
-      <c r="I272" s="12">
+      <c r="I272" s="11">
         <v>-3.6839503169999996E-2</v>
       </c>
       <c r="J272" t="s">
         <v>288</v>
       </c>
       <c r="K272" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
+      <c r="A273" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="2" t="s">
@@ -9798,24 +10161,26 @@
       <c r="F273" t="s">
         <v>258</v>
       </c>
-      <c r="G273" s="12">
+      <c r="G273" s="11">
         <v>-3.0880310870000001</v>
       </c>
-      <c r="H273" s="12">
+      <c r="H273" s="11">
         <v>6.3843817390000002E-2</v>
       </c>
-      <c r="I273" s="12">
+      <c r="I273" s="11">
         <v>-7.5615407399999999E-3</v>
       </c>
       <c r="J273" t="e">
         <v>#N/A</v>
       </c>
       <c r="K273" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
+      <c r="A274" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="2" t="s">
@@ -9827,109 +10192,114 @@
       <c r="F274" t="s">
         <v>258</v>
       </c>
-      <c r="G274" s="12">
+      <c r="G274" s="11">
         <v>-2.9985198529999999</v>
       </c>
-      <c r="H274" s="12">
+      <c r="H274" s="11">
         <v>0</v>
       </c>
-      <c r="I274" s="12">
+      <c r="I274" s="11">
         <v>0</v>
       </c>
       <c r="J274" t="e">
         <v>#N/A</v>
       </c>
       <c r="K274" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="7" t="s">
+      <c r="A275" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B275" s="8"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="15"/>
-      <c r="F275" s="15"/>
-      <c r="G275" s="15"/>
-      <c r="H275" s="15"/>
-      <c r="I275" s="15"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="14"/>
       <c r="K275" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="9" t="s">
+      <c r="A276" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B276" t="s">
         <v>241</v>
       </c>
-      <c r="D276" s="10" t="s">
+      <c r="D276" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E276" t="s">
         <v>248</v>
       </c>
-      <c r="G276" s="11">
+      <c r="G276" s="10">
         <v>-6.784713626521699E-2</v>
       </c>
-      <c r="H276" s="11">
+      <c r="H276" s="10">
         <v>4.7962294229001445E-2</v>
       </c>
-      <c r="I276" s="11">
+      <c r="I276" s="10">
         <v>0.11709065447466993</v>
       </c>
       <c r="K276" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
+      <c r="A277" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="B277" t="s">
         <v>241</v>
       </c>
-      <c r="D277" s="10" t="s">
+      <c r="D277" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E277" t="s">
         <v>248</v>
       </c>
-      <c r="G277" s="11">
+      <c r="G277" s="10">
         <v>-6.765864012568934E-2</v>
       </c>
-      <c r="H277" s="11">
+      <c r="H277" s="10">
         <v>4.9632976943707163E-2</v>
       </c>
-      <c r="I277" s="11">
+      <c r="I277" s="10">
         <v>0.11931738453727503</v>
       </c>
       <c r="K277" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="B278" t="s">
         <v>241</v>
       </c>
-      <c r="D278" s="10" t="s">
+      <c r="D278" s="9" t="s">
         <v>242</v>
       </c>
       <c r="E278" t="s">
         <v>248</v>
       </c>
-      <c r="G278" s="11">
+      <c r="G278" s="10">
         <v>-6.7847082088591359E-2</v>
       </c>
-      <c r="H278" s="11">
+      <c r="H278" s="10">
         <v>4.7962294229001445E-2</v>
       </c>
-      <c r="I278" s="11">
+      <c r="I278" s="10">
         <v>0.11709065447466993</v>
       </c>
       <c r="K278" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/Excel-FFMM.xlsx
+++ b/src/assets/Excel-FFMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\practicantecomercial\FFMM-backend\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C5E107-6C47-45B1-9EAB-7A5CA19F3D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACED6A-A417-4418-89D0-CD51F6BF0965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8B08BC30-49CD-40DC-BE07-9829148F593A}"/>
   </bookViews>
@@ -932,7 +932,7 @@
     <t>Alto</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Link ficha</t>
   </si>
 </sst>
 </file>
@@ -1437,17 +1437,17 @@
   <dimension ref="A1:N278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -1523,10 +1523,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -1557,10 +1557,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1623,10 +1623,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -1689,10 +1689,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1720,10 +1720,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -1751,10 +1751,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -1817,10 +1817,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
@@ -1954,10 +1954,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -1988,10 +1988,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>30</v>
@@ -2054,10 +2054,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>32</v>
@@ -2120,10 +2120,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>34</v>
@@ -2186,10 +2186,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>36</v>
@@ -2252,10 +2252,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>38</v>
@@ -2318,10 +2318,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
         <v>11</v>
@@ -2350,10 +2350,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>40</v>
@@ -2384,10 +2384,10 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
         <v>11</v>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>44</v>
@@ -2486,10 +2486,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>46</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>48</v>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>50</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>52</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>54</v>
@@ -2660,10 +2660,10 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="2" t="s">
         <v>11</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>56</v>
@@ -2726,10 +2726,10 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
         <v>11</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>58</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>60</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>62</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>64</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>66</v>
@@ -2933,10 +2933,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>68</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>70</v>
@@ -3003,10 +3003,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>72</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>74</v>
@@ -3073,10 +3073,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>76</v>
@@ -3107,10 +3107,10 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -3139,10 +3139,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>78</v>
@@ -3173,10 +3173,10 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>80</v>
@@ -3239,10 +3239,10 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="2" t="s">
         <v>11</v>
@@ -3271,10 +3271,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>83</v>
@@ -3302,10 +3302,10 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="2" t="s">
         <v>11</v>
@@ -3333,10 +3333,10 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="2" t="s">
         <v>84</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>86</v>
@@ -3399,10 +3399,10 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="2" t="s">
         <v>11</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>88</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>90</v>
@@ -3501,10 +3501,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>93</v>
@@ -3535,10 +3535,10 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="2" t="s">
         <v>11</v>
@@ -3567,10 +3567,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>95</v>
@@ -3601,10 +3601,10 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="2" t="s">
         <v>11</v>
@@ -3633,10 +3633,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>97</v>
@@ -3667,10 +3667,10 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="2" t="s">
         <v>11</v>
@@ -3699,10 +3699,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>100</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>102</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>105</v>
@@ -3803,10 +3803,10 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="2" t="s">
         <v>106</v>
@@ -3834,10 +3834,10 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="2" t="s">
         <v>107</v>
@@ -3865,10 +3865,10 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="2" t="s">
         <v>108</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>110</v>
@@ -3931,10 +3931,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="2" t="s">
         <v>106</v>
@@ -3962,10 +3962,10 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="2" t="s">
         <v>107</v>
@@ -3993,10 +3993,10 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4"/>
+      <c r="B77" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="2" t="s">
         <v>108</v>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>112</v>
@@ -4059,10 +4059,10 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4"/>
+      <c r="B79" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="2" t="s">
         <v>106</v>
@@ -4090,10 +4090,10 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4"/>
+      <c r="B80" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="2" t="s">
         <v>107</v>
@@ -4120,8 +4120,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="2" t="s">
         <v>108</v>
@@ -4148,8 +4148,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -4180,8 +4180,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="2" t="s">
         <v>106</v>
@@ -4208,8 +4208,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="2" t="s">
         <v>107</v>
@@ -4236,8 +4236,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="2" t="s">
         <v>108</v>
@@ -4264,8 +4264,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -4296,8 +4296,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="2" t="s">
         <v>106</v>
@@ -4324,8 +4324,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="2" t="s">
         <v>117</v>
@@ -4352,8 +4352,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="2" t="s">
         <v>107</v>
@@ -4380,8 +4380,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="2" t="s">
         <v>108</v>
@@ -4408,8 +4408,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -4440,8 +4440,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="2" t="s">
         <v>106</v>
@@ -4468,8 +4468,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="2" t="s">
         <v>107</v>
@@ -4496,8 +4496,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="2" t="s">
         <v>108</v>
@@ -4524,8 +4524,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -4556,8 +4556,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="2" t="s">
         <v>107</v>
@@ -4585,7 +4585,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
+      <c r="A97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="2" t="s">
         <v>108</v>
@@ -4613,7 +4613,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
+      <c r="A98" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -4645,7 +4645,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
+      <c r="A99" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -4677,7 +4677,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
+      <c r="A100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="2" t="s">
         <v>106</v>
@@ -4705,7 +4705,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="4"/>
+      <c r="A101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="2" t="s">
         <v>107</v>
@@ -4733,7 +4733,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
+      <c r="A102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="2" t="s">
         <v>108</v>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="3" t="s">
+      <c r="A103" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -4793,7 +4793,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
+      <c r="A104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="2" t="s">
         <v>106</v>
@@ -4821,7 +4821,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
+      <c r="A105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="2" t="s">
         <v>107</v>
@@ -4849,7 +4849,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
+      <c r="A106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="2" t="s">
         <v>108</v>
@@ -4877,7 +4877,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="3" t="s">
+      <c r="A107" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -4909,7 +4909,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
+      <c r="A108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="2" t="s">
         <v>106</v>
@@ -4937,7 +4937,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
+      <c r="A109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="2" t="s">
         <v>107</v>
@@ -4965,7 +4965,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
+      <c r="A110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="2" t="s">
         <v>108</v>
@@ -4993,10 +4993,10 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="3" t="s">
+      <c r="A111" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="B111" s="4"/>
       <c r="C111" s="3" t="s">
         <v>131</v>
       </c>
@@ -5113,10 +5113,10 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="3" t="s">
+      <c r="A115" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="B115" s="4"/>
       <c r="C115" s="3" t="s">
         <v>133</v>
       </c>
@@ -5233,10 +5233,10 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="3" t="s">
+      <c r="A119" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="B119" s="4"/>
       <c r="C119" s="3" t="s">
         <v>135</v>
       </c>
@@ -5353,10 +5353,10 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="3" t="s">
+      <c r="A123" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="B123" s="4"/>
       <c r="C123" s="3" t="s">
         <v>137</v>
       </c>
@@ -5502,10 +5502,10 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="3" t="s">
+      <c r="A128" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="B128" s="4"/>
       <c r="C128" s="3" t="s">
         <v>139</v>
       </c>
@@ -5651,10 +5651,10 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="3" t="s">
+      <c r="A133" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="B133" s="4"/>
       <c r="C133" s="3" t="s">
         <v>141</v>
       </c>
@@ -5800,10 +5800,10 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="3" t="s">
+      <c r="A138" s="3" t="s">
         <v>142</v>
       </c>
+      <c r="B138" s="4"/>
       <c r="C138" s="3" t="s">
         <v>143</v>
       </c>
@@ -5920,10 +5920,10 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="3" t="s">
+      <c r="A142" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="B142" s="4"/>
       <c r="C142" s="3" t="s">
         <v>145</v>
       </c>
@@ -6040,10 +6040,10 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="3" t="s">
+      <c r="A146" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="B146" s="4"/>
       <c r="C146" s="3" t="s">
         <v>147</v>
       </c>
@@ -6189,10 +6189,10 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="3" t="s">
+      <c r="A151" s="3" t="s">
         <v>148</v>
       </c>
+      <c r="B151" s="4"/>
       <c r="C151" s="3" t="s">
         <v>149</v>
       </c>
@@ -6310,10 +6310,10 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>151</v>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="2" t="s">
@@ -6378,10 +6378,10 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="2" t="s">
@@ -6411,10 +6411,10 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="2" t="s">
@@ -6444,10 +6444,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>153</v>
@@ -6479,10 +6479,10 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="2" t="s">
@@ -6512,10 +6512,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="2" t="s">
@@ -6545,10 +6545,10 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="2" t="s">
@@ -6578,10 +6578,10 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>155</v>
@@ -6612,10 +6612,10 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4"/>
+      <c r="B164" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="2" t="s">
         <v>106</v>
@@ -6643,10 +6643,10 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4"/>
+      <c r="B165" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="2" t="s">
         <v>117</v>
@@ -6674,10 +6674,10 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4"/>
+      <c r="B166" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="2" t="s">
         <v>107</v>
@@ -6705,10 +6705,10 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4"/>
+      <c r="B167" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="2" t="s">
         <v>108</v>
@@ -6737,10 +6737,10 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>157</v>
@@ -6771,10 +6771,10 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="4"/>
+      <c r="B169" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="2" t="s">
         <v>106</v>
@@ -6802,10 +6802,10 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="4"/>
+      <c r="B170" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="2" t="s">
         <v>107</v>
@@ -6833,10 +6833,10 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="4"/>
+      <c r="B171" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="2" t="s">
         <v>108</v>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>159</v>
@@ -6899,10 +6899,10 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="4"/>
+      <c r="B173" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="2" t="s">
         <v>106</v>
@@ -6930,10 +6930,10 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="4"/>
+      <c r="B174" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="2" t="s">
         <v>107</v>
@@ -6961,10 +6961,10 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4"/>
+      <c r="B175" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="2" t="s">
         <v>108</v>
@@ -6993,10 +6993,10 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>161</v>
@@ -7027,10 +7027,10 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="4"/>
+      <c r="B177" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="2" t="s">
         <v>106</v>
@@ -7058,10 +7058,10 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="4"/>
+      <c r="B178" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="2" t="s">
         <v>107</v>
@@ -7089,10 +7089,10 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="4"/>
+      <c r="B179" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="2" t="s">
         <v>108</v>
@@ -7121,10 +7121,10 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>163</v>
@@ -7155,10 +7155,10 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="4"/>
+      <c r="B181" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="2" t="s">
         <v>106</v>
@@ -7186,10 +7186,10 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="4"/>
+      <c r="B182" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="2" t="s">
         <v>117</v>
@@ -7217,10 +7217,10 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="4"/>
+      <c r="B183" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="2" t="s">
         <v>107</v>
@@ -7248,10 +7248,10 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="4"/>
+      <c r="B184" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="2" t="s">
         <v>108</v>
@@ -7280,10 +7280,10 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>166</v>
@@ -7315,10 +7315,10 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>168</v>
@@ -7350,10 +7350,10 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>170</v>
@@ -7385,10 +7385,10 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>172</v>
@@ -7420,10 +7420,10 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>174</v>
@@ -7455,10 +7455,10 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>176</v>
@@ -7490,10 +7490,10 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>179</v>
@@ -7524,10 +7524,10 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="4"/>
+      <c r="B192" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="2" t="s">
         <v>180</v>
@@ -7555,10 +7555,10 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="4"/>
+      <c r="B193" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="2" t="s">
         <v>181</v>
@@ -7587,10 +7587,10 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>183</v>
@@ -7621,10 +7621,10 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4"/>
+      <c r="B195" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="2" t="s">
         <v>180</v>
@@ -7652,10 +7652,10 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="4"/>
+      <c r="B196" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="2" t="s">
         <v>181</v>
@@ -7684,10 +7684,10 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>185</v>
@@ -7718,10 +7718,10 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="4"/>
+      <c r="B198" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="2" t="s">
         <v>186</v>
@@ -7749,10 +7749,10 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="4"/>
+      <c r="B199" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="2" t="s">
         <v>180</v>
@@ -7780,10 +7780,10 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="4"/>
+      <c r="B200" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="2" t="s">
         <v>181</v>
@@ -7812,10 +7812,10 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>188</v>
@@ -7846,10 +7846,10 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="4"/>
+      <c r="B202" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="2" t="s">
         <v>180</v>
@@ -7877,10 +7877,10 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="4"/>
+      <c r="B203" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="2" t="s">
         <v>181</v>
@@ -7909,10 +7909,10 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>190</v>
@@ -7943,10 +7943,10 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="4"/>
+      <c r="B205" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="2" t="s">
         <v>180</v>
@@ -7975,10 +7975,10 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>192</v>
@@ -8009,10 +8009,10 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="4"/>
+      <c r="B207" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="2" t="s">
         <v>180</v>
@@ -8041,10 +8041,10 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>194</v>
@@ -8075,10 +8075,10 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="4"/>
+      <c r="B209" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="2" t="s">
         <v>180</v>
@@ -8106,10 +8106,10 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="4"/>
+      <c r="B210" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="2" t="s">
         <v>181</v>
@@ -8138,10 +8138,10 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>196</v>
@@ -8172,10 +8172,10 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="4"/>
+      <c r="B212" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="2" t="s">
         <v>180</v>
@@ -8203,10 +8203,10 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="4"/>
+      <c r="B213" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="2" t="s">
         <v>181</v>
@@ -8235,10 +8235,10 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>198</v>
@@ -8269,10 +8269,10 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="4"/>
+      <c r="B215" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="2" t="s">
         <v>180</v>
@@ -8300,10 +8300,10 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="4"/>
+      <c r="B216" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="2" t="s">
         <v>181</v>
@@ -8332,10 +8332,10 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>200</v>
@@ -8367,10 +8367,10 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>202</v>
@@ -8401,10 +8401,10 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="4"/>
+      <c r="B219" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="2" t="s">
         <v>180</v>
@@ -8432,10 +8432,10 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="4"/>
+      <c r="B220" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="2" t="s">
         <v>181</v>
@@ -8464,10 +8464,10 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>204</v>
@@ -8498,10 +8498,10 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="4"/>
+      <c r="B222" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="2" t="s">
         <v>180</v>
@@ -8529,10 +8529,10 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="4"/>
+      <c r="B223" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="2" t="s">
         <v>181</v>
@@ -8561,10 +8561,10 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>206</v>
@@ -8595,10 +8595,10 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4"/>
+      <c r="B225" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="2" t="s">
         <v>180</v>
@@ -8626,10 +8626,10 @@
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="4"/>
+      <c r="B226" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="2" t="s">
         <v>181</v>
@@ -8658,10 +8658,10 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>208</v>
@@ -8692,10 +8692,10 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="4"/>
+      <c r="B228" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="2" t="s">
         <v>180</v>
@@ -8723,10 +8723,10 @@
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="4"/>
+      <c r="B229" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="2" t="s">
         <v>181</v>
@@ -8755,10 +8755,10 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>210</v>
@@ -8789,10 +8789,10 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="4"/>
+      <c r="B231" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="2" t="s">
         <v>180</v>
@@ -8820,10 +8820,10 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="4"/>
+      <c r="B232" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="2" t="s">
         <v>181</v>
@@ -8852,10 +8852,10 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>212</v>
@@ -8886,10 +8886,10 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="4"/>
+      <c r="B234" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="2" t="s">
         <v>180</v>
@@ -8917,10 +8917,10 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="4"/>
+      <c r="B235" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="2" t="s">
         <v>181</v>
@@ -8949,10 +8949,10 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>214</v>
@@ -8983,10 +8983,10 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="4"/>
+      <c r="B237" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="2" t="s">
         <v>180</v>
@@ -9014,10 +9014,10 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="4"/>
+      <c r="B238" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="2" t="s">
         <v>181</v>
@@ -9046,10 +9046,10 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>216</v>
@@ -9080,10 +9080,10 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="4"/>
+      <c r="B240" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="2" t="s">
         <v>180</v>
@@ -9111,10 +9111,10 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="4"/>
+      <c r="B241" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="2" t="s">
         <v>181</v>
@@ -9143,10 +9143,10 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>218</v>
@@ -9177,10 +9177,10 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="4"/>
+      <c r="B243" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="2" t="s">
         <v>180</v>
@@ -9208,10 +9208,10 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="4"/>
+      <c r="B244" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="2" t="s">
         <v>181</v>
@@ -9240,10 +9240,10 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B245" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>220</v>
@@ -9274,10 +9274,10 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="4"/>
+      <c r="B246" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="2" t="s">
         <v>180</v>
@@ -9305,10 +9305,10 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="4"/>
+      <c r="B247" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="2" t="s">
         <v>181</v>
@@ -9337,10 +9337,10 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>222</v>
@@ -9371,10 +9371,10 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="4"/>
+      <c r="B249" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="2" t="s">
         <v>180</v>
@@ -9402,10 +9402,10 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="4"/>
+      <c r="B250" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="2" t="s">
         <v>181</v>
@@ -9433,11 +9433,11 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>224</v>
@@ -9468,10 +9468,10 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="4"/>
+      <c r="B252" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="2" t="s">
         <v>180</v>
@@ -9499,10 +9499,10 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="4"/>
+      <c r="B253" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="2" t="s">
         <v>181</v>
@@ -9531,10 +9531,10 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>226</v>
@@ -9565,10 +9565,10 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="4"/>
+      <c r="B255" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="2" t="s">
         <v>180</v>
@@ -9596,10 +9596,10 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="4"/>
+      <c r="B256" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="2" t="s">
         <v>181</v>
@@ -9628,10 +9628,10 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>228</v>
@@ -9662,10 +9662,10 @@
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="4"/>
+      <c r="B258" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="2" t="s">
         <v>180</v>
@@ -9693,10 +9693,10 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="4"/>
+      <c r="B259" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="2" t="s">
         <v>181</v>
@@ -9725,10 +9725,10 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>230</v>
@@ -9759,10 +9759,10 @@
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="4"/>
+      <c r="B261" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="2" t="s">
         <v>180</v>
@@ -9790,10 +9790,10 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="4"/>
+      <c r="B262" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="2" t="s">
         <v>181</v>
@@ -9822,10 +9822,10 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>232</v>
@@ -9856,10 +9856,10 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="4"/>
+      <c r="B264" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="2" t="s">
         <v>180</v>
@@ -9887,10 +9887,10 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="4"/>
+      <c r="B265" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="2" t="s">
         <v>181</v>
@@ -9919,10 +9919,10 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>234</v>
@@ -9953,10 +9953,10 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="4"/>
+      <c r="B267" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="2" t="s">
         <v>180</v>
@@ -9984,10 +9984,10 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="4"/>
+      <c r="B268" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="2" t="s">
         <v>181</v>
@@ -10016,10 +10016,10 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B269" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>236</v>
@@ -10050,10 +10050,10 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="4"/>
+      <c r="B270" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="2" t="s">
         <v>180</v>
@@ -10081,10 +10081,10 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="4"/>
+      <c r="B271" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="2" t="s">
         <v>181</v>
@@ -10113,10 +10113,10 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>238</v>
@@ -10147,10 +10147,10 @@
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="4"/>
+      <c r="B273" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="2" t="s">
         <v>180</v>
@@ -10178,10 +10178,10 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="4"/>
+      <c r="B274" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="2" t="s">
         <v>181</v>
@@ -10209,10 +10209,10 @@
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
+      <c r="A275" s="7"/>
+      <c r="B275" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B275" s="7"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="14"/>
@@ -10225,11 +10225,11 @@
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="8" t="s">
+      <c r="A276" t="s">
+        <v>241</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="B276" t="s">
-        <v>241</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>14</v>
@@ -10251,11 +10251,11 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="8" t="s">
+      <c r="A277" t="s">
+        <v>241</v>
+      </c>
+      <c r="B277" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="B277" t="s">
-        <v>241</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>11</v>
@@ -10277,11 +10277,11 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="8" t="s">
+      <c r="A278" t="s">
+        <v>241</v>
+      </c>
+      <c r="B278" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="B278" t="s">
-        <v>241</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>242</v>

--- a/src/assets/Excel-FFMM.xlsx
+++ b/src/assets/Excel-FFMM.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanessa Becerra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC478B0-51B6-4255-8CE2-22A59D06FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F72FD2E-9B75-4541-BC1D-CFC8596D3194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8B08BC30-49CD-40DC-BE07-9829148F593A}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$277</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="515">
   <si>
     <t>Administradora</t>
   </si>
@@ -687,9 +690,6 @@
     <t>PESOS</t>
   </si>
   <si>
-    <t>S/C Fondos creados recientemente que aún no han sido clasificados</t>
-  </si>
-  <si>
     <t>Accionario America Latina</t>
   </si>
   <si>
@@ -816,9 +816,6 @@
     <t>Categoria</t>
   </si>
   <si>
-    <t>Sin clasificación</t>
-  </si>
-  <si>
     <t>Accionario</t>
   </si>
   <si>
@@ -1570,6 +1567,24 @@
   </si>
   <si>
     <t>0,11709065447467</t>
+  </si>
+  <si>
+    <t>Fondo Mutuo Estructurado de Libre Inversión Nacional</t>
+  </si>
+  <si>
+    <t>Fondo Mutuo de Inversión en Instrumentos de Deuda de Corto Plazo con Duración Menor o Igual a 90 días - Nacional.</t>
+  </si>
+  <si>
+    <t>Fondo Mutuo de Inversión en Instrumentos de Deuda de Mediano y Largo Plazo Nacional – Derivados</t>
+  </si>
+  <si>
+    <t>Estructurado</t>
+  </si>
+  <si>
+    <t>Fondo mutuo mixto nacional</t>
+  </si>
+  <si>
+    <t>Fondo Mutuo de Libre Inversión Nacional</t>
   </si>
 </sst>
 </file>
@@ -2067,10 +2082,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF36D9E-32F4-46A1-965F-BE2737EE5B1F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N191" sqref="N191"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G287" sqref="G287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2116,7 @@
         <v>211</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>212</v>
@@ -2112,22 +2128,22 @@
         <v>214</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2144,10 +2160,10 @@
         <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H2" s="14">
         <v>7829.1340300000002</v>
@@ -2159,19 +2175,19 @@
         <v>11.654993268</v>
       </c>
       <c r="K2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2188,10 +2204,10 @@
         <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="14">
         <v>-3.1899229579999999</v>
@@ -2203,19 +2219,19 @@
         <v>-5.7581081499999999E-3</v>
       </c>
       <c r="K3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2228,10 +2244,10 @@
         <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -2243,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2260,10 +2276,10 @@
         <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H5" s="14">
         <v>-3.6162850280000001</v>
@@ -2275,19 +2291,19 @@
         <v>-6.4506289599999996E-3</v>
       </c>
       <c r="K5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2300,10 +2316,10 @@
         <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H6" s="14">
         <v>-3.5691282089999996</v>
@@ -2315,12 +2331,12 @@
         <v>-5.2060096000000004E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -2332,10 +2348,10 @@
         <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="14">
         <v>-7.5402806240000011</v>
@@ -2347,19 +2363,19 @@
         <v>1.1781037960000001E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2372,10 +2388,10 @@
         <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H8" s="14">
         <v>-7.4905279440000001</v>
@@ -2387,7 +2403,7 @@
         <v>1.8423388860000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2400,10 +2416,10 @@
         <v>215</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H9" s="14">
         <v>-7.2658509799999997</v>
@@ -2415,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2428,10 +2444,10 @@
         <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H10" s="14">
         <v>-7.341101311000001</v>
@@ -2443,12 +2459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
@@ -2457,13 +2473,13 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" t="s">
         <v>220</v>
-      </c>
-      <c r="F11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" t="s">
-        <v>221</v>
       </c>
       <c r="H11" s="14">
         <v>-0.17398794100000001</v>
@@ -2475,19 +2491,19 @@
         <v>3.7909192289999998E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2497,13 +2513,13 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" t="s">
         <v>220</v>
-      </c>
-      <c r="F12" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" t="s">
-        <v>221</v>
       </c>
       <c r="H12" s="14">
         <v>-0.14577844700000001</v>
@@ -2515,12 +2531,12 @@
         <v>4.3061221630000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
@@ -2529,13 +2545,13 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" t="s">
         <v>220</v>
-      </c>
-      <c r="F13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="14">
         <v>-0.95416611900000003</v>
@@ -2547,24 +2563,24 @@
         <v>3.2173748350000003E-2</v>
       </c>
       <c r="K13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
@@ -2576,10 +2592,10 @@
         <v>215</v>
       </c>
       <c r="F14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H14" s="14">
         <v>0.68398770399999997</v>
@@ -2591,24 +2607,24 @@
         <v>0.10479354931</v>
       </c>
       <c r="K14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
@@ -2620,10 +2636,10 @@
         <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H15" s="14">
         <v>-3.1042587070000001</v>
@@ -2635,24 +2651,24 @@
         <v>-9.8752576479999993E-2</v>
       </c>
       <c r="K15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
@@ -2664,10 +2680,10 @@
         <v>215</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H16" s="14">
         <v>-3.1213261179999998</v>
@@ -2679,19 +2695,19 @@
         <v>-1.015102253E-2</v>
       </c>
       <c r="K16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,10 +2720,10 @@
         <v>215</v>
       </c>
       <c r="F17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H17" s="14">
         <v>-3.0881495170000002</v>
@@ -2719,12 +2735,12 @@
         <v>-6.0198655499999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
@@ -2736,10 +2752,10 @@
         <v>215</v>
       </c>
       <c r="F18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H18" s="14">
         <v>-3.7007031840000004</v>
@@ -2751,19 +2767,19 @@
         <v>-3.5253787789999998E-2</v>
       </c>
       <c r="K18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2776,10 +2792,10 @@
         <v>215</v>
       </c>
       <c r="F19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H19" s="14">
         <v>-3.6535889199999998</v>
@@ -2791,12 +2807,12 @@
         <v>-2.9495608880000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>24</v>
@@ -2808,10 +2824,10 @@
         <v>215</v>
       </c>
       <c r="F20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H20" s="14">
         <v>-3.9025141940000001</v>
@@ -2823,19 +2839,19 @@
         <v>-2.5004744080000002E-2</v>
       </c>
       <c r="K20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2848,10 +2864,10 @@
         <v>215</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H21" s="14">
         <v>-3.8555044650000001</v>
@@ -2863,12 +2879,12 @@
         <v>-1.9184764980000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>25</v>
@@ -2877,13 +2893,13 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H22" s="14">
         <v>0.80588387199999989</v>
@@ -2895,19 +2911,19 @@
         <v>2.9462813700000001E-3</v>
       </c>
       <c r="K22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N22" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2917,13 +2933,13 @@
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H23" s="14">
         <v>0.846356514</v>
@@ -2935,12 +2951,12 @@
         <v>7.1077073799999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -2952,10 +2968,10 @@
         <v>215</v>
       </c>
       <c r="F24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H24" s="14">
         <v>0.48299649599999994</v>
@@ -2967,19 +2983,19 @@
         <v>8.8900620629999996E-2</v>
       </c>
       <c r="K24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N24" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -2992,10 +3008,10 @@
         <v>215</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H25" s="14">
         <v>0.50265797899999998</v>
@@ -3007,12 +3023,12 @@
         <v>9.1495412960000008E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
@@ -3024,10 +3040,10 @@
         <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H26" s="14">
         <v>-0.38794980600000001</v>
@@ -3039,19 +3055,19 @@
         <v>3.2313486010000003E-2</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="N26" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -3064,10 +3080,10 @@
         <v>215</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H27" s="14">
         <v>-0.368466348</v>
@@ -3079,12 +3095,12 @@
         <v>3.477370749E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>28</v>
@@ -3096,10 +3112,10 @@
         <v>215</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H28" s="14">
         <v>-0.92671776800000005</v>
@@ -3111,19 +3127,19 @@
         <v>3.99793617E-2</v>
       </c>
       <c r="K28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N28" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -3136,10 +3152,10 @@
         <v>215</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H29" s="14">
         <v>-0.89764271600000001</v>
@@ -3151,7 +3167,7 @@
         <v>4.3698795259999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -3168,10 +3184,10 @@
         <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H30" s="14">
         <v>-6.8914305120000003</v>
@@ -3183,19 +3199,19 @@
         <v>9.4244061099999998E-2</v>
       </c>
       <c r="K30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N30" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -3208,14 +3224,14 @@
       <c r="D31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="e">
-        <v>#N/A</v>
+      <c r="E31" t="s">
+        <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H31" s="14">
         <v>-15.902065528000001</v>
@@ -3227,19 +3243,19 @@
         <v>586.83575271939003</v>
       </c>
       <c r="K31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N31" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -3253,13 +3269,13 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H32" s="14">
         <v>0.23734716599999997</v>
@@ -3271,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N32" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,13 +3313,13 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H33" s="14">
         <v>0.74134419299999998</v>
@@ -3315,19 +3331,19 @@
         <v>1.1236232699999999E-2</v>
       </c>
       <c r="K33" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N33" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -3344,10 +3360,10 @@
         <v>215</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H34" s="14">
         <v>0.48284586000000002</v>
@@ -3359,16 +3375,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N34" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3384,14 +3400,14 @@
       <c r="D35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
+      <c r="E35" t="s">
+        <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>512</v>
       </c>
       <c r="G35" t="s">
-        <v>216</v>
+        <v>509</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -3403,24 +3419,24 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
-      </c>
-      <c r="M35" t="s">
-        <v>438</v>
-      </c>
-      <c r="N35" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>41</v>
@@ -3432,10 +3448,10 @@
         <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H36" s="14">
         <v>-3.1644879629999996</v>
@@ -3447,19 +3463,19 @@
         <v>-6.3106847600000009E-3</v>
       </c>
       <c r="K36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N36" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -3472,10 +3488,10 @@
         <v>215</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H37" s="14">
         <v>-3.1313183750000002</v>
@@ -3487,12 +3503,12 @@
         <v>-2.1618663099999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
@@ -3504,10 +3520,10 @@
         <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H38" s="14">
         <v>-2.2162520419999998</v>
@@ -3519,19 +3535,19 @@
         <v>-1.3248447199999999E-3</v>
       </c>
       <c r="K38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3544,10 +3560,10 @@
         <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H39" s="14">
         <v>-2.182804483</v>
@@ -3559,7 +3575,7 @@
         <v>2.84304082E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -3576,10 +3592,10 @@
         <v>215</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H40" s="14">
         <v>0.51741350600000002</v>
@@ -3591,19 +3607,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3620,10 +3636,10 @@
         <v>215</v>
       </c>
       <c r="F41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H41" s="14">
         <v>0.52065847499999995</v>
@@ -3635,19 +3651,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M41" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N41" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3664,10 +3680,10 @@
         <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H42" s="14">
         <v>0.85581534699999995</v>
@@ -3679,19 +3695,19 @@
         <v>9.6554297469999995E-2</v>
       </c>
       <c r="K42" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N42" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3708,10 +3724,10 @@
         <v>215</v>
       </c>
       <c r="F43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H43" s="14">
         <v>0.81244524200000012</v>
@@ -3723,19 +3739,19 @@
         <v>9.1737431549999998E-2</v>
       </c>
       <c r="K43" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N43" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3752,10 +3768,10 @@
         <v>215</v>
       </c>
       <c r="F44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H44" s="14">
         <v>0.62363873700000005</v>
@@ -3767,19 +3783,19 @@
         <v>8.8927616930000009E-2</v>
       </c>
       <c r="K44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M44" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N44" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3796,10 +3812,10 @@
         <v>215</v>
       </c>
       <c r="F45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H45" s="14">
         <v>-0.39924072399999999</v>
@@ -3811,19 +3827,19 @@
         <v>4.5467935080000001E-2</v>
       </c>
       <c r="K45" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M45" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N45" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3840,10 +3856,10 @@
         <v>215</v>
       </c>
       <c r="F46" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H46" s="14">
         <v>-2.414251422</v>
@@ -3855,19 +3871,19 @@
         <v>7.2075270070000003E-2</v>
       </c>
       <c r="K46" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N46" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3884,10 +3900,10 @@
         <v>215</v>
       </c>
       <c r="F47" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H47" s="14">
         <v>-0.89748235300000001</v>
@@ -3899,19 +3915,19 @@
         <v>9.0489289720000005E-2</v>
       </c>
       <c r="K47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M47" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N47" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3928,10 +3944,10 @@
         <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H48" s="14">
         <v>0</v>
@@ -3943,19 +3959,19 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M48" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N48" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3972,10 +3988,10 @@
         <v>215</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H49" s="14">
         <v>-1.059661387</v>
@@ -3987,19 +4003,19 @@
         <v>2.5875359530000003E-2</v>
       </c>
       <c r="K49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M49" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
@@ -4012,10 +4028,10 @@
         <v>215</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H50" s="14">
         <v>-1.030634474</v>
@@ -4027,7 +4043,7 @@
         <v>2.9544185889999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -4041,13 +4057,13 @@
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H51" s="14">
         <v>-0.80525460100000001</v>
@@ -4059,19 +4075,19 @@
         <v>-1.8318253369999999E-2</v>
       </c>
       <c r="K51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M51" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N51" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4081,13 +4097,13 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H52" s="14">
         <v>-0.776517448</v>
@@ -4099,7 +4115,7 @@
         <v>-1.499588208E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -4116,10 +4132,10 @@
         <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H53" s="14">
         <v>-0.39358991999999998</v>
@@ -4131,19 +4147,19 @@
         <v>4.2082194729999994E-2</v>
       </c>
       <c r="K53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4156,10 +4172,10 @@
         <v>215</v>
       </c>
       <c r="F54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H54" s="14">
         <v>-0.36436445099999998</v>
@@ -4171,7 +4187,7 @@
         <v>4.5808825239999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>67</v>
       </c>
@@ -4188,10 +4204,10 @@
         <v>215</v>
       </c>
       <c r="F55" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H55" s="14">
         <v>-6.7274064879999997</v>
@@ -4203,19 +4219,19 @@
         <v>0.11100352045999999</v>
       </c>
       <c r="K55" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N55" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>67</v>
       </c>
@@ -4228,10 +4244,10 @@
         <v>215</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H56" s="14">
         <v>-6.6544017329999994</v>
@@ -4243,7 +4259,7 @@
         <v>0.12253614903000001</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
@@ -4256,10 +4272,10 @@
         <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H57" s="14">
         <v>-6.6361415590000004</v>
@@ -4271,7 +4287,7 @@
         <v>0.12429806514</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
@@ -4288,10 +4304,10 @@
         <v>215</v>
       </c>
       <c r="F58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H58" s="14">
         <v>0.32153354499999998</v>
@@ -4303,19 +4319,19 @@
         <v>7.7448175319999993E-2</v>
       </c>
       <c r="K58" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N58" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>67</v>
       </c>
@@ -4328,10 +4344,10 @@
         <v>215</v>
       </c>
       <c r="F59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H59" s="14">
         <v>0.34116913399999999</v>
@@ -4343,7 +4359,7 @@
         <v>8.0015711379999993E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -4360,10 +4376,10 @@
         <v>215</v>
       </c>
       <c r="F60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H60" s="14">
         <v>0.28941560399999999</v>
@@ -4375,16 +4391,16 @@
         <v>7.8085378299999994E-2</v>
       </c>
       <c r="K60" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M60" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N60" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4407,7 +4423,7 @@
         <v>259</v>
       </c>
       <c r="G61" t="s">
-        <v>216</v>
+        <v>514</v>
       </c>
       <c r="H61" s="14">
         <v>0.67040650199999996</v>
@@ -4419,19 +4435,19 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L61" t="s">
-        <v>255</v>
-      </c>
-      <c r="M61" t="s">
-        <v>502</v>
-      </c>
-      <c r="N61" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -4448,10 +4464,10 @@
         <v>215</v>
       </c>
       <c r="F62" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H62" s="14">
         <v>-1.1205856700000001</v>
@@ -4463,19 +4479,19 @@
         <v>3.6104556490000002E-2</v>
       </c>
       <c r="K62" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M62" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="N62" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>67</v>
       </c>
@@ -4488,10 +4504,10 @@
         <v>215</v>
       </c>
       <c r="F63" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H63" s="14">
         <v>-1.0712368910000001</v>
@@ -4503,7 +4519,7 @@
         <v>4.2540339960000007E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -4520,10 +4536,10 @@
         <v>215</v>
       </c>
       <c r="F64" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H64" s="14">
         <v>-2.169033523</v>
@@ -4535,19 +4551,19 @@
         <v>3.3684486900000005E-2</v>
       </c>
       <c r="K64" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M64" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N64" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -4560,10 +4576,10 @@
         <v>215</v>
       </c>
       <c r="F65" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H65" s="14">
         <v>-2.1408904020000001</v>
@@ -4595,7 +4611,7 @@
         <v>259</v>
       </c>
       <c r="G66" t="s">
-        <v>216</v>
+        <v>510</v>
       </c>
       <c r="H66" s="14">
         <v>0.67147505500000004</v>
@@ -4607,16 +4623,16 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L66" t="s">
-        <v>255</v>
-      </c>
-      <c r="M66" t="s">
-        <v>509</v>
-      </c>
-      <c r="N66" t="s">
-        <v>508</v>
+        <v>254</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4635,7 +4651,7 @@
         <v>259</v>
       </c>
       <c r="G67" t="s">
-        <v>216</v>
+        <v>510</v>
       </c>
       <c r="H67" s="14">
         <v>0.69116580000000005</v>
@@ -4667,7 +4683,7 @@
         <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>216</v>
+        <v>511</v>
       </c>
       <c r="H68" s="14">
         <v>-0.193263877</v>
@@ -4679,16 +4695,16 @@
         <v>6.6968394850000001E-2</v>
       </c>
       <c r="K68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4696,7 +4712,7 @@
         <v>84</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>86</v>
@@ -4711,7 +4727,7 @@
         <v>259</v>
       </c>
       <c r="G69" t="s">
-        <v>216</v>
+        <v>511</v>
       </c>
       <c r="H69" s="14">
         <v>-7.7919158000000002E-2</v>
@@ -4723,19 +4739,19 @@
         <v>8.1461984810000013E-2</v>
       </c>
       <c r="K69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L69" t="s">
-        <v>255</v>
-      </c>
-      <c r="M69" t="s">
-        <v>404</v>
+        <v>254</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>87</v>
       </c>
@@ -4752,10 +4768,10 @@
         <v>215</v>
       </c>
       <c r="F70" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H70" s="14">
         <v>-6.7631245699999996</v>
@@ -4767,19 +4783,19 @@
         <v>9.6740586119999999E-2</v>
       </c>
       <c r="K70" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M70" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>87</v>
       </c>
@@ -4792,10 +4808,10 @@
         <v>215</v>
       </c>
       <c r="F71" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H71" s="14">
         <v>-6.8309386930000011</v>
@@ -4807,7 +4823,7 @@
         <v>8.7095320029999992E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>87</v>
       </c>
@@ -4820,10 +4836,10 @@
         <v>215</v>
       </c>
       <c r="F72" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H72" s="14">
         <v>-6.762080665</v>
@@ -4835,7 +4851,7 @@
         <v>9.5428740970000009E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>87</v>
       </c>
@@ -4848,10 +4864,10 @@
         <v>215</v>
       </c>
       <c r="F73" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H73" s="14">
         <v>-6.5996066850000004</v>
@@ -4863,7 +4879,7 @@
         <v>0.11981661756999999</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>87</v>
       </c>
@@ -4880,10 +4896,10 @@
         <v>215</v>
       </c>
       <c r="F74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H74" s="14">
         <v>-2.4899048590000001</v>
@@ -4895,19 +4911,19 @@
         <v>2.2088618359999999E-2</v>
       </c>
       <c r="K74" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>87</v>
       </c>
@@ -4920,10 +4936,10 @@
         <v>215</v>
       </c>
       <c r="F75" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H75" s="14">
         <v>-2.5500059149999998</v>
@@ -4935,7 +4951,7 @@
         <v>1.4450853200000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -4948,10 +4964,10 @@
         <v>215</v>
       </c>
       <c r="F76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H76" s="14">
         <v>-2.4899364570000002</v>
@@ -4963,7 +4979,7 @@
         <v>2.2088355810000002E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>87</v>
       </c>
@@ -4976,10 +4992,10 @@
         <v>215</v>
       </c>
       <c r="F77" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H77" s="14">
         <v>-2.3816670769999999</v>
@@ -4991,7 +5007,7 @@
         <v>3.5981105100000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
@@ -5008,10 +5024,10 @@
         <v>215</v>
       </c>
       <c r="F78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H78" s="14">
         <v>-2.0854920969999999</v>
@@ -5023,19 +5039,19 @@
         <v>1.1656865420000001E-2</v>
       </c>
       <c r="K78" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>87</v>
       </c>
@@ -5048,10 +5064,10 @@
         <v>215</v>
       </c>
       <c r="F79" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H79" s="14">
         <v>-2.145810021</v>
@@ -5063,7 +5079,7 @@
         <v>4.0979233199999994E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>87</v>
       </c>
@@ -5076,10 +5092,10 @@
         <v>215</v>
       </c>
       <c r="F80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H80" s="14">
         <v>-2.0854706520000001</v>
@@ -5091,7 +5107,7 @@
         <v>1.1656868680000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>87</v>
       </c>
@@ -5104,10 +5120,10 @@
         <v>215</v>
       </c>
       <c r="F81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H81" s="14">
         <v>-1.988841254</v>
@@ -5119,7 +5135,7 @@
         <v>2.3870934529999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -5136,10 +5152,10 @@
         <v>215</v>
       </c>
       <c r="F82" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H82" s="14">
         <v>0.46892512999999997</v>
@@ -5151,19 +5167,19 @@
         <v>8.4418306740000004E-2</v>
       </c>
       <c r="K82" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
@@ -5176,10 +5192,10 @@
         <v>215</v>
       </c>
       <c r="F83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H83" s="14">
         <v>0.41905000299999995</v>
@@ -5191,7 +5207,7 @@
         <v>7.7598604340000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
@@ -5204,10 +5220,10 @@
         <v>215</v>
       </c>
       <c r="F84" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H84" s="14">
         <v>0.46890513900000008</v>
@@ -5219,7 +5235,7 @@
         <v>8.441867497000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>87</v>
       </c>
@@ -5232,10 +5248,10 @@
         <v>215</v>
       </c>
       <c r="F85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H85" s="14">
         <v>0.50607376599999998</v>
@@ -5247,7 +5263,7 @@
         <v>8.9415011369999992E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -5264,10 +5280,10 @@
         <v>215</v>
       </c>
       <c r="F86" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H86" s="14">
         <v>0.51102815999999995</v>
@@ -5279,19 +5295,19 @@
         <v>-1.979289406E-2</v>
       </c>
       <c r="K86" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
@@ -5304,10 +5320,10 @@
         <v>215</v>
       </c>
       <c r="F87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H87" s="14">
         <v>0.48152733700000006</v>
@@ -5319,7 +5335,7 @@
         <v>-2.3285852770000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
@@ -5332,10 +5348,10 @@
         <v>215</v>
       </c>
       <c r="F88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H88" s="14">
         <v>0</v>
@@ -5347,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
@@ -5360,10 +5376,10 @@
         <v>215</v>
       </c>
       <c r="F89" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H89" s="14">
         <v>0.51104389100000003</v>
@@ -5375,7 +5391,7 @@
         <v>-1.9793086349999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>87</v>
       </c>
@@ -5388,10 +5404,10 @@
         <v>215</v>
       </c>
       <c r="F90" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H90" s="14">
         <v>0.54797888500000003</v>
@@ -5403,7 +5419,7 @@
         <v>-1.5401601149999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>87</v>
       </c>
@@ -5420,10 +5436,10 @@
         <v>215</v>
       </c>
       <c r="F91" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H91" s="14">
         <v>-0.751269941</v>
@@ -5435,19 +5451,19 @@
         <v>4.5436188719999999E-2</v>
       </c>
       <c r="K91" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>87</v>
       </c>
@@ -5460,10 +5476,10 @@
         <v>215</v>
       </c>
       <c r="F92" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H92" s="14">
         <v>-0.80055230200000005</v>
@@ -5475,7 +5491,7 @@
         <v>3.8860691360000005E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -5488,10 +5504,10 @@
         <v>215</v>
       </c>
       <c r="F93" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H93" s="14">
         <v>-0.75128575200000003</v>
@@ -5503,7 +5519,7 @@
         <v>4.5434811409999998E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>87</v>
       </c>
@@ -5516,10 +5532,10 @@
         <v>215</v>
       </c>
       <c r="F94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H94" s="14">
         <v>-0.71455680300000002</v>
@@ -5531,7 +5547,7 @@
         <v>5.0124639110000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>87</v>
       </c>
@@ -5548,10 +5564,10 @@
         <v>215</v>
       </c>
       <c r="F95" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H95" s="14">
         <v>2.2715594920000002</v>
@@ -5563,19 +5579,19 @@
         <v>0.50623184936999999</v>
       </c>
       <c r="K95" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>87</v>
       </c>
@@ -5588,10 +5604,10 @@
         <v>215</v>
       </c>
       <c r="F96" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H96" s="14">
         <v>2.3740814989999999</v>
@@ -5603,7 +5619,7 @@
         <v>0.52469107276000004</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>87</v>
       </c>
@@ -5616,10 +5632,10 @@
         <v>215</v>
       </c>
       <c r="F97" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H97" s="14">
         <v>2.5651643819999999</v>
@@ -5631,7 +5647,7 @@
         <v>0.55969440067999998</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>87</v>
       </c>
@@ -5648,10 +5664,10 @@
         <v>215</v>
       </c>
       <c r="F98" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H98" s="14">
         <v>-2.6176070000000003E-2</v>
@@ -5663,19 +5679,19 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>87</v>
       </c>
@@ -5692,10 +5708,10 @@
         <v>215</v>
       </c>
       <c r="F99" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H99" s="14">
         <v>-3.9848427120000003</v>
@@ -5707,19 +5723,19 @@
         <v>5.4561798789999998E-2</v>
       </c>
       <c r="K99" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>87</v>
       </c>
@@ -5732,10 +5748,10 @@
         <v>215</v>
       </c>
       <c r="F100" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H100" s="14">
         <v>-4.0809368140000002</v>
@@ -5747,7 +5763,7 @@
         <v>4.1793505499999994E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>87</v>
       </c>
@@ -5760,10 +5776,10 @@
         <v>215</v>
       </c>
       <c r="F101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H101" s="14">
         <v>-3.9848516209999998</v>
@@ -5775,7 +5791,7 @@
         <v>5.4561024659999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>87</v>
       </c>
@@ -5788,10 +5804,10 @@
         <v>215</v>
       </c>
       <c r="F102" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H102" s="14">
         <v>-3.8055365239999999</v>
@@ -5803,7 +5819,7 @@
         <v>7.8775711319999997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>87</v>
       </c>
@@ -5820,10 +5836,10 @@
         <v>215</v>
       </c>
       <c r="F103" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H103" s="14">
         <v>-3.1821953499999998</v>
@@ -5835,19 +5851,19 @@
         <v>2.2629003070000001E-2</v>
       </c>
       <c r="K103" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L103" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>87</v>
       </c>
@@ -5860,10 +5876,10 @@
         <v>215</v>
       </c>
       <c r="F104" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H104" s="14">
         <v>-3.2497969619999996</v>
@@ -5875,7 +5891,7 @@
         <v>1.397257467E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>87</v>
       </c>
@@ -5888,10 +5904,10 @@
         <v>215</v>
       </c>
       <c r="F105" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H105" s="14">
         <v>-3.1822075810000001</v>
@@ -5903,7 +5919,7 @@
         <v>2.2628975990000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>87</v>
       </c>
@@ -5916,10 +5932,10 @@
         <v>215</v>
       </c>
       <c r="F106" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G106" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H106" s="14">
         <v>-3.0547918919999999</v>
@@ -5931,12 +5947,12 @@
         <v>3.9123683719999996E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>112</v>
@@ -5948,10 +5964,10 @@
         <v>215</v>
       </c>
       <c r="F107" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H107" s="14">
         <v>-1.4104213290000001</v>
@@ -5963,19 +5979,19 @@
         <v>2.8008384920000001E-2</v>
       </c>
       <c r="K107" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>87</v>
       </c>
@@ -5988,10 +6004,10 @@
         <v>215</v>
       </c>
       <c r="F108" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H108" s="14">
         <v>-1.4549662729999999</v>
@@ -6003,7 +6019,7 @@
         <v>2.2369692449999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>87</v>
       </c>
@@ -6016,10 +6032,10 @@
         <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H109" s="14">
         <v>-1.410422431</v>
@@ -6031,7 +6047,7 @@
         <v>2.8008188129999997E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>87</v>
       </c>
@@ -6044,10 +6060,10 @@
         <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H110" s="14">
         <v>-1.3496045189999999</v>
@@ -6059,7 +6075,7 @@
         <v>3.5748253870000003E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>87</v>
       </c>
@@ -6076,10 +6092,10 @@
         <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H111" s="14">
         <v>-0.41001729900000006</v>
@@ -6091,19 +6107,19 @@
         <v>5.00822566E-2</v>
       </c>
       <c r="K111" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L111" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>87</v>
       </c>
@@ -6116,10 +6132,10 @@
         <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H112" s="14">
         <v>-0.44388375299999999</v>
@@ -6131,7 +6147,7 @@
         <v>4.5738917939999998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>87</v>
       </c>
@@ -6144,10 +6160,10 @@
         <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H113" s="14">
         <v>-0.40999004500000003</v>
@@ -6159,7 +6175,7 @@
         <v>5.0081715169999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>87</v>
       </c>
@@ -6172,10 +6188,10 @@
         <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H114" s="14">
         <v>-0.361696144</v>
@@ -6187,7 +6203,7 @@
         <v>5.6548476E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>87</v>
       </c>
@@ -6204,10 +6220,10 @@
         <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H115" s="14">
         <v>-4.3791676720000003</v>
@@ -6219,19 +6235,19 @@
         <v>-1.8155896330000001E-2</v>
       </c>
       <c r="K115" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>87</v>
       </c>
@@ -6244,10 +6260,10 @@
         <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G116" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H116" s="14">
         <v>-4.4748685610000001</v>
@@ -6259,7 +6275,7 @@
         <v>-3.004349303E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>87</v>
       </c>
@@ -6272,10 +6288,10 @@
         <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H117" s="14">
         <v>-4.379180152</v>
@@ -6287,7 +6303,7 @@
         <v>-1.815579975E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>87</v>
       </c>
@@ -6300,10 +6316,10 @@
         <v>215</v>
       </c>
       <c r="F118" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G118" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H118" s="14">
         <v>-4.2005879200000003</v>
@@ -6315,7 +6331,7 @@
         <v>4.3888294800000002E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>87</v>
       </c>
@@ -6332,10 +6348,10 @@
         <v>215</v>
       </c>
       <c r="F119" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G119" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H119" s="14">
         <v>-2.2478101970000002</v>
@@ -6347,19 +6363,19 @@
         <v>1.7249129899999998E-3</v>
       </c>
       <c r="K119" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M119" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>87</v>
       </c>
@@ -6372,10 +6388,10 @@
         <v>215</v>
       </c>
       <c r="F120" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H120" s="14">
         <v>-2.2917458900000001</v>
@@ -6387,7 +6403,7 @@
         <v>-3.7403642900000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>87</v>
       </c>
@@ -6400,10 +6416,10 @@
         <v>215</v>
       </c>
       <c r="F121" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H121" s="14">
         <v>-2.2478183949999999</v>
@@ -6415,7 +6431,7 @@
         <v>1.7245344700000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>87</v>
       </c>
@@ -6428,10 +6444,10 @@
         <v>215</v>
       </c>
       <c r="F122" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G122" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H122" s="14">
         <v>-2.1297918990000002</v>
@@ -6443,7 +6459,7 @@
         <v>1.6540027190000001E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>87</v>
       </c>
@@ -6460,10 +6476,10 @@
         <v>215</v>
       </c>
       <c r="F123" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G123" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H123" s="14">
         <v>-2.9048750430000001</v>
@@ -6475,19 +6491,19 @@
         <v>7.3543528499999998E-3</v>
       </c>
       <c r="K123" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L123" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M123" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>87</v>
       </c>
@@ -6500,10 +6516,10 @@
         <v>215</v>
       </c>
       <c r="F124" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G124" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H124" s="14">
         <v>-3.028255927</v>
@@ -6515,7 +6531,7 @@
         <v>-8.1116190000000005E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>87</v>
       </c>
@@ -6528,10 +6544,10 @@
         <v>215</v>
       </c>
       <c r="F125" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G125" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H125" s="14">
         <v>-2.7476763210000001</v>
@@ -6543,7 +6559,7 @@
         <v>2.7375620470000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>87</v>
       </c>
@@ -6556,10 +6572,10 @@
         <v>215</v>
       </c>
       <c r="F126" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G126" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H126" s="14">
         <v>-2.904863169</v>
@@ -6571,7 +6587,7 @@
         <v>7.3536909500000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>87</v>
       </c>
@@ -6584,10 +6600,10 @@
         <v>215</v>
       </c>
       <c r="F127" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H127" s="14">
         <v>-2.791610887</v>
@@ -6599,7 +6615,7 @@
         <v>2.174070946E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>87</v>
       </c>
@@ -6616,10 +6632,10 @@
         <v>215</v>
       </c>
       <c r="F128" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G128" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H128" s="14">
         <v>-3.6409494219999998</v>
@@ -6631,19 +6647,19 @@
         <v>4.9244467999999997E-4</v>
       </c>
       <c r="K128" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M128" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>87</v>
       </c>
@@ -6656,10 +6672,10 @@
         <v>215</v>
       </c>
       <c r="F129" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H129" s="14">
         <v>-3.7633744550000001</v>
@@ -6671,7 +6687,7 @@
         <v>-1.486769951E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>87</v>
       </c>
@@ -6684,10 +6700,10 @@
         <v>215</v>
       </c>
       <c r="F130" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H130" s="14">
         <v>-3.4849423829999995</v>
@@ -6699,7 +6715,7 @@
         <v>2.0377579739999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>87</v>
       </c>
@@ -6712,10 +6728,10 @@
         <v>215</v>
       </c>
       <c r="F131" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G131" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H131" s="14">
         <v>-3.6409212230000003</v>
@@ -6727,7 +6743,7 @@
         <v>4.9269340999999998E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>87</v>
       </c>
@@ -6740,10 +6756,10 @@
         <v>215</v>
       </c>
       <c r="F132" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H132" s="14">
         <v>-3.5285748749999999</v>
@@ -6755,7 +6771,7 @@
         <v>1.4781213820000002E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>87</v>
       </c>
@@ -6772,10 +6788,10 @@
         <v>215</v>
       </c>
       <c r="F133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G133" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H133" s="14">
         <v>-3.5730277919999995</v>
@@ -6787,19 +6803,19 @@
         <v>-3.6351950500000002E-3</v>
       </c>
       <c r="K133" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M133" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>87</v>
       </c>
@@ -6812,10 +6828,10 @@
         <v>215</v>
       </c>
       <c r="F134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G134" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H134" s="14">
         <v>-3.6955697280000006</v>
@@ -6827,7 +6843,7 @@
         <v>-1.8932398619999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>87</v>
       </c>
@@ -6840,10 +6856,10 @@
         <v>215</v>
       </c>
       <c r="F135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G135" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H135" s="14">
         <v>-3.4169097279999998</v>
@@ -6855,7 +6871,7 @@
         <v>1.6168217219999999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>87</v>
       </c>
@@ -6868,10 +6884,10 @@
         <v>215</v>
       </c>
       <c r="F136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G136" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H136" s="14">
         <v>-3.5730280639999998</v>
@@ -6883,7 +6899,7 @@
         <v>-3.63507189E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>87</v>
       </c>
@@ -6896,10 +6912,10 @@
         <v>215</v>
       </c>
       <c r="F137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H137" s="14">
         <v>-3.4605621609999999</v>
@@ -6911,7 +6927,7 @@
         <v>1.059513068E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>87</v>
       </c>
@@ -6928,10 +6944,10 @@
         <v>215</v>
       </c>
       <c r="F138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G138" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H138" s="14">
         <v>-2.6391949970000002</v>
@@ -6943,19 +6959,19 @@
         <v>8.0619044000000001E-4</v>
       </c>
       <c r="K138" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L138" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M138" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N138" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>87</v>
       </c>
@@ -6968,10 +6984,10 @@
         <v>215</v>
       </c>
       <c r="F139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H139" s="14">
         <v>-2.6723417810000001</v>
@@ -6983,7 +6999,7 @@
         <v>-3.3320913000000002E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>87</v>
       </c>
@@ -6996,10 +7012,10 @@
         <v>215</v>
       </c>
       <c r="F140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H140" s="14">
         <v>-2.6392047970000001</v>
@@ -7011,7 +7027,7 @@
         <v>8.0635937000000002E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>87</v>
       </c>
@@ -7024,10 +7040,10 @@
         <v>215</v>
       </c>
       <c r="F141" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G141" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H141" s="14">
         <v>-2.591951253</v>
@@ -7039,12 +7055,12 @@
         <v>7.2158582500000002E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>127</v>
@@ -7056,10 +7072,10 @@
         <v>215</v>
       </c>
       <c r="F142" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H142" s="14">
         <v>-3.734336662</v>
@@ -7071,19 +7087,19 @@
         <v>1.34072389E-2</v>
       </c>
       <c r="K142" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L142" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M142" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N142" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>87</v>
       </c>
@@ -7096,10 +7112,10 @@
         <v>215</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G143" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H143" s="14">
         <v>-3.8306818159999998</v>
@@ -7111,7 +7127,7 @@
         <v>1.13732983E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>87</v>
       </c>
@@ -7124,10 +7140,10 @@
         <v>215</v>
       </c>
       <c r="F144" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H144" s="14">
         <v>-3.7343629199999997</v>
@@ -7139,7 +7155,7 @@
         <v>1.3406836950000001E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>87</v>
       </c>
@@ -7152,10 +7168,10 @@
         <v>215</v>
       </c>
       <c r="F145" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G145" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H145" s="14">
         <v>-3.5545775179999994</v>
@@ -7167,7 +7183,7 @@
         <v>3.6675624519999998E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>87</v>
       </c>
@@ -7184,10 +7200,10 @@
         <v>215</v>
       </c>
       <c r="F146" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H146" s="14">
         <v>-3.4890549139999996</v>
@@ -7199,19 +7215,19 @@
         <v>1.9057450500000002E-3</v>
       </c>
       <c r="K146" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L146" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M146" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>87</v>
       </c>
@@ -7224,10 +7240,10 @@
         <v>215</v>
       </c>
       <c r="F147" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G147" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H147" s="14">
         <v>-3.6116926949999995</v>
@@ -7239,7 +7255,7 @@
         <v>-1.347501188E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>87</v>
       </c>
@@ -7252,10 +7268,10 @@
         <v>215</v>
       </c>
       <c r="F148" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G148" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H148" s="14">
         <v>-3.3240490970000001</v>
@@ -7267,7 +7283,7 @@
         <v>2.2387994629999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>87</v>
       </c>
@@ -7280,10 +7296,10 @@
         <v>215</v>
       </c>
       <c r="F149" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H149" s="14">
         <v>-3.4890655869999994</v>
@@ -7295,7 +7311,7 @@
         <v>1.9057937299999999E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>87</v>
       </c>
@@ -7308,10 +7324,10 @@
         <v>215</v>
       </c>
       <c r="F150" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G150" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H150" s="14">
         <v>-3.3764988039999997</v>
@@ -7323,7 +7339,7 @@
         <v>1.6215320669999998E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>87</v>
       </c>
@@ -7340,10 +7356,10 @@
         <v>215</v>
       </c>
       <c r="F151" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G151" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H151" s="14">
         <v>-2.078904981</v>
@@ -7355,19 +7371,19 @@
         <v>9.9471147400000005E-3</v>
       </c>
       <c r="K151" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L151" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M151" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>87</v>
       </c>
@@ -7380,10 +7396,10 @@
         <v>215</v>
       </c>
       <c r="F152" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G152" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H152" s="14">
         <v>-2.2033436019999999</v>
@@ -7395,7 +7411,7 @@
         <v>-5.5585680999999994E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>87</v>
       </c>
@@ -7408,10 +7424,10 @@
         <v>215</v>
       </c>
       <c r="F153" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G153" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H153" s="14">
         <v>-2.0789060909999999</v>
@@ -7423,7 +7439,7 @@
         <v>9.9470502500000006E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>87</v>
       </c>
@@ -7436,10 +7452,10 @@
         <v>215</v>
       </c>
       <c r="F154" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H154" s="14">
         <v>-1.9647115859999997</v>
@@ -7451,12 +7467,12 @@
         <v>2.4370868269999998E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>132</v>
@@ -7468,10 +7484,10 @@
         <v>215</v>
       </c>
       <c r="F155" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G155" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H155" s="14">
         <v>-2.5044574079999999</v>
@@ -7483,19 +7499,19 @@
         <v>3.7607485800000002E-3</v>
       </c>
       <c r="K155" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L155" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M155" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N155" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>87</v>
       </c>
@@ -7508,10 +7524,10 @@
         <v>215</v>
       </c>
       <c r="F156" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G156" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H156" s="14">
         <v>-2.5482794050000002</v>
@@ -7523,7 +7539,7 @@
         <v>-1.71374006E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>87</v>
       </c>
@@ -7536,10 +7552,10 @@
         <v>215</v>
       </c>
       <c r="F157" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G157" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H157" s="14">
         <v>-2.5044512480000001</v>
@@ -7551,7 +7567,7 @@
         <v>3.76068069E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>87</v>
       </c>
@@ -7564,10 +7580,10 @@
         <v>215</v>
       </c>
       <c r="F158" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G158" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H158" s="14">
         <v>-2.3867416069999998</v>
@@ -7579,12 +7595,12 @@
         <v>1.8605824650000002E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>133</v>
@@ -7596,10 +7612,10 @@
         <v>215</v>
       </c>
       <c r="F159" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G159" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H159" s="14">
         <v>-2.0434906769999999</v>
@@ -7611,19 +7627,19 @@
         <v>5.4125155500000001E-3</v>
       </c>
       <c r="K159" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L159" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M159" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>87</v>
       </c>
@@ -7636,10 +7652,10 @@
         <v>215</v>
       </c>
       <c r="F160" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G160" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H160" s="14">
         <v>-2.0875057180000001</v>
@@ -7651,7 +7667,7 @@
         <v>-7.2128270000000003E-5</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>87</v>
       </c>
@@ -7664,10 +7680,10 @@
         <v>215</v>
       </c>
       <c r="F161" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G161" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H161" s="14">
         <v>-2.0434993769999998</v>
@@ -7679,7 +7695,7 @@
         <v>5.4124155799999997E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>87</v>
       </c>
@@ -7692,10 +7708,10 @@
         <v>215</v>
       </c>
       <c r="F162" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G162" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H162" s="14">
         <v>-1.9252311970000002</v>
@@ -7707,12 +7723,12 @@
         <v>2.0281458860000001E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>134</v>
@@ -7724,10 +7740,10 @@
         <v>215</v>
       </c>
       <c r="F163" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G163" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H163" s="14">
         <v>-3.3652019700000002</v>
@@ -7739,19 +7755,19 @@
         <v>1.032239747E-2</v>
       </c>
       <c r="K163" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L163" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M163" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N163" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>87</v>
       </c>
@@ -7764,10 +7780,10 @@
         <v>215</v>
       </c>
       <c r="F164" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G164" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H164" s="14">
         <v>-3.4880247799999999</v>
@@ -7779,7 +7795,7 @@
         <v>-5.1883131100000004E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>87</v>
       </c>
@@ -7792,10 +7808,10 @@
         <v>215</v>
       </c>
       <c r="F165" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G165" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H165" s="14">
         <v>-3.2087691889999999</v>
@@ -7807,7 +7823,7 @@
         <v>3.040227484E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>87</v>
       </c>
@@ -7820,10 +7836,10 @@
         <v>215</v>
       </c>
       <c r="F166" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G166" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H166" s="14">
         <v>-3.3652176470000001</v>
@@ -7835,7 +7851,7 @@
         <v>1.032142172E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>87</v>
       </c>
@@ -7848,10 +7864,10 @@
         <v>215</v>
       </c>
       <c r="F167" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G167" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H167" s="14">
         <v>-3.2525317749999996</v>
@@ -7863,7 +7879,7 @@
         <v>2.4751366E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>87</v>
       </c>
@@ -7880,10 +7896,10 @@
         <v>215</v>
       </c>
       <c r="F168" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G168" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H168" s="14">
         <v>-1.2074426789999999</v>
@@ -7895,19 +7911,19 @@
         <v>2.9462884070000001E-2</v>
       </c>
       <c r="K168" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L168" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N168" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>87</v>
       </c>
@@ -7920,10 +7936,10 @@
         <v>215</v>
       </c>
       <c r="F169" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G169" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H169" s="14">
         <v>-1.2410672410000001</v>
@@ -7935,7 +7951,7 @@
         <v>2.5203641459999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>87</v>
       </c>
@@ -7948,10 +7964,10 @@
         <v>215</v>
       </c>
       <c r="F170" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H170" s="14">
         <v>-1.2074543360000001</v>
@@ -7963,7 +7979,7 @@
         <v>2.9461924300000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>87</v>
       </c>
@@ -7976,10 +7992,10 @@
         <v>215</v>
       </c>
       <c r="F171" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G171" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H171" s="14">
         <v>-1.159536356</v>
@@ -7991,7 +8007,7 @@
         <v>3.580184501E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>87</v>
       </c>
@@ -8008,10 +8024,10 @@
         <v>215</v>
       </c>
       <c r="F172" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G172" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H172" s="14">
         <v>-2.7488846969999998</v>
@@ -8023,19 +8039,19 @@
         <v>-2.7709048589999997E-2</v>
       </c>
       <c r="K172" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L172" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N172" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>87</v>
       </c>
@@ -8048,10 +8064,10 @@
         <v>215</v>
       </c>
       <c r="F173" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H173" s="14">
         <v>-2.7928263210000002</v>
@@ -8063,7 +8079,7 @@
         <v>-3.3041729329999998E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>87</v>
       </c>
@@ -8076,10 +8092,10 @@
         <v>215</v>
       </c>
       <c r="F174" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G174" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H174" s="14">
         <v>-2.7488953600000001</v>
@@ -8091,7 +8107,7 @@
         <v>-2.7709377800000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>87</v>
       </c>
@@ -8104,10 +8120,10 @@
         <v>215</v>
       </c>
       <c r="F175" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G175" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H175" s="14">
         <v>-2.688870535</v>
@@ -8119,7 +8135,7 @@
         <v>-2.0388661759999999E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>87</v>
       </c>
@@ -8136,10 +8152,10 @@
         <v>215</v>
       </c>
       <c r="F176" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H176" s="14">
         <v>-2.7523110079999999</v>
@@ -8151,19 +8167,19 @@
         <v>-9.8802403999999995E-4</v>
       </c>
       <c r="K176" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L176" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M176" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N176" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>87</v>
       </c>
@@ -8176,10 +8192,10 @@
         <v>215</v>
       </c>
       <c r="F177" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G177" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H177" s="14">
         <v>-2.849636394</v>
@@ -8191,7 +8207,7 @@
         <v>-1.3084031959999999E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>87</v>
       </c>
@@ -8204,10 +8220,10 @@
         <v>215</v>
       </c>
       <c r="F178" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G178" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H178" s="14">
         <v>-2.7523157949999999</v>
@@ -8219,7 +8235,7 @@
         <v>-9.8825105999999986E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>87</v>
       </c>
@@ -8232,10 +8248,10 @@
         <v>215</v>
       </c>
       <c r="F179" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G179" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H179" s="14">
         <v>-2.5706840180000001</v>
@@ -8247,7 +8263,7 @@
         <v>2.1950242790000001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>87</v>
       </c>
@@ -8264,10 +8280,10 @@
         <v>215</v>
       </c>
       <c r="F180" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H180" s="14">
         <v>0.68751465899999997</v>
@@ -8279,19 +8295,19 @@
         <v>0.10017862905</v>
       </c>
       <c r="K180" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L180" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M180" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N180" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>87</v>
       </c>
@@ -8304,10 +8320,10 @@
         <v>215</v>
       </c>
       <c r="F181" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G181" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H181" s="14">
         <v>0.67924821899999999</v>
@@ -8319,7 +8335,7 @@
         <v>9.8275189040000002E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>87</v>
       </c>
@@ -8332,10 +8348,10 @@
         <v>215</v>
       </c>
       <c r="F182" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H182" s="14">
         <v>0.73719732999999998</v>
@@ -8347,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>87</v>
       </c>
@@ -8360,10 +8376,10 @@
         <v>215</v>
       </c>
       <c r="F183" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G183" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H183" s="14">
         <v>0.68753516599999998</v>
@@ -8375,7 +8391,7 @@
         <v>0.10017870708</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>87</v>
       </c>
@@ -8388,10 +8404,10 @@
         <v>215</v>
       </c>
       <c r="F184" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G184" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H184" s="14">
         <v>0.72476873500000005</v>
@@ -8408,7 +8424,7 @@
         <v>143</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>144</v>
@@ -8423,7 +8439,7 @@
         <v>259</v>
       </c>
       <c r="G185" t="s">
-        <v>216</v>
+        <v>514</v>
       </c>
       <c r="H185" s="14">
         <v>0.64224973399999996</v>
@@ -8435,16 +8451,16 @@
         <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M185" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="N185" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="N185" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -8467,7 +8483,7 @@
         <v>259</v>
       </c>
       <c r="G186" t="s">
-        <v>216</v>
+        <v>514</v>
       </c>
       <c r="H186" s="14">
         <v>0.64137808200000002</v>
@@ -8479,16 +8495,16 @@
         <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L186" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M186" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N186" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -8511,7 +8527,7 @@
         <v>259</v>
       </c>
       <c r="G187" t="s">
-        <v>216</v>
+        <v>514</v>
       </c>
       <c r="H187" s="14">
         <v>0.63531634800000003</v>
@@ -8523,16 +8539,16 @@
         <v>0</v>
       </c>
       <c r="K187" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L187" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M187" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="N187" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="N187" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -8555,7 +8571,7 @@
         <v>259</v>
       </c>
       <c r="G188" t="s">
-        <v>216</v>
+        <v>513</v>
       </c>
       <c r="H188" s="14">
         <v>0.59436610300000003</v>
@@ -8567,16 +8583,16 @@
         <v>0</v>
       </c>
       <c r="K188" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L188" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M188" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N188" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -8599,7 +8615,7 @@
         <v>259</v>
       </c>
       <c r="G189" t="s">
-        <v>216</v>
+        <v>513</v>
       </c>
       <c r="H189" s="14">
         <v>0.59436610300000003</v>
@@ -8611,16 +8627,16 @@
         <v>0</v>
       </c>
       <c r="K189" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L189" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M189" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N189" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -8643,7 +8659,7 @@
         <v>259</v>
       </c>
       <c r="G190" t="s">
-        <v>216</v>
+        <v>513</v>
       </c>
       <c r="H190" s="14">
         <v>0.59431921600000004</v>
@@ -8655,19 +8671,19 @@
         <v>0</v>
       </c>
       <c r="K190" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L190" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M190" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N190" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>155</v>
       </c>
@@ -8684,10 +8700,10 @@
         <v>215</v>
       </c>
       <c r="F191" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G191" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H191" s="14">
         <v>-1.0672895229999999</v>
@@ -8699,19 +8715,19 @@
         <v>9.6386770199999999E-3</v>
       </c>
       <c r="K191" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L191" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M191" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N191" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>155</v>
       </c>
@@ -8724,10 +8740,10 @@
         <v>215</v>
       </c>
       <c r="F192" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G192" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H192" s="14">
         <v>-0.94124522700000002</v>
@@ -8739,7 +8755,7 @@
         <v>2.5353413960000001E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>155</v>
       </c>
@@ -8752,10 +8768,10 @@
         <v>215</v>
       </c>
       <c r="F193" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G193" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H193" s="14">
         <v>0</v>
@@ -8767,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>155</v>
       </c>
@@ -8784,10 +8800,10 @@
         <v>215</v>
       </c>
       <c r="F194" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H194" s="14">
         <v>-3.8602735530000003</v>
@@ -8799,19 +8815,19 @@
         <v>-5.3483668079999998E-2</v>
       </c>
       <c r="K194" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L194" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M194" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N194" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>155</v>
       </c>
@@ -8824,10 +8840,10 @@
         <v>215</v>
       </c>
       <c r="F195" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G195" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H195" s="14">
         <v>-3.653204584</v>
@@ -8839,7 +8855,7 @@
         <v>-2.8341832099999999E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>155</v>
       </c>
@@ -8852,10 +8868,10 @@
         <v>215</v>
       </c>
       <c r="F196" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G196" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H196" s="14">
         <v>-3.5692540049999999</v>
@@ -8867,7 +8883,7 @@
         <v>-1.8028864749999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>155</v>
       </c>
@@ -8884,10 +8900,10 @@
         <v>215</v>
       </c>
       <c r="F197" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G197" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H197" s="14">
         <v>-7.6008285630000003</v>
@@ -8899,19 +8915,19 @@
         <v>9.9229245999999998E-4</v>
       </c>
       <c r="K197" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L197" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M197" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N197" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>155</v>
       </c>
@@ -8924,10 +8940,10 @@
         <v>215</v>
       </c>
       <c r="F198" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G198" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H198" s="14">
         <v>-7.2892950580000004</v>
@@ -8939,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>155</v>
       </c>
@@ -8952,10 +8968,10 @@
         <v>215</v>
       </c>
       <c r="F199" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G199" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H199" s="14">
         <v>-7.535313511</v>
@@ -8967,7 +8983,7 @@
         <v>9.87503887E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>155</v>
       </c>
@@ -8980,10 +8996,10 @@
         <v>215</v>
       </c>
       <c r="F200" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H200" s="14">
         <v>-7.3315861250000003</v>
@@ -8995,7 +9011,7 @@
         <v>3.6452132559999996E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>155</v>
       </c>
@@ -9012,10 +9028,10 @@
         <v>215</v>
       </c>
       <c r="F201" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G201" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H201" s="14">
         <v>-7.4794805239999995</v>
@@ -9027,19 +9043,19 @@
         <v>2.6852986129999999E-2</v>
       </c>
       <c r="K201" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L201" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M201" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N201" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>155</v>
       </c>
@@ -9052,10 +9068,10 @@
         <v>215</v>
       </c>
       <c r="F202" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H202" s="14">
         <v>-7.2895217600000004</v>
@@ -9067,7 +9083,7 @@
         <v>5.2830557950000002E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>155</v>
       </c>
@@ -9080,10 +9096,10 @@
         <v>215</v>
       </c>
       <c r="F203" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G203" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H203" s="14">
         <v>0</v>
@@ -9095,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>155</v>
       </c>
@@ -9112,10 +9128,10 @@
         <v>215</v>
       </c>
       <c r="F204" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G204" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H204" s="14">
         <v>-3.264826733</v>
@@ -9127,19 +9143,19 @@
         <v>1.620230932E-2</v>
       </c>
       <c r="K204" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L204" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M204" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N204" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>155</v>
       </c>
@@ -9152,10 +9168,10 @@
         <v>215</v>
       </c>
       <c r="F205" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G205" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H205" s="14">
         <v>-3.1120064520000001</v>
@@ -9167,7 +9183,7 @@
         <v>3.6407357029999997E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>155</v>
       </c>
@@ -9184,10 +9200,10 @@
         <v>215</v>
       </c>
       <c r="F206" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G206" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H206" s="14">
         <v>-2.0783183219999999</v>
@@ -9199,19 +9215,19 @@
         <v>4.2638320260000001E-2</v>
       </c>
       <c r="K206" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L206" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M206" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N206" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>155</v>
       </c>
@@ -9224,10 +9240,10 @@
         <v>215</v>
       </c>
       <c r="F207" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H207" s="14">
         <v>-1.9536996310000003</v>
@@ -9239,7 +9255,7 @@
         <v>5.9027119719999993E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>155</v>
       </c>
@@ -9256,10 +9272,10 @@
         <v>215</v>
       </c>
       <c r="F208" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G208" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H208" s="14">
         <v>-2.2742124179999998</v>
@@ -9271,19 +9287,19 @@
         <v>-6.8888709699999997E-3</v>
       </c>
       <c r="K208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L208" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M208" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N208" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>155</v>
       </c>
@@ -9296,10 +9312,10 @@
         <v>215</v>
       </c>
       <c r="F209" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G209" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H209" s="14">
         <v>-2.121571206</v>
@@ -9311,7 +9327,7 @@
         <v>9.7626456900000002E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>155</v>
       </c>
@@ -9324,10 +9340,10 @@
         <v>215</v>
       </c>
       <c r="F210" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G210" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H210" s="14">
         <v>-2.0740404300000002</v>
@@ -9339,7 +9355,7 @@
         <v>1.814578641E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>155</v>
       </c>
@@ -9356,10 +9372,10 @@
         <v>215</v>
       </c>
       <c r="F211" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G211" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H211" s="14">
         <v>-1.3115858030000001</v>
@@ -9371,19 +9387,19 @@
         <v>3.6918739159999998E-2</v>
       </c>
       <c r="K211" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L211" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M211" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N211" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>155</v>
       </c>
@@ -9396,10 +9412,10 @@
         <v>215</v>
       </c>
       <c r="F212" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G212" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H212" s="14">
         <v>-1.2153712649999999</v>
@@ -9411,7 +9427,7 @@
         <v>4.6773471269999999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>155</v>
       </c>
@@ -9424,10 +9440,10 @@
         <v>215</v>
       </c>
       <c r="F213" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G213" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H213" s="14">
         <v>-1.1674601579999999</v>
@@ -9439,7 +9455,7 @@
         <v>5.549402698E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>155</v>
       </c>
@@ -9453,13 +9469,13 @@
         <v>14</v>
       </c>
       <c r="E214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F214" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H214" s="14">
         <v>-5.0475486470000002</v>
@@ -9471,19 +9487,19 @@
         <v>-0.103137706</v>
       </c>
       <c r="K214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L214" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M214" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N214" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>155</v>
       </c>
@@ -9493,13 +9509,13 @@
         <v>157</v>
       </c>
       <c r="E215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F215" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H215" s="14">
         <v>-4.8003157720000003</v>
@@ -9511,7 +9527,7 @@
         <v>-8.0396366499999997E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>155</v>
       </c>
@@ -9521,13 +9537,13 @@
         <v>158</v>
       </c>
       <c r="E216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F216" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H216" s="14">
         <v>-4.7607105780000003</v>
@@ -9539,7 +9555,7 @@
         <v>-6.9611098869999999E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>155</v>
       </c>
@@ -9556,10 +9572,10 @@
         <v>215</v>
       </c>
       <c r="F217" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G217" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H217" s="14">
         <v>-2.4220115729999998</v>
@@ -9571,19 +9587,19 @@
         <v>0.29696910496000001</v>
       </c>
       <c r="K217" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L217" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M217" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N217" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>155</v>
       </c>
@@ -9600,10 +9616,10 @@
         <v>215</v>
       </c>
       <c r="F218" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G218" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H218" s="14">
         <v>-4.3203943730000001</v>
@@ -9615,19 +9631,19 @@
         <v>2.0841138929999999E-2</v>
       </c>
       <c r="K218" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L218" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M218" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N218" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>155</v>
       </c>
@@ -9640,10 +9656,10 @@
         <v>215</v>
       </c>
       <c r="F219" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H219" s="14">
         <v>-4.0289447750000003</v>
@@ -9655,7 +9671,7 @@
         <v>5.9396362079999994E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>155</v>
       </c>
@@ -9668,10 +9684,10 @@
         <v>215</v>
       </c>
       <c r="F220" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G220" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H220" s="14">
         <v>-3.9554936820000006</v>
@@ -9683,7 +9699,7 @@
         <v>6.9231378809999994E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>155</v>
       </c>
@@ -9700,10 +9716,10 @@
         <v>215</v>
       </c>
       <c r="F221" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H221" s="14">
         <v>0.70479399899999995</v>
@@ -9715,19 +9731,19 @@
         <v>0.10339623272000001</v>
       </c>
       <c r="K221" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L221" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M221" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N221" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>155</v>
       </c>
@@ -9740,10 +9756,10 @@
         <v>215</v>
       </c>
       <c r="F222" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H222" s="14">
         <v>0.727627837</v>
@@ -9755,7 +9771,7 @@
         <v>0.10538675468999999</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>155</v>
       </c>
@@ -9768,10 +9784,10 @@
         <v>215</v>
       </c>
       <c r="F223" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H223" s="14">
         <v>0.76328586600000004</v>
@@ -9783,7 +9799,7 @@
         <v>0.11376859620999999</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>155</v>
       </c>
@@ -9800,10 +9816,10 @@
         <v>215</v>
       </c>
       <c r="F224" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H224" s="14">
         <v>-2.4095835050000001</v>
@@ -9815,19 +9831,19 @@
         <v>-1.525020614E-2</v>
       </c>
       <c r="K224" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L224" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M224" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N224" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>155</v>
       </c>
@@ -9840,10 +9856,10 @@
         <v>215</v>
       </c>
       <c r="F225" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G225" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H225" s="14">
         <v>-2.113479441</v>
@@ -9855,7 +9871,7 @@
         <v>2.1905769919999998E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>155</v>
       </c>
@@ -9868,10 +9884,10 @@
         <v>215</v>
       </c>
       <c r="F226" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H226" s="14">
         <v>-2.0373903539999998</v>
@@ -9883,7 +9899,7 @@
         <v>3.142929597E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>155</v>
       </c>
@@ -9897,13 +9913,13 @@
         <v>14</v>
       </c>
       <c r="E227" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F227" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G227" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H227" s="14">
         <v>-0.74956325199999996</v>
@@ -9915,19 +9931,19 @@
         <v>4.7771190900000003E-3</v>
       </c>
       <c r="K227" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L227" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M227" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N227" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>155</v>
       </c>
@@ -9937,13 +9953,13 @@
         <v>157</v>
       </c>
       <c r="E228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F228" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G228" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H228" s="14">
         <v>-0.45219036899999998</v>
@@ -9955,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>155</v>
       </c>
@@ -9965,13 +9981,13 @@
         <v>158</v>
       </c>
       <c r="E229" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F229" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G229" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H229" s="14">
         <v>-0.53755325799999998</v>
@@ -9983,12 +9999,12 @@
         <v>3.1212008329999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>186</v>
@@ -10000,10 +10016,10 @@
         <v>215</v>
       </c>
       <c r="F230" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G230" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H230" s="14">
         <v>-2.8582588539999998</v>
@@ -10015,19 +10031,19 @@
         <v>1.762337906E-2</v>
       </c>
       <c r="K230" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L230" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M230" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N230" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>155</v>
       </c>
@@ -10040,10 +10056,10 @@
         <v>215</v>
       </c>
       <c r="F231" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H231" s="14">
         <v>-2.6852273840000001</v>
@@ -10055,7 +10071,7 @@
         <v>3.9366856749999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>155</v>
       </c>
@@ -10068,10 +10084,10 @@
         <v>215</v>
       </c>
       <c r="F232" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H232" s="14">
         <v>-2.6108549170000002</v>
@@ -10083,12 +10099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>187</v>
@@ -10100,10 +10116,10 @@
         <v>215</v>
       </c>
       <c r="F233" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G233" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H233" s="14">
         <v>-2.7613366529999999</v>
@@ -10115,19 +10131,19 @@
         <v>7.5727556199999997E-3</v>
       </c>
       <c r="K233" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L233" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M233" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N233" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>155</v>
       </c>
@@ -10140,10 +10156,10 @@
         <v>215</v>
       </c>
       <c r="F234" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G234" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H234" s="14">
         <v>-2.60725563</v>
@@ -10155,7 +10171,7 @@
         <v>1.8991125519999999E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>155</v>
       </c>
@@ -10168,10 +10184,10 @@
         <v>215</v>
       </c>
       <c r="F235" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G235" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H235" s="14">
         <v>-2.5126905800000001</v>
@@ -10183,12 +10199,12 @@
         <v>4.386739756E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>188</v>
@@ -10200,10 +10216,10 @@
         <v>215</v>
       </c>
       <c r="F236" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H236" s="14">
         <v>-3.4779305680000006</v>
@@ -10215,19 +10231,19 @@
         <v>-9.0014289300000012E-3</v>
       </c>
       <c r="K236" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L236" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M236" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N236" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>155</v>
       </c>
@@ -10240,10 +10256,10 @@
         <v>215</v>
       </c>
       <c r="F237" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H237" s="14">
         <v>0</v>
@@ -10255,7 +10271,7 @@
         <v>6.2658253750000004E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>155</v>
       </c>
@@ -10268,10 +10284,10 @@
         <v>215</v>
       </c>
       <c r="F238" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G238" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H238" s="14">
         <v>0</v>
@@ -10283,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>155</v>
       </c>
@@ -10300,10 +10316,10 @@
         <v>215</v>
       </c>
       <c r="F239" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G239" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H239" s="14">
         <v>-1.216488835</v>
@@ -10315,19 +10331,19 @@
         <v>4.0663017060000001E-2</v>
       </c>
       <c r="K239" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L239" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M239" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N239" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>155</v>
       </c>
@@ -10340,10 +10356,10 @@
         <v>215</v>
       </c>
       <c r="F240" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G240" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H240" s="14">
         <v>-1.1292579970000001</v>
@@ -10355,7 +10371,7 @@
         <v>4.4925213960000002E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>155</v>
       </c>
@@ -10368,10 +10384,10 @@
         <v>215</v>
       </c>
       <c r="F241" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G241" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H241" s="14">
         <v>-1.0819395430000001</v>
@@ -10383,7 +10399,7 @@
         <v>5.8040525959999999E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>155</v>
       </c>
@@ -10400,10 +10416,10 @@
         <v>215</v>
       </c>
       <c r="F242" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G242" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H242" s="14">
         <v>-0.48208022</v>
@@ -10415,19 +10431,19 @@
         <v>4.7389984260000004E-2</v>
       </c>
       <c r="K242" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L242" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M242" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N242" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>155</v>
       </c>
@@ -10440,10 +10456,10 @@
         <v>215</v>
       </c>
       <c r="F243" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G243" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H243" s="14">
         <v>-0.39482206199999997</v>
@@ -10455,7 +10471,7 @@
         <v>5.6086904100000001E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>155</v>
       </c>
@@ -10468,10 +10484,10 @@
         <v>215</v>
       </c>
       <c r="F244" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H244" s="14">
         <v>-0.34649382099999998</v>
@@ -10483,7 +10499,7 @@
         <v>6.4884803569999996E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>155</v>
       </c>
@@ -10500,10 +10516,10 @@
         <v>215</v>
       </c>
       <c r="F245" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G245" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H245" s="14">
         <v>0.37369393099999998</v>
@@ -10515,19 +10531,19 @@
         <v>8.988395427000001E-2</v>
       </c>
       <c r="K245" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L245" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M245" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N245" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>155</v>
       </c>
@@ -10540,10 +10556,10 @@
         <v>215</v>
       </c>
       <c r="F246" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G246" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H246" s="14">
         <v>0.40372472100000001</v>
@@ -10555,7 +10571,7 @@
         <v>7.8786754299999998E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>155</v>
       </c>
@@ -10568,10 +10584,10 @@
         <v>215</v>
       </c>
       <c r="F247" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G247" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H247" s="14">
         <v>0.45242174699999993</v>
@@ -10583,7 +10599,7 @@
         <v>0.10033028579</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>155</v>
       </c>
@@ -10597,13 +10613,13 @@
         <v>14</v>
       </c>
       <c r="E248" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F248" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H248" s="14">
         <v>-7.4147835989999997</v>
@@ -10615,19 +10631,19 @@
         <v>-9.5178582390000002E-2</v>
       </c>
       <c r="K248" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M248" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N248" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>155</v>
       </c>
@@ -10637,13 +10653,13 @@
         <v>157</v>
       </c>
       <c r="E249" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F249" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G249" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H249" s="14">
         <v>-7.0920550349999996</v>
@@ -10655,7 +10671,7 @@
         <v>-5.5629528239999997E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>155</v>
       </c>
@@ -10665,13 +10681,13 @@
         <v>158</v>
       </c>
       <c r="E250" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F250" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G250" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H250" s="14">
         <v>-7.17971454</v>
@@ -10683,7 +10699,7 @@
         <v>-6.6830560940000006E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>155</v>
       </c>
@@ -10700,10 +10716,10 @@
         <v>215</v>
       </c>
       <c r="F251" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G251" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H251" s="14">
         <v>0.74636453599999997</v>
@@ -10715,19 +10731,19 @@
         <v>0.1028281273</v>
       </c>
       <c r="K251" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M251" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N251" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>155</v>
       </c>
@@ -10740,10 +10756,10 @@
         <v>215</v>
       </c>
       <c r="F252" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G252" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H252" s="14">
         <v>0.77121008599999996</v>
@@ -10755,7 +10771,7 @@
         <v>0.10613836774999999</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>155</v>
       </c>
@@ -10768,10 +10784,10 @@
         <v>215</v>
       </c>
       <c r="F253" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G253" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H253" s="14">
         <v>0.81177398499999998</v>
@@ -10783,7 +10799,7 @@
         <v>0.11513448748000001</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>155</v>
       </c>
@@ -10800,10 +10816,10 @@
         <v>215</v>
       </c>
       <c r="F254" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G254" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H254" s="14">
         <v>-4.9322016910000004</v>
@@ -10815,19 +10831,19 @@
         <v>-1.6764242780000001E-2</v>
       </c>
       <c r="K254" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M254" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N254" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>155</v>
       </c>
@@ -10840,10 +10856,10 @@
         <v>215</v>
       </c>
       <c r="F255" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G255" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H255" s="14">
         <v>-4.6416235119999998</v>
@@ -10855,7 +10871,7 @@
         <v>2.5356645599999998E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>155</v>
       </c>
@@ -10868,10 +10884,10 @@
         <v>215</v>
       </c>
       <c r="F256" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G256" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H256" s="14">
         <v>-4.6464726980000002</v>
@@ -10883,7 +10899,7 @@
         <v>1.9799148440000001E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>155</v>
       </c>
@@ -10897,13 +10913,13 @@
         <v>14</v>
       </c>
       <c r="E257" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F257" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G257" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H257" s="14">
         <v>-1.000898434</v>
@@ -10915,19 +10931,19 @@
         <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M257" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N257" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>155</v>
       </c>
@@ -10937,13 +10953,13 @@
         <v>157</v>
       </c>
       <c r="E258" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F258" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G258" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H258" s="14">
         <v>-0.913533806</v>
@@ -10955,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>155</v>
       </c>
@@ -10965,13 +10981,13 @@
         <v>158</v>
       </c>
       <c r="E259" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F259" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G259" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H259" s="14">
         <v>-0.94069515299999984</v>
@@ -10983,12 +10999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>203</v>
@@ -10997,13 +11013,13 @@
         <v>14</v>
       </c>
       <c r="E260" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F260" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G260" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H260" s="14">
         <v>0.89403392199999998</v>
@@ -11015,19 +11031,19 @@
         <v>1.2485346900000001E-2</v>
       </c>
       <c r="K260" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L260" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M260" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N260" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>155</v>
       </c>
@@ -11037,13 +11053,13 @@
         <v>157</v>
       </c>
       <c r="E261" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F261" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G261" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H261" s="14">
         <v>1.276392118</v>
@@ -11055,7 +11071,7 @@
         <v>2.9624956710000001E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>155</v>
       </c>
@@ -11065,13 +11081,13 @@
         <v>158</v>
       </c>
       <c r="E262" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F262" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G262" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H262" s="14">
         <v>0.91298126099999999</v>
@@ -11083,12 +11099,12 @@
         <v>1.430537592E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>204</v>
@@ -11100,10 +11116,10 @@
         <v>215</v>
       </c>
       <c r="F263" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G263" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H263" s="14">
         <v>-4.3307217810000003</v>
@@ -11115,19 +11131,19 @@
         <v>4.0015723879999993E-2</v>
       </c>
       <c r="K263" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L263" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M263" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N263" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>155</v>
       </c>
@@ -11140,10 +11156,10 @@
         <v>215</v>
       </c>
       <c r="F264" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G264" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H264" s="14">
         <v>-4.049317083</v>
@@ -11155,7 +11171,7 @@
         <v>7.7577244219999994E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>155</v>
       </c>
@@ -11168,10 +11184,10 @@
         <v>215</v>
       </c>
       <c r="F265" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G265" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H265" s="14">
         <v>-3.9658561780000006</v>
@@ -11183,12 +11199,12 @@
         <v>8.9314999490000005E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>205</v>
@@ -11200,10 +11216,10 @@
         <v>215</v>
       </c>
       <c r="F266" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G266" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H266" s="14">
         <v>0.75787062800000005</v>
@@ -11215,19 +11231,19 @@
         <v>0.10405820736</v>
       </c>
       <c r="K266" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L266" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M266" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N266" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>155</v>
       </c>
@@ -11240,10 +11256,10 @@
         <v>215</v>
       </c>
       <c r="F267" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G267" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H267" s="14">
         <v>0.79172215400000001</v>
@@ -11255,7 +11271,7 @@
         <v>0.10704540701000001</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>155</v>
       </c>
@@ -11268,10 +11284,10 @@
         <v>215</v>
       </c>
       <c r="F268" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G268" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H268" s="14">
         <v>0.82740692300000007</v>
@@ -11283,12 +11299,12 @@
         <v>0.11446594049</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>206</v>
@@ -11300,10 +11316,10 @@
         <v>215</v>
       </c>
       <c r="F269" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G269" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H269" s="14">
         <v>-1.2014659990000001</v>
@@ -11315,19 +11331,19 @@
         <v>3.7095559210000004E-2</v>
       </c>
       <c r="K269" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L269" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M269" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N269" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>155</v>
       </c>
@@ -11340,10 +11356,10 @@
         <v>215</v>
       </c>
       <c r="F270" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G270" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H270" s="14">
         <v>-1.164184645</v>
@@ -11355,7 +11371,7 @@
         <v>4.0201887280000001E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>155</v>
       </c>
@@ -11368,10 +11384,10 @@
         <v>215</v>
       </c>
       <c r="F271" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G271" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H271" s="14">
         <v>0</v>
@@ -11383,12 +11399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>207</v>
@@ -11400,10 +11416,10 @@
         <v>215</v>
       </c>
       <c r="F272" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G272" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H272" s="14">
         <v>-3.3371050019999999</v>
@@ -11415,19 +11431,19 @@
         <v>-3.6839503169999996E-2</v>
       </c>
       <c r="K272" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L272" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M272" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N272" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>155</v>
       </c>
@@ -11440,10 +11456,10 @@
         <v>215</v>
       </c>
       <c r="F273" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G273" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H273" s="14">
         <v>-3.0880310870000001</v>
@@ -11455,7 +11471,7 @@
         <v>-7.5615407399999999E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>155</v>
       </c>
@@ -11468,10 +11484,10 @@
         <v>215</v>
       </c>
       <c r="F274" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G274" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H274" s="14">
         <v>-2.9985198529999999</v>
@@ -11483,15 +11499,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B275" t="s">
         <v>208</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>14</v>
@@ -11509,21 +11525,21 @@
         <v>0.11709065447466993</v>
       </c>
       <c r="K275" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L275" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M275" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N275" s="11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="10" t="s">
@@ -11542,9 +11558,9 @@
         <v>0.11931738453727503</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="10" t="s">
@@ -11560,10 +11576,17 @@
         <v>4.7962294229001445E-2</v>
       </c>
       <c r="J277" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O277" xr:uid="{FCF36D9E-32F4-46A1-965F-BE2737EE5B1F}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Sin clasificación"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M107" r:id="rId1" xr:uid="{04608EF0-0BB4-4238-9E0D-9EAD8D8F66C2}"/>
@@ -11657,6 +11680,13 @@
     <hyperlink ref="N2" r:id="rId89" xr:uid="{DA35CFC2-1CC2-4848-BE2A-1ABD52F7711C}"/>
     <hyperlink ref="N3" r:id="rId90" xr:uid="{BE1A20C6-74A2-4BC5-82ED-E84615494E6A}"/>
     <hyperlink ref="M3" r:id="rId91" xr:uid="{4C252BDC-99BE-45D8-BC19-D76E92B1E79D}"/>
+    <hyperlink ref="N35" r:id="rId92" xr:uid="{334D2B8E-115B-49ED-92CF-2FE81737BD17}"/>
+    <hyperlink ref="M35" r:id="rId93" xr:uid="{EDEFD0B5-7763-4CA9-8910-C25E5CFF200B}"/>
+    <hyperlink ref="N61" r:id="rId94" xr:uid="{619AB2FA-F5EC-4D08-9E9B-FEFDF8185231}"/>
+    <hyperlink ref="M61" r:id="rId95" xr:uid="{D07A1C18-7D33-45F1-99B4-CCFD702CD4F9}"/>
+    <hyperlink ref="N66" r:id="rId96" xr:uid="{4AAD8120-2FB3-4029-A055-DB74C2CAD388}"/>
+    <hyperlink ref="M66" r:id="rId97" xr:uid="{CFE13EF7-3C2C-4B8E-BA42-E1569CE56BF6}"/>
+    <hyperlink ref="M69" r:id="rId98" xr:uid="{30AB2F1C-9213-4466-9963-59AA86B9B461}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/Excel-FFMM.xlsx
+++ b/src/assets/Excel-FFMM.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanessa Becerra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\practicantecomercial\FFMM-backend\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F72FD2E-9B75-4541-BC1D-CFC8596D3194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2781E86F-0182-4DC3-85C9-443E4FD4EA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8B08BC30-49CD-40DC-BE07-9829148F593A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$O$277</definedName>
@@ -1729,7 +1728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1744,7 +1743,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -2082,11 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF36D9E-32F4-46A1-965F-BE2737EE5B1F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G287" sqref="G287"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,13 +2115,13 @@
       <c r="G1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>214</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2143,7 +2140,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2165,13 +2162,13 @@
       <c r="G2" t="s">
         <v>490</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>7829.1340300000002</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>9.5552615870000004</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>11.654993268</v>
       </c>
       <c r="K2" t="s">
@@ -2187,7 +2184,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2209,14 +2206,14 @@
       <c r="G3" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="14">
-        <v>-3.1899229579999999</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0.12390686872999999</v>
-      </c>
-      <c r="J3" s="14">
-        <v>-5.7581081499999999E-3</v>
+      <c r="H3" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>-90</v>
+      </c>
+      <c r="J3" s="13">
+        <v>-90</v>
       </c>
       <c r="K3" t="s">
         <v>410</v>
@@ -2231,7 +2228,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2249,17 +2246,17 @@
       <c r="G4" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>0</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>0</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2281,13 +2278,13 @@
       <c r="G5" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>-3.6162850280000001</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>9.6814647049999994E-2</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>-6.4506289599999996E-3</v>
       </c>
       <c r="K5" t="s">
@@ -2303,7 +2300,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2321,17 +2318,17 @@
       <c r="G6" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>-3.5691282089999996</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>0.10226411938</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>-5.2060096000000004E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2353,13 +2350,13 @@
       <c r="G7" t="s">
         <v>218</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>-7.5402806240000011</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>4.9139918100000006E-3</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>1.1781037960000001E-2</v>
       </c>
       <c r="K7" t="s">
@@ -2375,7 +2372,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -2393,17 +2390,17 @@
       <c r="G8" t="s">
         <v>218</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>-7.4905279440000001</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>1.0405769909999999E-2</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>1.8423388860000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2421,17 +2418,17 @@
       <c r="G9" t="s">
         <v>218</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>-7.2658509799999997</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>0</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2449,17 +2446,17 @@
       <c r="G10" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>-7.341101311000001</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>0</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2481,13 +2478,13 @@
       <c r="G11" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>-0.17398794100000001</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>5.5519359509999998E-2</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>3.7909192289999998E-2</v>
       </c>
       <c r="K11" t="s">
@@ -2503,7 +2500,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2521,17 +2518,17 @@
       <c r="G12" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>-0.14577844700000001</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>5.9927584569999998E-2</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>4.3061221630000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2553,13 +2550,13 @@
       <c r="G13" t="s">
         <v>220</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>-0.95416611900000003</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>5.9146682019999994E-2</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>3.2173748350000003E-2</v>
       </c>
       <c r="K13" t="s">
@@ -2575,7 +2572,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -2597,13 +2594,13 @@
       <c r="G14" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>0.68398770399999997</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>8.5562509270000003E-2</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>0.10479354931</v>
       </c>
       <c r="K14" t="s">
@@ -2619,7 +2616,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -2641,13 +2638,13 @@
       <c r="G15" t="s">
         <v>222</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>-3.1042587070000001</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>7.0531387149999999E-2</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>-9.8752576479999993E-2</v>
       </c>
       <c r="K15" t="s">
@@ -2663,7 +2660,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2685,13 +2682,13 @@
       <c r="G16" t="s">
         <v>223</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>-3.1213261179999998</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>-2.043279537E-2</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>-1.015102253E-2</v>
       </c>
       <c r="K16" t="s">
@@ -2707,7 +2704,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -2725,17 +2722,17 @@
       <c r="G17" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>-3.0881495170000002</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>-1.7028660460000001E-2</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>-6.0198655499999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2757,13 +2754,13 @@
       <c r="G18" t="s">
         <v>224</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>-3.7007031840000004</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>3.599474012E-2</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>-3.5253787789999998E-2</v>
       </c>
       <c r="K18" t="s">
@@ -2779,7 +2776,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,17 +2794,17 @@
       <c r="G19" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>-3.6535889199999998</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>4.1142029100000005E-2</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>-2.9495608880000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -2829,13 +2826,13 @@
       <c r="G20" t="s">
         <v>225</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>-3.9025141940000001</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>-3.7418948119999997E-2</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>-2.5004744080000002E-2</v>
       </c>
       <c r="K20" t="s">
@@ -2851,7 +2848,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -2869,17 +2866,17 @@
       <c r="G21" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>-3.8555044650000001</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>-3.263552317E-2</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>-1.9184764980000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2901,13 +2898,13 @@
       <c r="G22" t="s">
         <v>226</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>0.80588387199999989</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>9.1011650740000005E-2</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>2.9462813700000001E-3</v>
       </c>
       <c r="K22" t="s">
@@ -2923,7 +2920,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2941,17 +2938,17 @@
       <c r="G23" t="s">
         <v>226</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>0.846356514</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>9.4949127670000008E-2</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>7.1077073799999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -2973,13 +2970,13 @@
       <c r="G24" t="s">
         <v>227</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>0.48299649599999994</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>7.2490623919999997E-2</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>8.8900620629999996E-2</v>
       </c>
       <c r="K24" t="s">
@@ -2995,7 +2992,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -3013,17 +3010,17 @@
       <c r="G25" t="s">
         <v>227</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>0.50265797899999998</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <v>7.4618472630000002E-2</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <v>9.1495412960000008E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -3045,13 +3042,13 @@
       <c r="G26" t="s">
         <v>228</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>-0.38794980600000001</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>-4.9233988999999997E-4</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>3.2313486010000003E-2</v>
       </c>
       <c r="K26" t="s">
@@ -3067,7 +3064,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -3085,17 +3082,17 @@
       <c r="G27" t="s">
         <v>228</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>-0.368466348</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>1.49126909E-3</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="13">
         <v>3.477370749E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -3117,13 +3114,13 @@
       <c r="G28" t="s">
         <v>229</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>-0.92671776800000005</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <v>2.7476290699999999E-3</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <v>3.99793617E-2</v>
       </c>
       <c r="K28" t="s">
@@ -3139,7 +3136,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -3157,17 +3154,17 @@
       <c r="G29" t="s">
         <v>229</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>-0.89764271600000001</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>5.7337616800000003E-3</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>4.3698795259999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -3189,13 +3186,13 @@
       <c r="G30" t="s">
         <v>230</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>-6.8914305120000003</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <v>9.065597798000001E-2</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <v>9.4244061099999998E-2</v>
       </c>
       <c r="K30" t="s">
@@ -3211,7 +3208,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -3233,13 +3230,13 @@
       <c r="G31" t="s">
         <v>231</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>-15.902065528000001</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="13">
         <v>654.06958104703995</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="13">
         <v>586.83575271939003</v>
       </c>
       <c r="K31" t="s">
@@ -3255,7 +3252,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -3277,13 +3274,13 @@
       <c r="G32" t="s">
         <v>232</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>0.23734716599999997</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>6.1665721519999994E-2</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <v>0</v>
       </c>
       <c r="K32" t="s">
@@ -3299,7 +3296,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -3321,13 +3318,13 @@
       <c r="G33" t="s">
         <v>232</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <v>0.74134419299999998</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <v>8.2789206759999998E-2</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <v>1.1236232699999999E-2</v>
       </c>
       <c r="K33" t="s">
@@ -3343,7 +3340,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -3365,13 +3362,13 @@
       <c r="G34" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="13">
         <v>0.48284586000000002</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="13">
         <v>5.2132946679999993E-2</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="13">
         <v>0</v>
       </c>
       <c r="K34" t="s">
@@ -3409,13 +3406,13 @@
       <c r="G35" t="s">
         <v>509</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <v>0</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="13">
         <v>0</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <v>0</v>
       </c>
       <c r="K35" t="s">
@@ -3431,7 +3428,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -3453,13 +3450,13 @@
       <c r="G36" t="s">
         <v>233</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="13">
         <v>-3.1644879629999996</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="13">
         <v>3.52104637E-2</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="13">
         <v>-6.3106847600000009E-3</v>
       </c>
       <c r="K36" t="s">
@@ -3475,7 +3472,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -3493,17 +3490,17 @@
       <c r="G37" t="s">
         <v>233</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>-3.1313183750000002</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="13">
         <v>3.8809444659999998E-2</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>-2.1618663099999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -3525,13 +3522,13 @@
       <c r="G38" t="s">
         <v>234</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>-2.2162520419999998</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="13">
         <v>-4.124841731E-2</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="13">
         <v>-1.3248447199999999E-3</v>
       </c>
       <c r="K38" t="s">
@@ -3547,7 +3544,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -3565,17 +3562,17 @@
       <c r="G39" t="s">
         <v>234</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>-2.182804483</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="13">
         <v>-3.7916961370000002E-2</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>2.84304082E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -3597,13 +3594,13 @@
       <c r="G40" t="s">
         <v>232</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="13">
         <v>0.51741350600000002</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="13">
         <v>0</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="13">
         <v>0</v>
       </c>
       <c r="K40" t="s">
@@ -3619,7 +3616,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3641,13 +3638,13 @@
       <c r="G41" t="s">
         <v>232</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>0.52065847499999995</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="13">
         <v>0</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>0</v>
       </c>
       <c r="K41" t="s">
@@ -3663,7 +3660,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3685,13 +3682,13 @@
       <c r="G42" t="s">
         <v>232</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>0.85581534699999995</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="13">
         <v>8.290194599999999E-2</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>9.6554297469999995E-2</v>
       </c>
       <c r="K42" t="s">
@@ -3707,7 +3704,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3729,13 +3726,13 @@
       <c r="G43" t="s">
         <v>232</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13">
         <v>0.81244524200000012</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="13">
         <v>7.8843081990000008E-2</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="13">
         <v>9.1737431549999998E-2</v>
       </c>
       <c r="K43" t="s">
@@ -3751,7 +3748,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3773,13 +3770,13 @@
       <c r="G44" t="s">
         <v>232</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13">
         <v>0.62363873700000005</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="13">
         <v>7.0385903740000005E-2</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="13">
         <v>8.8927616930000009E-2</v>
       </c>
       <c r="K44" t="s">
@@ -3795,7 +3792,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3817,13 +3814,13 @@
       <c r="G45" t="s">
         <v>235</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <v>-0.39924072399999999</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="13">
         <v>2.9693389579999997E-2</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="13">
         <v>4.5467935080000001E-2</v>
       </c>
       <c r="K45" t="s">
@@ -3839,7 +3836,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3861,13 +3858,13 @@
       <c r="G46" t="s">
         <v>235</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <v>-2.414251422</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="13">
         <v>5.5285200799999996E-2</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="13">
         <v>7.2075270070000003E-2</v>
       </c>
       <c r="K46" t="s">
@@ -3883,7 +3880,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3905,13 +3902,13 @@
       <c r="G47" t="s">
         <v>235</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13">
         <v>-0.89748235300000001</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="13">
         <v>6.3292262370000005E-2</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <v>9.0489289720000005E-2</v>
       </c>
       <c r="K47" t="s">
@@ -3927,7 +3924,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3949,13 +3946,13 @@
       <c r="G48" t="s">
         <v>236</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <v>0</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="13">
         <v>0</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="13">
         <v>0</v>
       </c>
       <c r="K48" t="s">
@@ -3971,7 +3968,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3993,13 +3990,13 @@
       <c r="G49" t="s">
         <v>237</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <v>-1.059661387</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="13">
         <v>-1.5203467090000001E-2</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="13">
         <v>2.5875359530000003E-2</v>
       </c>
       <c r="K49" t="s">
@@ -4015,7 +4012,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
@@ -4033,17 +4030,17 @@
       <c r="G50" t="s">
         <v>237</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="13">
         <v>-1.030634474</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="13">
         <v>-1.227099263E-2</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="13">
         <v>2.9544185889999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -4065,13 +4062,13 @@
       <c r="G51" t="s">
         <v>238</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="13">
         <v>-0.80525460100000001</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="13">
         <v>4.4477124260000001E-2</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="13">
         <v>-1.8318253369999999E-2</v>
       </c>
       <c r="K51" t="s">
@@ -4087,7 +4084,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4105,17 +4102,17 @@
       <c r="G52" t="s">
         <v>238</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="13">
         <v>-0.776517448</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="13">
         <v>4.746850557E-2</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="13">
         <v>-1.499588208E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -4137,13 +4134,13 @@
       <c r="G53" t="s">
         <v>239</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="13">
         <v>-0.39358991999999998</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="13">
         <v>1.3617564010000001E-2</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="13">
         <v>4.2082194729999994E-2</v>
       </c>
       <c r="K53" t="s">
@@ -4159,7 +4156,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4177,17 +4174,17 @@
       <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="13">
         <v>-0.36436445099999998</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="13">
         <v>1.6635794660000001E-2</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="13">
         <v>4.5808825239999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>67</v>
       </c>
@@ -4209,13 +4206,13 @@
       <c r="G55" t="s">
         <v>218</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="13">
         <v>-6.7274064879999997</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="13">
         <v>5.2032584860000002E-2</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="13">
         <v>0.11100352045999999</v>
       </c>
       <c r="K55" t="s">
@@ -4231,7 +4228,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>67</v>
       </c>
@@ -4249,17 +4246,17 @@
       <c r="G56" t="s">
         <v>218</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="13">
         <v>-6.6544017329999994</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="13">
         <v>6.1263664560000007E-2</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="13">
         <v>0.12253614903000001</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
@@ -4277,17 +4274,17 @@
       <c r="G57" t="s">
         <v>218</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>-6.6361415590000004</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="13">
         <v>6.2508001090000001E-2</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="13">
         <v>0.12429806514</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
@@ -4309,13 +4306,13 @@
       <c r="G58" t="s">
         <v>227</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <v>0.32153354499999998</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="13">
         <v>6.5327933769999999E-2</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="13">
         <v>7.7448175319999993E-2</v>
       </c>
       <c r="K58" t="s">
@@ -4331,7 +4328,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>67</v>
       </c>
@@ -4349,17 +4346,17 @@
       <c r="G59" t="s">
         <v>227</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>0.34116913399999999</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="13">
         <v>6.7441921919999995E-2</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="13">
         <v>8.0015711379999993E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -4381,13 +4378,13 @@
       <c r="G60" t="s">
         <v>227</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>0.28941560399999999</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="13">
         <v>6.5876908439999993E-2</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="13">
         <v>7.8085378299999994E-2</v>
       </c>
       <c r="K60" t="s">
@@ -4425,13 +4422,13 @@
       <c r="G61" t="s">
         <v>514</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <v>0.67040650199999996</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="13">
         <v>0</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="13">
         <v>0</v>
       </c>
       <c r="K61" t="s">
@@ -4447,7 +4444,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
@@ -4469,13 +4466,13 @@
       <c r="G62" t="s">
         <v>228</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <v>-1.1205856700000001</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="13">
         <v>-2.1660104289999999E-2</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="13">
         <v>3.6104556490000002E-2</v>
       </c>
       <c r="K62" t="s">
@@ -4491,7 +4488,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>67</v>
       </c>
@@ -4509,17 +4506,17 @@
       <c r="G63" t="s">
         <v>228</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <v>-1.0712368910000001</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="13">
         <v>-1.658135744E-2</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="13">
         <v>4.2540339960000007E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -4541,13 +4538,13 @@
       <c r="G64" t="s">
         <v>223</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>-2.169033523</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="13">
         <v>3.996472131E-2</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="13">
         <v>3.3684486900000005E-2</v>
       </c>
       <c r="K64" t="s">
@@ -4563,7 +4560,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -4581,13 +4578,13 @@
       <c r="G65" t="s">
         <v>223</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>-2.1408904020000001</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="13">
         <v>4.3000817140000001E-2</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="13">
         <v>3.730884651E-2</v>
       </c>
     </row>
@@ -4613,13 +4610,13 @@
       <c r="G66" t="s">
         <v>510</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>0.67147505500000004</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="13">
         <v>0</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="13">
         <v>0</v>
       </c>
       <c r="K66" t="s">
@@ -4653,13 +4650,13 @@
       <c r="G67" t="s">
         <v>510</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <v>0.69116580000000005</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="13">
         <v>0</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="13">
         <v>0</v>
       </c>
     </row>
@@ -4685,13 +4682,13 @@
       <c r="G68" t="s">
         <v>511</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="13">
         <v>-0.193263877</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="13">
         <v>3.4821681479999998E-2</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="13">
         <v>6.6968394850000001E-2</v>
       </c>
       <c r="K68" t="s">
@@ -4729,13 +4726,13 @@
       <c r="G69" t="s">
         <v>511</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="13">
         <v>-7.7919158000000002E-2</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="13">
         <v>5.3845355630000001E-2</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="13">
         <v>8.1461984810000013E-2</v>
       </c>
       <c r="K69" t="s">
@@ -4751,7 +4748,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>87</v>
       </c>
@@ -4773,13 +4770,13 @@
       <c r="G70" t="s">
         <v>218</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="13">
         <v>-6.7631245699999996</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="13">
         <v>4.3860768270000003E-2</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="13">
         <v>9.6740586119999999E-2</v>
       </c>
       <c r="K70" t="s">
@@ -4795,7 +4792,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>87</v>
       </c>
@@ -4813,17 +4810,17 @@
       <c r="G71" t="s">
         <v>218</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="13">
         <v>-6.8309386930000011</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I71" s="13">
         <v>3.6101494900000003E-2</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="13">
         <v>8.7095320029999992E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>87</v>
       </c>
@@ -4841,17 +4838,17 @@
       <c r="G72" t="s">
         <v>218</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="13">
         <v>-6.762080665</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I72" s="13">
         <v>4.2755254499999999E-2</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="13">
         <v>9.5428740970000009E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>87</v>
       </c>
@@ -4869,17 +4866,17 @@
       <c r="G73" t="s">
         <v>218</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="13">
         <v>-6.5996066850000004</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I73" s="13">
         <v>6.2100990510000002E-2</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="13">
         <v>0.11981661756999999</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>87</v>
       </c>
@@ -4901,13 +4898,13 @@
       <c r="G74" t="s">
         <v>223</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="13">
         <v>-2.4899048590000001</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I74" s="13">
         <v>1.2780235360000001E-2</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="13">
         <v>2.2088618359999999E-2</v>
       </c>
       <c r="K74" t="s">
@@ -4923,7 +4920,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>87</v>
       </c>
@@ -4941,17 +4938,17 @@
       <c r="G75" t="s">
         <v>223</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="13">
         <v>-2.5500059149999998</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I75" s="13">
         <v>6.4728422799999992E-3</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J75" s="13">
         <v>1.4450853200000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -4969,17 +4966,17 @@
       <c r="G76" t="s">
         <v>223</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="13">
         <v>-2.4899364570000002</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I76" s="13">
         <v>1.2780125739999999E-2</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="13">
         <v>2.2088355810000002E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>87</v>
       </c>
@@ -4997,17 +4994,17 @@
       <c r="G77" t="s">
         <v>223</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="13">
         <v>-2.3816670769999999</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="13">
         <v>2.423272743E-2</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="13">
         <v>3.5981105100000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
@@ -5029,13 +5026,13 @@
       <c r="G78" t="s">
         <v>234</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="13">
         <v>-2.0854920969999999</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I78" s="13">
         <v>-2.1826204329999998E-2</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J78" s="13">
         <v>1.1656865420000001E-2</v>
       </c>
       <c r="K78" t="s">
@@ -5051,7 +5048,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>87</v>
       </c>
@@ -5069,17 +5066,17 @@
       <c r="G79" t="s">
         <v>234</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="13">
         <v>-2.145810021</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I79" s="13">
         <v>-2.7917175040000002E-2</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J79" s="13">
         <v>4.0979233199999994E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>87</v>
       </c>
@@ -5097,17 +5094,17 @@
       <c r="G80" t="s">
         <v>234</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="13">
         <v>-2.0854706520000001</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I80" s="13">
         <v>-2.1825920069999998E-2</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J80" s="13">
         <v>1.1656868680000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>87</v>
       </c>
@@ -5125,17 +5122,17 @@
       <c r="G81" t="s">
         <v>234</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="13">
         <v>-1.988841254</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I81" s="13">
         <v>-1.1999961050000001E-2</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J81" s="13">
         <v>2.3870934529999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -5157,13 +5154,13 @@
       <c r="G82" t="s">
         <v>227</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="13">
         <v>0.46892512999999997</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I82" s="13">
         <v>6.7078938130000001E-2</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J82" s="13">
         <v>8.4418306740000004E-2</v>
       </c>
       <c r="K82" t="s">
@@ -5179,7 +5176,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
@@ -5197,17 +5194,17 @@
       <c r="G83" t="s">
         <v>227</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="13">
         <v>0.41905000299999995</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I83" s="13">
         <v>6.1634046890000002E-2</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J83" s="13">
         <v>7.7598604340000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
@@ -5225,17 +5222,17 @@
       <c r="G84" t="s">
         <v>227</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="13">
         <v>0.46890513900000008</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I84" s="13">
         <v>6.7079201739999997E-2</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J84" s="13">
         <v>8.441867497000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>87</v>
       </c>
@@ -5253,17 +5250,17 @@
       <c r="G85" t="s">
         <v>227</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="13">
         <v>0.50607376599999998</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I85" s="13">
         <v>7.1118243560000002E-2</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J85" s="13">
         <v>8.9415011369999992E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -5285,13 +5282,13 @@
       <c r="G86" t="s">
         <v>238</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="13">
         <v>0.51102815999999995</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I86" s="13">
         <v>5.9457742400000006E-2</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J86" s="13">
         <v>-1.979289406E-2</v>
       </c>
       <c r="K86" t="s">
@@ -5307,7 +5304,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
@@ -5325,17 +5322,17 @@
       <c r="G87" t="s">
         <v>238</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H87" s="13">
         <v>0.48152733700000006</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I87" s="13">
         <v>5.6312517580000006E-2</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J87" s="13">
         <v>-2.3285852770000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
@@ -5353,17 +5350,17 @@
       <c r="G88" t="s">
         <v>238</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H88" s="13">
         <v>0</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I88" s="13">
         <v>0</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J88" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
@@ -5381,17 +5378,17 @@
       <c r="G89" t="s">
         <v>238</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="13">
         <v>0.51104389100000003</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I89" s="13">
         <v>5.9457456239999998E-2</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J89" s="13">
         <v>-1.9793086349999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>87</v>
       </c>
@@ -5409,17 +5406,17 @@
       <c r="G90" t="s">
         <v>238</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="13">
         <v>0.54797888500000003</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I90" s="13">
         <v>6.3409215510000005E-2</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J90" s="13">
         <v>-1.5401601149999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>87</v>
       </c>
@@ -5441,13 +5438,13 @@
       <c r="G91" t="s">
         <v>229</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H91" s="13">
         <v>-0.751269941</v>
       </c>
-      <c r="I91" s="14">
+      <c r="I91" s="13">
         <v>1.5537749599999999E-2</v>
       </c>
-      <c r="J91" s="14">
+      <c r="J91" s="13">
         <v>4.5436188719999999E-2</v>
       </c>
       <c r="K91" t="s">
@@ -5463,7 +5460,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>87</v>
       </c>
@@ -5481,17 +5478,17 @@
       <c r="G92" t="s">
         <v>229</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H92" s="13">
         <v>-0.80055230200000005</v>
       </c>
-      <c r="I92" s="14">
+      <c r="I92" s="13">
         <v>1.035530187E-2</v>
       </c>
-      <c r="J92" s="14">
+      <c r="J92" s="13">
         <v>3.8860691360000005E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -5509,17 +5506,17 @@
       <c r="G93" t="s">
         <v>229</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H93" s="13">
         <v>-0.75128575200000003</v>
       </c>
-      <c r="I93" s="14">
+      <c r="I93" s="13">
         <v>1.553647405E-2</v>
       </c>
-      <c r="J93" s="14">
+      <c r="J93" s="13">
         <v>4.5434811409999998E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>87</v>
       </c>
@@ -5537,17 +5534,17 @@
       <c r="G94" t="s">
         <v>229</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H94" s="13">
         <v>-0.71455680300000002</v>
       </c>
-      <c r="I94" s="14">
+      <c r="I94" s="13">
         <v>1.934252538E-2</v>
       </c>
-      <c r="J94" s="14">
+      <c r="J94" s="13">
         <v>5.0124639110000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>87</v>
       </c>
@@ -5569,13 +5566,13 @@
       <c r="G95" t="s">
         <v>240</v>
       </c>
-      <c r="H95" s="14">
+      <c r="H95" s="13">
         <v>2.2715594920000002</v>
       </c>
-      <c r="I95" s="14">
+      <c r="I95" s="13">
         <v>0.22061464812000001</v>
       </c>
-      <c r="J95" s="14">
+      <c r="J95" s="13">
         <v>0.50623184936999999</v>
       </c>
       <c r="K95" t="s">
@@ -5591,7 +5588,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>87</v>
       </c>
@@ -5609,17 +5606,17 @@
       <c r="G96" t="s">
         <v>240</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H96" s="13">
         <v>2.3740814989999999</v>
       </c>
-      <c r="I96" s="14">
+      <c r="I96" s="13">
         <v>0.23306302233000001</v>
       </c>
-      <c r="J96" s="14">
+      <c r="J96" s="13">
         <v>0.52469107276000004</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>87</v>
       </c>
@@ -5637,17 +5634,17 @@
       <c r="G97" t="s">
         <v>240</v>
       </c>
-      <c r="H97" s="14">
+      <c r="H97" s="13">
         <v>2.5651643819999999</v>
       </c>
-      <c r="I97" s="14">
+      <c r="I97" s="13">
         <v>0.25659535549000001</v>
       </c>
-      <c r="J97" s="14">
+      <c r="J97" s="13">
         <v>0.55969440067999998</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>87</v>
       </c>
@@ -5669,13 +5666,13 @@
       <c r="G98" t="s">
         <v>232</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="13">
         <v>-2.6176070000000003E-2</v>
       </c>
-      <c r="I98" s="14">
+      <c r="I98" s="13">
         <v>0</v>
       </c>
-      <c r="J98" s="14">
+      <c r="J98" s="13">
         <v>0</v>
       </c>
       <c r="K98" t="s">
@@ -5691,7 +5688,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>87</v>
       </c>
@@ -5713,13 +5710,13 @@
       <c r="G99" t="s">
         <v>241</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="13">
         <v>-3.9848427120000003</v>
       </c>
-      <c r="I99" s="14">
+      <c r="I99" s="13">
         <v>4.7182231349999999E-2</v>
       </c>
-      <c r="J99" s="14">
+      <c r="J99" s="13">
         <v>5.4561798789999998E-2</v>
       </c>
       <c r="K99" t="s">
@@ -5735,7 +5732,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>87</v>
       </c>
@@ -5753,17 +5750,17 @@
       <c r="G100" t="s">
         <v>241</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="13">
         <v>-4.0809368140000002</v>
       </c>
-      <c r="I100" s="14">
+      <c r="I100" s="13">
         <v>3.661159479E-2</v>
       </c>
-      <c r="J100" s="14">
+      <c r="J100" s="13">
         <v>4.1793505499999994E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>87</v>
       </c>
@@ -5781,17 +5778,17 @@
       <c r="G101" t="s">
         <v>241</v>
       </c>
-      <c r="H101" s="14">
+      <c r="H101" s="13">
         <v>-3.9848516209999998</v>
       </c>
-      <c r="I101" s="14">
+      <c r="I101" s="13">
         <v>4.718151139E-2</v>
       </c>
-      <c r="J101" s="14">
+      <c r="J101" s="13">
         <v>5.4561024659999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>87</v>
       </c>
@@ -5809,17 +5806,17 @@
       <c r="G102" t="s">
         <v>241</v>
       </c>
-      <c r="H102" s="14">
+      <c r="H102" s="13">
         <v>-3.8055365239999999</v>
       </c>
-      <c r="I102" s="14">
+      <c r="I102" s="13">
         <v>6.7170096329999998E-2</v>
       </c>
-      <c r="J102" s="14">
+      <c r="J102" s="13">
         <v>7.8775711319999997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>87</v>
       </c>
@@ -5841,13 +5838,13 @@
       <c r="G103" t="s">
         <v>233</v>
       </c>
-      <c r="H103" s="14">
+      <c r="H103" s="13">
         <v>-3.1821953499999998</v>
       </c>
-      <c r="I103" s="14">
+      <c r="I103" s="13">
         <v>4.187127224E-2</v>
       </c>
-      <c r="J103" s="14">
+      <c r="J103" s="13">
         <v>2.2629003070000001E-2</v>
       </c>
       <c r="K103" t="s">
@@ -5863,7 +5860,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>87</v>
       </c>
@@ -5881,17 +5878,17 @@
       <c r="G104" t="s">
         <v>233</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="13">
         <v>-3.2497969619999996</v>
       </c>
-      <c r="I104" s="14">
+      <c r="I104" s="13">
         <v>3.4520614880000002E-2</v>
       </c>
-      <c r="J104" s="14">
+      <c r="J104" s="13">
         <v>1.397257467E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>87</v>
       </c>
@@ -5909,17 +5906,17 @@
       <c r="G105" t="s">
         <v>233</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="13">
         <v>-3.1822075810000001</v>
       </c>
-      <c r="I105" s="14">
+      <c r="I105" s="13">
         <v>4.1871386439999998E-2</v>
       </c>
-      <c r="J105" s="14">
+      <c r="J105" s="13">
         <v>2.2628975990000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>87</v>
       </c>
@@ -5937,17 +5934,17 @@
       <c r="G106" t="s">
         <v>233</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H106" s="13">
         <v>-3.0547918919999999</v>
       </c>
-      <c r="I106" s="14">
+      <c r="I106" s="13">
         <v>5.5849205580000005E-2</v>
       </c>
-      <c r="J106" s="14">
+      <c r="J106" s="13">
         <v>3.9123683719999996E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>87</v>
       </c>
@@ -5969,13 +5966,13 @@
       <c r="G107" t="s">
         <v>228</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H107" s="13">
         <v>-1.4104213290000001</v>
       </c>
-      <c r="I107" s="14">
+      <c r="I107" s="13">
         <v>-8.2867837100000005E-3</v>
       </c>
-      <c r="J107" s="14">
+      <c r="J107" s="13">
         <v>2.8008384920000001E-2</v>
       </c>
       <c r="K107" t="s">
@@ -5991,7 +5988,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>87</v>
       </c>
@@ -6009,17 +6006,17 @@
       <c r="G108" t="s">
         <v>228</v>
       </c>
-      <c r="H108" s="14">
+      <c r="H108" s="13">
         <v>-1.4549662729999999</v>
       </c>
-      <c r="I108" s="14">
+      <c r="I108" s="13">
         <v>-1.281943197E-2</v>
       </c>
-      <c r="J108" s="14">
+      <c r="J108" s="13">
         <v>2.2369692449999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>87</v>
       </c>
@@ -6037,17 +6034,17 @@
       <c r="G109" t="s">
         <v>228</v>
       </c>
-      <c r="H109" s="14">
+      <c r="H109" s="13">
         <v>-1.410422431</v>
       </c>
-      <c r="I109" s="14">
+      <c r="I109" s="13">
         <v>-8.2868169899999993E-3</v>
       </c>
-      <c r="J109" s="14">
+      <c r="J109" s="13">
         <v>2.8008188129999997E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>87</v>
       </c>
@@ -6065,17 +6062,17 @@
       <c r="G110" t="s">
         <v>228</v>
       </c>
-      <c r="H110" s="14">
+      <c r="H110" s="13">
         <v>-1.3496045189999999</v>
       </c>
-      <c r="I110" s="14">
+      <c r="I110" s="13">
         <v>-2.0717544700000002E-3</v>
       </c>
-      <c r="J110" s="14">
+      <c r="J110" s="13">
         <v>3.5748253870000003E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>87</v>
       </c>
@@ -6097,13 +6094,13 @@
       <c r="G111" t="s">
         <v>239</v>
       </c>
-      <c r="H111" s="14">
+      <c r="H111" s="13">
         <v>-0.41001729900000006</v>
       </c>
-      <c r="I111" s="14">
+      <c r="I111" s="13">
         <v>1.464600607E-2</v>
       </c>
-      <c r="J111" s="14">
+      <c r="J111" s="13">
         <v>5.00822566E-2</v>
       </c>
       <c r="K111" t="s">
@@ -6119,7 +6116,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>87</v>
       </c>
@@ -6137,17 +6134,17 @@
       <c r="G112" t="s">
         <v>239</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H112" s="13">
         <v>-0.44388375299999999</v>
       </c>
-      <c r="I112" s="14">
+      <c r="I112" s="13">
         <v>1.115170794E-2</v>
       </c>
-      <c r="J112" s="14">
+      <c r="J112" s="13">
         <v>4.5738917939999998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>87</v>
       </c>
@@ -6165,17 +6162,17 @@
       <c r="G113" t="s">
         <v>239</v>
       </c>
-      <c r="H113" s="14">
+      <c r="H113" s="13">
         <v>-0.40999004500000003</v>
       </c>
-      <c r="I113" s="14">
+      <c r="I113" s="13">
         <v>1.4645607279999999E-2</v>
       </c>
-      <c r="J113" s="14">
+      <c r="J113" s="13">
         <v>5.0081715169999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>87</v>
       </c>
@@ -6193,17 +6190,17 @@
       <c r="G114" t="s">
         <v>239</v>
       </c>
-      <c r="H114" s="14">
+      <c r="H114" s="13">
         <v>-0.361696144</v>
       </c>
-      <c r="I114" s="14">
+      <c r="I114" s="13">
         <v>1.9720848690000001E-2</v>
       </c>
-      <c r="J114" s="14">
+      <c r="J114" s="13">
         <v>5.6548476E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>87</v>
       </c>
@@ -6225,13 +6222,13 @@
       <c r="G115" t="s">
         <v>216</v>
       </c>
-      <c r="H115" s="14">
+      <c r="H115" s="13">
         <v>-4.3791676720000003</v>
       </c>
-      <c r="I115" s="14">
+      <c r="I115" s="13">
         <v>9.5022991890000005E-2</v>
       </c>
-      <c r="J115" s="14">
+      <c r="J115" s="13">
         <v>-1.8155896330000001E-2</v>
       </c>
       <c r="K115" t="s">
@@ -6247,7 +6244,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>87</v>
       </c>
@@ -6265,17 +6262,17 @@
       <c r="G116" t="s">
         <v>216</v>
       </c>
-      <c r="H116" s="14">
+      <c r="H116" s="13">
         <v>-4.4748685610000001</v>
       </c>
-      <c r="I116" s="14">
+      <c r="I116" s="13">
         <v>8.397004424E-2</v>
       </c>
-      <c r="J116" s="14">
+      <c r="J116" s="13">
         <v>-3.004349303E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>87</v>
       </c>
@@ -6293,17 +6290,17 @@
       <c r="G117" t="s">
         <v>216</v>
       </c>
-      <c r="H117" s="14">
+      <c r="H117" s="13">
         <v>-4.379180152</v>
       </c>
-      <c r="I117" s="14">
+      <c r="I117" s="13">
         <v>9.5023737960000007E-2</v>
       </c>
-      <c r="J117" s="14">
+      <c r="J117" s="13">
         <v>-1.815579975E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>87</v>
       </c>
@@ -6321,17 +6318,17 @@
       <c r="G118" t="s">
         <v>216</v>
       </c>
-      <c r="H118" s="14">
+      <c r="H118" s="13">
         <v>-4.2005879200000003</v>
       </c>
-      <c r="I118" s="14">
+      <c r="I118" s="13">
         <v>0.11592508005999999</v>
       </c>
-      <c r="J118" s="14">
+      <c r="J118" s="13">
         <v>4.3888294800000002E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>87</v>
       </c>
@@ -6353,13 +6350,13 @@
       <c r="G119" t="s">
         <v>223</v>
       </c>
-      <c r="H119" s="14">
+      <c r="H119" s="13">
         <v>-2.2478101970000002</v>
       </c>
-      <c r="I119" s="14">
+      <c r="I119" s="13">
         <v>-2.4773735330000001E-2</v>
       </c>
-      <c r="J119" s="14">
+      <c r="J119" s="13">
         <v>1.7249129899999998E-3</v>
       </c>
       <c r="K119" t="s">
@@ -6375,7 +6372,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>87</v>
       </c>
@@ -6393,17 +6390,17 @@
       <c r="G120" t="s">
         <v>223</v>
       </c>
-      <c r="H120" s="14">
+      <c r="H120" s="13">
         <v>-2.2917458900000001</v>
       </c>
-      <c r="I120" s="14">
+      <c r="I120" s="13">
         <v>-2.9207036490000001E-2</v>
       </c>
-      <c r="J120" s="14">
+      <c r="J120" s="13">
         <v>-3.7403642900000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>87</v>
       </c>
@@ -6421,17 +6418,17 @@
       <c r="G121" t="s">
         <v>223</v>
       </c>
-      <c r="H121" s="14">
+      <c r="H121" s="13">
         <v>-2.2478183949999999</v>
       </c>
-      <c r="I121" s="14">
+      <c r="I121" s="13">
         <v>-2.4773941210000001E-2</v>
       </c>
-      <c r="J121" s="14">
+      <c r="J121" s="13">
         <v>1.7245344700000001E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>87</v>
       </c>
@@ -6449,17 +6446,17 @@
       <c r="G122" t="s">
         <v>223</v>
       </c>
-      <c r="H122" s="14">
+      <c r="H122" s="13">
         <v>-2.1297918990000002</v>
       </c>
-      <c r="I122" s="14">
+      <c r="I122" s="13">
         <v>-1.2775730400000001E-2</v>
       </c>
-      <c r="J122" s="14">
+      <c r="J122" s="13">
         <v>1.6540027190000001E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>87</v>
       </c>
@@ -6481,13 +6478,13 @@
       <c r="G123" t="s">
         <v>233</v>
       </c>
-      <c r="H123" s="14">
+      <c r="H123" s="13">
         <v>-2.9048750430000001</v>
       </c>
-      <c r="I123" s="14">
+      <c r="I123" s="13">
         <v>-4.4926658899999998E-3</v>
       </c>
-      <c r="J123" s="14">
+      <c r="J123" s="13">
         <v>7.3543528499999998E-3</v>
       </c>
       <c r="K123" t="s">
@@ -6503,7 +6500,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>87</v>
       </c>
@@ -6521,17 +6518,17 @@
       <c r="G124" t="s">
         <v>233</v>
       </c>
-      <c r="H124" s="14">
+      <c r="H124" s="13">
         <v>-3.028255927</v>
       </c>
-      <c r="I124" s="14">
+      <c r="I124" s="13">
         <v>-1.723856964E-2</v>
       </c>
-      <c r="J124" s="14">
+      <c r="J124" s="13">
         <v>-8.1116190000000005E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>87</v>
       </c>
@@ -6549,17 +6546,17 @@
       <c r="G125" t="s">
         <v>233</v>
       </c>
-      <c r="H125" s="14">
+      <c r="H125" s="13">
         <v>-2.7476763210000001</v>
       </c>
-      <c r="I125" s="14">
+      <c r="I125" s="13">
         <v>1.1959567499999999E-2</v>
       </c>
-      <c r="J125" s="14">
+      <c r="J125" s="13">
         <v>2.7375620470000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>87</v>
       </c>
@@ -6577,17 +6574,17 @@
       <c r="G126" t="s">
         <v>233</v>
       </c>
-      <c r="H126" s="14">
+      <c r="H126" s="13">
         <v>-2.904863169</v>
       </c>
-      <c r="I126" s="14">
+      <c r="I126" s="13">
         <v>-4.4929992300000001E-3</v>
       </c>
-      <c r="J126" s="14">
+      <c r="J126" s="13">
         <v>7.3536909500000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>87</v>
       </c>
@@ -6605,17 +6602,17 @@
       <c r="G127" t="s">
         <v>233</v>
       </c>
-      <c r="H127" s="14">
+      <c r="H127" s="13">
         <v>-2.791610887</v>
       </c>
-      <c r="I127" s="14">
+      <c r="I127" s="13">
         <v>7.3348258299999998E-3</v>
       </c>
-      <c r="J127" s="14">
+      <c r="J127" s="13">
         <v>2.174070946E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>87</v>
       </c>
@@ -6637,13 +6634,13 @@
       <c r="G128" t="s">
         <v>233</v>
       </c>
-      <c r="H128" s="14">
+      <c r="H128" s="13">
         <v>-3.6409494219999998</v>
       </c>
-      <c r="I128" s="14">
+      <c r="I128" s="13">
         <v>1.9962569869999999E-2</v>
       </c>
-      <c r="J128" s="14">
+      <c r="J128" s="13">
         <v>4.9244467999999997E-4</v>
       </c>
       <c r="K128" t="s">
@@ -6659,7 +6656,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>87</v>
       </c>
@@ -6677,17 +6674,17 @@
       <c r="G129" t="s">
         <v>233</v>
       </c>
-      <c r="H129" s="14">
+      <c r="H129" s="13">
         <v>-3.7633744550000001</v>
       </c>
-      <c r="I129" s="14">
+      <c r="I129" s="13">
         <v>6.9034255799999998E-3</v>
       </c>
-      <c r="J129" s="14">
+      <c r="J129" s="13">
         <v>-1.486769951E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>87</v>
       </c>
@@ -6705,17 +6702,17 @@
       <c r="G130" t="s">
         <v>233</v>
       </c>
-      <c r="H130" s="14">
+      <c r="H130" s="13">
         <v>-3.4849423829999995</v>
       </c>
-      <c r="I130" s="14">
+      <c r="I130" s="13">
         <v>3.6818810239999999E-2</v>
       </c>
-      <c r="J130" s="14">
+      <c r="J130" s="13">
         <v>2.0377579739999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>87</v>
       </c>
@@ -6733,17 +6730,17 @@
       <c r="G131" t="s">
         <v>233</v>
       </c>
-      <c r="H131" s="14">
+      <c r="H131" s="13">
         <v>-3.6409212230000003</v>
       </c>
-      <c r="I131" s="14">
+      <c r="I131" s="13">
         <v>1.9962377350000001E-2</v>
       </c>
-      <c r="J131" s="14">
+      <c r="J131" s="13">
         <v>4.9269340999999998E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>87</v>
       </c>
@@ -6761,17 +6758,17 @@
       <c r="G132" t="s">
         <v>233</v>
       </c>
-      <c r="H132" s="14">
+      <c r="H132" s="13">
         <v>-3.5285748749999999</v>
       </c>
-      <c r="I132" s="14">
+      <c r="I132" s="13">
         <v>3.2079951750000002E-2</v>
       </c>
-      <c r="J132" s="14">
+      <c r="J132" s="13">
         <v>1.4781213820000002E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>87</v>
       </c>
@@ -6793,13 +6790,13 @@
       <c r="G133" t="s">
         <v>233</v>
       </c>
-      <c r="H133" s="14">
+      <c r="H133" s="13">
         <v>-3.5730277919999995</v>
       </c>
-      <c r="I133" s="14">
+      <c r="I133" s="13">
         <v>1.7554122299999999E-2</v>
       </c>
-      <c r="J133" s="14">
+      <c r="J133" s="13">
         <v>-3.6351950500000002E-3</v>
       </c>
       <c r="K133" t="s">
@@ -6815,7 +6812,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>87</v>
       </c>
@@ -6833,17 +6830,17 @@
       <c r="G134" t="s">
         <v>233</v>
       </c>
-      <c r="H134" s="14">
+      <c r="H134" s="13">
         <v>-3.6955697280000006</v>
       </c>
-      <c r="I134" s="14">
+      <c r="I134" s="13">
         <v>4.5258921499999995E-3</v>
       </c>
-      <c r="J134" s="14">
+      <c r="J134" s="13">
         <v>-1.8932398619999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>87</v>
       </c>
@@ -6861,17 +6858,17 @@
       <c r="G135" t="s">
         <v>233</v>
       </c>
-      <c r="H135" s="14">
+      <c r="H135" s="13">
         <v>-3.4169097279999998</v>
       </c>
-      <c r="I135" s="14">
+      <c r="I135" s="13">
         <v>3.4371325039999998E-2</v>
       </c>
-      <c r="J135" s="14">
+      <c r="J135" s="13">
         <v>1.6168217219999999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>87</v>
       </c>
@@ -6889,17 +6886,17 @@
       <c r="G136" t="s">
         <v>233</v>
       </c>
-      <c r="H136" s="14">
+      <c r="H136" s="13">
         <v>-3.5730280639999998</v>
       </c>
-      <c r="I136" s="14">
+      <c r="I136" s="13">
         <v>1.755440078E-2</v>
       </c>
-      <c r="J136" s="14">
+      <c r="J136" s="13">
         <v>-3.63507189E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>87</v>
       </c>
@@ -6917,17 +6914,17 @@
       <c r="G137" t="s">
         <v>233</v>
       </c>
-      <c r="H137" s="14">
+      <c r="H137" s="13">
         <v>-3.4605621609999999</v>
       </c>
-      <c r="I137" s="14">
+      <c r="I137" s="13">
         <v>2.964413703E-2</v>
       </c>
-      <c r="J137" s="14">
+      <c r="J137" s="13">
         <v>1.059513068E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>87</v>
       </c>
@@ -6949,13 +6946,13 @@
       <c r="G138" t="s">
         <v>242</v>
       </c>
-      <c r="H138" s="14">
+      <c r="H138" s="13">
         <v>-2.6391949970000002</v>
       </c>
-      <c r="I138" s="14">
+      <c r="I138" s="13">
         <v>-6.7812594040000007E-2</v>
       </c>
-      <c r="J138" s="14">
+      <c r="J138" s="13">
         <v>8.0619044000000001E-4</v>
       </c>
       <c r="K138" t="s">
@@ -6971,7 +6968,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>87</v>
       </c>
@@ -6989,17 +6986,17 @@
       <c r="G139" t="s">
         <v>242</v>
       </c>
-      <c r="H139" s="14">
+      <c r="H139" s="13">
         <v>-2.6723417810000001</v>
       </c>
-      <c r="I139" s="14">
+      <c r="I139" s="13">
         <v>-7.1022179389999995E-2</v>
       </c>
-      <c r="J139" s="14">
+      <c r="J139" s="13">
         <v>-3.3320913000000002E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>87</v>
       </c>
@@ -7017,17 +7014,17 @@
       <c r="G140" t="s">
         <v>242</v>
       </c>
-      <c r="H140" s="14">
+      <c r="H140" s="13">
         <v>-2.6392047970000001</v>
       </c>
-      <c r="I140" s="14">
+      <c r="I140" s="13">
         <v>-6.7812773620000003E-2</v>
       </c>
-      <c r="J140" s="14">
+      <c r="J140" s="13">
         <v>8.0635937000000002E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>87</v>
       </c>
@@ -7045,17 +7042,17 @@
       <c r="G141" t="s">
         <v>242</v>
       </c>
-      <c r="H141" s="14">
+      <c r="H141" s="13">
         <v>-2.591951253</v>
       </c>
-      <c r="I141" s="14">
+      <c r="I141" s="13">
         <v>-6.3077540749999994E-2</v>
       </c>
-      <c r="J141" s="14">
+      <c r="J141" s="13">
         <v>7.2158582500000002E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>87</v>
       </c>
@@ -7077,13 +7074,13 @@
       <c r="G142" t="s">
         <v>243</v>
       </c>
-      <c r="H142" s="14">
+      <c r="H142" s="13">
         <v>-3.734336662</v>
       </c>
-      <c r="I142" s="14">
+      <c r="I142" s="13">
         <v>-3.1585692490000004E-2</v>
       </c>
-      <c r="J142" s="14">
+      <c r="J142" s="13">
         <v>1.34072389E-2</v>
       </c>
       <c r="K142" t="s">
@@ -7099,7 +7096,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>87</v>
       </c>
@@ -7117,17 +7114,17 @@
       <c r="G143" t="s">
         <v>243</v>
       </c>
-      <c r="H143" s="14">
+      <c r="H143" s="13">
         <v>-3.8306818159999998</v>
       </c>
-      <c r="I143" s="14">
+      <c r="I143" s="13">
         <v>-4.1360963299999998E-2</v>
       </c>
-      <c r="J143" s="14">
+      <c r="J143" s="13">
         <v>1.13732983E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>87</v>
       </c>
@@ -7145,17 +7142,17 @@
       <c r="G144" t="s">
         <v>243</v>
       </c>
-      <c r="H144" s="14">
+      <c r="H144" s="13">
         <v>-3.7343629199999997</v>
       </c>
-      <c r="I144" s="14">
+      <c r="I144" s="13">
         <v>-3.1586020800000003E-2</v>
       </c>
-      <c r="J144" s="14">
+      <c r="J144" s="13">
         <v>1.3406836950000001E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>87</v>
       </c>
@@ -7173,17 +7170,17 @@
       <c r="G145" t="s">
         <v>243</v>
       </c>
-      <c r="H145" s="14">
+      <c r="H145" s="13">
         <v>-3.5545775179999994</v>
       </c>
-      <c r="I145" s="14">
+      <c r="I145" s="13">
         <v>-1.310186088E-2</v>
       </c>
-      <c r="J145" s="14">
+      <c r="J145" s="13">
         <v>3.6675624519999998E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>87</v>
       </c>
@@ -7205,13 +7202,13 @@
       <c r="G146" t="s">
         <v>233</v>
       </c>
-      <c r="H146" s="14">
+      <c r="H146" s="13">
         <v>-3.4890549139999996</v>
       </c>
-      <c r="I146" s="14">
+      <c r="I146" s="13">
         <v>2.1789773659999997E-2</v>
       </c>
-      <c r="J146" s="14">
+      <c r="J146" s="13">
         <v>1.9057450500000002E-3</v>
       </c>
       <c r="K146" t="s">
@@ -7227,7 +7224,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>87</v>
       </c>
@@ -7245,17 +7242,17 @@
       <c r="G147" t="s">
         <v>233</v>
       </c>
-      <c r="H147" s="14">
+      <c r="H147" s="13">
         <v>-3.6116926949999995</v>
       </c>
-      <c r="I147" s="14">
+      <c r="I147" s="13">
         <v>8.70839692E-3</v>
       </c>
-      <c r="J147" s="14">
+      <c r="J147" s="13">
         <v>-1.347501188E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>87</v>
       </c>
@@ -7273,17 +7270,17 @@
       <c r="G148" t="s">
         <v>233</v>
       </c>
-      <c r="H148" s="14">
+      <c r="H148" s="13">
         <v>-3.3240490970000001</v>
       </c>
-      <c r="I148" s="14">
+      <c r="I148" s="13">
         <v>3.9121771409999999E-2</v>
       </c>
-      <c r="J148" s="14">
+      <c r="J148" s="13">
         <v>2.2387994629999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>87</v>
       </c>
@@ -7301,17 +7298,17 @@
       <c r="G149" t="s">
         <v>233</v>
       </c>
-      <c r="H149" s="14">
+      <c r="H149" s="13">
         <v>-3.4890655869999994</v>
       </c>
-      <c r="I149" s="14">
+      <c r="I149" s="13">
         <v>2.1789871870000001E-2</v>
       </c>
-      <c r="J149" s="14">
+      <c r="J149" s="13">
         <v>1.9057937299999999E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>87</v>
       </c>
@@ -7329,17 +7326,17 @@
       <c r="G150" t="s">
         <v>233</v>
       </c>
-      <c r="H150" s="14">
+      <c r="H150" s="13">
         <v>-3.3764988039999997</v>
       </c>
-      <c r="I150" s="14">
+      <c r="I150" s="13">
         <v>3.39301033E-2</v>
       </c>
-      <c r="J150" s="14">
+      <c r="J150" s="13">
         <v>1.6215320669999998E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>87</v>
       </c>
@@ -7361,13 +7358,13 @@
       <c r="G151" t="s">
         <v>223</v>
       </c>
-      <c r="H151" s="14">
+      <c r="H151" s="13">
         <v>-2.078904981</v>
       </c>
-      <c r="I151" s="14">
+      <c r="I151" s="13">
         <v>6.0566891000000001E-3</v>
       </c>
-      <c r="J151" s="14">
+      <c r="J151" s="13">
         <v>9.9471147400000005E-3</v>
       </c>
       <c r="K151" t="s">
@@ -7383,7 +7380,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>87</v>
       </c>
@@ -7401,17 +7398,17 @@
       <c r="G152" t="s">
         <v>223</v>
       </c>
-      <c r="H152" s="14">
+      <c r="H152" s="13">
         <v>-2.2033436019999999</v>
       </c>
-      <c r="I152" s="14">
+      <c r="I152" s="13">
         <v>-6.8248270300000002E-3</v>
       </c>
-      <c r="J152" s="14">
+      <c r="J152" s="13">
         <v>-5.5585680999999994E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>87</v>
       </c>
@@ -7429,17 +7426,17 @@
       <c r="G153" t="s">
         <v>223</v>
       </c>
-      <c r="H153" s="14">
+      <c r="H153" s="13">
         <v>-2.0789060909999999</v>
       </c>
-      <c r="I153" s="14">
+      <c r="I153" s="13">
         <v>6.0564353299999993E-3</v>
       </c>
-      <c r="J153" s="14">
+      <c r="J153" s="13">
         <v>9.9470502500000006E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>87</v>
       </c>
@@ -7457,17 +7454,17 @@
       <c r="G154" t="s">
         <v>223</v>
       </c>
-      <c r="H154" s="14">
+      <c r="H154" s="13">
         <v>-1.9647115859999997</v>
       </c>
-      <c r="I154" s="14">
+      <c r="I154" s="13">
         <v>1.8009146640000001E-2</v>
       </c>
-      <c r="J154" s="14">
+      <c r="J154" s="13">
         <v>2.4370868269999998E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>87</v>
       </c>
@@ -7489,13 +7486,13 @@
       <c r="G155" t="s">
         <v>223</v>
       </c>
-      <c r="H155" s="14">
+      <c r="H155" s="13">
         <v>-2.5044574079999999</v>
       </c>
-      <c r="I155" s="14">
+      <c r="I155" s="13">
         <v>-1.368071459E-2</v>
       </c>
-      <c r="J155" s="14">
+      <c r="J155" s="13">
         <v>3.7607485800000002E-3</v>
       </c>
       <c r="K155" t="s">
@@ -7511,7 +7508,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>87</v>
       </c>
@@ -7529,17 +7526,17 @@
       <c r="G156" t="s">
         <v>223</v>
       </c>
-      <c r="H156" s="14">
+      <c r="H156" s="13">
         <v>-2.5482794050000002</v>
       </c>
-      <c r="I156" s="14">
+      <c r="I156" s="13">
         <v>-1.8163138450000001E-2</v>
       </c>
-      <c r="J156" s="14">
+      <c r="J156" s="13">
         <v>-1.71374006E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>87</v>
       </c>
@@ -7557,17 +7554,17 @@
       <c r="G157" t="s">
         <v>223</v>
       </c>
-      <c r="H157" s="14">
+      <c r="H157" s="13">
         <v>-2.5044512480000001</v>
       </c>
-      <c r="I157" s="14">
+      <c r="I157" s="13">
         <v>-1.3681083759999999E-2</v>
       </c>
-      <c r="J157" s="14">
+      <c r="J157" s="13">
         <v>3.76068069E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>87</v>
       </c>
@@ -7585,17 +7582,17 @@
       <c r="G158" t="s">
         <v>223</v>
       </c>
-      <c r="H158" s="14">
+      <c r="H158" s="13">
         <v>-2.3867416069999998</v>
       </c>
-      <c r="I158" s="14">
+      <c r="I158" s="13">
         <v>-1.54651876E-3</v>
       </c>
-      <c r="J158" s="14">
+      <c r="J158" s="13">
         <v>1.8605824650000002E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>87</v>
       </c>
@@ -7617,13 +7614,13 @@
       <c r="G159" t="s">
         <v>234</v>
       </c>
-      <c r="H159" s="14">
+      <c r="H159" s="13">
         <v>-2.0434906769999999</v>
       </c>
-      <c r="I159" s="14">
+      <c r="I159" s="13">
         <v>-2.6540564280000001E-2</v>
       </c>
-      <c r="J159" s="14">
+      <c r="J159" s="13">
         <v>5.4125155500000001E-3</v>
       </c>
       <c r="K159" t="s">
@@ -7639,7 +7636,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>87</v>
       </c>
@@ -7657,17 +7654,17 @@
       <c r="G160" t="s">
         <v>234</v>
       </c>
-      <c r="H160" s="14">
+      <c r="H160" s="13">
         <v>-2.0875057180000001</v>
       </c>
-      <c r="I160" s="14">
+      <c r="I160" s="13">
         <v>-3.0965326590000002E-2</v>
       </c>
-      <c r="J160" s="14">
+      <c r="J160" s="13">
         <v>-7.2128270000000003E-5</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>87</v>
       </c>
@@ -7685,17 +7682,17 @@
       <c r="G161" t="s">
         <v>234</v>
       </c>
-      <c r="H161" s="14">
+      <c r="H161" s="13">
         <v>-2.0434993769999998</v>
       </c>
-      <c r="I161" s="14">
+      <c r="I161" s="13">
         <v>-2.654055827E-2</v>
       </c>
-      <c r="J161" s="14">
+      <c r="J161" s="13">
         <v>5.4124155799999997E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>87</v>
       </c>
@@ -7713,17 +7710,17 @@
       <c r="G162" t="s">
         <v>234</v>
       </c>
-      <c r="H162" s="14">
+      <c r="H162" s="13">
         <v>-1.9252311970000002</v>
       </c>
-      <c r="I162" s="14">
+      <c r="I162" s="13">
         <v>-1.4564706240000001E-2</v>
       </c>
-      <c r="J162" s="14">
+      <c r="J162" s="13">
         <v>2.0281458860000001E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>87</v>
       </c>
@@ -7745,13 +7742,13 @@
       <c r="G163" t="s">
         <v>233</v>
       </c>
-      <c r="H163" s="14">
+      <c r="H163" s="13">
         <v>-3.3652019700000002</v>
       </c>
-      <c r="I163" s="14">
+      <c r="I163" s="13">
         <v>1.4098702370000001E-2</v>
       </c>
-      <c r="J163" s="14">
+      <c r="J163" s="13">
         <v>1.032239747E-2</v>
       </c>
       <c r="K163" t="s">
@@ -7767,7 +7764,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>87</v>
       </c>
@@ -7785,17 +7782,17 @@
       <c r="G164" t="s">
         <v>233</v>
       </c>
-      <c r="H164" s="14">
+      <c r="H164" s="13">
         <v>-3.4880247799999999</v>
       </c>
-      <c r="I164" s="14">
+      <c r="I164" s="13">
         <v>1.11538689E-3</v>
       </c>
-      <c r="J164" s="14">
+      <c r="J164" s="13">
         <v>-5.1883131100000004E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>87</v>
       </c>
@@ -7813,17 +7810,17 @@
       <c r="G165" t="s">
         <v>233</v>
       </c>
-      <c r="H165" s="14">
+      <c r="H165" s="13">
         <v>-3.2087691889999999</v>
       </c>
-      <c r="I165" s="14">
+      <c r="I165" s="13">
         <v>3.0857604979999998E-2</v>
       </c>
-      <c r="J165" s="14">
+      <c r="J165" s="13">
         <v>3.040227484E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>87</v>
       </c>
@@ -7841,17 +7838,17 @@
       <c r="G166" t="s">
         <v>233</v>
       </c>
-      <c r="H166" s="14">
+      <c r="H166" s="13">
         <v>-3.3652176470000001</v>
       </c>
-      <c r="I166" s="14">
+      <c r="I166" s="13">
         <v>1.4097713670000001E-2</v>
       </c>
-      <c r="J166" s="14">
+      <c r="J166" s="13">
         <v>1.032142172E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>87</v>
       </c>
@@ -7869,17 +7866,17 @@
       <c r="G167" t="s">
         <v>233</v>
       </c>
-      <c r="H167" s="14">
+      <c r="H167" s="13">
         <v>-3.2525317749999996</v>
       </c>
-      <c r="I167" s="14">
+      <c r="I167" s="13">
         <v>2.6146540059999997E-2</v>
       </c>
-      <c r="J167" s="14">
+      <c r="J167" s="13">
         <v>2.4751366E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>87</v>
       </c>
@@ -7901,13 +7898,13 @@
       <c r="G168" t="s">
         <v>237</v>
       </c>
-      <c r="H168" s="14">
+      <c r="H168" s="13">
         <v>-1.2074426789999999</v>
       </c>
-      <c r="I168" s="14">
+      <c r="I168" s="13">
         <v>-1.5450257009999999E-2</v>
       </c>
-      <c r="J168" s="14">
+      <c r="J168" s="13">
         <v>2.9462884070000001E-2</v>
       </c>
       <c r="K168" t="s">
@@ -7923,7 +7920,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>87</v>
       </c>
@@ -7941,17 +7938,17 @@
       <c r="G169" t="s">
         <v>237</v>
       </c>
-      <c r="H169" s="14">
+      <c r="H169" s="13">
         <v>-1.2410672410000001</v>
       </c>
-      <c r="I169" s="14">
+      <c r="I169" s="13">
         <v>-1.88414758E-2</v>
       </c>
-      <c r="J169" s="14">
+      <c r="J169" s="13">
         <v>2.5203641459999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>87</v>
       </c>
@@ -7969,17 +7966,17 @@
       <c r="G170" t="s">
         <v>237</v>
       </c>
-      <c r="H170" s="14">
+      <c r="H170" s="13">
         <v>-1.2074543360000001</v>
       </c>
-      <c r="I170" s="14">
+      <c r="I170" s="13">
         <v>-1.5450732620000001E-2</v>
       </c>
-      <c r="J170" s="14">
+      <c r="J170" s="13">
         <v>2.9461924300000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>87</v>
       </c>
@@ -7997,17 +7994,17 @@
       <c r="G171" t="s">
         <v>237</v>
       </c>
-      <c r="H171" s="14">
+      <c r="H171" s="13">
         <v>-1.159536356</v>
       </c>
-      <c r="I171" s="14">
+      <c r="I171" s="13">
         <v>-1.0526117989999998E-2</v>
       </c>
-      <c r="J171" s="14">
+      <c r="J171" s="13">
         <v>3.580184501E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>87</v>
       </c>
@@ -8029,13 +8026,13 @@
       <c r="G172" t="s">
         <v>234</v>
       </c>
-      <c r="H172" s="14">
+      <c r="H172" s="13">
         <v>-2.7488846969999998</v>
       </c>
-      <c r="I172" s="14">
+      <c r="I172" s="13">
         <v>-5.4038982579999999E-2</v>
       </c>
-      <c r="J172" s="14">
+      <c r="J172" s="13">
         <v>-2.7709048589999997E-2</v>
       </c>
       <c r="K172" t="s">
@@ -8051,7 +8048,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>87</v>
       </c>
@@ -8069,17 +8066,17 @@
       <c r="G173" t="s">
         <v>234</v>
       </c>
-      <c r="H173" s="14">
+      <c r="H173" s="13">
         <v>-2.7928263210000002</v>
       </c>
-      <c r="I173" s="14">
+      <c r="I173" s="13">
         <v>-5.8363194680000001E-2</v>
       </c>
-      <c r="J173" s="14">
+      <c r="J173" s="13">
         <v>-3.3041729329999998E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>87</v>
       </c>
@@ -8097,17 +8094,17 @@
       <c r="G174" t="s">
         <v>234</v>
       </c>
-      <c r="H174" s="14">
+      <c r="H174" s="13">
         <v>-2.7488953600000001</v>
       </c>
-      <c r="I174" s="14">
+      <c r="I174" s="13">
         <v>-5.403998082E-2</v>
       </c>
-      <c r="J174" s="14">
+      <c r="J174" s="13">
         <v>-2.7709377800000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>87</v>
       </c>
@@ -8125,17 +8122,17 @@
       <c r="G175" t="s">
         <v>234</v>
       </c>
-      <c r="H175" s="14">
+      <c r="H175" s="13">
         <v>-2.688870535</v>
       </c>
-      <c r="I175" s="14">
+      <c r="I175" s="13">
         <v>-4.8111303709999997E-2</v>
       </c>
-      <c r="J175" s="14">
+      <c r="J175" s="13">
         <v>-2.0388661759999999E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>87</v>
       </c>
@@ -8157,13 +8154,13 @@
       <c r="G176" t="s">
         <v>217</v>
       </c>
-      <c r="H176" s="14">
+      <c r="H176" s="13">
         <v>-2.7523110079999999</v>
       </c>
-      <c r="I176" s="14">
+      <c r="I176" s="13">
         <v>0.11879619891000001</v>
       </c>
-      <c r="J176" s="14">
+      <c r="J176" s="13">
         <v>-9.8802403999999995E-4</v>
       </c>
       <c r="K176" t="s">
@@ -8179,7 +8176,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>87</v>
       </c>
@@ -8197,17 +8194,17 @@
       <c r="G177" t="s">
         <v>217</v>
       </c>
-      <c r="H177" s="14">
+      <c r="H177" s="13">
         <v>-2.849636394</v>
       </c>
-      <c r="I177" s="14">
+      <c r="I177" s="13">
         <v>0.10750247482000001</v>
       </c>
-      <c r="J177" s="14">
+      <c r="J177" s="13">
         <v>-1.3084031959999999E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>87</v>
       </c>
@@ -8225,17 +8222,17 @@
       <c r="G178" t="s">
         <v>217</v>
       </c>
-      <c r="H178" s="14">
+      <c r="H178" s="13">
         <v>-2.7523157949999999</v>
       </c>
-      <c r="I178" s="14">
+      <c r="I178" s="13">
         <v>0.11879600567000001</v>
       </c>
-      <c r="J178" s="14">
+      <c r="J178" s="13">
         <v>-9.8825105999999986E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>87</v>
       </c>
@@ -8253,17 +8250,17 @@
       <c r="G179" t="s">
         <v>217</v>
       </c>
-      <c r="H179" s="14">
+      <c r="H179" s="13">
         <v>-2.5706840180000001</v>
       </c>
-      <c r="I179" s="14">
+      <c r="I179" s="13">
         <v>0.14015110092999999</v>
       </c>
-      <c r="J179" s="14">
+      <c r="J179" s="13">
         <v>2.1950242790000001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>87</v>
       </c>
@@ -8285,13 +8282,13 @@
       <c r="G180" t="s">
         <v>221</v>
       </c>
-      <c r="H180" s="14">
+      <c r="H180" s="13">
         <v>0.68751465899999997</v>
       </c>
-      <c r="I180" s="14">
+      <c r="I180" s="13">
         <v>8.2492865410000005E-2</v>
       </c>
-      <c r="J180" s="14">
+      <c r="J180" s="13">
         <v>0.10017862905</v>
       </c>
       <c r="K180" t="s">
@@ -8307,7 +8304,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>87</v>
       </c>
@@ -8325,17 +8322,17 @@
       <c r="G181" t="s">
         <v>221</v>
       </c>
-      <c r="H181" s="14">
+      <c r="H181" s="13">
         <v>0.67924821899999999</v>
       </c>
-      <c r="I181" s="14">
+      <c r="I181" s="13">
         <v>8.1343028079999991E-2</v>
       </c>
-      <c r="J181" s="14">
+      <c r="J181" s="13">
         <v>9.8275189040000002E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>87</v>
       </c>
@@ -8353,17 +8350,17 @@
       <c r="G182" t="s">
         <v>221</v>
       </c>
-      <c r="H182" s="14">
+      <c r="H182" s="13">
         <v>0.73719732999999998</v>
       </c>
-      <c r="I182" s="14">
+      <c r="I182" s="13">
         <v>0</v>
       </c>
-      <c r="J182" s="14">
+      <c r="J182" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>87</v>
       </c>
@@ -8381,17 +8378,17 @@
       <c r="G183" t="s">
         <v>221</v>
       </c>
-      <c r="H183" s="14">
+      <c r="H183" s="13">
         <v>0.68753516599999998</v>
       </c>
-      <c r="I183" s="14">
+      <c r="I183" s="13">
         <v>8.249291265E-2</v>
       </c>
-      <c r="J183" s="14">
+      <c r="J183" s="13">
         <v>0.10017870708</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>87</v>
       </c>
@@ -8409,13 +8406,13 @@
       <c r="G184" t="s">
         <v>221</v>
       </c>
-      <c r="H184" s="14">
+      <c r="H184" s="13">
         <v>0.72476873500000005</v>
       </c>
-      <c r="I184" s="14">
+      <c r="I184" s="13">
         <v>8.6557572149999998E-2</v>
       </c>
-      <c r="J184" s="14">
+      <c r="J184" s="13">
         <v>0.10514047894</v>
       </c>
     </row>
@@ -8441,13 +8438,13 @@
       <c r="G185" t="s">
         <v>514</v>
       </c>
-      <c r="H185" s="14">
+      <c r="H185" s="13">
         <v>0.64224973399999996</v>
       </c>
-      <c r="I185" s="14">
+      <c r="I185" s="13">
         <v>8.0032774469999998E-2</v>
       </c>
-      <c r="J185" s="14">
+      <c r="J185" s="13">
         <v>0</v>
       </c>
       <c r="K185" t="s">
@@ -8485,13 +8482,13 @@
       <c r="G186" t="s">
         <v>514</v>
       </c>
-      <c r="H186" s="14">
+      <c r="H186" s="13">
         <v>0.64137808200000002</v>
       </c>
-      <c r="I186" s="14">
+      <c r="I186" s="13">
         <v>8.0049946420000004E-2</v>
       </c>
-      <c r="J186" s="14">
+      <c r="J186" s="13">
         <v>0</v>
       </c>
       <c r="K186" t="s">
@@ -8529,13 +8526,13 @@
       <c r="G187" t="s">
         <v>514</v>
       </c>
-      <c r="H187" s="14">
+      <c r="H187" s="13">
         <v>0.63531634800000003</v>
       </c>
-      <c r="I187" s="14">
+      <c r="I187" s="13">
         <v>8.5639915759999991E-2</v>
       </c>
-      <c r="J187" s="14">
+      <c r="J187" s="13">
         <v>0</v>
       </c>
       <c r="K187" t="s">
@@ -8573,13 +8570,13 @@
       <c r="G188" t="s">
         <v>513</v>
       </c>
-      <c r="H188" s="14">
+      <c r="H188" s="13">
         <v>0.59436610300000003</v>
       </c>
-      <c r="I188" s="14">
+      <c r="I188" s="13">
         <v>7.4309254859999993E-2</v>
       </c>
-      <c r="J188" s="14">
+      <c r="J188" s="13">
         <v>0</v>
       </c>
       <c r="K188" t="s">
@@ -8617,13 +8614,13 @@
       <c r="G189" t="s">
         <v>513</v>
       </c>
-      <c r="H189" s="14">
+      <c r="H189" s="13">
         <v>0.59436610300000003</v>
       </c>
-      <c r="I189" s="14">
+      <c r="I189" s="13">
         <v>7.4309254859999993E-2</v>
       </c>
-      <c r="J189" s="14">
+      <c r="J189" s="13">
         <v>0</v>
       </c>
       <c r="K189" t="s">
@@ -8661,13 +8658,13 @@
       <c r="G190" t="s">
         <v>513</v>
       </c>
-      <c r="H190" s="14">
+      <c r="H190" s="13">
         <v>0.59431921600000004</v>
       </c>
-      <c r="I190" s="14">
+      <c r="I190" s="13">
         <v>7.4309651209999994E-2</v>
       </c>
-      <c r="J190" s="14">
+      <c r="J190" s="13">
         <v>0</v>
       </c>
       <c r="K190" t="s">
@@ -8683,7 +8680,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>155</v>
       </c>
@@ -8705,13 +8702,13 @@
       <c r="G191" t="s">
         <v>234</v>
       </c>
-      <c r="H191" s="14">
+      <c r="H191" s="13">
         <v>-1.0672895229999999</v>
       </c>
-      <c r="I191" s="14">
+      <c r="I191" s="13">
         <v>2.740817206E-2</v>
       </c>
-      <c r="J191" s="14">
+      <c r="J191" s="13">
         <v>9.6386770199999999E-3</v>
       </c>
       <c r="K191" t="s">
@@ -8727,7 +8724,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>155</v>
       </c>
@@ -8745,17 +8742,17 @@
       <c r="G192" t="s">
         <v>234</v>
       </c>
-      <c r="H192" s="14">
+      <c r="H192" s="13">
         <v>-0.94124522700000002</v>
       </c>
-      <c r="I192" s="14">
+      <c r="I192" s="13">
         <v>4.0701415890000002E-2</v>
       </c>
-      <c r="J192" s="14">
+      <c r="J192" s="13">
         <v>2.5353413960000001E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>155</v>
       </c>
@@ -8773,17 +8770,17 @@
       <c r="G193" t="s">
         <v>234</v>
       </c>
-      <c r="H193" s="14">
+      <c r="H193" s="13">
         <v>0</v>
       </c>
-      <c r="I193" s="14">
+      <c r="I193" s="13">
         <v>0</v>
       </c>
-      <c r="J193" s="14">
+      <c r="J193" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>155</v>
       </c>
@@ -8805,13 +8802,13 @@
       <c r="G194" t="s">
         <v>216</v>
       </c>
-      <c r="H194" s="14">
+      <c r="H194" s="13">
         <v>-3.8602735530000003</v>
       </c>
-      <c r="I194" s="14">
+      <c r="I194" s="13">
         <v>4.6997428570000006E-2</v>
       </c>
-      <c r="J194" s="14">
+      <c r="J194" s="13">
         <v>-5.3483668079999998E-2</v>
       </c>
       <c r="K194" t="s">
@@ -8827,7 +8824,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>155</v>
       </c>
@@ -8845,17 +8842,17 @@
       <c r="G195" t="s">
         <v>216</v>
       </c>
-      <c r="H195" s="14">
+      <c r="H195" s="13">
         <v>-3.653204584</v>
       </c>
-      <c r="I195" s="14">
+      <c r="I195" s="13">
         <v>7.0116861439999997E-2</v>
       </c>
-      <c r="J195" s="14">
+      <c r="J195" s="13">
         <v>-2.8341832099999999E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>155</v>
       </c>
@@ -8873,17 +8870,17 @@
       <c r="G196" t="s">
         <v>216</v>
       </c>
-      <c r="H196" s="14">
+      <c r="H196" s="13">
         <v>-3.5692540049999999</v>
       </c>
-      <c r="I196" s="14">
+      <c r="I196" s="13">
         <v>7.956097509E-2</v>
       </c>
-      <c r="J196" s="14">
+      <c r="J196" s="13">
         <v>-1.8028864749999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>155</v>
       </c>
@@ -8905,13 +8902,13 @@
       <c r="G197" t="s">
         <v>218</v>
       </c>
-      <c r="H197" s="14">
+      <c r="H197" s="13">
         <v>-7.6008285630000003</v>
       </c>
-      <c r="I197" s="14">
+      <c r="I197" s="13">
         <v>-5.6136717199999995E-3</v>
       </c>
-      <c r="J197" s="14">
+      <c r="J197" s="13">
         <v>9.9229245999999998E-4</v>
       </c>
       <c r="K197" t="s">
@@ -8927,7 +8924,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>155</v>
       </c>
@@ -8945,17 +8942,17 @@
       <c r="G198" t="s">
         <v>218</v>
       </c>
-      <c r="H198" s="14">
+      <c r="H198" s="13">
         <v>-7.2892950580000004</v>
       </c>
-      <c r="I198" s="14">
+      <c r="I198" s="13">
         <v>2.0776448360000001E-2</v>
       </c>
-      <c r="J198" s="14">
+      <c r="J198" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>155</v>
       </c>
@@ -8973,17 +8970,17 @@
       <c r="G199" t="s">
         <v>218</v>
       </c>
-      <c r="H199" s="14">
+      <c r="H199" s="13">
         <v>-7.535313511</v>
       </c>
-      <c r="I199" s="14">
+      <c r="I199" s="13">
         <v>1.52698082E-3</v>
       </c>
-      <c r="J199" s="14">
+      <c r="J199" s="13">
         <v>9.87503887E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>155</v>
       </c>
@@ -9001,17 +8998,17 @@
       <c r="G200" t="s">
         <v>218</v>
       </c>
-      <c r="H200" s="14">
+      <c r="H200" s="13">
         <v>-7.3315861250000003</v>
       </c>
-      <c r="I200" s="14">
+      <c r="I200" s="13">
         <v>2.353959823E-2</v>
       </c>
-      <c r="J200" s="14">
+      <c r="J200" s="13">
         <v>3.6452132559999996E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>155</v>
       </c>
@@ -9033,13 +9030,13 @@
       <c r="G201" t="s">
         <v>218</v>
       </c>
-      <c r="H201" s="14">
+      <c r="H201" s="13">
         <v>-7.4794805239999995</v>
       </c>
-      <c r="I201" s="14">
+      <c r="I201" s="13">
         <v>1.243142578E-2</v>
       </c>
-      <c r="J201" s="14">
+      <c r="J201" s="13">
         <v>2.6852986129999999E-2</v>
       </c>
       <c r="K201" t="s">
@@ -9055,7 +9052,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>155</v>
       </c>
@@ -9073,17 +9070,17 @@
       <c r="G202" t="s">
         <v>218</v>
       </c>
-      <c r="H202" s="14">
+      <c r="H202" s="13">
         <v>-7.2895217600000004</v>
       </c>
-      <c r="I202" s="14">
+      <c r="I202" s="13">
         <v>3.3717826249999999E-2</v>
       </c>
-      <c r="J202" s="14">
+      <c r="J202" s="13">
         <v>5.2830557950000002E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>155</v>
       </c>
@@ -9101,17 +9098,17 @@
       <c r="G203" t="s">
         <v>218</v>
       </c>
-      <c r="H203" s="14">
+      <c r="H203" s="13">
         <v>0</v>
       </c>
-      <c r="I203" s="14">
+      <c r="I203" s="13">
         <v>0</v>
       </c>
-      <c r="J203" s="14">
+      <c r="J203" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>155</v>
       </c>
@@ -9133,13 +9130,13 @@
       <c r="G204" t="s">
         <v>233</v>
       </c>
-      <c r="H204" s="14">
+      <c r="H204" s="13">
         <v>-3.264826733</v>
       </c>
-      <c r="I204" s="14">
+      <c r="I204" s="13">
         <v>4.8060767650000003E-2</v>
       </c>
-      <c r="J204" s="14">
+      <c r="J204" s="13">
         <v>1.620230932E-2</v>
       </c>
       <c r="K204" t="s">
@@ -9155,7 +9152,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>155</v>
       </c>
@@ -9173,17 +9170,17 @@
       <c r="G205" t="s">
         <v>233</v>
       </c>
-      <c r="H205" s="14">
+      <c r="H205" s="13">
         <v>-3.1120064520000001</v>
       </c>
-      <c r="I205" s="14">
+      <c r="I205" s="13">
         <v>6.5333102710000007E-2</v>
       </c>
-      <c r="J205" s="14">
+      <c r="J205" s="13">
         <v>3.6407357029999997E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>155</v>
       </c>
@@ -9205,13 +9202,13 @@
       <c r="G206" t="s">
         <v>223</v>
       </c>
-      <c r="H206" s="14">
+      <c r="H206" s="13">
         <v>-2.0783183219999999</v>
       </c>
-      <c r="I206" s="14">
+      <c r="I206" s="13">
         <v>5.1320537359999994E-2</v>
       </c>
-      <c r="J206" s="14">
+      <c r="J206" s="13">
         <v>4.2638320260000001E-2</v>
       </c>
       <c r="K206" t="s">
@@ -9227,7 +9224,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>155</v>
       </c>
@@ -9245,17 +9242,17 @@
       <c r="G207" t="s">
         <v>223</v>
       </c>
-      <c r="H207" s="14">
+      <c r="H207" s="13">
         <v>-1.9536996310000003</v>
       </c>
-      <c r="I207" s="14">
+      <c r="I207" s="13">
         <v>6.5103590899999994E-2</v>
       </c>
-      <c r="J207" s="14">
+      <c r="J207" s="13">
         <v>5.9027119719999993E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>155</v>
       </c>
@@ -9277,13 +9274,13 @@
       <c r="G208" t="s">
         <v>242</v>
       </c>
-      <c r="H208" s="14">
+      <c r="H208" s="13">
         <v>-2.2742124179999998</v>
       </c>
-      <c r="I208" s="14">
+      <c r="I208" s="13">
         <v>-6.4027124990000003E-2</v>
       </c>
-      <c r="J208" s="14">
+      <c r="J208" s="13">
         <v>-6.8888709699999997E-3</v>
       </c>
       <c r="K208" t="s">
@@ -9299,7 +9296,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>155</v>
       </c>
@@ -9317,17 +9314,17 @@
       <c r="G209" t="s">
         <v>242</v>
       </c>
-      <c r="H209" s="14">
+      <c r="H209" s="13">
         <v>-2.121571206</v>
       </c>
-      <c r="I209" s="14">
+      <c r="I209" s="13">
         <v>-5.0793747559999998E-2</v>
       </c>
-      <c r="J209" s="14">
+      <c r="J209" s="13">
         <v>9.7626456900000002E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>155</v>
       </c>
@@ -9345,17 +9342,17 @@
       <c r="G210" t="s">
         <v>242</v>
       </c>
-      <c r="H210" s="14">
+      <c r="H210" s="13">
         <v>-2.0740404300000002</v>
       </c>
-      <c r="I210" s="14">
+      <c r="I210" s="13">
         <v>-4.4416981900000006E-2</v>
       </c>
-      <c r="J210" s="14">
+      <c r="J210" s="13">
         <v>1.814578641E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>155</v>
       </c>
@@ -9377,13 +9374,13 @@
       <c r="G211" t="s">
         <v>228</v>
       </c>
-      <c r="H211" s="14">
+      <c r="H211" s="13">
         <v>-1.3115858030000001</v>
       </c>
-      <c r="I211" s="14">
+      <c r="I211" s="13">
         <v>-1.2577633210000001E-2</v>
       </c>
-      <c r="J211" s="14">
+      <c r="J211" s="13">
         <v>3.6918739159999998E-2</v>
       </c>
       <c r="K211" t="s">
@@ -9399,7 +9396,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>155</v>
       </c>
@@ -9417,17 +9414,17 @@
       <c r="G212" t="s">
         <v>228</v>
       </c>
-      <c r="H212" s="14">
+      <c r="H212" s="13">
         <v>-1.2153712649999999</v>
       </c>
-      <c r="I212" s="14">
+      <c r="I212" s="13">
         <v>-4.5799784200000002E-3</v>
       </c>
-      <c r="J212" s="14">
+      <c r="J212" s="13">
         <v>4.6773471269999999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>155</v>
       </c>
@@ -9445,17 +9442,17 @@
       <c r="G213" t="s">
         <v>228</v>
       </c>
-      <c r="H213" s="14">
+      <c r="H213" s="13">
         <v>-1.1674601579999999</v>
       </c>
-      <c r="I213" s="14">
+      <c r="I213" s="13">
         <v>2.13287168E-3</v>
       </c>
-      <c r="J213" s="14">
+      <c r="J213" s="13">
         <v>5.549402698E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>155</v>
       </c>
@@ -9477,13 +9474,13 @@
       <c r="G214" t="s">
         <v>216</v>
       </c>
-      <c r="H214" s="14">
+      <c r="H214" s="13">
         <v>-5.0475486470000002</v>
       </c>
-      <c r="I214" s="14">
+      <c r="I214" s="13">
         <v>3.2212539130000002E-2</v>
       </c>
-      <c r="J214" s="14">
+      <c r="J214" s="13">
         <v>-0.103137706</v>
       </c>
       <c r="K214" t="s">
@@ -9499,7 +9496,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>155</v>
       </c>
@@ -9517,17 +9514,17 @@
       <c r="G215" t="s">
         <v>216</v>
       </c>
-      <c r="H215" s="14">
+      <c r="H215" s="13">
         <v>-4.8003157720000003</v>
       </c>
-      <c r="I215" s="14">
+      <c r="I215" s="13">
         <v>5.4371829349999998E-2</v>
       </c>
-      <c r="J215" s="14">
+      <c r="J215" s="13">
         <v>-8.0396366499999997E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>155</v>
       </c>
@@ -9545,17 +9542,17 @@
       <c r="G216" t="s">
         <v>216</v>
       </c>
-      <c r="H216" s="14">
+      <c r="H216" s="13">
         <v>-4.7607105780000003</v>
       </c>
-      <c r="I216" s="14">
+      <c r="I216" s="13">
         <v>6.4250723610000005E-2</v>
       </c>
-      <c r="J216" s="14">
+      <c r="J216" s="13">
         <v>-6.9611098869999999E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>155</v>
       </c>
@@ -9577,13 +9574,13 @@
       <c r="G217" t="s">
         <v>244</v>
       </c>
-      <c r="H217" s="14">
+      <c r="H217" s="13">
         <v>-2.4220115729999998</v>
       </c>
-      <c r="I217" s="14">
+      <c r="I217" s="13">
         <v>0.13453629220999999</v>
       </c>
-      <c r="J217" s="14">
+      <c r="J217" s="13">
         <v>0.29696910496000001</v>
       </c>
       <c r="K217" t="s">
@@ -9599,7 +9596,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>155</v>
       </c>
@@ -9621,13 +9618,13 @@
       <c r="G218" t="s">
         <v>243</v>
       </c>
-      <c r="H218" s="14">
+      <c r="H218" s="13">
         <v>-4.3203943730000001</v>
       </c>
-      <c r="I218" s="14">
+      <c r="I218" s="13">
         <v>-3.3087465939999998E-2</v>
       </c>
-      <c r="J218" s="14">
+      <c r="J218" s="13">
         <v>2.0841138929999999E-2</v>
       </c>
       <c r="K218" t="s">
@@ -9643,7 +9640,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>155</v>
       </c>
@@ -9661,17 +9658,17 @@
       <c r="G219" t="s">
         <v>243</v>
       </c>
-      <c r="H219" s="14">
+      <c r="H219" s="13">
         <v>-4.0289447750000003</v>
       </c>
-      <c r="I219" s="14">
+      <c r="I219" s="13">
         <v>-2.8765744500000002E-3</v>
       </c>
-      <c r="J219" s="14">
+      <c r="J219" s="13">
         <v>5.9396362079999994E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>155</v>
       </c>
@@ -9689,17 +9686,17 @@
       <c r="G220" t="s">
         <v>243</v>
       </c>
-      <c r="H220" s="14">
+      <c r="H220" s="13">
         <v>-3.9554936820000006</v>
       </c>
-      <c r="I220" s="14">
+      <c r="I220" s="13">
         <v>4.9380519400000003E-3</v>
       </c>
-      <c r="J220" s="14">
+      <c r="J220" s="13">
         <v>6.9231378809999994E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>155</v>
       </c>
@@ -9721,13 +9718,13 @@
       <c r="G221" t="s">
         <v>221</v>
       </c>
-      <c r="H221" s="14">
+      <c r="H221" s="13">
         <v>0.70479399899999995</v>
       </c>
-      <c r="I221" s="14">
+      <c r="I221" s="13">
         <v>8.5023648919999986E-2</v>
       </c>
-      <c r="J221" s="14">
+      <c r="J221" s="13">
         <v>0.10339623272000001</v>
       </c>
       <c r="K221" t="s">
@@ -9743,7 +9740,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>155</v>
       </c>
@@ -9761,17 +9758,17 @@
       <c r="G222" t="s">
         <v>221</v>
       </c>
-      <c r="H222" s="14">
+      <c r="H222" s="13">
         <v>0.727627837</v>
       </c>
-      <c r="I222" s="14">
+      <c r="I222" s="13">
         <v>8.6600573389999991E-2</v>
       </c>
-      <c r="J222" s="14">
+      <c r="J222" s="13">
         <v>0.10538675468999999</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>155</v>
       </c>
@@ -9789,17 +9786,17 @@
       <c r="G223" t="s">
         <v>221</v>
       </c>
-      <c r="H223" s="14">
+      <c r="H223" s="13">
         <v>0.76328586600000004</v>
       </c>
-      <c r="I223" s="14">
+      <c r="I223" s="13">
         <v>9.3004038629999994E-2</v>
       </c>
-      <c r="J223" s="14">
+      <c r="J223" s="13">
         <v>0.11376859620999999</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>155</v>
       </c>
@@ -9821,13 +9818,13 @@
       <c r="G224" t="s">
         <v>217</v>
       </c>
-      <c r="H224" s="14">
+      <c r="H224" s="13">
         <v>-2.4095835050000001</v>
       </c>
-      <c r="I224" s="14">
+      <c r="I224" s="13">
         <v>0.10078323165</v>
       </c>
-      <c r="J224" s="14">
+      <c r="J224" s="13">
         <v>-1.525020614E-2</v>
       </c>
       <c r="K224" t="s">
@@ -9843,7 +9840,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>155</v>
       </c>
@@ -9861,17 +9858,17 @@
       <c r="G225" t="s">
         <v>217</v>
       </c>
-      <c r="H225" s="14">
+      <c r="H225" s="13">
         <v>-2.113479441</v>
       </c>
-      <c r="I225" s="14">
+      <c r="I225" s="13">
         <v>0.13521393013000002</v>
       </c>
-      <c r="J225" s="14">
+      <c r="J225" s="13">
         <v>2.1905769919999998E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>155</v>
       </c>
@@ -9889,17 +9886,17 @@
       <c r="G226" t="s">
         <v>217</v>
       </c>
-      <c r="H226" s="14">
+      <c r="H226" s="13">
         <v>-2.0373903539999998</v>
       </c>
-      <c r="I226" s="14">
+      <c r="I226" s="13">
         <v>0.14407347140000001</v>
       </c>
-      <c r="J226" s="14">
+      <c r="J226" s="13">
         <v>3.142929597E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>155</v>
       </c>
@@ -9921,13 +9918,13 @@
       <c r="G227" t="s">
         <v>245</v>
       </c>
-      <c r="H227" s="14">
+      <c r="H227" s="13">
         <v>-0.74956325199999996</v>
       </c>
-      <c r="I227" s="14">
+      <c r="I227" s="13">
         <v>3.5780872330000005E-2</v>
       </c>
-      <c r="J227" s="14">
+      <c r="J227" s="13">
         <v>4.7771190900000003E-3</v>
       </c>
       <c r="K227" t="s">
@@ -9943,7 +9940,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>155</v>
       </c>
@@ -9961,17 +9958,17 @@
       <c r="G228" t="s">
         <v>245</v>
       </c>
-      <c r="H228" s="14">
+      <c r="H228" s="13">
         <v>-0.45219036899999998</v>
       </c>
-      <c r="I228" s="14">
+      <c r="I228" s="13">
         <v>0</v>
       </c>
-      <c r="J228" s="14">
+      <c r="J228" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>155</v>
       </c>
@@ -9989,17 +9986,17 @@
       <c r="G229" t="s">
         <v>245</v>
       </c>
-      <c r="H229" s="14">
+      <c r="H229" s="13">
         <v>-0.53755325799999998</v>
       </c>
-      <c r="I229" s="14">
+      <c r="I229" s="13">
         <v>5.843043757E-2</v>
       </c>
-      <c r="J229" s="14">
+      <c r="J229" s="13">
         <v>3.1212008329999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>155</v>
       </c>
@@ -10021,13 +10018,13 @@
       <c r="G230" t="s">
         <v>233</v>
       </c>
-      <c r="H230" s="14">
+      <c r="H230" s="13">
         <v>-2.8582588539999998</v>
       </c>
-      <c r="I230" s="14">
+      <c r="I230" s="13">
         <v>3.9967388E-2</v>
       </c>
-      <c r="J230" s="14">
+      <c r="J230" s="13">
         <v>1.762337906E-2</v>
       </c>
       <c r="K230" t="s">
@@ -10043,7 +10040,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>155</v>
       </c>
@@ -10061,17 +10058,17 @@
       <c r="G231" t="s">
         <v>233</v>
       </c>
-      <c r="H231" s="14">
+      <c r="H231" s="13">
         <v>-2.6852273840000001</v>
       </c>
-      <c r="I231" s="14">
+      <c r="I231" s="13">
         <v>5.8554196579999995E-2</v>
       </c>
-      <c r="J231" s="14">
+      <c r="J231" s="13">
         <v>3.9366856749999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>155</v>
       </c>
@@ -10089,17 +10086,17 @@
       <c r="G232" t="s">
         <v>233</v>
       </c>
-      <c r="H232" s="14">
+      <c r="H232" s="13">
         <v>-2.6108549170000002</v>
       </c>
-      <c r="I232" s="14">
+      <c r="I232" s="13">
         <v>0</v>
       </c>
-      <c r="J232" s="14">
+      <c r="J232" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>155</v>
       </c>
@@ -10121,13 +10118,13 @@
       <c r="G233" t="s">
         <v>223</v>
       </c>
-      <c r="H233" s="14">
+      <c r="H233" s="13">
         <v>-2.7613366529999999</v>
       </c>
-      <c r="I233" s="14">
+      <c r="I233" s="13">
         <v>-1.348963037E-2</v>
       </c>
-      <c r="J233" s="14">
+      <c r="J233" s="13">
         <v>7.5727556199999997E-3</v>
       </c>
       <c r="K233" t="s">
@@ -10143,7 +10140,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>155</v>
       </c>
@@ -10161,17 +10158,17 @@
       <c r="G234" t="s">
         <v>223</v>
       </c>
-      <c r="H234" s="14">
+      <c r="H234" s="13">
         <v>-2.60725563</v>
       </c>
-      <c r="I234" s="14">
+      <c r="I234" s="13">
         <v>-1.01722861E-3</v>
       </c>
-      <c r="J234" s="14">
+      <c r="J234" s="13">
         <v>1.8991125519999999E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>155</v>
       </c>
@@ -10189,17 +10186,17 @@
       <c r="G235" t="s">
         <v>223</v>
       </c>
-      <c r="H235" s="14">
+      <c r="H235" s="13">
         <v>-2.5126905800000001</v>
       </c>
-      <c r="I235" s="14">
+      <c r="I235" s="13">
         <v>1.6791960290000001E-2</v>
       </c>
-      <c r="J235" s="14">
+      <c r="J235" s="13">
         <v>4.386739756E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>155</v>
       </c>
@@ -10221,13 +10218,13 @@
       <c r="G236" t="s">
         <v>234</v>
       </c>
-      <c r="H236" s="14">
+      <c r="H236" s="13">
         <v>-3.4779305680000006</v>
       </c>
-      <c r="I236" s="14">
+      <c r="I236" s="13">
         <v>-8.2549738260000005E-2</v>
       </c>
-      <c r="J236" s="14">
+      <c r="J236" s="13">
         <v>-9.0014289300000012E-3</v>
       </c>
       <c r="K236" t="s">
@@ -10243,7 +10240,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>155</v>
       </c>
@@ -10261,17 +10258,17 @@
       <c r="G237" t="s">
         <v>234</v>
       </c>
-      <c r="H237" s="14">
+      <c r="H237" s="13">
         <v>0</v>
       </c>
-      <c r="I237" s="14">
+      <c r="I237" s="13">
         <v>-8.4619804100000001E-3</v>
       </c>
-      <c r="J237" s="14">
+      <c r="J237" s="13">
         <v>6.2658253750000004E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>155</v>
       </c>
@@ -10289,17 +10286,17 @@
       <c r="G238" t="s">
         <v>234</v>
       </c>
-      <c r="H238" s="14">
+      <c r="H238" s="13">
         <v>0</v>
       </c>
-      <c r="I238" s="14">
+      <c r="I238" s="13">
         <v>0</v>
       </c>
-      <c r="J238" s="14">
+      <c r="J238" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>155</v>
       </c>
@@ -10321,13 +10318,13 @@
       <c r="G239" t="s">
         <v>229</v>
       </c>
-      <c r="H239" s="14">
+      <c r="H239" s="13">
         <v>-1.216488835</v>
       </c>
-      <c r="I239" s="14">
+      <c r="I239" s="13">
         <v>6.8188035999999994E-3</v>
       </c>
-      <c r="J239" s="14">
+      <c r="J239" s="13">
         <v>4.0663017060000001E-2</v>
       </c>
       <c r="K239" t="s">
@@ -10343,7 +10340,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>155</v>
       </c>
@@ -10361,17 +10358,17 @@
       <c r="G240" t="s">
         <v>229</v>
       </c>
-      <c r="H240" s="14">
+      <c r="H240" s="13">
         <v>-1.1292579970000001</v>
       </c>
-      <c r="I240" s="14">
+      <c r="I240" s="13">
         <v>1.477149805E-2</v>
       </c>
-      <c r="J240" s="14">
+      <c r="J240" s="13">
         <v>4.4925213960000002E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>155</v>
       </c>
@@ -10389,17 +10386,17 @@
       <c r="G241" t="s">
         <v>229</v>
       </c>
-      <c r="H241" s="14">
+      <c r="H241" s="13">
         <v>-1.0819395430000001</v>
       </c>
-      <c r="I241" s="14">
+      <c r="I241" s="13">
         <v>2.0802056979999997E-2</v>
       </c>
-      <c r="J241" s="14">
+      <c r="J241" s="13">
         <v>5.8040525959999999E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>155</v>
       </c>
@@ -10421,13 +10418,13 @@
       <c r="G242" t="s">
         <v>239</v>
       </c>
-      <c r="H242" s="14">
+      <c r="H242" s="13">
         <v>-0.48208022</v>
       </c>
-      <c r="I242" s="14">
+      <c r="I242" s="13">
         <v>2.0331094169999998E-2</v>
       </c>
-      <c r="J242" s="14">
+      <c r="J242" s="13">
         <v>4.7389984260000004E-2</v>
       </c>
       <c r="K242" t="s">
@@ -10443,7 +10440,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>155</v>
       </c>
@@ -10461,17 +10458,17 @@
       <c r="G243" t="s">
         <v>239</v>
       </c>
-      <c r="H243" s="14">
+      <c r="H243" s="13">
         <v>-0.39482206199999997</v>
       </c>
-      <c r="I243" s="14">
+      <c r="I243" s="13">
         <v>2.7575836360000001E-2</v>
       </c>
-      <c r="J243" s="14">
+      <c r="J243" s="13">
         <v>5.6086904100000001E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>155</v>
       </c>
@@ -10489,17 +10486,17 @@
       <c r="G244" t="s">
         <v>239</v>
       </c>
-      <c r="H244" s="14">
+      <c r="H244" s="13">
         <v>-0.34649382099999998</v>
       </c>
-      <c r="I244" s="14">
+      <c r="I244" s="13">
         <v>3.4505907580000002E-2</v>
       </c>
-      <c r="J244" s="14">
+      <c r="J244" s="13">
         <v>6.4884803569999996E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>155</v>
       </c>
@@ -10521,13 +10518,13 @@
       <c r="G245" t="s">
         <v>227</v>
       </c>
-      <c r="H245" s="14">
+      <c r="H245" s="13">
         <v>0.37369393099999998</v>
       </c>
-      <c r="I245" s="14">
+      <c r="I245" s="13">
         <v>7.1361699479999999E-2</v>
       </c>
-      <c r="J245" s="14">
+      <c r="J245" s="13">
         <v>8.988395427000001E-2</v>
       </c>
       <c r="K245" t="s">
@@ -10543,7 +10540,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>155</v>
       </c>
@@ -10561,17 +10558,17 @@
       <c r="G246" t="s">
         <v>227</v>
       </c>
-      <c r="H246" s="14">
+      <c r="H246" s="13">
         <v>0.40372472100000001</v>
       </c>
-      <c r="I246" s="14">
+      <c r="I246" s="13">
         <v>7.5658426360000003E-2</v>
       </c>
-      <c r="J246" s="14">
+      <c r="J246" s="13">
         <v>7.8786754299999998E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>155</v>
       </c>
@@ -10589,17 +10586,17 @@
       <c r="G247" t="s">
         <v>227</v>
       </c>
-      <c r="H247" s="14">
+      <c r="H247" s="13">
         <v>0.45242174699999993</v>
       </c>
-      <c r="I247" s="14">
+      <c r="I247" s="13">
         <v>7.9907480109999998E-2</v>
       </c>
-      <c r="J247" s="14">
+      <c r="J247" s="13">
         <v>0.10033028579</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>155</v>
       </c>
@@ -10621,13 +10618,13 @@
       <c r="G248" t="s">
         <v>246</v>
       </c>
-      <c r="H248" s="14">
+      <c r="H248" s="13">
         <v>-7.4147835989999997</v>
       </c>
-      <c r="I248" s="14">
+      <c r="I248" s="13">
         <v>2.4499018979999999E-2</v>
       </c>
-      <c r="J248" s="14">
+      <c r="J248" s="13">
         <v>-9.5178582390000002E-2</v>
       </c>
       <c r="K248" t="s">
@@ -10643,7 +10640,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>155</v>
       </c>
@@ -10661,17 +10658,17 @@
       <c r="G249" t="s">
         <v>246</v>
       </c>
-      <c r="H249" s="14">
+      <c r="H249" s="13">
         <v>-7.0920550349999996</v>
       </c>
-      <c r="I249" s="14">
+      <c r="I249" s="13">
         <v>6.1841896930000001E-2</v>
       </c>
-      <c r="J249" s="14">
+      <c r="J249" s="13">
         <v>-5.5629528239999997E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>155</v>
       </c>
@@ -10689,17 +10686,17 @@
       <c r="G250" t="s">
         <v>246</v>
       </c>
-      <c r="H250" s="14">
+      <c r="H250" s="13">
         <v>-7.17971454</v>
       </c>
-      <c r="I250" s="14">
+      <c r="I250" s="13">
         <v>5.1164431789999999E-2</v>
       </c>
-      <c r="J250" s="14">
+      <c r="J250" s="13">
         <v>-6.6830560940000006E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>155</v>
       </c>
@@ -10721,13 +10718,13 @@
       <c r="G251" t="s">
         <v>232</v>
       </c>
-      <c r="H251" s="14">
+      <c r="H251" s="13">
         <v>0.74636453599999997</v>
       </c>
-      <c r="I251" s="14">
+      <c r="I251" s="13">
         <v>7.614559722E-2</v>
       </c>
-      <c r="J251" s="14">
+      <c r="J251" s="13">
         <v>0.1028281273</v>
       </c>
       <c r="K251" t="s">
@@ -10743,7 +10740,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>155</v>
       </c>
@@ -10761,17 +10758,17 @@
       <c r="G252" t="s">
         <v>232</v>
       </c>
-      <c r="H252" s="14">
+      <c r="H252" s="13">
         <v>0.77121008599999996</v>
       </c>
-      <c r="I252" s="14">
+      <c r="I252" s="13">
         <v>7.8835790330000002E-2</v>
       </c>
-      <c r="J252" s="14">
+      <c r="J252" s="13">
         <v>0.10613836774999999</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>155</v>
       </c>
@@ -10789,17 +10786,17 @@
       <c r="G253" t="s">
         <v>232</v>
       </c>
-      <c r="H253" s="14">
+      <c r="H253" s="13">
         <v>0.81177398499999998</v>
       </c>
-      <c r="I253" s="14">
+      <c r="I253" s="13">
         <v>8.3816926840000014E-2</v>
       </c>
-      <c r="J253" s="14">
+      <c r="J253" s="13">
         <v>0.11513448748000001</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>155</v>
       </c>
@@ -10821,13 +10818,13 @@
       <c r="G254" t="s">
         <v>224</v>
       </c>
-      <c r="H254" s="14">
+      <c r="H254" s="13">
         <v>-4.9322016910000004</v>
       </c>
-      <c r="I254" s="14">
+      <c r="I254" s="13">
         <v>5.0651751220000006E-2</v>
       </c>
-      <c r="J254" s="14">
+      <c r="J254" s="13">
         <v>-1.6764242780000001E-2</v>
       </c>
       <c r="K254" t="s">
@@ -10843,7 +10840,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>155</v>
       </c>
@@ -10861,17 +10858,17 @@
       <c r="G255" t="s">
         <v>224</v>
       </c>
-      <c r="H255" s="14">
+      <c r="H255" s="13">
         <v>-4.6416235119999998</v>
       </c>
-      <c r="I255" s="14">
+      <c r="I255" s="13">
         <v>8.8668978849999996E-2</v>
       </c>
-      <c r="J255" s="14">
+      <c r="J255" s="13">
         <v>2.5356645599999998E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>155</v>
       </c>
@@ -10889,17 +10886,17 @@
       <c r="G256" t="s">
         <v>224</v>
       </c>
-      <c r="H256" s="14">
+      <c r="H256" s="13">
         <v>-4.6464726980000002</v>
       </c>
-      <c r="I256" s="14">
+      <c r="I256" s="13">
         <v>8.3092877499999995E-2</v>
       </c>
-      <c r="J256" s="14">
+      <c r="J256" s="13">
         <v>1.9799148440000001E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>155</v>
       </c>
@@ -10921,13 +10918,13 @@
       <c r="G257" t="s">
         <v>245</v>
       </c>
-      <c r="H257" s="14">
+      <c r="H257" s="13">
         <v>-1.000898434</v>
       </c>
-      <c r="I257" s="14">
+      <c r="I257" s="13">
         <v>0</v>
       </c>
-      <c r="J257" s="14">
+      <c r="J257" s="13">
         <v>0</v>
       </c>
       <c r="K257" t="s">
@@ -10943,7 +10940,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>155</v>
       </c>
@@ -10961,17 +10958,17 @@
       <c r="G258" t="s">
         <v>245</v>
       </c>
-      <c r="H258" s="14">
+      <c r="H258" s="13">
         <v>-0.913533806</v>
       </c>
-      <c r="I258" s="14">
+      <c r="I258" s="13">
         <v>0</v>
       </c>
-      <c r="J258" s="14">
+      <c r="J258" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>155</v>
       </c>
@@ -10989,17 +10986,17 @@
       <c r="G259" t="s">
         <v>245</v>
       </c>
-      <c r="H259" s="14">
+      <c r="H259" s="13">
         <v>-0.94069515299999984</v>
       </c>
-      <c r="I259" s="14">
+      <c r="I259" s="13">
         <v>0</v>
       </c>
-      <c r="J259" s="14">
+      <c r="J259" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>155</v>
       </c>
@@ -11021,13 +11018,13 @@
       <c r="G260" t="s">
         <v>226</v>
       </c>
-      <c r="H260" s="14">
+      <c r="H260" s="13">
         <v>0.89403392199999998</v>
       </c>
-      <c r="I260" s="14">
+      <c r="I260" s="13">
         <v>0.10004136548000001</v>
       </c>
-      <c r="J260" s="14">
+      <c r="J260" s="13">
         <v>1.2485346900000001E-2</v>
       </c>
       <c r="K260" t="s">
@@ -11043,7 +11040,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>155</v>
       </c>
@@ -11061,17 +11058,17 @@
       <c r="G261" t="s">
         <v>226</v>
       </c>
-      <c r="H261" s="14">
+      <c r="H261" s="13">
         <v>1.276392118</v>
       </c>
-      <c r="I261" s="14">
+      <c r="I261" s="13">
         <v>0.11862184186000001</v>
       </c>
-      <c r="J261" s="14">
+      <c r="J261" s="13">
         <v>2.9624956710000001E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>155</v>
       </c>
@@ -11089,17 +11086,17 @@
       <c r="G262" t="s">
         <v>226</v>
       </c>
-      <c r="H262" s="14">
+      <c r="H262" s="13">
         <v>0.91298126099999999</v>
       </c>
-      <c r="I262" s="14">
+      <c r="I262" s="13">
         <v>0.10164587797999999</v>
       </c>
-      <c r="J262" s="14">
+      <c r="J262" s="13">
         <v>1.430537592E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>155</v>
       </c>
@@ -11121,13 +11118,13 @@
       <c r="G263" t="s">
         <v>241</v>
       </c>
-      <c r="H263" s="14">
+      <c r="H263" s="13">
         <v>-4.3307217810000003</v>
       </c>
-      <c r="I263" s="14">
+      <c r="I263" s="13">
         <v>2.6795560980000001E-2</v>
       </c>
-      <c r="J263" s="14">
+      <c r="J263" s="13">
         <v>4.0015723879999993E-2</v>
       </c>
       <c r="K263" t="s">
@@ -11143,7 +11140,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>155</v>
       </c>
@@ -11161,17 +11158,17 @@
       <c r="G264" t="s">
         <v>241</v>
       </c>
-      <c r="H264" s="14">
+      <c r="H264" s="13">
         <v>-4.049317083</v>
       </c>
-      <c r="I264" s="14">
+      <c r="I264" s="13">
         <v>5.7605980889999998E-2</v>
       </c>
-      <c r="J264" s="14">
+      <c r="J264" s="13">
         <v>7.7577244219999994E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>155</v>
       </c>
@@ -11189,17 +11186,17 @@
       <c r="G265" t="s">
         <v>241</v>
       </c>
-      <c r="H265" s="14">
+      <c r="H265" s="13">
         <v>-3.9658561780000006</v>
       </c>
-      <c r="I265" s="14">
+      <c r="I265" s="13">
         <v>6.7176148810000003E-2</v>
       </c>
-      <c r="J265" s="14">
+      <c r="J265" s="13">
         <v>8.9314999490000005E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>155</v>
       </c>
@@ -11221,13 +11218,13 @@
       <c r="G266" t="s">
         <v>245</v>
       </c>
-      <c r="H266" s="14">
+      <c r="H266" s="13">
         <v>0.75787062800000005</v>
       </c>
-      <c r="I266" s="14">
+      <c r="I266" s="13">
         <v>8.427172577E-2</v>
       </c>
-      <c r="J266" s="14">
+      <c r="J266" s="13">
         <v>0.10405820736</v>
       </c>
       <c r="K266" t="s">
@@ -11243,7 +11240,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>155</v>
       </c>
@@ -11261,17 +11258,17 @@
       <c r="G267" t="s">
         <v>245</v>
       </c>
-      <c r="H267" s="14">
+      <c r="H267" s="13">
         <v>0.79172215400000001</v>
       </c>
-      <c r="I267" s="14">
+      <c r="I267" s="13">
         <v>8.6684121570000008E-2</v>
       </c>
-      <c r="J267" s="14">
+      <c r="J267" s="13">
         <v>0.10704540701000001</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>155</v>
       </c>
@@ -11289,17 +11286,17 @@
       <c r="G268" t="s">
         <v>245</v>
       </c>
-      <c r="H268" s="14">
+      <c r="H268" s="13">
         <v>0.82740692300000007</v>
       </c>
-      <c r="I268" s="14">
+      <c r="I268" s="13">
         <v>9.2572628160000003E-2</v>
       </c>
-      <c r="J268" s="14">
+      <c r="J268" s="13">
         <v>0.11446594049</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>155</v>
       </c>
@@ -11321,13 +11318,13 @@
       <c r="G269" t="s">
         <v>237</v>
       </c>
-      <c r="H269" s="14">
+      <c r="H269" s="13">
         <v>-1.2014659990000001</v>
       </c>
-      <c r="I269" s="14">
+      <c r="I269" s="13">
         <v>-8.4405419299999999E-3</v>
       </c>
-      <c r="J269" s="14">
+      <c r="J269" s="13">
         <v>3.7095559210000004E-2</v>
       </c>
       <c r="K269" t="s">
@@ -11343,7 +11340,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>155</v>
       </c>
@@ -11361,17 +11358,17 @@
       <c r="G270" t="s">
         <v>237</v>
       </c>
-      <c r="H270" s="14">
+      <c r="H270" s="13">
         <v>-1.164184645</v>
       </c>
-      <c r="I270" s="14">
+      <c r="I270" s="13">
         <v>-6.3375051599999996E-3</v>
       </c>
-      <c r="J270" s="14">
+      <c r="J270" s="13">
         <v>4.0201887280000001E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>155</v>
       </c>
@@ -11389,17 +11386,17 @@
       <c r="G271" t="s">
         <v>237</v>
       </c>
-      <c r="H271" s="14">
+      <c r="H271" s="13">
         <v>0</v>
       </c>
-      <c r="I271" s="14">
+      <c r="I271" s="13">
         <v>0</v>
       </c>
-      <c r="J271" s="14">
+      <c r="J271" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>155</v>
       </c>
@@ -11421,13 +11418,13 @@
       <c r="G272" t="s">
         <v>224</v>
       </c>
-      <c r="H272" s="14">
+      <c r="H272" s="13">
         <v>-3.3371050019999999</v>
       </c>
-      <c r="I272" s="14">
+      <c r="I272" s="13">
         <v>3.7567188330000001E-2</v>
       </c>
-      <c r="J272" s="14">
+      <c r="J272" s="13">
         <v>-3.6839503169999996E-2</v>
       </c>
       <c r="K272" t="s">
@@ -11443,7 +11440,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>155</v>
       </c>
@@ -11461,17 +11458,17 @@
       <c r="G273" t="s">
         <v>224</v>
       </c>
-      <c r="H273" s="14">
+      <c r="H273" s="13">
         <v>-3.0880310870000001</v>
       </c>
-      <c r="I273" s="14">
+      <c r="I273" s="13">
         <v>6.3843817390000002E-2</v>
       </c>
-      <c r="J273" s="14">
+      <c r="J273" s="13">
         <v>-7.5615407399999999E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>155</v>
       </c>
@@ -11489,17 +11486,17 @@
       <c r="G274" t="s">
         <v>224</v>
       </c>
-      <c r="H274" s="14">
+      <c r="H274" s="13">
         <v>-2.9985198529999999</v>
       </c>
-      <c r="I274" s="14">
+      <c r="I274" s="13">
         <v>0</v>
       </c>
-      <c r="J274" s="14">
+      <c r="J274" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>474</v>
       </c>
@@ -11515,13 +11512,13 @@
       <c r="E275" t="s">
         <v>215</v>
       </c>
-      <c r="H275" s="14">
+      <c r="H275" s="13">
         <v>-6.784713626521699E-2</v>
       </c>
-      <c r="I275" s="14">
+      <c r="I275" s="13">
         <v>4.7962294229001445E-2</v>
       </c>
-      <c r="J275" s="14">
+      <c r="J275" s="13">
         <v>0.11709065447466993</v>
       </c>
       <c r="K275" t="s">
@@ -11537,7 +11534,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
         <v>474</v>
       </c>
@@ -11548,17 +11545,17 @@
       <c r="E276" t="s">
         <v>215</v>
       </c>
-      <c r="H276" s="14">
+      <c r="H276" s="13">
         <v>-6.765864012568934E-2</v>
       </c>
-      <c r="I276" s="14">
+      <c r="I276" s="13">
         <v>4.9632976943707163E-2</v>
       </c>
-      <c r="J276" s="14">
+      <c r="J276" s="13">
         <v>0.11931738453727503</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
         <v>474</v>
       </c>
@@ -11569,24 +11566,18 @@
       <c r="E277" t="s">
         <v>215</v>
       </c>
-      <c r="H277" s="14">
+      <c r="H277" s="13">
         <v>-6.7847082088591359E-2</v>
       </c>
-      <c r="I277" s="14">
+      <c r="I277" s="13">
         <v>4.7962294229001445E-2</v>
       </c>
-      <c r="J277" s="14" t="s">
+      <c r="J277" s="13" t="s">
         <v>508</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O277" xr:uid="{FCF36D9E-32F4-46A1-965F-BE2737EE5B1F}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Sin clasificación"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O277" xr:uid="{FCF36D9E-32F4-46A1-965F-BE2737EE5B1F}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M107" r:id="rId1" xr:uid="{04608EF0-0BB4-4238-9E0D-9EAD8D8F66C2}"/>
@@ -11690,3058 +11681,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26030E03-2E2E-42AA-9345-5C9BEF8E21D5}">
-  <dimension ref="C1:E276"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="12">
-        <v>78291340.299999997</v>
-      </c>
-      <c r="D1" s="12">
-        <v>95552.615869999994</v>
-      </c>
-      <c r="E1" s="12">
-        <v>116549.93268</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="12">
-        <v>-31899.229579999999</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1239.0686873</v>
-      </c>
-      <c r="E2" s="12">
-        <v>-57.581081500000003</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="12">
-        <v>-36162.850279999999</v>
-      </c>
-      <c r="D4" s="12">
-        <v>968.14647049999996</v>
-      </c>
-      <c r="E4" s="12">
-        <v>-64.506289600000002</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="12">
-        <v>-35691.282090000001</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1022.6411938</v>
-      </c>
-      <c r="E5" s="12">
-        <v>-5.2060095999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="12">
-        <v>-75402.806240000005</v>
-      </c>
-      <c r="D6" s="12">
-        <v>49.139918100000003</v>
-      </c>
-      <c r="E6" s="12">
-        <v>117.8103796</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="12">
-        <v>-749052794.39999998</v>
-      </c>
-      <c r="D7" s="12">
-        <v>104.05769909999999</v>
-      </c>
-      <c r="E7" s="12">
-        <v>184.2338886</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="12">
-        <v>-72658.5098</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="12">
-        <v>-73411.01311</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="12">
-        <v>-1739.87941</v>
-      </c>
-      <c r="D10" s="12">
-        <v>555.19359510000004</v>
-      </c>
-      <c r="E10" s="12">
-        <v>379.09192289999999</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="12">
-        <v>-1457.7844700000001</v>
-      </c>
-      <c r="D11" s="12">
-        <v>599.27584569999999</v>
-      </c>
-      <c r="E11" s="12">
-        <v>430.6122163</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="12">
-        <v>-9541.6611900000007</v>
-      </c>
-      <c r="D12" s="12">
-        <v>591.46682020000003</v>
-      </c>
-      <c r="E12" s="12">
-        <v>321.7374835</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="12">
-        <v>6839.8770400000003</v>
-      </c>
-      <c r="D13" s="12">
-        <v>855.62509269999998</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1047.9354931</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="12">
-        <v>-31042.587070000001</v>
-      </c>
-      <c r="D14" s="12">
-        <v>705.3138715</v>
-      </c>
-      <c r="E14" s="12">
-        <v>-987.52576480000005</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="12">
-        <v>-31213.261180000001</v>
-      </c>
-      <c r="D15" s="12">
-        <v>-204.32795369999999</v>
-      </c>
-      <c r="E15" s="12">
-        <v>-101.5102253</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="12">
-        <v>-30881.495169999998</v>
-      </c>
-      <c r="D16" s="12">
-        <v>-170.2866046</v>
-      </c>
-      <c r="E16" s="12">
-        <v>-60.198655500000001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="12">
-        <v>-37007.031840000003</v>
-      </c>
-      <c r="D17" s="12">
-        <v>359.9474012</v>
-      </c>
-      <c r="E17" s="12">
-        <v>-352.53787790000001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="12">
-        <v>-36535.889199999998</v>
-      </c>
-      <c r="D18" s="12">
-        <v>411.42029100000002</v>
-      </c>
-      <c r="E18" s="12">
-        <v>-294.95608879999997</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="12">
-        <v>-39025.141940000001</v>
-      </c>
-      <c r="D19" s="12">
-        <v>-374.18948119999999</v>
-      </c>
-      <c r="E19" s="12">
-        <v>-250.0474408</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="12">
-        <v>-38555.044650000003</v>
-      </c>
-      <c r="D20" s="12">
-        <v>-326.35523169999999</v>
-      </c>
-      <c r="E20" s="12">
-        <v>-191.8476498</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="12">
-        <v>8058.8387199999997</v>
-      </c>
-      <c r="D21" s="12">
-        <v>910.11650740000005</v>
-      </c>
-      <c r="E21" s="12">
-        <v>29.462813700000002</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="12">
-        <v>8463.5651400000006</v>
-      </c>
-      <c r="D22" s="12">
-        <v>949.49127669999996</v>
-      </c>
-      <c r="E22" s="12">
-        <v>71.077073799999994</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="12">
-        <v>4829.9649600000002</v>
-      </c>
-      <c r="D23" s="12">
-        <v>724.90623919999996</v>
-      </c>
-      <c r="E23" s="12">
-        <v>889.00620630000003</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="12">
-        <v>5026.5797899999998</v>
-      </c>
-      <c r="D24" s="12">
-        <v>746.18472629999997</v>
-      </c>
-      <c r="E24" s="12">
-        <v>914.95412959999999</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="12">
-        <v>-3879.4980599999999</v>
-      </c>
-      <c r="D25" s="12">
-        <v>-4.9233988999999996</v>
-      </c>
-      <c r="E25" s="12">
-        <v>323.13486010000003</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="12">
-        <v>-3684.6634800000002</v>
-      </c>
-      <c r="D26" s="12">
-        <v>14.912690899999999</v>
-      </c>
-      <c r="E26" s="12">
-        <v>347.73707489999998</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="12">
-        <v>-9267.1776800000007</v>
-      </c>
-      <c r="D27" s="12">
-        <v>27.4762907</v>
-      </c>
-      <c r="E27" s="12">
-        <v>399.79361699999998</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="12">
-        <v>-8976.4271599999993</v>
-      </c>
-      <c r="D28" s="12">
-        <v>57.337616799999999</v>
-      </c>
-      <c r="E28" s="12">
-        <v>436.98795260000003</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="12">
-        <v>-68914.305120000005</v>
-      </c>
-      <c r="D29" s="12">
-        <v>906.5597798</v>
-      </c>
-      <c r="E29" s="12">
-        <v>942.44061099999999</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="12">
-        <v>-159020.65528000001</v>
-      </c>
-      <c r="D30" s="12">
-        <v>6540695.8104704004</v>
-      </c>
-      <c r="E30" s="12">
-        <v>5868357.5271939002</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="12">
-        <v>2373.4716600000002</v>
-      </c>
-      <c r="D31" s="12">
-        <v>616.6572152</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="12">
-        <v>7413.44193</v>
-      </c>
-      <c r="D32" s="12">
-        <v>827.89206760000002</v>
-      </c>
-      <c r="E32" s="12">
-        <v>112.36232699999999</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="12">
-        <v>4828.4585999999999</v>
-      </c>
-      <c r="D33" s="12">
-        <v>521.32946679999998</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="12">
-        <v>0</v>
-      </c>
-      <c r="D34" s="12">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="12">
-        <v>-31644.879629999999</v>
-      </c>
-      <c r="D35" s="12">
-        <v>352.10463700000003</v>
-      </c>
-      <c r="E35" s="12">
-        <v>-63.106847600000002</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="12">
-        <v>-31313.18375</v>
-      </c>
-      <c r="D36" s="12">
-        <v>388.09444660000003</v>
-      </c>
-      <c r="E36" s="12">
-        <v>-21.618663099999999</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="12">
-        <v>-22162.520420000001</v>
-      </c>
-      <c r="D37" s="12">
-        <v>-412.48417310000002</v>
-      </c>
-      <c r="E37" s="12">
-        <v>-13.248447199999999</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="12">
-        <v>-21828.044829999999</v>
-      </c>
-      <c r="D38" s="12">
-        <v>-379.16961370000001</v>
-      </c>
-      <c r="E38" s="12">
-        <v>28.430408199999999</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="12">
-        <v>5174.1350599999996</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="12">
-        <v>5206.58475</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-      <c r="E40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="12">
-        <v>8558.1534699999993</v>
-      </c>
-      <c r="D41" s="12">
-        <v>829.01945999999998</v>
-      </c>
-      <c r="E41" s="12">
-        <v>965.54297469999995</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="12">
-        <v>8124.4524199999996</v>
-      </c>
-      <c r="D42" s="12">
-        <v>788.43081989999996</v>
-      </c>
-      <c r="E42" s="12">
-        <v>917.37431549999997</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="12">
-        <v>6236.3873700000004</v>
-      </c>
-      <c r="D43" s="12">
-        <v>703.85903740000003</v>
-      </c>
-      <c r="E43" s="12">
-        <v>889.27616929999999</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="12">
-        <v>-3992.40724</v>
-      </c>
-      <c r="D44" s="12">
-        <v>296.93389580000002</v>
-      </c>
-      <c r="E44" s="12">
-        <v>454.67935080000001</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="12">
-        <v>-24142.514220000001</v>
-      </c>
-      <c r="D45" s="12">
-        <v>552.85200799999996</v>
-      </c>
-      <c r="E45" s="12">
-        <v>720.75270069999999</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="12">
-        <v>-8974.8235299999997</v>
-      </c>
-      <c r="D46" s="12">
-        <v>632.92262370000003</v>
-      </c>
-      <c r="E46" s="12">
-        <v>904.89289719999999</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="12">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="12">
-        <v>-10596.613869999999</v>
-      </c>
-      <c r="D48" s="12">
-        <v>-152.03467090000001</v>
-      </c>
-      <c r="E48" s="12">
-        <v>258.75359529999997</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="12">
-        <v>-10306.34474</v>
-      </c>
-      <c r="D49" s="12">
-        <v>-122.70992630000001</v>
-      </c>
-      <c r="E49" s="12">
-        <v>295.4418589</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="12">
-        <v>-8052.54601</v>
-      </c>
-      <c r="D50" s="12">
-        <v>444.77124259999999</v>
-      </c>
-      <c r="E50" s="12">
-        <v>-183.18253369999999</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="12">
-        <v>-7765.1744799999997</v>
-      </c>
-      <c r="D51" s="12">
-        <v>474.68505570000002</v>
-      </c>
-      <c r="E51" s="12">
-        <v>-149.95882080000001</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="12">
-        <v>-3935.8991999999998</v>
-      </c>
-      <c r="D52" s="12">
-        <v>136.17564010000001</v>
-      </c>
-      <c r="E52" s="12">
-        <v>420.82194729999998</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="12">
-        <v>-3643.6445100000001</v>
-      </c>
-      <c r="D53" s="12">
-        <v>166.35794659999999</v>
-      </c>
-      <c r="E53" s="12">
-        <v>458.08825239999999</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="12">
-        <v>-67274.064880000005</v>
-      </c>
-      <c r="D54" s="12">
-        <v>520.32584859999997</v>
-      </c>
-      <c r="E54" s="12">
-        <v>1110.0352046</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="12">
-        <v>-66544.017330000002</v>
-      </c>
-      <c r="D55" s="12">
-        <v>612.63664559999995</v>
-      </c>
-      <c r="E55" s="12">
-        <v>1225.3614903</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="12">
-        <v>-66361.415590000004</v>
-      </c>
-      <c r="D56" s="12">
-        <v>625.08001090000005</v>
-      </c>
-      <c r="E56" s="12">
-        <v>1242.9806513999999</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="12">
-        <v>3215.33545</v>
-      </c>
-      <c r="D57" s="12">
-        <v>653.27933770000004</v>
-      </c>
-      <c r="E57" s="12">
-        <v>774.48175319999996</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="12">
-        <v>3411.6913399999999</v>
-      </c>
-      <c r="D58" s="12">
-        <v>674.41921920000004</v>
-      </c>
-      <c r="E58" s="12">
-        <v>800.15711380000005</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="12">
-        <v>2894.1560399999998</v>
-      </c>
-      <c r="D59" s="12">
-        <v>658.7690844</v>
-      </c>
-      <c r="E59" s="12">
-        <v>780.85378300000002</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="12">
-        <v>6704.06502</v>
-      </c>
-      <c r="D60" s="12">
-        <v>0</v>
-      </c>
-      <c r="E60" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="12">
-        <v>-11205.8567</v>
-      </c>
-      <c r="D61" s="12">
-        <v>-216.60104290000001</v>
-      </c>
-      <c r="E61" s="12">
-        <v>361.04556489999999</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="12">
-        <v>-10712.368909999999</v>
-      </c>
-      <c r="D62" s="12">
-        <v>-165.81357439999999</v>
-      </c>
-      <c r="E62" s="12">
-        <v>425.4033996</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="12">
-        <v>-21690.335230000001</v>
-      </c>
-      <c r="D63" s="12">
-        <v>399.64721309999999</v>
-      </c>
-      <c r="E63" s="12">
-        <v>336.84486900000002</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="12">
-        <v>-21408.904020000002</v>
-      </c>
-      <c r="D64" s="12">
-        <v>430.00817139999998</v>
-      </c>
-      <c r="E64" s="12">
-        <v>373.08846510000001</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="12">
-        <v>6714.7505499999997</v>
-      </c>
-      <c r="D65" s="12">
-        <v>0</v>
-      </c>
-      <c r="E65" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="12">
-        <v>6911.6580000000004</v>
-      </c>
-      <c r="D66" s="12">
-        <v>0</v>
-      </c>
-      <c r="E66" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="12">
-        <v>-1932.63877</v>
-      </c>
-      <c r="D67" s="12">
-        <v>348.21681480000001</v>
-      </c>
-      <c r="E67" s="12">
-        <v>669.68394850000004</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="12">
-        <v>-779.19158000000004</v>
-      </c>
-      <c r="D68" s="12">
-        <v>538.45355629999995</v>
-      </c>
-      <c r="E68" s="12">
-        <v>814.61984810000001</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="12">
-        <v>-67631.245699999999</v>
-      </c>
-      <c r="D69" s="12">
-        <v>438.6076827</v>
-      </c>
-      <c r="E69" s="12">
-        <v>967.4058612</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="12">
-        <v>-68309.386929999993</v>
-      </c>
-      <c r="D70" s="12">
-        <v>361.014949</v>
-      </c>
-      <c r="E70" s="12">
-        <v>870.95320030000005</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="12">
-        <v>-67620.806649999999</v>
-      </c>
-      <c r="D71" s="12">
-        <v>427.55254500000001</v>
-      </c>
-      <c r="E71" s="12">
-        <v>954.28740970000001</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="12">
-        <v>-65996.066850000003</v>
-      </c>
-      <c r="D72" s="12">
-        <v>621.00990509999997</v>
-      </c>
-      <c r="E72" s="12">
-        <v>1198.1661756999999</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C73" s="12">
-        <v>-24899.048589999999</v>
-      </c>
-      <c r="D73" s="12">
-        <v>127.8023536</v>
-      </c>
-      <c r="E73" s="12">
-        <v>220.88618360000001</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="12">
-        <v>-25500.059150000001</v>
-      </c>
-      <c r="D74" s="12">
-        <v>64.728422800000004</v>
-      </c>
-      <c r="E74" s="12">
-        <v>144.508532</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="12">
-        <v>-24899.364570000002</v>
-      </c>
-      <c r="D75" s="12">
-        <v>127.8012574</v>
-      </c>
-      <c r="E75" s="12">
-        <v>220.88355809999999</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="12">
-        <v>-23816.670770000001</v>
-      </c>
-      <c r="D76" s="12">
-        <v>242.3272743</v>
-      </c>
-      <c r="E76" s="12">
-        <v>359.81105100000002</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C77" s="12">
-        <v>-20854.920969999999</v>
-      </c>
-      <c r="D77" s="12">
-        <v>-218.26204329999999</v>
-      </c>
-      <c r="E77" s="12">
-        <v>116.5686542</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C78" s="12">
-        <v>-21458.100210000001</v>
-      </c>
-      <c r="D78" s="12">
-        <v>-279.17175040000001</v>
-      </c>
-      <c r="E78" s="12">
-        <v>40.979233200000003</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79" s="12">
-        <v>-20854.70652</v>
-      </c>
-      <c r="D79" s="12">
-        <v>-218.25920070000001</v>
-      </c>
-      <c r="E79" s="12">
-        <v>116.56868679999999</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80" s="12">
-        <v>-19888.412540000001</v>
-      </c>
-      <c r="D80" s="12">
-        <v>-119.9996105</v>
-      </c>
-      <c r="E80" s="12">
-        <v>238.7093453</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="12">
-        <v>4689.2512999999999</v>
-      </c>
-      <c r="D81" s="12">
-        <v>670.78938129999995</v>
-      </c>
-      <c r="E81" s="12">
-        <v>844.18306740000003</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="12">
-        <v>4190.5000300000002</v>
-      </c>
-      <c r="D82" s="12">
-        <v>616.34046890000002</v>
-      </c>
-      <c r="E82" s="12">
-        <v>775.98604339999997</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" s="12">
-        <v>4689.0513899999996</v>
-      </c>
-      <c r="D83" s="12">
-        <v>670.79201739999996</v>
-      </c>
-      <c r="E83" s="12">
-        <v>844.18674969999995</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="12">
-        <v>5060.7376599999998</v>
-      </c>
-      <c r="D84" s="12">
-        <v>711.18243559999996</v>
-      </c>
-      <c r="E84" s="12">
-        <v>894.15011370000002</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="12">
-        <v>5110.2816000000003</v>
-      </c>
-      <c r="D85" s="12">
-        <v>594.57742399999995</v>
-      </c>
-      <c r="E85" s="12">
-        <v>-197.9289406</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="12">
-        <v>4815.2733699999999</v>
-      </c>
-      <c r="D86" s="12">
-        <v>563.12517579999997</v>
-      </c>
-      <c r="E86" s="12">
-        <v>-232.8585277</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="12">
-        <v>0</v>
-      </c>
-      <c r="D87" s="12">
-        <v>0</v>
-      </c>
-      <c r="E87" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88" s="12">
-        <v>5110.4389099999999</v>
-      </c>
-      <c r="D88" s="12">
-        <v>594.57456239999999</v>
-      </c>
-      <c r="E88" s="12">
-        <v>-197.93086349999999</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="12">
-        <v>5479.7888499999999</v>
-      </c>
-      <c r="D89" s="12">
-        <v>634.09215510000001</v>
-      </c>
-      <c r="E89" s="12">
-        <v>-154.01601149999999</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C90" s="12">
-        <v>-7512.6994100000002</v>
-      </c>
-      <c r="D90" s="12">
-        <v>155.37749600000001</v>
-      </c>
-      <c r="E90" s="12">
-        <v>454.36188720000001</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="12">
-        <v>-8005.5230199999996</v>
-      </c>
-      <c r="D91" s="12">
-        <v>103.5530187</v>
-      </c>
-      <c r="E91" s="12">
-        <v>388.60691359999998</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="12">
-        <v>-7512.8575199999996</v>
-      </c>
-      <c r="D92" s="12">
-        <v>155.36474050000001</v>
-      </c>
-      <c r="E92" s="12">
-        <v>454.34811409999998</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93" s="12">
-        <v>-7145.5680300000004</v>
-      </c>
-      <c r="D93" s="12">
-        <v>193.42525380000001</v>
-      </c>
-      <c r="E93" s="12">
-        <v>501.24639109999998</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="12">
-        <v>22715.59492</v>
-      </c>
-      <c r="D94" s="12">
-        <v>2206.1464811999999</v>
-      </c>
-      <c r="E94" s="12">
-        <v>5062.3184936999996</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95" s="12">
-        <v>23740.814989999999</v>
-      </c>
-      <c r="D95" s="12">
-        <v>2330.6302233000001</v>
-      </c>
-      <c r="E95" s="12">
-        <v>5246.9107276000004</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96" s="12">
-        <v>25651.643820000001</v>
-      </c>
-      <c r="D96" s="12">
-        <v>2565.9535549000002</v>
-      </c>
-      <c r="E96" s="12">
-        <v>5596.9440068000004</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="12">
-        <v>-261.76069999999999</v>
-      </c>
-      <c r="D97" s="12">
-        <v>0</v>
-      </c>
-      <c r="E97" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="12">
-        <v>-39848.42712</v>
-      </c>
-      <c r="D98" s="12">
-        <v>471.82231350000001</v>
-      </c>
-      <c r="E98" s="12">
-        <v>545.6179879</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="12">
-        <v>-40809.368139999999</v>
-      </c>
-      <c r="D99" s="12">
-        <v>366.11594789999998</v>
-      </c>
-      <c r="E99" s="12">
-        <v>417.93505499999998</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="12">
-        <v>-39848.516210000002</v>
-      </c>
-      <c r="D100" s="12">
-        <v>471.81511389999997</v>
-      </c>
-      <c r="E100" s="12">
-        <v>545.61024659999998</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="12">
-        <v>-38055.365239999999</v>
-      </c>
-      <c r="D101" s="12">
-        <v>671.70096330000001</v>
-      </c>
-      <c r="E101" s="12">
-        <v>787.75711320000005</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="12">
-        <v>-31821.9535</v>
-      </c>
-      <c r="D102" s="12">
-        <v>418.71272240000002</v>
-      </c>
-      <c r="E102" s="12">
-        <v>226.29003069999999</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="12">
-        <v>-32497.96962</v>
-      </c>
-      <c r="D103" s="12">
-        <v>345.20614879999999</v>
-      </c>
-      <c r="E103" s="12">
-        <v>139.7257467</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="12">
-        <v>-31822.075809999998</v>
-      </c>
-      <c r="D104" s="12">
-        <v>418.71386439999998</v>
-      </c>
-      <c r="E104" s="12">
-        <v>226.28975990000001</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="12">
-        <v>-30547.91892</v>
-      </c>
-      <c r="D105" s="12">
-        <v>558.4920558</v>
-      </c>
-      <c r="E105" s="12">
-        <v>391.23683720000002</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="12">
-        <v>-14104.21329</v>
-      </c>
-      <c r="D106" s="12">
-        <v>-82.867837100000003</v>
-      </c>
-      <c r="E106" s="12">
-        <v>280.08384919999997</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="12">
-        <v>-14549.66273</v>
-      </c>
-      <c r="D107" s="12">
-        <v>-128.19431969999999</v>
-      </c>
-      <c r="E107" s="12">
-        <v>223.69692449999999</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C108" s="12">
-        <v>-14104.22431</v>
-      </c>
-      <c r="D108" s="12">
-        <v>-82.868169899999998</v>
-      </c>
-      <c r="E108" s="12">
-        <v>280.08188130000002</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C109" s="12">
-        <v>-13496.045190000001</v>
-      </c>
-      <c r="D109" s="12">
-        <v>-20.717544700000001</v>
-      </c>
-      <c r="E109" s="12">
-        <v>357.48253870000002</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="12">
-        <v>-4100.17299</v>
-      </c>
-      <c r="D110" s="12">
-        <v>146.46006070000001</v>
-      </c>
-      <c r="E110" s="12">
-        <v>500.82256599999999</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C111" s="12">
-        <v>-4438.8375299999998</v>
-      </c>
-      <c r="D111" s="12">
-        <v>111.5170794</v>
-      </c>
-      <c r="E111" s="12">
-        <v>457.38917939999999</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C112" s="12">
-        <v>-4099.9004500000001</v>
-      </c>
-      <c r="D112" s="12">
-        <v>146.45607279999999</v>
-      </c>
-      <c r="E112" s="12">
-        <v>500.81715170000001</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C113" s="12">
-        <v>-3616.96144</v>
-      </c>
-      <c r="D113" s="12">
-        <v>197.2084869</v>
-      </c>
-      <c r="E113" s="12">
-        <v>565.48476000000005</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C114" s="12">
-        <v>-43791.676720000003</v>
-      </c>
-      <c r="D114" s="12">
-        <v>950.22991890000003</v>
-      </c>
-      <c r="E114" s="12">
-        <v>-181.55896329999999</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C115" s="12">
-        <v>-44748.68561</v>
-      </c>
-      <c r="D115" s="12">
-        <v>839.70044240000004</v>
-      </c>
-      <c r="E115" s="12">
-        <v>-300.43493030000002</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C116" s="12">
-        <v>-43791.801520000001</v>
-      </c>
-      <c r="D116" s="12">
-        <v>950.23737960000005</v>
-      </c>
-      <c r="E116" s="12">
-        <v>-181.5579975</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C117" s="12">
-        <v>-42005.879200000003</v>
-      </c>
-      <c r="D117" s="12">
-        <v>1159.2508006</v>
-      </c>
-      <c r="E117" s="12">
-        <v>43.888294799999997</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C118" s="12">
-        <v>-22478.10197</v>
-      </c>
-      <c r="D118" s="12">
-        <v>-247.7373533</v>
-      </c>
-      <c r="E118" s="12">
-        <v>17.2491299</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C119" s="12">
-        <v>-22917.458900000001</v>
-      </c>
-      <c r="D119" s="12">
-        <v>-292.07036490000002</v>
-      </c>
-      <c r="E119" s="12">
-        <v>-37.403642900000001</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C120" s="12">
-        <v>-22478.183949999999</v>
-      </c>
-      <c r="D120" s="12">
-        <v>-247.73941210000001</v>
-      </c>
-      <c r="E120" s="12">
-        <v>17.2453447</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C121" s="12">
-        <v>-21297.918989999998</v>
-      </c>
-      <c r="D121" s="12">
-        <v>-127.757304</v>
-      </c>
-      <c r="E121" s="12">
-        <v>165.40027190000001</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C122" s="12">
-        <v>-29048.75043</v>
-      </c>
-      <c r="D122" s="12">
-        <v>-44.9266589</v>
-      </c>
-      <c r="E122" s="12">
-        <v>73.543528499999994</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C123" s="12">
-        <v>-30282.559270000002</v>
-      </c>
-      <c r="D123" s="12">
-        <v>-172.3856964</v>
-      </c>
-      <c r="E123" s="12">
-        <v>-81.116190000000003</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C124" s="12">
-        <v>-27476.763210000001</v>
-      </c>
-      <c r="D124" s="12">
-        <v>119.595675</v>
-      </c>
-      <c r="E124" s="12">
-        <v>273.75620470000001</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C125" s="12">
-        <v>-29048.631689999998</v>
-      </c>
-      <c r="D125" s="12">
-        <v>-44.929992300000002</v>
-      </c>
-      <c r="E125" s="12">
-        <v>73.536909499999993</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C126" s="12">
-        <v>-27916.10887</v>
-      </c>
-      <c r="D126" s="12">
-        <v>73.348258299999998</v>
-      </c>
-      <c r="E126" s="12">
-        <v>217.40709459999999</v>
-      </c>
-    </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C127" s="12">
-        <v>-36409.49422</v>
-      </c>
-      <c r="D127" s="12">
-        <v>199.62569869999999</v>
-      </c>
-      <c r="E127" s="12">
-        <v>4.9244468000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C128" s="12">
-        <v>-37633.744550000003</v>
-      </c>
-      <c r="D128" s="12">
-        <v>69.034255799999997</v>
-      </c>
-      <c r="E128" s="12">
-        <v>-148.6769951</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C129" s="12">
-        <v>-34849.42383</v>
-      </c>
-      <c r="D129" s="12">
-        <v>368.18810239999999</v>
-      </c>
-      <c r="E129" s="12">
-        <v>203.77579739999999</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C130" s="12">
-        <v>-36409.212229999997</v>
-      </c>
-      <c r="D130" s="12">
-        <v>199.6237735</v>
-      </c>
-      <c r="E130" s="12">
-        <v>4.9269341000000004</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C131" s="12">
-        <v>-35285.748749999999</v>
-      </c>
-      <c r="D131" s="12">
-        <v>320.79951749999998</v>
-      </c>
-      <c r="E131" s="12">
-        <v>147.81213819999999</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C132" s="12">
-        <v>-35730.27792</v>
-      </c>
-      <c r="D132" s="12">
-        <v>175.541223</v>
-      </c>
-      <c r="E132" s="12">
-        <v>-36.351950500000001</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C133" s="12">
-        <v>-36955.69728</v>
-      </c>
-      <c r="D133" s="12">
-        <v>45.2589215</v>
-      </c>
-      <c r="E133" s="12">
-        <v>-189.32398620000001</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C134" s="12">
-        <v>-34169.097280000002</v>
-      </c>
-      <c r="D134" s="12">
-        <v>343.71325039999999</v>
-      </c>
-      <c r="E134" s="12">
-        <v>161.6821722</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C135" s="12">
-        <v>-35730.280639999997</v>
-      </c>
-      <c r="D135" s="12">
-        <v>175.5440078</v>
-      </c>
-      <c r="E135" s="12">
-        <v>-36.350718899999997</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C136" s="12">
-        <v>-34605.621610000002</v>
-      </c>
-      <c r="D136" s="12">
-        <v>296.44137030000002</v>
-      </c>
-      <c r="E136" s="12">
-        <v>105.9513068</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C137" s="12">
-        <v>-26391.949970000001</v>
-      </c>
-      <c r="D137" s="12">
-        <v>-678.12594039999999</v>
-      </c>
-      <c r="E137" s="12">
-        <v>8.0619043999999995</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C138" s="12">
-        <v>-26723.417809999999</v>
-      </c>
-      <c r="D138" s="12">
-        <v>-710.22179389999997</v>
-      </c>
-      <c r="E138" s="12">
-        <v>-33.320912999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C139" s="12">
-        <v>-26392.04797</v>
-      </c>
-      <c r="D139" s="12">
-        <v>-678.12773619999996</v>
-      </c>
-      <c r="E139" s="12">
-        <v>8.0635937000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C140" s="12">
-        <v>-25919.51253</v>
-      </c>
-      <c r="D140" s="12">
-        <v>-630.77540750000003</v>
-      </c>
-      <c r="E140" s="12">
-        <v>72.158582499999994</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C141" s="12">
-        <v>-37343.366620000001</v>
-      </c>
-      <c r="D141" s="12">
-        <v>-315.85692490000002</v>
-      </c>
-      <c r="E141" s="12">
-        <v>134.07238899999999</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C142" s="12">
-        <v>-38306.818160000003</v>
-      </c>
-      <c r="D142" s="12">
-        <v>-413.60963299999997</v>
-      </c>
-      <c r="E142" s="12">
-        <v>11.3732983</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C143" s="12">
-        <v>-37343.629200000003</v>
-      </c>
-      <c r="D143" s="12">
-        <v>-315.860208</v>
-      </c>
-      <c r="E143" s="12">
-        <v>134.06836949999999</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C144" s="12">
-        <v>-35545.775179999997</v>
-      </c>
-      <c r="D144" s="12">
-        <v>-131.01860880000001</v>
-      </c>
-      <c r="E144" s="12">
-        <v>366.75624520000002</v>
-      </c>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C145" s="12">
-        <v>-34890.549140000003</v>
-      </c>
-      <c r="D145" s="12">
-        <v>217.8977366</v>
-      </c>
-      <c r="E145" s="12">
-        <v>19.057450500000002</v>
-      </c>
-    </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C146" s="12">
-        <v>-36116.926950000001</v>
-      </c>
-      <c r="D146" s="12">
-        <v>87.083969199999999</v>
-      </c>
-      <c r="E146" s="12">
-        <v>-134.7501188</v>
-      </c>
-    </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C147" s="12">
-        <v>-33240.490969999999</v>
-      </c>
-      <c r="D147" s="12">
-        <v>391.21771410000002</v>
-      </c>
-      <c r="E147" s="12">
-        <v>223.8799463</v>
-      </c>
-    </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C148" s="12">
-        <v>-34890.655870000002</v>
-      </c>
-      <c r="D148" s="12">
-        <v>217.89871869999999</v>
-      </c>
-      <c r="E148" s="12">
-        <v>19.057937299999999</v>
-      </c>
-    </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C149" s="12">
-        <v>-33764.988039999997</v>
-      </c>
-      <c r="D149" s="12">
-        <v>339.30103300000002</v>
-      </c>
-      <c r="E149" s="12">
-        <v>162.1532067</v>
-      </c>
-    </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C150" s="12">
-        <v>-20789.04981</v>
-      </c>
-      <c r="D150" s="12">
-        <v>60.566890999999998</v>
-      </c>
-      <c r="E150" s="12">
-        <v>99.471147400000007</v>
-      </c>
-    </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C151" s="12">
-        <v>-22033.436020000001</v>
-      </c>
-      <c r="D151" s="12">
-        <v>-68.248270300000001</v>
-      </c>
-      <c r="E151" s="12">
-        <v>-55.585681000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C152" s="12">
-        <v>-20789.06091</v>
-      </c>
-      <c r="D152" s="12">
-        <v>60.564353300000001</v>
-      </c>
-      <c r="E152" s="12">
-        <v>99.470502499999995</v>
-      </c>
-    </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C153" s="12">
-        <v>-19647.115860000002</v>
-      </c>
-      <c r="D153" s="12">
-        <v>180.0914664</v>
-      </c>
-      <c r="E153" s="12">
-        <v>243.7086827</v>
-      </c>
-    </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C154" s="12">
-        <v>-25044.574079999999</v>
-      </c>
-      <c r="D154" s="12">
-        <v>-136.80714589999999</v>
-      </c>
-      <c r="E154" s="12">
-        <v>37.607485799999999</v>
-      </c>
-    </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C155" s="12">
-        <v>-25482.79405</v>
-      </c>
-      <c r="D155" s="12">
-        <v>-181.6313845</v>
-      </c>
-      <c r="E155" s="12">
-        <v>-17.137400599999999</v>
-      </c>
-    </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C156" s="12">
-        <v>-25044.512480000001</v>
-      </c>
-      <c r="D156" s="12">
-        <v>-136.81083760000001</v>
-      </c>
-      <c r="E156" s="12">
-        <v>37.606806900000002</v>
-      </c>
-    </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C157" s="12">
-        <v>-23867.416069999999</v>
-      </c>
-      <c r="D157" s="12">
-        <v>-15.4651876</v>
-      </c>
-      <c r="E157" s="12">
-        <v>186.0582465</v>
-      </c>
-    </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C158" s="12">
-        <v>-20434.906770000001</v>
-      </c>
-      <c r="D158" s="12">
-        <v>-265.40564280000001</v>
-      </c>
-      <c r="E158" s="12">
-        <v>54.125155499999998</v>
-      </c>
-    </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C159" s="12">
-        <v>-20875.05718</v>
-      </c>
-      <c r="D159" s="12">
-        <v>-309.65326590000001</v>
-      </c>
-      <c r="E159" s="12">
-        <v>-0.72128270000000005</v>
-      </c>
-    </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C160" s="12">
-        <v>-20434.993770000001</v>
-      </c>
-      <c r="D160" s="12">
-        <v>-265.40558270000002</v>
-      </c>
-      <c r="E160" s="12">
-        <v>54.124155799999997</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C161" s="12">
-        <v>-19252.311969999999</v>
-      </c>
-      <c r="D161" s="12">
-        <v>-145.64706240000001</v>
-      </c>
-      <c r="E161" s="12">
-        <v>202.81458860000001</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C162" s="12">
-        <v>-33652.019699999997</v>
-      </c>
-      <c r="D162" s="12">
-        <v>140.98702370000001</v>
-      </c>
-      <c r="E162" s="12">
-        <v>103.2239747</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C163" s="12">
-        <v>-34880.247799999997</v>
-      </c>
-      <c r="D163" s="12">
-        <v>11.153868900000001</v>
-      </c>
-      <c r="E163" s="12">
-        <v>-51.8831311</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C164" s="12">
-        <v>-32087.691889999998</v>
-      </c>
-      <c r="D164" s="12">
-        <v>308.57604980000002</v>
-      </c>
-      <c r="E164" s="12">
-        <v>304.02274840000001</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C165" s="12">
-        <v>-33652.176469999999</v>
-      </c>
-      <c r="D165" s="12">
-        <v>140.97713669999999</v>
-      </c>
-      <c r="E165" s="12">
-        <v>103.21421719999999</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C166" s="12">
-        <v>-32525.317749999998</v>
-      </c>
-      <c r="D166" s="12">
-        <v>261.46540060000001</v>
-      </c>
-      <c r="E166" s="12">
-        <v>247.51365999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="12">
-        <v>-12074.42679</v>
-      </c>
-      <c r="D167" s="12">
-        <v>-154.50257010000001</v>
-      </c>
-      <c r="E167" s="12">
-        <v>294.62884070000001</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C168" s="12">
-        <v>-12410.672409999999</v>
-      </c>
-      <c r="D168" s="12">
-        <v>-188.41475800000001</v>
-      </c>
-      <c r="E168" s="12">
-        <v>252.0364146</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C169" s="12">
-        <v>-12074.54336</v>
-      </c>
-      <c r="D169" s="12">
-        <v>-154.50732619999999</v>
-      </c>
-      <c r="E169" s="12">
-        <v>294.61924299999998</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C170" s="12">
-        <v>-11595.36356</v>
-      </c>
-      <c r="D170" s="12">
-        <v>-105.2611799</v>
-      </c>
-      <c r="E170" s="12">
-        <v>358.0184501</v>
-      </c>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="12">
-        <v>-27488.846969999999</v>
-      </c>
-      <c r="D171" s="12">
-        <v>-540.38982580000004</v>
-      </c>
-      <c r="E171" s="12">
-        <v>-277.09048589999998</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C172" s="12">
-        <v>-27928.263210000001</v>
-      </c>
-      <c r="D172" s="12">
-        <v>-583.63194680000004</v>
-      </c>
-      <c r="E172" s="12">
-        <v>-330.41729329999998</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C173" s="12">
-        <v>-27488.953600000001</v>
-      </c>
-      <c r="D173" s="12">
-        <v>-540.39980820000005</v>
-      </c>
-      <c r="E173" s="12">
-        <v>-277.09377799999999</v>
-      </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C174" s="12">
-        <v>-26888.70535</v>
-      </c>
-      <c r="D174" s="12">
-        <v>-481.11303709999999</v>
-      </c>
-      <c r="E174" s="12">
-        <v>-203.88661759999999</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="12">
-        <v>-27523.110079999999</v>
-      </c>
-      <c r="D175" s="12">
-        <v>1187.9619891</v>
-      </c>
-      <c r="E175" s="12">
-        <v>-9.8802403999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C176" s="12">
-        <v>-28496.363939999999</v>
-      </c>
-      <c r="D176" s="12">
-        <v>1075.0247482</v>
-      </c>
-      <c r="E176" s="12">
-        <v>-130.84031959999999</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C177" s="12">
-        <v>-27523.157950000001</v>
-      </c>
-      <c r="D177" s="12">
-        <v>1187.9600567</v>
-      </c>
-      <c r="E177" s="12">
-        <v>-9.8825105999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="12">
-        <v>-25706.840179999999</v>
-      </c>
-      <c r="D178" s="12">
-        <v>1401.5110093000001</v>
-      </c>
-      <c r="E178" s="12">
-        <v>219.50242789999999</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C179" s="12">
-        <v>6875.1465900000003</v>
-      </c>
-      <c r="D179" s="12">
-        <v>824.92865410000002</v>
-      </c>
-      <c r="E179" s="12">
-        <v>1001.7862905</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="12">
-        <v>6792.4821899999997</v>
-      </c>
-      <c r="D180" s="12">
-        <v>813.43028079999999</v>
-      </c>
-      <c r="E180" s="12">
-        <v>982.75189039999998</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C181" s="12">
-        <v>7371.9732999999997</v>
-      </c>
-      <c r="D181" s="12">
-        <v>0</v>
-      </c>
-      <c r="E181" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C182" s="12">
-        <v>6875.3516600000003</v>
-      </c>
-      <c r="D182" s="12">
-        <v>824.92912650000005</v>
-      </c>
-      <c r="E182" s="12">
-        <v>1001.7870708</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C183" s="12">
-        <v>7247.6873500000002</v>
-      </c>
-      <c r="D183" s="12">
-        <v>865.57572149999999</v>
-      </c>
-      <c r="E183" s="12">
-        <v>1051.4047894</v>
-      </c>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C184" s="12">
-        <v>6422.4973399999999</v>
-      </c>
-      <c r="D184" s="12">
-        <v>800.32774470000004</v>
-      </c>
-      <c r="E184" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C185" s="12">
-        <v>6413.7808199999999</v>
-      </c>
-      <c r="D185" s="12">
-        <v>800.49946420000003</v>
-      </c>
-      <c r="E185" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C186" s="12">
-        <v>6353.1634800000002</v>
-      </c>
-      <c r="D186" s="12">
-        <v>856.39915759999997</v>
-      </c>
-      <c r="E186" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C187" s="12">
-        <v>5943.6610300000002</v>
-      </c>
-      <c r="D187" s="12">
-        <v>743.09254859999999</v>
-      </c>
-      <c r="E187" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C188" s="12">
-        <v>5943.6610300000002</v>
-      </c>
-      <c r="D188" s="12">
-        <v>743.09254859999999</v>
-      </c>
-      <c r="E188" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C189" s="12">
-        <v>5943.1921599999996</v>
-      </c>
-      <c r="D189" s="12">
-        <v>743.09651210000004</v>
-      </c>
-      <c r="E189" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C190" s="12">
-        <v>-10672.89523</v>
-      </c>
-      <c r="D190" s="12">
-        <v>274.08172059999998</v>
-      </c>
-      <c r="E190" s="12">
-        <v>96.386770200000001</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C191" s="12">
-        <v>-9412.4522699999998</v>
-      </c>
-      <c r="D191" s="12">
-        <v>407.01415889999998</v>
-      </c>
-      <c r="E191" s="12">
-        <v>253.5341396</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C192" s="12">
-        <v>0</v>
-      </c>
-      <c r="D192" s="12">
-        <v>0</v>
-      </c>
-      <c r="E192" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C193" s="12">
-        <v>-38602.735529999998</v>
-      </c>
-      <c r="D193" s="12">
-        <v>469.9742857</v>
-      </c>
-      <c r="E193" s="12">
-        <v>-534.83668079999995</v>
-      </c>
-    </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C194" s="12">
-        <v>-36532.045839999999</v>
-      </c>
-      <c r="D194" s="12">
-        <v>701.16861440000002</v>
-      </c>
-      <c r="E194" s="12">
-        <v>-283.41832099999999</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C195" s="12">
-        <v>-35692.540050000003</v>
-      </c>
-      <c r="D195" s="12">
-        <v>795.60975089999999</v>
-      </c>
-      <c r="E195" s="12">
-        <v>-180.2886475</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C196" s="12">
-        <v>-76008.285629999998</v>
-      </c>
-      <c r="D196" s="12">
-        <v>-56.1367172</v>
-      </c>
-      <c r="E196" s="12">
-        <v>9.9229246</v>
-      </c>
-    </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C197" s="12">
-        <v>-72892.950580000004</v>
-      </c>
-      <c r="D197" s="12">
-        <v>207.76448360000001</v>
-      </c>
-      <c r="E197" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C198" s="12">
-        <v>-75353.135110000003</v>
-      </c>
-      <c r="D198" s="12">
-        <v>15.2698082</v>
-      </c>
-      <c r="E198" s="12">
-        <v>98.750388700000002</v>
-      </c>
-    </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C199" s="12">
-        <v>-73315.861250000002</v>
-      </c>
-      <c r="D199" s="12">
-        <v>235.39598229999999</v>
-      </c>
-      <c r="E199" s="12">
-        <v>364.52132560000001</v>
-      </c>
-    </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C200" s="12">
-        <v>-74794.805240000002</v>
-      </c>
-      <c r="D200" s="12">
-        <v>124.31425779999999</v>
-      </c>
-      <c r="E200" s="12">
-        <v>268.52986129999999</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C201" s="12">
-        <v>-72895.217600000004</v>
-      </c>
-      <c r="D201" s="12">
-        <v>337.17826250000002</v>
-      </c>
-      <c r="E201" s="12">
-        <v>528.30557950000002</v>
-      </c>
-    </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C202" s="12">
-        <v>0</v>
-      </c>
-      <c r="D202" s="12">
-        <v>0</v>
-      </c>
-      <c r="E202" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C203" s="12">
-        <v>-32648.267329999999</v>
-      </c>
-      <c r="D203" s="12">
-        <v>480.60767650000003</v>
-      </c>
-      <c r="E203" s="12">
-        <v>162.02309320000001</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C204" s="12">
-        <v>-31120.06452</v>
-      </c>
-      <c r="D204" s="12">
-        <v>653.33102710000003</v>
-      </c>
-      <c r="E204" s="12">
-        <v>364.07357029999997</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C205" s="12">
-        <v>-20783.183219999999</v>
-      </c>
-      <c r="D205" s="12">
-        <v>513.20537360000003</v>
-      </c>
-      <c r="E205" s="12">
-        <v>426.3832026</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C206" s="12">
-        <v>-19536.996309999999</v>
-      </c>
-      <c r="D206" s="12">
-        <v>651.03590899999995</v>
-      </c>
-      <c r="E206" s="12">
-        <v>590.27119719999996</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C207" s="12">
-        <v>-22742.124179999999</v>
-      </c>
-      <c r="D207" s="12">
-        <v>-640.27124990000004</v>
-      </c>
-      <c r="E207" s="12">
-        <v>-68.888709700000007</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C208" s="12">
-        <v>-21215.712060000002</v>
-      </c>
-      <c r="D208" s="12">
-        <v>-507.93747560000003</v>
-      </c>
-      <c r="E208" s="12">
-        <v>97.626456899999994</v>
-      </c>
-    </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C209" s="12">
-        <v>-20740.404299999998</v>
-      </c>
-      <c r="D209" s="12">
-        <v>-444.16981900000002</v>
-      </c>
-      <c r="E209" s="12">
-        <v>181.45786409999999</v>
-      </c>
-    </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C210" s="12">
-        <v>-13115.858029999999</v>
-      </c>
-      <c r="D210" s="12">
-        <v>-125.7763321</v>
-      </c>
-      <c r="E210" s="12">
-        <v>369.18739160000001</v>
-      </c>
-    </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C211" s="12">
-        <v>-12153.712649999999</v>
-      </c>
-      <c r="D211" s="12">
-        <v>-45.799784199999998</v>
-      </c>
-      <c r="E211" s="12">
-        <v>467.73471269999999</v>
-      </c>
-    </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C212" s="12">
-        <v>-11674.60158</v>
-      </c>
-      <c r="D212" s="12">
-        <v>21.328716799999999</v>
-      </c>
-      <c r="E212" s="12">
-        <v>554.94026980000001</v>
-      </c>
-    </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C213" s="12">
-        <v>-50475.486470000003</v>
-      </c>
-      <c r="D213" s="12">
-        <v>322.12539129999999</v>
-      </c>
-      <c r="E213" s="12">
-        <v>-1031.37706</v>
-      </c>
-    </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C214" s="12">
-        <v>-48003.157720000003</v>
-      </c>
-      <c r="D214" s="12">
-        <v>543.71829349999996</v>
-      </c>
-      <c r="E214" s="12">
-        <v>-803.96366499999999</v>
-      </c>
-    </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C215" s="12">
-        <v>-47607.105779999998</v>
-      </c>
-      <c r="D215" s="12">
-        <v>642.5072361</v>
-      </c>
-      <c r="E215" s="12">
-        <v>-696.11098870000001</v>
-      </c>
-    </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C216" s="12">
-        <v>-24220.115730000001</v>
-      </c>
-      <c r="D216" s="12">
-        <v>1345.3629221000001</v>
-      </c>
-      <c r="E216" s="12">
-        <v>2969.6910496</v>
-      </c>
-    </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C217" s="12">
-        <v>-43203.943729999999</v>
-      </c>
-      <c r="D217" s="12">
-        <v>-330.87465939999998</v>
-      </c>
-      <c r="E217" s="12">
-        <v>208.4113893</v>
-      </c>
-    </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C218" s="12">
-        <v>-40289.447749999999</v>
-      </c>
-      <c r="D218" s="12">
-        <v>-28.7657445</v>
-      </c>
-      <c r="E218" s="12">
-        <v>593.96362079999994</v>
-      </c>
-    </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C219" s="12">
-        <v>-39554.936820000003</v>
-      </c>
-      <c r="D219" s="12">
-        <v>49.380519399999997</v>
-      </c>
-      <c r="E219" s="12">
-        <v>692.31378810000001</v>
-      </c>
-    </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C220" s="12">
-        <v>7047.9399899999999</v>
-      </c>
-      <c r="D220" s="12">
-        <v>850.23648920000005</v>
-      </c>
-      <c r="E220" s="12">
-        <v>1033.9623271999999</v>
-      </c>
-    </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C221" s="12">
-        <v>7276.27837</v>
-      </c>
-      <c r="D221" s="12">
-        <v>866.0057339</v>
-      </c>
-      <c r="E221" s="12">
-        <v>1053.8675469</v>
-      </c>
-    </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C222" s="12">
-        <v>7632.8586599999999</v>
-      </c>
-      <c r="D222" s="12">
-        <v>930.04038630000002</v>
-      </c>
-      <c r="E222" s="12">
-        <v>1137.6859621000001</v>
-      </c>
-    </row>
-    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C223" s="12">
-        <v>-24095.835050000002</v>
-      </c>
-      <c r="D223" s="12">
-        <v>1007.8323165</v>
-      </c>
-      <c r="E223" s="12">
-        <v>-152.5020614</v>
-      </c>
-    </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C224" s="12">
-        <v>-21134.794409999999</v>
-      </c>
-      <c r="D224" s="12">
-        <v>1352.1393012999999</v>
-      </c>
-      <c r="E224" s="12">
-        <v>219.0576992</v>
-      </c>
-    </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C225" s="12">
-        <v>-20373.903539999999</v>
-      </c>
-      <c r="D225" s="12">
-        <v>1440.7347139999999</v>
-      </c>
-      <c r="E225" s="12">
-        <v>314.29295969999998</v>
-      </c>
-    </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C226" s="12">
-        <v>-7495.6325200000001</v>
-      </c>
-      <c r="D226" s="12">
-        <v>357.8087233</v>
-      </c>
-      <c r="E226" s="12">
-        <v>47.771190900000001</v>
-      </c>
-    </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C227" s="12">
-        <v>-4521.9036900000001</v>
-      </c>
-      <c r="D227" s="12">
-        <v>0</v>
-      </c>
-      <c r="E227" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C228" s="12">
-        <v>-5375.5325800000001</v>
-      </c>
-      <c r="D228" s="12">
-        <v>584.30437570000004</v>
-      </c>
-      <c r="E228" s="12">
-        <v>312.12008329999998</v>
-      </c>
-    </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C229" s="12">
-        <v>-28582.588540000001</v>
-      </c>
-      <c r="D229" s="12">
-        <v>399.67388</v>
-      </c>
-      <c r="E229" s="12">
-        <v>176.23379059999999</v>
-      </c>
-    </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C230" s="12">
-        <v>-26852.273840000002</v>
-      </c>
-      <c r="D230" s="12">
-        <v>585.54196579999996</v>
-      </c>
-      <c r="E230" s="12">
-        <v>393.66856749999999</v>
-      </c>
-    </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C231" s="12">
-        <v>-26108.549169999998</v>
-      </c>
-      <c r="D231" s="12">
-        <v>0</v>
-      </c>
-      <c r="E231" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C232" s="12">
-        <v>-27613.366529999999</v>
-      </c>
-      <c r="D232" s="12">
-        <v>-134.8963037</v>
-      </c>
-      <c r="E232" s="12">
-        <v>75.727556199999995</v>
-      </c>
-    </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C233" s="12">
-        <v>-26072.5563</v>
-      </c>
-      <c r="D233" s="12">
-        <v>-10.172286100000001</v>
-      </c>
-      <c r="E233" s="12">
-        <v>189.9112552</v>
-      </c>
-    </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C234" s="12">
-        <v>-25126.9058</v>
-      </c>
-      <c r="D234" s="12">
-        <v>167.9196029</v>
-      </c>
-      <c r="E234" s="12">
-        <v>438.67397560000001</v>
-      </c>
-    </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C235" s="12">
-        <v>-34779.305679999998</v>
-      </c>
-      <c r="D235" s="12">
-        <v>-825.49738260000004</v>
-      </c>
-      <c r="E235" s="12">
-        <v>-90.014289300000002</v>
-      </c>
-    </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C236" s="12">
-        <v>0</v>
-      </c>
-      <c r="D236" s="12">
-        <v>-84.619804099999996</v>
-      </c>
-      <c r="E236" s="12">
-        <v>626.58253749999994</v>
-      </c>
-    </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C237" s="12">
-        <v>0</v>
-      </c>
-      <c r="D237" s="12">
-        <v>0</v>
-      </c>
-      <c r="E237" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C238" s="12">
-        <v>-12164.888349999999</v>
-      </c>
-      <c r="D238" s="12">
-        <v>68.188035999999997</v>
-      </c>
-      <c r="E238" s="12">
-        <v>406.63017059999999</v>
-      </c>
-    </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C239" s="12">
-        <v>-11292.579970000001</v>
-      </c>
-      <c r="D239" s="12">
-        <v>147.7149805</v>
-      </c>
-      <c r="E239" s="12">
-        <v>449.25213960000002</v>
-      </c>
-    </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C240" s="12">
-        <v>-10819.39543</v>
-      </c>
-      <c r="D240" s="12">
-        <v>208.0205698</v>
-      </c>
-      <c r="E240" s="12">
-        <v>580.40525960000002</v>
-      </c>
-    </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C241" s="12">
-        <v>-4820.8022000000001</v>
-      </c>
-      <c r="D241" s="12">
-        <v>203.3109417</v>
-      </c>
-      <c r="E241" s="12">
-        <v>473.8998426</v>
-      </c>
-    </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C242" s="12">
-        <v>-3948.2206200000001</v>
-      </c>
-      <c r="D242" s="12">
-        <v>275.7583636</v>
-      </c>
-      <c r="E242" s="12">
-        <v>560.86904100000004</v>
-      </c>
-    </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C243" s="12">
-        <v>-3464.9382099999998</v>
-      </c>
-      <c r="D243" s="12">
-        <v>345.05907580000002</v>
-      </c>
-      <c r="E243" s="12">
-        <v>648.84803569999997</v>
-      </c>
-    </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C244" s="12">
-        <v>3736.9393100000002</v>
-      </c>
-      <c r="D244" s="12">
-        <v>713.61699480000004</v>
-      </c>
-      <c r="E244" s="12">
-        <v>898.83954270000004</v>
-      </c>
-    </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C245" s="12">
-        <v>4037.24721</v>
-      </c>
-      <c r="D245" s="12">
-        <v>756.58426359999999</v>
-      </c>
-      <c r="E245" s="12">
-        <v>787.86754299999996</v>
-      </c>
-    </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C246" s="12">
-        <v>4524.2174699999996</v>
-      </c>
-      <c r="D246" s="12">
-        <v>799.07480109999995</v>
-      </c>
-      <c r="E246" s="12">
-        <v>1003.3028579</v>
-      </c>
-    </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C247" s="12">
-        <v>-74147.835990000007</v>
-      </c>
-      <c r="D247" s="12">
-        <v>244.9901898</v>
-      </c>
-      <c r="E247" s="12">
-        <v>-951.78582389999997</v>
-      </c>
-    </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C248" s="12">
-        <v>-70920.550350000005</v>
-      </c>
-      <c r="D248" s="12">
-        <v>618.41896929999996</v>
-      </c>
-      <c r="E248" s="12">
-        <v>-556.29528240000002</v>
-      </c>
-    </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C249" s="12">
-        <v>-71797.145399999994</v>
-      </c>
-      <c r="D249" s="12">
-        <v>511.64431789999998</v>
-      </c>
-      <c r="E249" s="12">
-        <v>-668.30560939999998</v>
-      </c>
-    </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C250" s="12">
-        <v>7463.6453600000004</v>
-      </c>
-      <c r="D250" s="12">
-        <v>761.45597220000002</v>
-      </c>
-      <c r="E250" s="12">
-        <v>1028.2812730000001</v>
-      </c>
-    </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C251" s="12">
-        <v>7712.1008599999996</v>
-      </c>
-      <c r="D251" s="12">
-        <v>788.35790329999998</v>
-      </c>
-      <c r="E251" s="12">
-        <v>1061.3836775</v>
-      </c>
-    </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C252" s="12">
-        <v>8117.7398499999999</v>
-      </c>
-      <c r="D252" s="12">
-        <v>838.16926839999996</v>
-      </c>
-      <c r="E252" s="12">
-        <v>1151.3448748000001</v>
-      </c>
-    </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C253" s="12">
-        <v>-49322.016909999998</v>
-      </c>
-      <c r="D253" s="12">
-        <v>506.5175122</v>
-      </c>
-      <c r="E253" s="12">
-        <v>-167.64242780000001</v>
-      </c>
-    </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C254" s="12">
-        <v>-46416.235119999998</v>
-      </c>
-      <c r="D254" s="12">
-        <v>886.68978849999996</v>
-      </c>
-      <c r="E254" s="12">
-        <v>253.56645599999999</v>
-      </c>
-    </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C255" s="12">
-        <v>-46464.726979999999</v>
-      </c>
-      <c r="D255" s="12">
-        <v>830.92877499999997</v>
-      </c>
-      <c r="E255" s="12">
-        <v>197.99148439999999</v>
-      </c>
-    </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C256" s="12">
-        <v>-10008.984340000001</v>
-      </c>
-      <c r="D256" s="12">
-        <v>0</v>
-      </c>
-      <c r="E256" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C257" s="12">
-        <v>-9135.33806</v>
-      </c>
-      <c r="D257" s="12">
-        <v>0</v>
-      </c>
-      <c r="E257" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C258" s="12">
-        <v>-9406.9515300000003</v>
-      </c>
-      <c r="D258" s="12">
-        <v>0</v>
-      </c>
-      <c r="E258" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C259" s="12">
-        <v>8940.3392199999998</v>
-      </c>
-      <c r="D259" s="12">
-        <v>1000.4136548</v>
-      </c>
-      <c r="E259" s="12">
-        <v>124.853469</v>
-      </c>
-    </row>
-    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C260" s="12">
-        <v>12763.921179999999</v>
-      </c>
-      <c r="D260" s="12">
-        <v>1186.2184185999999</v>
-      </c>
-      <c r="E260" s="12">
-        <v>296.24956709999998</v>
-      </c>
-    </row>
-    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C261" s="12">
-        <v>9129.8126100000009</v>
-      </c>
-      <c r="D261" s="12">
-        <v>1016.4587798</v>
-      </c>
-      <c r="E261" s="12">
-        <v>143.0537592</v>
-      </c>
-    </row>
-    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C262" s="12">
-        <v>-43307.217810000002</v>
-      </c>
-      <c r="D262" s="12">
-        <v>267.95560979999999</v>
-      </c>
-      <c r="E262" s="12">
-        <v>400.15723880000002</v>
-      </c>
-    </row>
-    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C263" s="12">
-        <v>-40493.170830000003</v>
-      </c>
-      <c r="D263" s="12">
-        <v>576.05980890000001</v>
-      </c>
-      <c r="E263" s="12">
-        <v>775.7724422</v>
-      </c>
-    </row>
-    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C264" s="12">
-        <v>-39658.561780000004</v>
-      </c>
-      <c r="D264" s="12">
-        <v>671.76148809999995</v>
-      </c>
-      <c r="E264" s="12">
-        <v>893.14999490000002</v>
-      </c>
-    </row>
-    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C265" s="12">
-        <v>7578.7062800000003</v>
-      </c>
-      <c r="D265" s="12">
-        <v>842.7172577</v>
-      </c>
-      <c r="E265" s="12">
-        <v>1040.5820736000001</v>
-      </c>
-    </row>
-    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C266" s="12">
-        <v>7917.2215399999995</v>
-      </c>
-      <c r="D266" s="12">
-        <v>866.84121570000002</v>
-      </c>
-      <c r="E266" s="12">
-        <v>1070.4540701000001</v>
-      </c>
-    </row>
-    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C267" s="12">
-        <v>8274.0692299999992</v>
-      </c>
-      <c r="D267" s="12">
-        <v>925.72628159999999</v>
-      </c>
-      <c r="E267" s="12">
-        <v>1144.6594049</v>
-      </c>
-    </row>
-    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C268" s="12">
-        <v>-12014.65999</v>
-      </c>
-      <c r="D268" s="12">
-        <v>-84.405419300000005</v>
-      </c>
-      <c r="E268" s="12">
-        <v>370.95559209999999</v>
-      </c>
-    </row>
-    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C269" s="12">
-        <v>-11641.846449999999</v>
-      </c>
-      <c r="D269" s="12">
-        <v>-63.375051599999999</v>
-      </c>
-      <c r="E269" s="12">
-        <v>402.0188728</v>
-      </c>
-    </row>
-    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C270" s="12">
-        <v>0</v>
-      </c>
-      <c r="D270" s="12">
-        <v>0</v>
-      </c>
-      <c r="E270" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C271" s="12">
-        <v>-33371.050020000002</v>
-      </c>
-      <c r="D271" s="12">
-        <v>375.67188329999999</v>
-      </c>
-      <c r="E271" s="12">
-        <v>-368.3950317</v>
-      </c>
-    </row>
-    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C272" s="12">
-        <v>-30880.310870000001</v>
-      </c>
-      <c r="D272" s="12">
-        <v>638.43817390000004</v>
-      </c>
-      <c r="E272" s="12">
-        <v>-75.615407399999995</v>
-      </c>
-    </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C273" s="12">
-        <v>-29985.198530000001</v>
-      </c>
-      <c r="D273" s="12">
-        <v>0</v>
-      </c>
-      <c r="E273" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C274" s="12">
-        <v>-6.784713626521699E-2</v>
-      </c>
-      <c r="D274" s="12">
-        <v>4.7962294229001445E-2</v>
-      </c>
-      <c r="E274" s="12">
-        <v>0.11709065447466993</v>
-      </c>
-    </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C275" s="12">
-        <v>-6.765864012568934E-2</v>
-      </c>
-      <c r="D275" s="12">
-        <v>4.9632976943707163E-2</v>
-      </c>
-      <c r="E275" s="12">
-        <v>0.11931738453727503</v>
-      </c>
-    </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C276" s="12">
-        <v>-6.7847082088591359E-2</v>
-      </c>
-      <c r="D276" s="12">
-        <v>4.7962294229001445E-2</v>
-      </c>
-      <c r="E276" s="12">
-        <v>0.11709065447466993</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>